--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="410">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -853,13 +853,25 @@
     <t>['45+2', '59']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['15', '21']</t>
   </si>
   <si>
-    <t>['57']</t>
+    <t>['10', '21', '30', '50', '78', '87']</t>
   </si>
   <si>
-    <t>['10', '21', '30', '50', '78', '87']</t>
+    <t>['28', '32']</t>
+  </si>
+  <si>
+    <t>['29', '81']</t>
+  </si>
+  <si>
+    <t>['6', '34', '90+9']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
   <si>
     <t>['7', '81', '89']</t>
@@ -947,9 +959,6 @@
   </si>
   <si>
     <t>['20', '28', '59']</t>
-  </si>
-  <si>
-    <t>['46']</t>
   </si>
   <si>
     <t>['4', '17']</t>
@@ -1229,6 +1238,12 @@
   </si>
   <si>
     <t>['42', '47', '90']</t>
+  </si>
+  <si>
+    <t>['10', '70', '90']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1927,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
         <v>0.36</v>
@@ -2055,7 +2070,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2133,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2754,7 +2769,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ6">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2879,7 +2894,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3085,7 +3100,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3166,7 +3181,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ8">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3291,7 +3306,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3497,7 +3512,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3703,7 +3718,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3909,7 +3924,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3990,7 +4005,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4115,7 +4130,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4193,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ13">
         <v>2.27</v>
@@ -4321,7 +4336,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4399,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4527,7 +4542,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4733,7 +4748,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4939,7 +4954,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5145,7 +5160,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5226,7 +5241,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5429,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
         <v>1.31</v>
@@ -5969,7 +5984,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6050,7 +6065,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ22">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR22">
         <v>1.83</v>
@@ -6175,7 +6190,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6253,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -6381,7 +6396,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6587,7 +6602,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6999,7 +7014,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7489,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7617,7 +7632,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7695,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30">
         <v>2.53</v>
@@ -7823,7 +7838,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8110,7 +8125,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -8316,7 +8331,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -8441,7 +8456,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8519,7 +8534,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -8647,7 +8662,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8853,7 +8868,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8934,7 +8949,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ36">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
         <v>1.86</v>
@@ -9059,7 +9074,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9343,7 +9358,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9471,7 +9486,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9549,7 +9564,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>2.27</v>
@@ -9677,7 +9692,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10089,7 +10104,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10170,7 +10185,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ42">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10295,7 +10310,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10501,7 +10516,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10579,7 +10594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ44">
         <v>0.64</v>
@@ -10913,7 +10928,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11197,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR47">
         <v>0.7</v>
@@ -11406,7 +11421,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ48">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11531,7 +11546,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11815,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
         <v>0.67</v>
@@ -11943,7 +11958,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12149,7 +12164,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12227,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12355,7 +12370,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12639,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12848,7 +12863,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR55">
         <v>1.55</v>
@@ -12973,7 +12988,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13179,7 +13194,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13591,7 +13606,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13669,7 +13684,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ59">
         <v>1.31</v>
@@ -13797,7 +13812,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14003,7 +14018,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14084,7 +14099,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ61">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR61">
         <v>1.54</v>
@@ -14209,7 +14224,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14415,7 +14430,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14621,7 +14636,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14702,7 +14717,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ64">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>1.79</v>
@@ -14827,7 +14842,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15111,10 +15126,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR66">
         <v>1.46</v>
@@ -15239,7 +15254,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15317,10 +15332,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR67">
         <v>1.89</v>
@@ -15523,10 +15538,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR68">
         <v>0.8</v>
@@ -15857,7 +15872,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16063,7 +16078,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16141,7 +16156,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ71">
         <v>1.67</v>
@@ -16347,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16556,7 +16571,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ73">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.52</v>
@@ -16681,7 +16696,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17299,7 +17314,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17505,7 +17520,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17792,7 +17807,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ79">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17917,7 +17932,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18123,7 +18138,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18329,7 +18344,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18535,7 +18550,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18613,10 +18628,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ83">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR83">
         <v>1.37</v>
@@ -18819,7 +18834,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18947,7 +18962,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19025,7 +19040,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -19153,7 +19168,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19231,10 +19246,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ86">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19359,7 +19374,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19440,7 +19455,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ87">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.44</v>
@@ -19565,7 +19580,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19852,7 +19867,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -20261,10 +20276,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ91">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -20389,7 +20404,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21007,7 +21022,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21213,7 +21228,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21831,7 +21846,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22243,7 +22258,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22321,7 +22336,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22449,7 +22464,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22530,7 +22545,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR102">
         <v>1.28</v>
@@ -22655,7 +22670,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22733,7 +22748,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ103">
         <v>0.64</v>
@@ -22942,7 +22957,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ104">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23145,7 +23160,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ105">
         <v>1.33</v>
@@ -23351,10 +23366,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ106">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.79</v>
@@ -23479,7 +23494,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23557,7 +23572,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ107">
         <v>1.67</v>
@@ -23766,7 +23781,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ108">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR108">
         <v>1.89</v>
@@ -23972,7 +23987,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ109">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -24097,7 +24112,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24303,7 +24318,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -25127,7 +25142,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25333,7 +25348,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25539,7 +25554,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25951,7 +25966,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -26032,7 +26047,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR119">
         <v>1.31</v>
@@ -26238,7 +26253,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.52</v>
@@ -26363,7 +26378,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26441,10 +26456,10 @@
         <v>0.86</v>
       </c>
       <c r="AP121">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ121">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26569,7 +26584,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26856,7 +26871,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR123">
         <v>1.28</v>
@@ -27187,7 +27202,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27265,7 +27280,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ125">
         <v>1.33</v>
@@ -27471,10 +27486,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ126">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR126">
         <v>1.08</v>
@@ -27805,7 +27820,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28217,7 +28232,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28295,7 +28310,7 @@
         <v>0.33</v>
       </c>
       <c r="AP130">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ130">
         <v>0.33</v>
@@ -29041,7 +29056,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29737,7 +29752,7 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ137">
         <v>1.33</v>
@@ -29946,7 +29961,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ138">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -30152,7 +30167,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ139">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -30561,7 +30576,7 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ141">
         <v>0.53</v>
@@ -31101,7 +31116,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31179,10 +31194,10 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ144">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR144">
         <v>1.34</v>
@@ -31307,7 +31322,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31385,10 +31400,10 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ145">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR145">
         <v>2.07</v>
@@ -31513,7 +31528,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31925,7 +31940,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32415,7 +32430,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32543,7 +32558,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -32830,7 +32845,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.63</v>
@@ -32955,7 +32970,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33161,7 +33176,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33239,7 +33254,7 @@
         <v>0.29</v>
       </c>
       <c r="AP154">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
         <v>0.33</v>
@@ -33448,7 +33463,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ155">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR155">
         <v>1.43</v>
@@ -33573,7 +33588,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33654,7 +33669,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ156">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR156">
         <v>1.36</v>
@@ -33857,7 +33872,7 @@
         <v>0.88</v>
       </c>
       <c r="AP157">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ157">
         <v>1.21</v>
@@ -33985,7 +34000,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34269,7 +34284,7 @@
         <v>0.75</v>
       </c>
       <c r="AP159">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ159">
         <v>0.53</v>
@@ -34397,7 +34412,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34478,7 +34493,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ160">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34603,7 +34618,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34681,7 +34696,7 @@
         <v>0.5</v>
       </c>
       <c r="AP161">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ161">
         <v>0.64</v>
@@ -35427,7 +35442,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -35505,7 +35520,7 @@
         <v>1.13</v>
       </c>
       <c r="AP165">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35714,7 +35729,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR166">
         <v>1.54</v>
@@ -36457,7 +36472,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36741,7 +36756,7 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ171">
         <v>1.31</v>
@@ -36869,7 +36884,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -37153,7 +37168,7 @@
         <v>3</v>
       </c>
       <c r="AP173">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ173">
         <v>2.53</v>
@@ -37568,7 +37583,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
         <v>1.46</v>
@@ -37977,7 +37992,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP177">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ177">
         <v>0.67</v>
@@ -38105,7 +38120,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38517,7 +38532,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38595,7 +38610,7 @@
         <v>2.1</v>
       </c>
       <c r="AP180">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ180">
         <v>2.27</v>
@@ -38804,7 +38819,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ181">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR181">
         <v>1.64</v>
@@ -38929,7 +38944,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39135,7 +39150,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39341,7 +39356,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39625,10 +39640,10 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ185">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR185">
         <v>2.01</v>
@@ -39753,7 +39768,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40246,7 +40261,7 @@
         <v>2</v>
       </c>
       <c r="AQ188">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR188">
         <v>1.45</v>
@@ -40371,7 +40386,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40577,7 +40592,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40655,7 +40670,7 @@
         <v>0.25</v>
       </c>
       <c r="AP190">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ190">
         <v>0.36</v>
@@ -40783,7 +40798,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -40864,7 +40879,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR191">
         <v>1.38</v>
@@ -41070,7 +41085,7 @@
         <v>2</v>
       </c>
       <c r="AQ192">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -41195,7 +41210,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41273,7 +41288,7 @@
         <v>0.5</v>
       </c>
       <c r="AP193">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ193">
         <v>0.67</v>
@@ -41482,7 +41497,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ194">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41813,7 +41828,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -41891,7 +41906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP196">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ196">
         <v>1.31</v>
@@ -42019,7 +42034,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42097,7 +42112,7 @@
         <v>0.7</v>
       </c>
       <c r="AP197">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ197">
         <v>0.67</v>
@@ -42225,7 +42240,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42431,7 +42446,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42843,7 +42858,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42924,7 +42939,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ201">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR201">
         <v>1.5</v>
@@ -43049,7 +43064,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43130,7 +43145,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ202">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR202">
         <v>1.3</v>
@@ -43255,7 +43270,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43333,7 +43348,7 @@
         <v>1.09</v>
       </c>
       <c r="AP203">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ203">
         <v>1</v>
@@ -43461,7 +43476,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -43745,7 +43760,7 @@
         <v>0.5</v>
       </c>
       <c r="AP205">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ205">
         <v>0.33</v>
@@ -44569,7 +44584,7 @@
         <v>0.73</v>
       </c>
       <c r="AP209">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ209">
         <v>0.67</v>
@@ -44778,7 +44793,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ210">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -44903,7 +44918,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -44984,7 +44999,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR211">
         <v>1.53</v>
@@ -45190,7 +45205,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ212">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR212">
         <v>1.58</v>
@@ -45393,7 +45408,7 @@
         <v>0.91</v>
       </c>
       <c r="AP213">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ213">
         <v>0.67</v>
@@ -45521,7 +45536,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45727,7 +45742,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -45933,7 +45948,7 @@
         <v>240</v>
       </c>
       <c r="P216" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q216">
         <v>1.57</v>
@@ -46139,7 +46154,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46551,7 +46566,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46632,7 +46647,7 @@
         <v>2</v>
       </c>
       <c r="AQ219">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR219">
         <v>1.52</v>
@@ -46757,7 +46772,7 @@
         <v>215</v>
       </c>
       <c r="P220" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -46838,7 +46853,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ220">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR220">
         <v>1.28</v>
@@ -47169,7 +47184,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47581,7 +47596,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47787,7 +47802,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48071,7 +48086,7 @@
         <v>2.25</v>
       </c>
       <c r="AP226">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ226">
         <v>2.27</v>
@@ -48277,10 +48292,10 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ227">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
         <v>1.21</v>
@@ -48611,7 +48626,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48817,7 +48832,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -48895,7 +48910,7 @@
         <v>2.82</v>
       </c>
       <c r="AP230">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ230">
         <v>2.53</v>
@@ -49310,7 +49325,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ232">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR232">
         <v>1.38</v>
@@ -49435,7 +49450,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49722,7 +49737,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ234">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR234">
         <v>1.51</v>
@@ -49847,7 +49862,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -49925,7 +49940,7 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ235">
         <v>1.67</v>
@@ -50465,7 +50480,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50671,7 +50686,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51083,7 +51098,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51289,7 +51304,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51370,7 +51385,7 @@
         <v>2</v>
       </c>
       <c r="AQ242">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR242">
         <v>1.48</v>
@@ -51495,7 +51510,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51701,7 +51716,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -51985,7 +52000,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP245">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ245">
         <v>0.67</v>
@@ -52397,7 +52412,7 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ247">
         <v>0.67</v>
@@ -52525,7 +52540,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52606,7 +52621,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ248">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR248">
         <v>1.48</v>
@@ -52812,7 +52827,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ249">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR249">
         <v>1.36</v>
@@ -52937,7 +52952,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53018,7 +53033,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250">
         <v>1.52</v>
@@ -53143,7 +53158,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53221,10 +53236,10 @@
         <v>0.58</v>
       </c>
       <c r="AP251">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ251">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR251">
         <v>1.24</v>
@@ -53349,7 +53364,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53427,7 +53442,7 @@
         <v>1.23</v>
       </c>
       <c r="AP252">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ252">
         <v>1.33</v>
@@ -54173,7 +54188,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54997,7 +55012,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55409,7 +55424,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55615,7 +55630,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55693,7 +55708,7 @@
         <v>0.85</v>
       </c>
       <c r="AP263">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AQ263">
         <v>1</v>
@@ -55821,7 +55836,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -55902,7 +55917,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ264">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR264">
         <v>1.49</v>
@@ -56108,7 +56123,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ265">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR265">
         <v>1.49</v>
@@ -56439,7 +56454,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56520,7 +56535,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ267">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR267">
         <v>1.44</v>
@@ -56723,7 +56738,7 @@
         <v>1.21</v>
       </c>
       <c r="AP268">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ268">
         <v>1.33</v>
@@ -56851,7 +56866,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -56932,7 +56947,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ269">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR269">
         <v>2.11</v>
@@ -57135,7 +57150,7 @@
         <v>0.62</v>
       </c>
       <c r="AP270">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ270">
         <v>0.64</v>
@@ -57263,7 +57278,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57341,10 +57356,10 @@
         <v>1.38</v>
       </c>
       <c r="AP271">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ271">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR271">
         <v>1.67</v>
@@ -57469,7 +57484,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57839,7 +57854,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>7516561</v>
+        <v>7516568</v>
       </c>
       <c r="C274" t="s">
         <v>68</v>
@@ -57854,10 +57869,10 @@
         <v>31</v>
       </c>
       <c r="G274" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H274" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -57872,172 +57887,172 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O274" t="s">
         <v>91</v>
       </c>
       <c r="P274" t="s">
-        <v>403</v>
+        <v>91</v>
       </c>
       <c r="Q274">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R274">
+        <v>2</v>
+      </c>
+      <c r="S274">
+        <v>4</v>
+      </c>
+      <c r="T274">
+        <v>1.5</v>
+      </c>
+      <c r="U274">
+        <v>2.5</v>
+      </c>
+      <c r="V274">
+        <v>3.4</v>
+      </c>
+      <c r="W274">
+        <v>1.3</v>
+      </c>
+      <c r="X274">
+        <v>10</v>
+      </c>
+      <c r="Y274">
+        <v>1.06</v>
+      </c>
+      <c r="Z274">
         <v>2.2</v>
       </c>
-      <c r="S274">
-        <v>4.2</v>
-      </c>
-      <c r="T274">
-        <v>1.34</v>
-      </c>
-      <c r="U274">
-        <v>2.95</v>
-      </c>
-      <c r="V274">
-        <v>2.55</v>
-      </c>
-      <c r="W274">
-        <v>1.44</v>
-      </c>
-      <c r="X274">
-        <v>6.25</v>
-      </c>
-      <c r="Y274">
-        <v>1.1</v>
-      </c>
-      <c r="Z274">
-        <v>1.82</v>
-      </c>
       <c r="AA274">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AB274">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC274">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD274">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE274">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AF274">
-        <v>3.75</v>
+        <v>2.78</v>
       </c>
       <c r="AG274">
+        <v>2.2</v>
+      </c>
+      <c r="AH274">
+        <v>1.6</v>
+      </c>
+      <c r="AI274">
+        <v>1.91</v>
+      </c>
+      <c r="AJ274">
         <v>1.8</v>
       </c>
-      <c r="AH274">
-        <v>2</v>
-      </c>
-      <c r="AI274">
-        <v>1.71</v>
-      </c>
-      <c r="AJ274">
-        <v>1.98</v>
-      </c>
       <c r="AK274">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AL274">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AM274">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AN274">
-        <v>2.07</v>
+        <v>1.29</v>
       </c>
       <c r="AO274">
-        <v>1.08</v>
+        <v>0.64</v>
       </c>
       <c r="AP274">
-        <v>1.93</v>
+        <v>1.27</v>
       </c>
       <c r="AQ274">
-        <v>1.21</v>
+        <v>0.67</v>
       </c>
       <c r="AR274">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="AS274">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="AT274">
-        <v>2.99</v>
+        <v>2.41</v>
       </c>
       <c r="AU274">
+        <v>3</v>
+      </c>
+      <c r="AV274">
+        <v>3</v>
+      </c>
+      <c r="AW274">
+        <v>3</v>
+      </c>
+      <c r="AX274">
         <v>4</v>
       </c>
-      <c r="AV274">
-        <v>5</v>
-      </c>
-      <c r="AW274">
+      <c r="AY274">
+        <v>10</v>
+      </c>
+      <c r="AZ274">
         <v>7</v>
-      </c>
-      <c r="AX274">
-        <v>5</v>
-      </c>
-      <c r="AY274">
-        <v>11</v>
-      </c>
-      <c r="AZ274">
-        <v>11</v>
       </c>
       <c r="BA274">
         <v>3</v>
       </c>
       <c r="BB274">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC274">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD274">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="BE274">
         <v>6.75</v>
       </c>
       <c r="BF274">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BG274">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="BH274">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BI274">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="BJ274">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="BK274">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="BL274">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="BM274">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BN274">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="BO274">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BP274">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="275" spans="1:68">
@@ -58045,7 +58060,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>7516568</v>
+        <v>7516561</v>
       </c>
       <c r="C275" t="s">
         <v>68</v>
@@ -58060,10 +58075,10 @@
         <v>31</v>
       </c>
       <c r="G275" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H275" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -58078,172 +58093,172 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O275" t="s">
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="Q275">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R275">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S275">
+        <v>4.2</v>
+      </c>
+      <c r="T275">
+        <v>1.34</v>
+      </c>
+      <c r="U275">
+        <v>2.95</v>
+      </c>
+      <c r="V275">
+        <v>2.55</v>
+      </c>
+      <c r="W275">
+        <v>1.44</v>
+      </c>
+      <c r="X275">
+        <v>6.25</v>
+      </c>
+      <c r="Y275">
+        <v>1.1</v>
+      </c>
+      <c r="Z275">
+        <v>1.82</v>
+      </c>
+      <c r="AA275">
+        <v>3.6</v>
+      </c>
+      <c r="AB275">
+        <v>4.1</v>
+      </c>
+      <c r="AC275">
+        <v>1.05</v>
+      </c>
+      <c r="AD275">
+        <v>9.5</v>
+      </c>
+      <c r="AE275">
+        <v>1.25</v>
+      </c>
+      <c r="AF275">
+        <v>3.75</v>
+      </c>
+      <c r="AG275">
+        <v>1.8</v>
+      </c>
+      <c r="AH275">
+        <v>2</v>
+      </c>
+      <c r="AI275">
+        <v>1.71</v>
+      </c>
+      <c r="AJ275">
+        <v>1.98</v>
+      </c>
+      <c r="AK275">
+        <v>1.22</v>
+      </c>
+      <c r="AL275">
+        <v>1.26</v>
+      </c>
+      <c r="AM275">
+        <v>1.95</v>
+      </c>
+      <c r="AN275">
+        <v>2.07</v>
+      </c>
+      <c r="AO275">
+        <v>1.08</v>
+      </c>
+      <c r="AP275">
+        <v>1.93</v>
+      </c>
+      <c r="AQ275">
+        <v>1.21</v>
+      </c>
+      <c r="AR275">
+        <v>1.68</v>
+      </c>
+      <c r="AS275">
+        <v>1.31</v>
+      </c>
+      <c r="AT275">
+        <v>2.99</v>
+      </c>
+      <c r="AU275">
         <v>4</v>
       </c>
-      <c r="T275">
-        <v>1.5</v>
-      </c>
-      <c r="U275">
-        <v>2.5</v>
-      </c>
-      <c r="V275">
-        <v>3.4</v>
-      </c>
-      <c r="W275">
-        <v>1.3</v>
-      </c>
-      <c r="X275">
-        <v>10</v>
-      </c>
-      <c r="Y275">
-        <v>1.06</v>
-      </c>
-      <c r="Z275">
-        <v>2.2</v>
-      </c>
-      <c r="AA275">
-        <v>3.25</v>
-      </c>
-      <c r="AB275">
-        <v>3.3</v>
-      </c>
-      <c r="AC275">
-        <v>1.02</v>
-      </c>
-      <c r="AD275">
-        <v>7.7</v>
-      </c>
-      <c r="AE275">
-        <v>1.36</v>
-      </c>
-      <c r="AF275">
-        <v>2.78</v>
-      </c>
-      <c r="AG275">
-        <v>2.2</v>
-      </c>
-      <c r="AH275">
-        <v>1.6</v>
-      </c>
-      <c r="AI275">
-        <v>1.91</v>
-      </c>
-      <c r="AJ275">
-        <v>1.8</v>
-      </c>
-      <c r="AK275">
-        <v>1.32</v>
-      </c>
-      <c r="AL275">
-        <v>1.32</v>
-      </c>
-      <c r="AM275">
-        <v>1.63</v>
-      </c>
-      <c r="AN275">
-        <v>1.29</v>
-      </c>
-      <c r="AO275">
-        <v>0.64</v>
-      </c>
-      <c r="AP275">
-        <v>1.27</v>
-      </c>
-      <c r="AQ275">
-        <v>0.67</v>
-      </c>
-      <c r="AR275">
-        <v>1.35</v>
-      </c>
-      <c r="AS275">
-        <v>1.06</v>
-      </c>
-      <c r="AT275">
-        <v>2.41</v>
-      </c>
-      <c r="AU275">
-        <v>3</v>
-      </c>
       <c r="AV275">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW275">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX275">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY275">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ275">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA275">
         <v>3</v>
       </c>
       <c r="BB275">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC275">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD275">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="BE275">
         <v>6.75</v>
       </c>
       <c r="BF275">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="BG275">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BH275">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BI275">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="BJ275">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="BK275">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="BL275">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="BM275">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BN275">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="BO275">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BP275">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="276" spans="1:68">
@@ -58663,7 +58678,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>7516565</v>
+        <v>7516560</v>
       </c>
       <c r="C278" t="s">
         <v>68</v>
@@ -58678,160 +58693,160 @@
         <v>31</v>
       </c>
       <c r="G278" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H278" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M278">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N278">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O278" t="s">
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>91</v>
+        <v>407</v>
       </c>
       <c r="Q278">
+        <v>6.5</v>
+      </c>
+      <c r="R278">
         <v>2.5</v>
       </c>
-      <c r="R278">
-        <v>2.25</v>
-      </c>
       <c r="S278">
-        <v>4.33</v>
+        <v>1.91</v>
       </c>
       <c r="T278">
+        <v>1.29</v>
+      </c>
+      <c r="U278">
+        <v>3.5</v>
+      </c>
+      <c r="V278">
+        <v>2.38</v>
+      </c>
+      <c r="W278">
+        <v>1.53</v>
+      </c>
+      <c r="X278">
+        <v>5.5</v>
+      </c>
+      <c r="Y278">
+        <v>1.14</v>
+      </c>
+      <c r="Z278">
+        <v>7.99</v>
+      </c>
+      <c r="AA278">
+        <v>5.06</v>
+      </c>
+      <c r="AB278">
         <v>1.36</v>
       </c>
-      <c r="U278">
-        <v>3</v>
-      </c>
-      <c r="V278">
-        <v>2.63</v>
-      </c>
-      <c r="W278">
+      <c r="AC278">
+        <v>1</v>
+      </c>
+      <c r="AD278">
+        <v>12</v>
+      </c>
+      <c r="AE278">
+        <v>1.12</v>
+      </c>
+      <c r="AF278">
+        <v>4.85</v>
+      </c>
+      <c r="AG278">
+        <v>1.57</v>
+      </c>
+      <c r="AH278">
+        <v>2.35</v>
+      </c>
+      <c r="AI278">
+        <v>1.8</v>
+      </c>
+      <c r="AJ278">
+        <v>1.91</v>
+      </c>
+      <c r="AK278">
+        <v>3.12</v>
+      </c>
+      <c r="AL278">
+        <v>1.16</v>
+      </c>
+      <c r="AM278">
+        <v>1.08</v>
+      </c>
+      <c r="AN278">
+        <v>1.53</v>
+      </c>
+      <c r="AO278">
+        <v>2.21</v>
+      </c>
+      <c r="AP278">
         <v>1.44</v>
       </c>
-      <c r="X278">
+      <c r="AQ278">
+        <v>2.27</v>
+      </c>
+      <c r="AR278">
+        <v>1.34</v>
+      </c>
+      <c r="AS278">
+        <v>1.64</v>
+      </c>
+      <c r="AT278">
+        <v>2.98</v>
+      </c>
+      <c r="AU278">
         <v>7</v>
       </c>
-      <c r="Y278">
-        <v>1.1</v>
-      </c>
-      <c r="Z278">
-        <v>1.9</v>
-      </c>
-      <c r="AA278">
-        <v>3.3</v>
-      </c>
-      <c r="AB278">
-        <v>4</v>
-      </c>
-      <c r="AC278">
-        <v>1.04</v>
-      </c>
-      <c r="AD278">
-        <v>10</v>
-      </c>
-      <c r="AE278">
-        <v>1.19</v>
-      </c>
-      <c r="AF278">
-        <v>3.94</v>
-      </c>
-      <c r="AG278">
-        <v>1.8</v>
-      </c>
-      <c r="AH278">
-        <v>2</v>
-      </c>
-      <c r="AI278">
-        <v>1.67</v>
-      </c>
-      <c r="AJ278">
-        <v>2.1</v>
-      </c>
-      <c r="AK278">
-        <v>1.27</v>
-      </c>
-      <c r="AL278">
-        <v>1.27</v>
-      </c>
-      <c r="AM278">
-        <v>1.9</v>
-      </c>
-      <c r="AN278">
-        <v>2</v>
-      </c>
-      <c r="AO278">
-        <v>1.07</v>
-      </c>
-      <c r="AP278">
-        <v>2.07</v>
-      </c>
-      <c r="AQ278">
-        <v>1</v>
-      </c>
-      <c r="AR278">
-        <v>1.69</v>
-      </c>
-      <c r="AS278">
-        <v>1.19</v>
-      </c>
-      <c r="AT278">
-        <v>2.88</v>
-      </c>
-      <c r="AU278">
+      <c r="AV278">
+        <v>7</v>
+      </c>
+      <c r="AW278">
+        <v>7</v>
+      </c>
+      <c r="AX278">
         <v>9</v>
       </c>
-      <c r="AV278">
-        <v>4</v>
-      </c>
-      <c r="AW278">
-        <v>8</v>
-      </c>
-      <c r="AX278">
-        <v>3</v>
-      </c>
       <c r="AY278">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ278">
+        <v>19</v>
+      </c>
+      <c r="BA278">
+        <v>5</v>
+      </c>
+      <c r="BB278">
+        <v>6</v>
+      </c>
+      <c r="BC278">
+        <v>11</v>
+      </c>
+      <c r="BD278">
+        <v>3.55</v>
+      </c>
+      <c r="BE278">
         <v>7</v>
       </c>
-      <c r="BA278">
-        <v>4</v>
-      </c>
-      <c r="BB278">
-        <v>5</v>
-      </c>
-      <c r="BC278">
-        <v>9</v>
-      </c>
-      <c r="BD278">
-        <v>1.53</v>
-      </c>
-      <c r="BE278">
-        <v>6.75</v>
-      </c>
       <c r="BF278">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="BG278">
         <v>1.3</v>
@@ -58852,16 +58867,16 @@
         <v>1.85</v>
       </c>
       <c r="BM278">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="BN278">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BO278">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BP278">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="279" spans="1:68">
@@ -58869,7 +58884,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>7516560</v>
+        <v>7516565</v>
       </c>
       <c r="C279" t="s">
         <v>68</v>
@@ -58884,160 +58899,160 @@
         <v>31</v>
       </c>
       <c r="G279" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H279" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M279">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O279" t="s">
         <v>280</v>
       </c>
       <c r="P279" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="Q279">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="R279">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S279">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="T279">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U279">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V279">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W279">
+        <v>1.44</v>
+      </c>
+      <c r="X279">
+        <v>7</v>
+      </c>
+      <c r="Y279">
+        <v>1.1</v>
+      </c>
+      <c r="Z279">
+        <v>1.9</v>
+      </c>
+      <c r="AA279">
+        <v>3.3</v>
+      </c>
+      <c r="AB279">
+        <v>4</v>
+      </c>
+      <c r="AC279">
+        <v>1.04</v>
+      </c>
+      <c r="AD279">
+        <v>10</v>
+      </c>
+      <c r="AE279">
+        <v>1.19</v>
+      </c>
+      <c r="AF279">
+        <v>3.94</v>
+      </c>
+      <c r="AG279">
+        <v>1.8</v>
+      </c>
+      <c r="AH279">
+        <v>2</v>
+      </c>
+      <c r="AI279">
+        <v>1.67</v>
+      </c>
+      <c r="AJ279">
+        <v>2.1</v>
+      </c>
+      <c r="AK279">
+        <v>1.27</v>
+      </c>
+      <c r="AL279">
+        <v>1.27</v>
+      </c>
+      <c r="AM279">
+        <v>1.9</v>
+      </c>
+      <c r="AN279">
+        <v>2</v>
+      </c>
+      <c r="AO279">
+        <v>1.07</v>
+      </c>
+      <c r="AP279">
+        <v>2.07</v>
+      </c>
+      <c r="AQ279">
+        <v>1</v>
+      </c>
+      <c r="AR279">
+        <v>1.69</v>
+      </c>
+      <c r="AS279">
+        <v>1.19</v>
+      </c>
+      <c r="AT279">
+        <v>2.88</v>
+      </c>
+      <c r="AU279">
+        <v>9</v>
+      </c>
+      <c r="AV279">
+        <v>4</v>
+      </c>
+      <c r="AW279">
+        <v>8</v>
+      </c>
+      <c r="AX279">
+        <v>3</v>
+      </c>
+      <c r="AY279">
+        <v>17</v>
+      </c>
+      <c r="AZ279">
+        <v>7</v>
+      </c>
+      <c r="BA279">
+        <v>4</v>
+      </c>
+      <c r="BB279">
+        <v>5</v>
+      </c>
+      <c r="BC279">
+        <v>9</v>
+      </c>
+      <c r="BD279">
         <v>1.53</v>
       </c>
-      <c r="X279">
-        <v>5.5</v>
-      </c>
-      <c r="Y279">
-        <v>1.14</v>
-      </c>
-      <c r="Z279">
-        <v>7.99</v>
-      </c>
-      <c r="AA279">
-        <v>5.06</v>
-      </c>
-      <c r="AB279">
-        <v>1.36</v>
-      </c>
-      <c r="AC279">
-        <v>1</v>
-      </c>
-      <c r="AD279">
-        <v>12</v>
-      </c>
-      <c r="AE279">
-        <v>1.12</v>
-      </c>
-      <c r="AF279">
-        <v>4.85</v>
-      </c>
-      <c r="AG279">
-        <v>1.57</v>
-      </c>
-      <c r="AH279">
-        <v>2.35</v>
-      </c>
-      <c r="AI279">
-        <v>1.8</v>
-      </c>
-      <c r="AJ279">
-        <v>1.91</v>
-      </c>
-      <c r="AK279">
-        <v>3.12</v>
-      </c>
-      <c r="AL279">
-        <v>1.16</v>
-      </c>
-      <c r="AM279">
-        <v>1.08</v>
-      </c>
-      <c r="AN279">
-        <v>1.53</v>
-      </c>
-      <c r="AO279">
-        <v>2.21</v>
-      </c>
-      <c r="AP279">
-        <v>1.44</v>
-      </c>
-      <c r="AQ279">
-        <v>2.27</v>
-      </c>
-      <c r="AR279">
-        <v>1.34</v>
-      </c>
-      <c r="AS279">
-        <v>1.64</v>
-      </c>
-      <c r="AT279">
-        <v>2.98</v>
-      </c>
-      <c r="AU279">
-        <v>7</v>
-      </c>
-      <c r="AV279">
-        <v>7</v>
-      </c>
-      <c r="AW279">
-        <v>7</v>
-      </c>
-      <c r="AX279">
-        <v>9</v>
-      </c>
-      <c r="AY279">
-        <v>15</v>
-      </c>
-      <c r="AZ279">
-        <v>19</v>
-      </c>
-      <c r="BA279">
-        <v>5</v>
-      </c>
-      <c r="BB279">
-        <v>6</v>
-      </c>
-      <c r="BC279">
-        <v>11</v>
-      </c>
-      <c r="BD279">
-        <v>3.55</v>
-      </c>
       <c r="BE279">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF279">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="BG279">
         <v>1.3</v>
@@ -59058,16 +59073,16 @@
         <v>1.85</v>
       </c>
       <c r="BM279">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="BN279">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BO279">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BP279">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="280" spans="1:68">
@@ -59274,6 +59289,1036 @@
       </c>
       <c r="BP280">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7516577</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45765.58333333334</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>87</v>
+      </c>
+      <c r="H281" t="s">
+        <v>79</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>3</v>
+      </c>
+      <c r="L281">
+        <v>2</v>
+      </c>
+      <c r="M281">
+        <v>3</v>
+      </c>
+      <c r="N281">
+        <v>5</v>
+      </c>
+      <c r="O281" t="s">
+        <v>282</v>
+      </c>
+      <c r="P281" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q281">
+        <v>4.33</v>
+      </c>
+      <c r="R281">
+        <v>2.5</v>
+      </c>
+      <c r="S281">
+        <v>2.25</v>
+      </c>
+      <c r="T281">
+        <v>1.29</v>
+      </c>
+      <c r="U281">
+        <v>3.5</v>
+      </c>
+      <c r="V281">
+        <v>2.25</v>
+      </c>
+      <c r="W281">
+        <v>1.57</v>
+      </c>
+      <c r="X281">
+        <v>5.5</v>
+      </c>
+      <c r="Y281">
+        <v>1.14</v>
+      </c>
+      <c r="Z281">
+        <v>4.28</v>
+      </c>
+      <c r="AA281">
+        <v>4.24</v>
+      </c>
+      <c r="AB281">
+        <v>1.76</v>
+      </c>
+      <c r="AC281">
+        <v>0</v>
+      </c>
+      <c r="AD281">
+        <v>0</v>
+      </c>
+      <c r="AE281">
+        <v>0</v>
+      </c>
+      <c r="AF281">
+        <v>0</v>
+      </c>
+      <c r="AG281">
+        <v>1.53</v>
+      </c>
+      <c r="AH281">
+        <v>2.4</v>
+      </c>
+      <c r="AI281">
+        <v>1.53</v>
+      </c>
+      <c r="AJ281">
+        <v>2.38</v>
+      </c>
+      <c r="AK281">
+        <v>0</v>
+      </c>
+      <c r="AL281">
+        <v>0</v>
+      </c>
+      <c r="AM281">
+        <v>0</v>
+      </c>
+      <c r="AN281">
+        <v>0.93</v>
+      </c>
+      <c r="AO281">
+        <v>0.73</v>
+      </c>
+      <c r="AP281">
+        <v>0.88</v>
+      </c>
+      <c r="AQ281">
+        <v>0.88</v>
+      </c>
+      <c r="AR281">
+        <v>1.29</v>
+      </c>
+      <c r="AS281">
+        <v>1.28</v>
+      </c>
+      <c r="AT281">
+        <v>2.57</v>
+      </c>
+      <c r="AU281">
+        <v>7</v>
+      </c>
+      <c r="AV281">
+        <v>6</v>
+      </c>
+      <c r="AW281">
+        <v>5</v>
+      </c>
+      <c r="AX281">
+        <v>6</v>
+      </c>
+      <c r="AY281">
+        <v>16</v>
+      </c>
+      <c r="AZ281">
+        <v>15</v>
+      </c>
+      <c r="BA281">
+        <v>2</v>
+      </c>
+      <c r="BB281">
+        <v>3</v>
+      </c>
+      <c r="BC281">
+        <v>5</v>
+      </c>
+      <c r="BD281">
+        <v>0</v>
+      </c>
+      <c r="BE281">
+        <v>0</v>
+      </c>
+      <c r="BF281">
+        <v>0</v>
+      </c>
+      <c r="BG281">
+        <v>0</v>
+      </c>
+      <c r="BH281">
+        <v>0</v>
+      </c>
+      <c r="BI281">
+        <v>0</v>
+      </c>
+      <c r="BJ281">
+        <v>0</v>
+      </c>
+      <c r="BK281">
+        <v>0</v>
+      </c>
+      <c r="BL281">
+        <v>0</v>
+      </c>
+      <c r="BM281">
+        <v>0</v>
+      </c>
+      <c r="BN281">
+        <v>0</v>
+      </c>
+      <c r="BO281">
+        <v>0</v>
+      </c>
+      <c r="BP281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7516572</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45765.58333333334</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>70</v>
+      </c>
+      <c r="H282" t="s">
+        <v>78</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>283</v>
+      </c>
+      <c r="P282" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q282">
+        <v>1.67</v>
+      </c>
+      <c r="R282">
+        <v>2.63</v>
+      </c>
+      <c r="S282">
+        <v>9.5</v>
+      </c>
+      <c r="T282">
+        <v>1.3</v>
+      </c>
+      <c r="U282">
+        <v>3.4</v>
+      </c>
+      <c r="V282">
+        <v>2.38</v>
+      </c>
+      <c r="W282">
+        <v>1.53</v>
+      </c>
+      <c r="X282">
+        <v>6</v>
+      </c>
+      <c r="Y282">
+        <v>1.13</v>
+      </c>
+      <c r="Z282">
+        <v>1.23</v>
+      </c>
+      <c r="AA282">
+        <v>6.32</v>
+      </c>
+      <c r="AB282">
+        <v>13.03</v>
+      </c>
+      <c r="AC282">
+        <v>0</v>
+      </c>
+      <c r="AD282">
+        <v>0</v>
+      </c>
+      <c r="AE282">
+        <v>0</v>
+      </c>
+      <c r="AF282">
+        <v>0</v>
+      </c>
+      <c r="AG282">
+        <v>2.62</v>
+      </c>
+      <c r="AH282">
+        <v>1.52</v>
+      </c>
+      <c r="AI282">
+        <v>2.2</v>
+      </c>
+      <c r="AJ282">
+        <v>1.62</v>
+      </c>
+      <c r="AK282">
+        <v>0</v>
+      </c>
+      <c r="AL282">
+        <v>0</v>
+      </c>
+      <c r="AM282">
+        <v>0</v>
+      </c>
+      <c r="AN282">
+        <v>2.57</v>
+      </c>
+      <c r="AO282">
+        <v>1</v>
+      </c>
+      <c r="AP282">
+        <v>2.6</v>
+      </c>
+      <c r="AQ282">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR282">
+        <v>1.88</v>
+      </c>
+      <c r="AS282">
+        <v>1.22</v>
+      </c>
+      <c r="AT282">
+        <v>3.1</v>
+      </c>
+      <c r="AU282">
+        <v>16</v>
+      </c>
+      <c r="AV282">
+        <v>0</v>
+      </c>
+      <c r="AW282">
+        <v>21</v>
+      </c>
+      <c r="AX282">
+        <v>2</v>
+      </c>
+      <c r="AY282">
+        <v>42</v>
+      </c>
+      <c r="AZ282">
+        <v>3</v>
+      </c>
+      <c r="BA282">
+        <v>16</v>
+      </c>
+      <c r="BB282">
+        <v>1</v>
+      </c>
+      <c r="BC282">
+        <v>17</v>
+      </c>
+      <c r="BD282">
+        <v>0</v>
+      </c>
+      <c r="BE282">
+        <v>0</v>
+      </c>
+      <c r="BF282">
+        <v>0</v>
+      </c>
+      <c r="BG282">
+        <v>0</v>
+      </c>
+      <c r="BH282">
+        <v>0</v>
+      </c>
+      <c r="BI282">
+        <v>0</v>
+      </c>
+      <c r="BJ282">
+        <v>0</v>
+      </c>
+      <c r="BK282">
+        <v>0</v>
+      </c>
+      <c r="BL282">
+        <v>0</v>
+      </c>
+      <c r="BM282">
+        <v>0</v>
+      </c>
+      <c r="BN282">
+        <v>0</v>
+      </c>
+      <c r="BO282">
+        <v>0</v>
+      </c>
+      <c r="BP282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7516574</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45766.3125</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>71</v>
+      </c>
+      <c r="H283" t="s">
+        <v>74</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283" t="s">
+        <v>284</v>
+      </c>
+      <c r="P283" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q283">
+        <v>2.5</v>
+      </c>
+      <c r="R283">
+        <v>2.3</v>
+      </c>
+      <c r="S283">
+        <v>4</v>
+      </c>
+      <c r="T283">
+        <v>1.33</v>
+      </c>
+      <c r="U283">
+        <v>3.25</v>
+      </c>
+      <c r="V283">
+        <v>2.5</v>
+      </c>
+      <c r="W283">
+        <v>1.5</v>
+      </c>
+      <c r="X283">
+        <v>6</v>
+      </c>
+      <c r="Y283">
+        <v>1.13</v>
+      </c>
+      <c r="Z283">
+        <v>1.96</v>
+      </c>
+      <c r="AA283">
+        <v>3.89</v>
+      </c>
+      <c r="AB283">
+        <v>3.74</v>
+      </c>
+      <c r="AC283">
+        <v>0</v>
+      </c>
+      <c r="AD283">
+        <v>0</v>
+      </c>
+      <c r="AE283">
+        <v>0</v>
+      </c>
+      <c r="AF283">
+        <v>0</v>
+      </c>
+      <c r="AG283">
+        <v>1.65</v>
+      </c>
+      <c r="AH283">
+        <v>2.2</v>
+      </c>
+      <c r="AI283">
+        <v>1.62</v>
+      </c>
+      <c r="AJ283">
+        <v>2.2</v>
+      </c>
+      <c r="AK283">
+        <v>0</v>
+      </c>
+      <c r="AL283">
+        <v>0</v>
+      </c>
+      <c r="AM283">
+        <v>0</v>
+      </c>
+      <c r="AN283">
+        <v>1.29</v>
+      </c>
+      <c r="AO283">
+        <v>0.57</v>
+      </c>
+      <c r="AP283">
+        <v>1.4</v>
+      </c>
+      <c r="AQ283">
+        <v>0.53</v>
+      </c>
+      <c r="AR283">
+        <v>1.68</v>
+      </c>
+      <c r="AS283">
+        <v>1.18</v>
+      </c>
+      <c r="AT283">
+        <v>2.86</v>
+      </c>
+      <c r="AU283">
+        <v>11</v>
+      </c>
+      <c r="AV283">
+        <v>5</v>
+      </c>
+      <c r="AW283">
+        <v>6</v>
+      </c>
+      <c r="AX283">
+        <v>2</v>
+      </c>
+      <c r="AY283">
+        <v>23</v>
+      </c>
+      <c r="AZ283">
+        <v>7</v>
+      </c>
+      <c r="BA283">
+        <v>12</v>
+      </c>
+      <c r="BB283">
+        <v>4</v>
+      </c>
+      <c r="BC283">
+        <v>16</v>
+      </c>
+      <c r="BD283">
+        <v>0</v>
+      </c>
+      <c r="BE283">
+        <v>0</v>
+      </c>
+      <c r="BF283">
+        <v>0</v>
+      </c>
+      <c r="BG283">
+        <v>0</v>
+      </c>
+      <c r="BH283">
+        <v>0</v>
+      </c>
+      <c r="BI283">
+        <v>0</v>
+      </c>
+      <c r="BJ283">
+        <v>0</v>
+      </c>
+      <c r="BK283">
+        <v>0</v>
+      </c>
+      <c r="BL283">
+        <v>0</v>
+      </c>
+      <c r="BM283">
+        <v>0</v>
+      </c>
+      <c r="BN283">
+        <v>0</v>
+      </c>
+      <c r="BO283">
+        <v>0</v>
+      </c>
+      <c r="BP283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7516573</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45766.41666666666</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>82</v>
+      </c>
+      <c r="H284" t="s">
+        <v>88</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>91</v>
+      </c>
+      <c r="P284" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q284">
+        <v>9.5</v>
+      </c>
+      <c r="R284">
+        <v>3</v>
+      </c>
+      <c r="S284">
+        <v>1.57</v>
+      </c>
+      <c r="T284">
+        <v>1.22</v>
+      </c>
+      <c r="U284">
+        <v>4</v>
+      </c>
+      <c r="V284">
+        <v>2</v>
+      </c>
+      <c r="W284">
+        <v>1.73</v>
+      </c>
+      <c r="X284">
+        <v>4.33</v>
+      </c>
+      <c r="Y284">
+        <v>1.2</v>
+      </c>
+      <c r="Z284">
+        <v>9.5</v>
+      </c>
+      <c r="AA284">
+        <v>7</v>
+      </c>
+      <c r="AB284">
+        <v>1.18</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>3.3</v>
+      </c>
+      <c r="AF284">
+        <v>1.35</v>
+      </c>
+      <c r="AG284">
+        <v>1.36</v>
+      </c>
+      <c r="AH284">
+        <v>3.1</v>
+      </c>
+      <c r="AI284">
+        <v>1.83</v>
+      </c>
+      <c r="AJ284">
+        <v>1.83</v>
+      </c>
+      <c r="AK284">
+        <v>0</v>
+      </c>
+      <c r="AL284">
+        <v>0</v>
+      </c>
+      <c r="AM284">
+        <v>0</v>
+      </c>
+      <c r="AN284">
+        <v>0.36</v>
+      </c>
+      <c r="AO284">
+        <v>0.57</v>
+      </c>
+      <c r="AP284">
+        <v>0.33</v>
+      </c>
+      <c r="AQ284">
+        <v>0.73</v>
+      </c>
+      <c r="AR284">
+        <v>1.2</v>
+      </c>
+      <c r="AS284">
+        <v>1.31</v>
+      </c>
+      <c r="AT284">
+        <v>2.51</v>
+      </c>
+      <c r="AU284">
+        <v>2</v>
+      </c>
+      <c r="AV284">
+        <v>4</v>
+      </c>
+      <c r="AW284">
+        <v>4</v>
+      </c>
+      <c r="AX284">
+        <v>6</v>
+      </c>
+      <c r="AY284">
+        <v>9</v>
+      </c>
+      <c r="AZ284">
+        <v>11</v>
+      </c>
+      <c r="BA284">
+        <v>2</v>
+      </c>
+      <c r="BB284">
+        <v>4</v>
+      </c>
+      <c r="BC284">
+        <v>6</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>0</v>
+      </c>
+      <c r="BG284">
+        <v>0</v>
+      </c>
+      <c r="BH284">
+        <v>0</v>
+      </c>
+      <c r="BI284">
+        <v>0</v>
+      </c>
+      <c r="BJ284">
+        <v>0</v>
+      </c>
+      <c r="BK284">
+        <v>0</v>
+      </c>
+      <c r="BL284">
+        <v>0</v>
+      </c>
+      <c r="BM284">
+        <v>0</v>
+      </c>
+      <c r="BN284">
+        <v>0</v>
+      </c>
+      <c r="BO284">
+        <v>0</v>
+      </c>
+      <c r="BP284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7516569</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45766.54166666666</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>81</v>
+      </c>
+      <c r="H285" t="s">
+        <v>84</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>285</v>
+      </c>
+      <c r="P285" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q285">
+        <v>3.2</v>
+      </c>
+      <c r="R285">
+        <v>2.2</v>
+      </c>
+      <c r="S285">
+        <v>3.2</v>
+      </c>
+      <c r="T285">
+        <v>1.36</v>
+      </c>
+      <c r="U285">
+        <v>3</v>
+      </c>
+      <c r="V285">
+        <v>2.75</v>
+      </c>
+      <c r="W285">
+        <v>1.4</v>
+      </c>
+      <c r="X285">
+        <v>7</v>
+      </c>
+      <c r="Y285">
+        <v>1.1</v>
+      </c>
+      <c r="Z285">
+        <v>2.63</v>
+      </c>
+      <c r="AA285">
+        <v>3.42</v>
+      </c>
+      <c r="AB285">
+        <v>2.68</v>
+      </c>
+      <c r="AC285">
+        <v>1.03</v>
+      </c>
+      <c r="AD285">
+        <v>11.6</v>
+      </c>
+      <c r="AE285">
+        <v>1.25</v>
+      </c>
+      <c r="AF285">
+        <v>3.95</v>
+      </c>
+      <c r="AG285">
+        <v>1.82</v>
+      </c>
+      <c r="AH285">
+        <v>2.03</v>
+      </c>
+      <c r="AI285">
+        <v>1.67</v>
+      </c>
+      <c r="AJ285">
+        <v>2.1</v>
+      </c>
+      <c r="AK285">
+        <v>1.53</v>
+      </c>
+      <c r="AL285">
+        <v>1.25</v>
+      </c>
+      <c r="AM285">
+        <v>1.45</v>
+      </c>
+      <c r="AN285">
+        <v>2.21</v>
+      </c>
+      <c r="AO285">
+        <v>1.36</v>
+      </c>
+      <c r="AP285">
+        <v>2.13</v>
+      </c>
+      <c r="AQ285">
+        <v>1.33</v>
+      </c>
+      <c r="AR285">
+        <v>1.81</v>
+      </c>
+      <c r="AS285">
+        <v>1.48</v>
+      </c>
+      <c r="AT285">
+        <v>3.29</v>
+      </c>
+      <c r="AU285">
+        <v>8</v>
+      </c>
+      <c r="AV285">
+        <v>4</v>
+      </c>
+      <c r="AW285">
+        <v>12</v>
+      </c>
+      <c r="AX285">
+        <v>4</v>
+      </c>
+      <c r="AY285">
+        <v>22</v>
+      </c>
+      <c r="AZ285">
+        <v>9</v>
+      </c>
+      <c r="BA285">
+        <v>5</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>8</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -874,6 +874,12 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['42', '45+4']</t>
+  </si>
+  <si>
+    <t>['36', '64', '79']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1245,6 +1251,9 @@
   <si>
     <t>['10']</t>
   </si>
+  <si>
+    <t>['7', '48', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1605,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2070,7 +2079,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2560,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ5">
         <v>0.33</v>
@@ -2894,7 +2903,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2975,7 +2984,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3100,7 +3109,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3306,7 +3315,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3384,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ9">
         <v>1.21</v>
@@ -3512,7 +3521,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3593,7 +3602,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3718,7 +3727,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3924,7 +3933,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4130,7 +4139,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4336,7 +4345,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4542,7 +4551,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4620,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4748,7 +4757,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4954,7 +4963,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5160,7 +5169,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5859,7 +5868,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5984,7 +5993,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6190,7 +6199,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6396,7 +6405,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6602,7 +6611,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6680,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
         <v>2.27</v>
@@ -6886,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -7014,7 +7023,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7092,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
         <v>1.31</v>
@@ -7632,7 +7641,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7838,7 +7847,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -7916,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -8456,7 +8465,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8662,7 +8671,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8743,7 +8752,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ35">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8868,7 +8877,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9074,7 +9083,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9486,7 +9495,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9692,7 +9701,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9773,7 +9782,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>2.02</v>
@@ -10104,7 +10113,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10310,7 +10319,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10516,7 +10525,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10597,7 +10606,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ44">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>2.36</v>
@@ -10928,7 +10937,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11546,7 +11555,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11624,7 +11633,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ49">
         <v>2.53</v>
@@ -12036,7 +12045,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -12164,7 +12173,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12370,7 +12379,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12451,7 +12460,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12988,7 +12997,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13194,7 +13203,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13606,7 +13615,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13812,7 +13821,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13893,7 +13902,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR60">
         <v>1.5</v>
@@ -14018,7 +14027,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14224,7 +14233,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14430,7 +14439,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14636,7 +14645,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14842,7 +14851,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14920,7 +14929,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ65">
         <v>0.67</v>
@@ -15254,7 +15263,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15744,7 +15753,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15872,7 +15881,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15953,7 +15962,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.39</v>
@@ -16078,7 +16087,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16696,7 +16705,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16777,7 +16786,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -17314,7 +17323,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17520,7 +17529,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17932,7 +17941,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18138,7 +18147,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18344,7 +18353,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18550,7 +18559,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18962,7 +18971,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19168,7 +19177,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19374,7 +19383,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19580,7 +19589,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19864,7 +19873,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -20070,10 +20079,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -20404,7 +20413,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21022,7 +21031,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21228,7 +21237,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21846,7 +21855,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22258,7 +22267,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22464,7 +22473,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22670,7 +22679,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22751,7 +22760,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ103">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22954,7 +22963,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ104">
         <v>0.73</v>
@@ -23163,7 +23172,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ105">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.42</v>
@@ -23494,7 +23503,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23778,7 +23787,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ108">
         <v>0.53</v>
@@ -23984,7 +23993,7 @@
         <v>1.6</v>
       </c>
       <c r="AP109">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -24112,7 +24121,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24318,7 +24327,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -25142,7 +25151,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25554,7 +25563,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25966,7 +25975,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -26378,7 +26387,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26584,7 +26593,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26662,7 +26671,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ122">
         <v>0.53</v>
@@ -27074,7 +27083,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -27202,7 +27211,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27283,7 +27292,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ125">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27692,10 +27701,10 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ127">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR127">
         <v>2</v>
@@ -27820,7 +27829,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28232,7 +28241,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29056,7 +29065,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29340,7 +29349,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ135">
         <v>0.36</v>
@@ -29755,7 +29764,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -30164,7 +30173,7 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139">
         <v>0.88</v>
@@ -30373,7 +30382,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR140">
         <v>1.29</v>
@@ -30988,7 +30997,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ143">
         <v>1.21</v>
@@ -31116,7 +31125,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31322,7 +31331,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31528,7 +31537,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31940,7 +31949,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32558,7 +32567,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -32970,7 +32979,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33048,7 +33057,7 @@
         <v>1.86</v>
       </c>
       <c r="AP153">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ153">
         <v>1.31</v>
@@ -33176,7 +33185,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33460,7 +33469,7 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ155">
         <v>1.33</v>
@@ -33588,7 +33597,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34000,7 +34009,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34081,7 +34090,7 @@
         <v>2</v>
       </c>
       <c r="AQ158">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR158">
         <v>1.38</v>
@@ -34412,7 +34421,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34618,7 +34627,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34699,7 +34708,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ161">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR161">
         <v>1.42</v>
@@ -35108,7 +35117,7 @@
         <v>0.29</v>
       </c>
       <c r="AP163">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ163">
         <v>0.36</v>
@@ -35442,7 +35451,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36472,7 +36481,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36550,7 +36559,7 @@
         <v>3</v>
       </c>
       <c r="AP170">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ170">
         <v>2.53</v>
@@ -36884,7 +36893,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -37374,7 +37383,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -38120,7 +38129,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38532,7 +38541,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38944,7 +38953,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39025,7 +39034,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ182">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR182">
         <v>1.49</v>
@@ -39150,7 +39159,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39356,7 +39365,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39768,7 +39777,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -39846,7 +39855,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP186">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ186">
         <v>0.33</v>
@@ -40055,7 +40064,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ187">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR187">
         <v>1.3</v>
@@ -40386,7 +40395,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40464,7 +40473,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ189">
         <v>0.53</v>
@@ -40592,7 +40601,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40798,7 +40807,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41210,7 +41219,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41700,7 +41709,7 @@
         <v>2</v>
       </c>
       <c r="AP195">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ195">
         <v>1.67</v>
@@ -41828,7 +41837,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42034,7 +42043,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42240,7 +42249,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42318,7 +42327,7 @@
         <v>1.2</v>
       </c>
       <c r="AP198">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ198">
         <v>1</v>
@@ -42446,7 +42455,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42858,7 +42867,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43064,7 +43073,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43270,7 +43279,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43476,7 +43485,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44175,7 +44184,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ207">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR207">
         <v>1.63</v>
@@ -44918,7 +44927,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -44996,7 +45005,7 @@
         <v>0.45</v>
       </c>
       <c r="AP211">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ211">
         <v>0.9399999999999999</v>
@@ -45536,7 +45545,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45742,7 +45751,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -45948,7 +45957,7 @@
         <v>240</v>
       </c>
       <c r="P216" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q216">
         <v>1.57</v>
@@ -46026,7 +46035,7 @@
         <v>1.64</v>
       </c>
       <c r="AP216">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ216">
         <v>1.31</v>
@@ -46154,7 +46163,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46232,7 +46241,7 @@
         <v>2.8</v>
       </c>
       <c r="AP217">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
         <v>2.53</v>
@@ -46566,7 +46575,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46772,7 +46781,7 @@
         <v>215</v>
       </c>
       <c r="P220" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47184,7 +47193,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47596,7 +47605,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47802,7 +47811,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -47883,7 +47892,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ225">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR225">
         <v>1.61</v>
@@ -48626,7 +48635,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48704,7 +48713,7 @@
         <v>0.83</v>
       </c>
       <c r="AP229">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229">
         <v>0.67</v>
@@ -48832,7 +48841,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49116,7 +49125,7 @@
         <v>0.75</v>
       </c>
       <c r="AP231">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ231">
         <v>0.67</v>
@@ -49450,7 +49459,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49531,7 +49540,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ233">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR233">
         <v>1.5</v>
@@ -49734,7 +49743,7 @@
         <v>0.64</v>
       </c>
       <c r="AP234">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ234">
         <v>0.53</v>
@@ -49862,7 +49871,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50480,7 +50489,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50686,7 +50695,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51098,7 +51107,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51304,7 +51313,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51510,7 +51519,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51716,7 +51725,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -51797,7 +51806,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ244">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR244">
         <v>1.61</v>
@@ -52540,7 +52549,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52618,7 +52627,7 @@
         <v>0.42</v>
       </c>
       <c r="AP248">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ248">
         <v>0.73</v>
@@ -52952,7 +52961,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53030,7 +53039,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ250">
         <v>0.9399999999999999</v>
@@ -53158,7 +53167,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53364,7 +53373,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53445,7 +53454,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ252">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR252">
         <v>1.84</v>
@@ -53648,7 +53657,7 @@
         <v>1.85</v>
       </c>
       <c r="AP253">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ253">
         <v>1.67</v>
@@ -54188,7 +54197,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54475,7 +54484,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ257">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR257">
         <v>1.32</v>
@@ -55012,7 +55021,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55424,7 +55433,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55630,7 +55639,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55836,7 +55845,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -55914,7 +55923,7 @@
         <v>0.54</v>
       </c>
       <c r="AP264">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ264">
         <v>0.53</v>
@@ -56120,7 +56129,7 @@
         <v>0.79</v>
       </c>
       <c r="AP265">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ265">
         <v>0.88</v>
@@ -56454,7 +56463,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56741,7 +56750,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ268">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR268">
         <v>1.29</v>
@@ -56866,7 +56875,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -56944,7 +56953,7 @@
         <v>0.62</v>
       </c>
       <c r="AP269">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ269">
         <v>0.73</v>
@@ -57153,7 +57162,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ270">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR270">
         <v>1.8</v>
@@ -57278,7 +57287,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57484,7 +57493,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -58102,7 +58111,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58720,7 +58729,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59338,7 +59347,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59750,7 +59759,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60162,7 +60171,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60318,6 +60327,624 @@
         <v>0</v>
       </c>
       <c r="BP285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7516571</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45767.3125</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>83</v>
+      </c>
+      <c r="H286" t="s">
+        <v>85</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>3</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>286</v>
+      </c>
+      <c r="P286" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q286">
+        <v>2.25</v>
+      </c>
+      <c r="R286">
+        <v>2.25</v>
+      </c>
+      <c r="S286">
+        <v>5</v>
+      </c>
+      <c r="T286">
+        <v>1.36</v>
+      </c>
+      <c r="U286">
+        <v>3</v>
+      </c>
+      <c r="V286">
+        <v>2.75</v>
+      </c>
+      <c r="W286">
+        <v>1.4</v>
+      </c>
+      <c r="X286">
+        <v>7</v>
+      </c>
+      <c r="Y286">
+        <v>1.1</v>
+      </c>
+      <c r="Z286">
+        <v>1.66</v>
+      </c>
+      <c r="AA286">
+        <v>3.86</v>
+      </c>
+      <c r="AB286">
+        <v>4.86</v>
+      </c>
+      <c r="AC286">
+        <v>1.01</v>
+      </c>
+      <c r="AD286">
+        <v>12.5</v>
+      </c>
+      <c r="AE286">
+        <v>1.26</v>
+      </c>
+      <c r="AF286">
+        <v>3.99</v>
+      </c>
+      <c r="AG286">
+        <v>1.85</v>
+      </c>
+      <c r="AH286">
+        <v>1.97</v>
+      </c>
+      <c r="AI286">
+        <v>1.83</v>
+      </c>
+      <c r="AJ286">
+        <v>1.83</v>
+      </c>
+      <c r="AK286">
+        <v>1.18</v>
+      </c>
+      <c r="AL286">
+        <v>1.2</v>
+      </c>
+      <c r="AM286">
+        <v>2.1</v>
+      </c>
+      <c r="AN286">
+        <v>1.87</v>
+      </c>
+      <c r="AO286">
+        <v>0.64</v>
+      </c>
+      <c r="AP286">
+        <v>1.94</v>
+      </c>
+      <c r="AQ286">
+        <v>0.6</v>
+      </c>
+      <c r="AR286">
+        <v>1.45</v>
+      </c>
+      <c r="AS286">
+        <v>1.19</v>
+      </c>
+      <c r="AT286">
+        <v>2.64</v>
+      </c>
+      <c r="AU286">
+        <v>5</v>
+      </c>
+      <c r="AV286">
+        <v>5</v>
+      </c>
+      <c r="AW286">
+        <v>5</v>
+      </c>
+      <c r="AX286">
+        <v>10</v>
+      </c>
+      <c r="AY286">
+        <v>13</v>
+      </c>
+      <c r="AZ286">
+        <v>16</v>
+      </c>
+      <c r="BA286">
+        <v>5</v>
+      </c>
+      <c r="BB286">
+        <v>1</v>
+      </c>
+      <c r="BC286">
+        <v>6</v>
+      </c>
+      <c r="BD286">
+        <v>0</v>
+      </c>
+      <c r="BE286">
+        <v>0</v>
+      </c>
+      <c r="BF286">
+        <v>0</v>
+      </c>
+      <c r="BG286">
+        <v>0</v>
+      </c>
+      <c r="BH286">
+        <v>0</v>
+      </c>
+      <c r="BI286">
+        <v>0</v>
+      </c>
+      <c r="BJ286">
+        <v>0</v>
+      </c>
+      <c r="BK286">
+        <v>0</v>
+      </c>
+      <c r="BL286">
+        <v>0</v>
+      </c>
+      <c r="BM286">
+        <v>0</v>
+      </c>
+      <c r="BN286">
+        <v>0</v>
+      </c>
+      <c r="BO286">
+        <v>0</v>
+      </c>
+      <c r="BP286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7516570</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45767.41666666666</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>77</v>
+      </c>
+      <c r="H287" t="s">
+        <v>86</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287" t="s">
+        <v>93</v>
+      </c>
+      <c r="P287" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q287">
+        <v>2.75</v>
+      </c>
+      <c r="R287">
+        <v>2.2</v>
+      </c>
+      <c r="S287">
+        <v>3.75</v>
+      </c>
+      <c r="T287">
+        <v>1.36</v>
+      </c>
+      <c r="U287">
+        <v>3</v>
+      </c>
+      <c r="V287">
+        <v>2.75</v>
+      </c>
+      <c r="W287">
+        <v>1.4</v>
+      </c>
+      <c r="X287">
+        <v>7</v>
+      </c>
+      <c r="Y287">
+        <v>1.1</v>
+      </c>
+      <c r="Z287">
+        <v>2.11</v>
+      </c>
+      <c r="AA287">
+        <v>3.48</v>
+      </c>
+      <c r="AB287">
+        <v>3.3</v>
+      </c>
+      <c r="AC287">
+        <v>1.01</v>
+      </c>
+      <c r="AD287">
+        <v>13</v>
+      </c>
+      <c r="AE287">
+        <v>1.26</v>
+      </c>
+      <c r="AF287">
+        <v>4.01</v>
+      </c>
+      <c r="AG287">
+        <v>1.8</v>
+      </c>
+      <c r="AH287">
+        <v>2.01</v>
+      </c>
+      <c r="AI287">
+        <v>1.67</v>
+      </c>
+      <c r="AJ287">
+        <v>2.1</v>
+      </c>
+      <c r="AK287">
+        <v>1.35</v>
+      </c>
+      <c r="AL287">
+        <v>1.25</v>
+      </c>
+      <c r="AM287">
+        <v>1.67</v>
+      </c>
+      <c r="AN287">
+        <v>1.36</v>
+      </c>
+      <c r="AO287">
+        <v>1.33</v>
+      </c>
+      <c r="AP287">
+        <v>1.47</v>
+      </c>
+      <c r="AQ287">
+        <v>1.25</v>
+      </c>
+      <c r="AR287">
+        <v>1.48</v>
+      </c>
+      <c r="AS287">
+        <v>1.23</v>
+      </c>
+      <c r="AT287">
+        <v>2.71</v>
+      </c>
+      <c r="AU287">
+        <v>4</v>
+      </c>
+      <c r="AV287">
+        <v>2</v>
+      </c>
+      <c r="AW287">
+        <v>9</v>
+      </c>
+      <c r="AX287">
+        <v>5</v>
+      </c>
+      <c r="AY287">
+        <v>15</v>
+      </c>
+      <c r="AZ287">
+        <v>9</v>
+      </c>
+      <c r="BA287">
+        <v>9</v>
+      </c>
+      <c r="BB287">
+        <v>6</v>
+      </c>
+      <c r="BC287">
+        <v>15</v>
+      </c>
+      <c r="BD287">
+        <v>0</v>
+      </c>
+      <c r="BE287">
+        <v>0</v>
+      </c>
+      <c r="BF287">
+        <v>0</v>
+      </c>
+      <c r="BG287">
+        <v>0</v>
+      </c>
+      <c r="BH287">
+        <v>0</v>
+      </c>
+      <c r="BI287">
+        <v>0</v>
+      </c>
+      <c r="BJ287">
+        <v>0</v>
+      </c>
+      <c r="BK287">
+        <v>0</v>
+      </c>
+      <c r="BL287">
+        <v>0</v>
+      </c>
+      <c r="BM287">
+        <v>0</v>
+      </c>
+      <c r="BN287">
+        <v>0</v>
+      </c>
+      <c r="BO287">
+        <v>0</v>
+      </c>
+      <c r="BP287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7516576</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45767.54166666666</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>73</v>
+      </c>
+      <c r="H288" t="s">
+        <v>80</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>3</v>
+      </c>
+      <c r="M288">
+        <v>3</v>
+      </c>
+      <c r="N288">
+        <v>6</v>
+      </c>
+      <c r="O288" t="s">
+        <v>287</v>
+      </c>
+      <c r="P288" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q288">
+        <v>1.5</v>
+      </c>
+      <c r="R288">
+        <v>3.1</v>
+      </c>
+      <c r="S288">
+        <v>11</v>
+      </c>
+      <c r="T288">
+        <v>1.2</v>
+      </c>
+      <c r="U288">
+        <v>4.33</v>
+      </c>
+      <c r="V288">
+        <v>2</v>
+      </c>
+      <c r="W288">
+        <v>1.73</v>
+      </c>
+      <c r="X288">
+        <v>4</v>
+      </c>
+      <c r="Y288">
+        <v>1.22</v>
+      </c>
+      <c r="Z288">
+        <v>1.11</v>
+      </c>
+      <c r="AA288">
+        <v>8.91</v>
+      </c>
+      <c r="AB288">
+        <v>18.34</v>
+      </c>
+      <c r="AC288">
+        <v>1.01</v>
+      </c>
+      <c r="AD288">
+        <v>27</v>
+      </c>
+      <c r="AE288">
+        <v>1.1</v>
+      </c>
+      <c r="AF288">
+        <v>7.3</v>
+      </c>
+      <c r="AG288">
+        <v>1.36</v>
+      </c>
+      <c r="AH288">
+        <v>3.1</v>
+      </c>
+      <c r="AI288">
+        <v>2</v>
+      </c>
+      <c r="AJ288">
+        <v>1.73</v>
+      </c>
+      <c r="AK288">
+        <v>1.02</v>
+      </c>
+      <c r="AL288">
+        <v>1.07</v>
+      </c>
+      <c r="AM288">
+        <v>5.5</v>
+      </c>
+      <c r="AN288">
+        <v>2.64</v>
+      </c>
+      <c r="AO288">
+        <v>1</v>
+      </c>
+      <c r="AP288">
+        <v>2.53</v>
+      </c>
+      <c r="AQ288">
+        <v>1</v>
+      </c>
+      <c r="AR288">
+        <v>2.12</v>
+      </c>
+      <c r="AS288">
+        <v>1.23</v>
+      </c>
+      <c r="AT288">
+        <v>3.35</v>
+      </c>
+      <c r="AU288">
+        <v>6</v>
+      </c>
+      <c r="AV288">
+        <v>5</v>
+      </c>
+      <c r="AW288">
+        <v>21</v>
+      </c>
+      <c r="AX288">
+        <v>1</v>
+      </c>
+      <c r="AY288">
+        <v>35</v>
+      </c>
+      <c r="AZ288">
+        <v>6</v>
+      </c>
+      <c r="BA288">
+        <v>12</v>
+      </c>
+      <c r="BB288">
+        <v>0</v>
+      </c>
+      <c r="BC288">
+        <v>12</v>
+      </c>
+      <c r="BD288">
+        <v>0</v>
+      </c>
+      <c r="BE288">
+        <v>0</v>
+      </c>
+      <c r="BF288">
+        <v>0</v>
+      </c>
+      <c r="BG288">
+        <v>0</v>
+      </c>
+      <c r="BH288">
+        <v>0</v>
+      </c>
+      <c r="BI288">
+        <v>0</v>
+      </c>
+      <c r="BJ288">
+        <v>0</v>
+      </c>
+      <c r="BK288">
+        <v>0</v>
+      </c>
+      <c r="BL288">
+        <v>0</v>
+      </c>
+      <c r="BM288">
+        <v>0</v>
+      </c>
+      <c r="BN288">
+        <v>0</v>
+      </c>
+      <c r="BO288">
+        <v>0</v>
+      </c>
+      <c r="BP288">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1614,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -5044,7 +5044,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
         <v>0.53</v>
@@ -8546,7 +8546,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR34">
         <v>0.72</v>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ41">
         <v>0.36</v>
@@ -12048,7 +12048,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR51">
         <v>1.43</v>
@@ -13487,7 +13487,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -16168,7 +16168,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.33</v>
@@ -18019,7 +18019,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80">
         <v>1.31</v>
@@ -19052,7 +19052,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR85">
         <v>1.46</v>
@@ -19667,7 +19667,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -23584,7 +23584,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR107">
         <v>1.87</v>
@@ -26877,7 +26877,7 @@
         <v>0.67</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ123">
         <v>0.73</v>
@@ -28734,7 +28734,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR132">
         <v>1.36</v>
@@ -30379,7 +30379,7 @@
         <v>0.57</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ140">
         <v>0.6</v>
@@ -31824,7 +31824,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ147">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -33675,7 +33675,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ156">
         <v>0.88</v>
@@ -35326,7 +35326,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ164">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
         <v>1.61</v>
@@ -37798,7 +37798,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ176">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR176">
         <v>1.49</v>
@@ -39443,7 +39443,7 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ184">
         <v>1.21</v>
@@ -41712,7 +41712,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ195">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR195">
         <v>1.49</v>
@@ -43563,7 +43563,7 @@
         <v>2.18</v>
       </c>
       <c r="AP204">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ204">
         <v>2.27</v>
@@ -45832,7 +45832,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ215">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR215">
         <v>1.37</v>
@@ -47683,7 +47683,7 @@
         <v>0.45</v>
       </c>
       <c r="AP224">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ224">
         <v>0.33</v>
@@ -49952,7 +49952,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ235">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR235">
         <v>1.89</v>
@@ -51597,7 +51597,7 @@
         <v>2.67</v>
       </c>
       <c r="AP243">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ243">
         <v>2.53</v>
@@ -53660,7 +53660,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ253">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR253">
         <v>2.06</v>
@@ -56338,7 +56338,7 @@
         <v>2</v>
       </c>
       <c r="AQ266">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR266">
         <v>1.43</v>
@@ -56541,7 +56541,7 @@
         <v>0.86</v>
       </c>
       <c r="AP267">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ267">
         <v>0.9399999999999999</v>
@@ -60946,6 +60946,212 @@
       </c>
       <c r="BP288">
         <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7516575</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45768.58333333334</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>75</v>
+      </c>
+      <c r="H289" t="s">
+        <v>76</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>1</v>
+      </c>
+      <c r="O289" t="s">
+        <v>254</v>
+      </c>
+      <c r="P289" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q289">
+        <v>3.25</v>
+      </c>
+      <c r="R289">
+        <v>2</v>
+      </c>
+      <c r="S289">
+        <v>3.6</v>
+      </c>
+      <c r="T289">
+        <v>1.5</v>
+      </c>
+      <c r="U289">
+        <v>2.5</v>
+      </c>
+      <c r="V289">
+        <v>3.5</v>
+      </c>
+      <c r="W289">
+        <v>1.29</v>
+      </c>
+      <c r="X289">
+        <v>10</v>
+      </c>
+      <c r="Y289">
+        <v>1.06</v>
+      </c>
+      <c r="Z289">
+        <v>2.62</v>
+      </c>
+      <c r="AA289">
+        <v>2.8</v>
+      </c>
+      <c r="AB289">
+        <v>3.1</v>
+      </c>
+      <c r="AC289">
+        <v>1.1</v>
+      </c>
+      <c r="AD289">
+        <v>6.96</v>
+      </c>
+      <c r="AE289">
+        <v>1.41</v>
+      </c>
+      <c r="AF289">
+        <v>2.88</v>
+      </c>
+      <c r="AG289">
+        <v>2.2</v>
+      </c>
+      <c r="AH289">
+        <v>1.6</v>
+      </c>
+      <c r="AI289">
+        <v>1.91</v>
+      </c>
+      <c r="AJ289">
+        <v>1.8</v>
+      </c>
+      <c r="AK289">
+        <v>1.4</v>
+      </c>
+      <c r="AL289">
+        <v>1.3</v>
+      </c>
+      <c r="AM289">
+        <v>1.5</v>
+      </c>
+      <c r="AN289">
+        <v>1.5</v>
+      </c>
+      <c r="AO289">
+        <v>1.67</v>
+      </c>
+      <c r="AP289">
+        <v>1.6</v>
+      </c>
+      <c r="AQ289">
+        <v>1.56</v>
+      </c>
+      <c r="AR289">
+        <v>1.44</v>
+      </c>
+      <c r="AS289">
+        <v>1.17</v>
+      </c>
+      <c r="AT289">
+        <v>2.61</v>
+      </c>
+      <c r="AU289">
+        <v>3</v>
+      </c>
+      <c r="AV289">
+        <v>3</v>
+      </c>
+      <c r="AW289">
+        <v>4</v>
+      </c>
+      <c r="AX289">
+        <v>10</v>
+      </c>
+      <c r="AY289">
+        <v>7</v>
+      </c>
+      <c r="AZ289">
+        <v>15</v>
+      </c>
+      <c r="BA289">
+        <v>5</v>
+      </c>
+      <c r="BB289">
+        <v>1</v>
+      </c>
+      <c r="BC289">
+        <v>6</v>
+      </c>
+      <c r="BD289">
+        <v>1.6</v>
+      </c>
+      <c r="BE289">
+        <v>8.5</v>
+      </c>
+      <c r="BF289">
+        <v>2.62</v>
+      </c>
+      <c r="BG289">
+        <v>1.33</v>
+      </c>
+      <c r="BH289">
+        <v>2.81</v>
+      </c>
+      <c r="BI289">
+        <v>1.65</v>
+      </c>
+      <c r="BJ289">
+        <v>2.05</v>
+      </c>
+      <c r="BK289">
+        <v>2.05</v>
+      </c>
+      <c r="BL289">
+        <v>1.65</v>
+      </c>
+      <c r="BM289">
+        <v>2.79</v>
+      </c>
+      <c r="BN289">
+        <v>1.36</v>
+      </c>
+      <c r="BO289">
+        <v>3.86</v>
+      </c>
+      <c r="BP289">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="415">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -880,6 +880,9 @@
     <t>['36', '64', '79']</t>
   </si>
   <si>
+    <t>['36', '52', '53', '59', '78']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1254,6 +1257,9 @@
   <si>
     <t>['7', '48', '90+4']</t>
   </si>
+  <si>
+    <t>['20']</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1954,7 +1960,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2079,7 +2085,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2903,7 +2909,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3109,7 +3115,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3315,7 +3321,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3521,7 +3527,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3727,7 +3733,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3933,7 +3939,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4139,7 +4145,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4345,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4551,7 +4557,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4757,7 +4763,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4835,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4963,7 +4969,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5169,7 +5175,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5993,7 +5999,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6199,7 +6205,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6405,7 +6411,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6486,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -6611,7 +6617,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7023,7 +7029,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7641,7 +7647,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7847,7 +7853,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8337,7 +8343,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.53</v>
@@ -8465,7 +8471,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8671,7 +8677,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8877,7 +8883,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9083,7 +9089,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9495,7 +9501,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9701,7 +9707,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9988,7 +9994,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ41">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -10113,7 +10119,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10319,7 +10325,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10525,7 +10531,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10937,7 +10943,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11555,7 +11561,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -12173,7 +12179,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12379,7 +12385,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12457,7 +12463,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -12997,7 +13003,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13203,7 +13209,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13615,7 +13621,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13821,7 +13827,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14027,7 +14033,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14233,7 +14239,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14439,7 +14445,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14645,7 +14651,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14851,7 +14857,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15263,7 +15269,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15881,7 +15887,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16087,7 +16093,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16705,7 +16711,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17323,7 +17329,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17529,7 +17535,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17610,7 +17616,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17813,7 +17819,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.88</v>
@@ -17941,7 +17947,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18147,7 +18153,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18353,7 +18359,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18559,7 +18565,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18971,7 +18977,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19177,7 +19183,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19383,7 +19389,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19589,7 +19595,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -20413,7 +20419,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21031,7 +21037,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21109,7 +21115,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1.31</v>
@@ -21237,7 +21243,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21524,7 +21530,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21855,7 +21861,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22267,7 +22273,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22473,7 +22479,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22679,7 +22685,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23503,7 +23509,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -24121,7 +24127,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24327,7 +24333,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -25151,7 +25157,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25232,7 +25238,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ115">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR115">
         <v>1.38</v>
@@ -25563,7 +25569,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25641,7 +25647,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>0.53</v>
@@ -25975,7 +25981,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -26387,7 +26393,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26593,7 +26599,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27211,7 +27217,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27829,7 +27835,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28241,7 +28247,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28525,7 +28531,7 @@
         <v>2.43</v>
       </c>
       <c r="AP131">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ131">
         <v>2.27</v>
@@ -29065,7 +29071,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29352,7 +29358,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ135">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -31125,7 +31131,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31331,7 +31337,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31537,7 +31543,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31949,7 +31955,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32027,7 +32033,7 @@
         <v>0.71</v>
       </c>
       <c r="AP148">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ148">
         <v>0.67</v>
@@ -32567,7 +32573,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -32979,7 +32985,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33185,7 +33191,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33597,7 +33603,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34009,7 +34015,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34421,7 +34427,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34627,7 +34633,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35120,7 +35126,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ163">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR163">
         <v>1.98</v>
@@ -35451,7 +35457,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -35735,7 +35741,7 @@
         <v>0.5</v>
       </c>
       <c r="AP166">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>0.9399999999999999</v>
@@ -36481,7 +36487,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36893,7 +36899,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -37795,7 +37801,7 @@
         <v>2.11</v>
       </c>
       <c r="AP176">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
         <v>1.56</v>
@@ -38129,7 +38135,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38541,7 +38547,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38953,7 +38959,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39159,7 +39165,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39365,7 +39371,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39777,7 +39783,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40395,7 +40401,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40601,7 +40607,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40682,7 +40688,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ190">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR190">
         <v>1.45</v>
@@ -40807,7 +40813,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41219,7 +41225,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41837,7 +41843,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42043,7 +42049,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42249,7 +42255,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42455,7 +42461,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42742,7 +42748,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ200">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR200">
         <v>1.51</v>
@@ -42867,7 +42873,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43073,7 +43079,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43279,7 +43285,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43485,7 +43491,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44927,7 +44933,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45211,7 +45217,7 @@
         <v>0.5</v>
       </c>
       <c r="AP212">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ212">
         <v>0.73</v>
@@ -45545,7 +45551,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45751,7 +45757,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -45957,7 +45963,7 @@
         <v>240</v>
       </c>
       <c r="P216" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q216">
         <v>1.57</v>
@@ -46163,7 +46169,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46450,7 +46456,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ218">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR218">
         <v>1.3</v>
@@ -46575,7 +46581,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46781,7 +46787,7 @@
         <v>215</v>
       </c>
       <c r="P220" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -47193,7 +47199,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47605,7 +47611,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47811,7 +47817,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48507,7 +48513,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ228">
         <v>1</v>
@@ -48635,7 +48641,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48841,7 +48847,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49459,7 +49465,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49871,7 +49877,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50489,7 +50495,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50695,7 +50701,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -50776,7 +50782,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ239">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR239">
         <v>1.65</v>
@@ -51107,7 +51113,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51313,7 +51319,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51519,7 +51525,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51725,7 +51731,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -51803,7 +51809,7 @@
         <v>0.45</v>
       </c>
       <c r="AP244">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ244">
         <v>0.6</v>
@@ -52549,7 +52555,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52961,7 +52967,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53167,7 +53173,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53373,7 +53379,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -54072,7 +54078,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ255">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR255">
         <v>1.5</v>
@@ -54197,7 +54203,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -55021,7 +55027,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55305,7 +55311,7 @@
         <v>2.69</v>
       </c>
       <c r="AP261">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ261">
         <v>2.53</v>
@@ -55433,7 +55439,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55639,7 +55645,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55845,7 +55851,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56463,7 +56469,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56875,7 +56881,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57287,7 +57293,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57493,7 +57499,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -58111,7 +58117,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58189,7 +58195,7 @@
         <v>1.08</v>
       </c>
       <c r="AP275">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ275">
         <v>1.21</v>
@@ -58604,7 +58610,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ277">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR277">
         <v>1.53</v>
@@ -58729,7 +58735,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59347,7 +59353,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59759,7 +59765,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60171,7 +60177,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60789,7 +60795,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61152,6 +61158,212 @@
       </c>
       <c r="BP289">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7516579</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45772.58333333334</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>84</v>
+      </c>
+      <c r="H290" t="s">
+        <v>87</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>2</v>
+      </c>
+      <c r="L290">
+        <v>5</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="N290">
+        <v>6</v>
+      </c>
+      <c r="O290" t="s">
+        <v>288</v>
+      </c>
+      <c r="P290" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q290">
+        <v>1.57</v>
+      </c>
+      <c r="R290">
+        <v>3.1</v>
+      </c>
+      <c r="S290">
+        <v>8.5</v>
+      </c>
+      <c r="T290">
+        <v>1.18</v>
+      </c>
+      <c r="U290">
+        <v>4.5</v>
+      </c>
+      <c r="V290">
+        <v>1.83</v>
+      </c>
+      <c r="W290">
+        <v>1.83</v>
+      </c>
+      <c r="X290">
+        <v>3.75</v>
+      </c>
+      <c r="Y290">
+        <v>1.25</v>
+      </c>
+      <c r="Z290">
+        <v>1.18</v>
+      </c>
+      <c r="AA290">
+        <v>7.19</v>
+      </c>
+      <c r="AB290">
+        <v>11.4</v>
+      </c>
+      <c r="AC290">
+        <v>0</v>
+      </c>
+      <c r="AD290">
+        <v>0</v>
+      </c>
+      <c r="AE290">
+        <v>0</v>
+      </c>
+      <c r="AF290">
+        <v>0</v>
+      </c>
+      <c r="AG290">
+        <v>1.29</v>
+      </c>
+      <c r="AH290">
+        <v>3.4</v>
+      </c>
+      <c r="AI290">
+        <v>1.73</v>
+      </c>
+      <c r="AJ290">
+        <v>2</v>
+      </c>
+      <c r="AK290">
+        <v>0</v>
+      </c>
+      <c r="AL290">
+        <v>0</v>
+      </c>
+      <c r="AM290">
+        <v>0</v>
+      </c>
+      <c r="AN290">
+        <v>1.93</v>
+      </c>
+      <c r="AO290">
+        <v>0.36</v>
+      </c>
+      <c r="AP290">
+        <v>2</v>
+      </c>
+      <c r="AQ290">
+        <v>0.33</v>
+      </c>
+      <c r="AR290">
+        <v>1.67</v>
+      </c>
+      <c r="AS290">
+        <v>1.2</v>
+      </c>
+      <c r="AT290">
+        <v>2.87</v>
+      </c>
+      <c r="AU290">
+        <v>10</v>
+      </c>
+      <c r="AV290">
+        <v>8</v>
+      </c>
+      <c r="AW290">
+        <v>8</v>
+      </c>
+      <c r="AX290">
+        <v>8</v>
+      </c>
+      <c r="AY290">
+        <v>23</v>
+      </c>
+      <c r="AZ290">
+        <v>18</v>
+      </c>
+      <c r="BA290">
+        <v>4</v>
+      </c>
+      <c r="BB290">
+        <v>4</v>
+      </c>
+      <c r="BC290">
+        <v>8</v>
+      </c>
+      <c r="BD290">
+        <v>0</v>
+      </c>
+      <c r="BE290">
+        <v>0</v>
+      </c>
+      <c r="BF290">
+        <v>0</v>
+      </c>
+      <c r="BG290">
+        <v>0</v>
+      </c>
+      <c r="BH290">
+        <v>0</v>
+      </c>
+      <c r="BI290">
+        <v>0</v>
+      </c>
+      <c r="BJ290">
+        <v>0</v>
+      </c>
+      <c r="BK290">
+        <v>0</v>
+      </c>
+      <c r="BL290">
+        <v>0</v>
+      </c>
+      <c r="BM290">
+        <v>0</v>
+      </c>
+      <c r="BN290">
+        <v>0</v>
+      </c>
+      <c r="BO290">
+        <v>0</v>
+      </c>
+      <c r="BP290">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="415">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -883,6 +883,9 @@
     <t>['36', '52', '53', '59', '78']</t>
   </si>
   <si>
+    <t>['62', '75']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1034,9 +1037,6 @@
   </si>
   <si>
     <t>['13']</t>
-  </si>
-  <si>
-    <t>['62', '75']</t>
   </si>
   <si>
     <t>['54', '70', '88']</t>
@@ -1620,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2085,7 +2085,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
         <v>0.73</v>
@@ -2909,7 +2909,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3115,7 +3115,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3321,7 +3321,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3527,7 +3527,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3733,7 +3733,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3939,7 +3939,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4145,7 +4145,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4557,7 +4557,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4763,7 +4763,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4844,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5175,7 +5175,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5999,7 +5999,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6205,7 +6205,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6411,7 +6411,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6617,7 +6617,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7029,7 +7029,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7647,7 +7647,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7853,7 +7853,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -7934,7 +7934,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
         <v>1.45</v>
@@ -8471,7 +8471,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8677,7 +8677,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8755,7 +8755,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ35">
         <v>0.6</v>
@@ -8883,7 +8883,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9089,7 +9089,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9501,7 +9501,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9707,7 +9707,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10119,7 +10119,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10325,7 +10325,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10531,7 +10531,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10943,7 +10943,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11561,7 +11561,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11848,7 +11848,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR50">
         <v>1.45</v>
@@ -12179,7 +12179,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12385,7 +12385,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -13003,7 +13003,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13081,7 +13081,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ56">
         <v>1.21</v>
@@ -13209,7 +13209,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13621,7 +13621,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13827,7 +13827,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14033,7 +14033,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14239,7 +14239,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14445,7 +14445,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14651,7 +14651,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14857,7 +14857,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14938,7 +14938,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -15269,7 +15269,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15887,7 +15887,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16093,7 +16093,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16711,7 +16711,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17329,7 +17329,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17535,7 +17535,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17613,7 +17613,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
         <v>0.33</v>
@@ -17947,7 +17947,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18153,7 +18153,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18359,7 +18359,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18565,7 +18565,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18977,7 +18977,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19183,7 +19183,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19389,7 +19389,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19595,7 +19595,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19676,7 +19676,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -20419,7 +20419,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20703,7 +20703,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -22148,7 +22148,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.54</v>
@@ -25029,7 +25029,7 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
         <v>1.31</v>
@@ -25157,7 +25157,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -28122,7 +28122,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ129">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR129">
         <v>1.29</v>
@@ -28247,7 +28247,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29149,7 +29149,7 @@
         <v>3</v>
       </c>
       <c r="AP134">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ134">
         <v>2.53</v>
@@ -31543,7 +31543,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31827,7 +31827,7 @@
         <v>2.14</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
         <v>1.56</v>
@@ -31955,7 +31955,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32242,7 +32242,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ149">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
         <v>1.44</v>
@@ -35947,7 +35947,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ167">
         <v>0.67</v>
@@ -36156,7 +36156,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ168">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR168">
         <v>1.65</v>
@@ -38010,7 +38010,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ177">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR177">
         <v>1.85</v>
@@ -39243,7 +39243,7 @@
         <v>1.11</v>
       </c>
       <c r="AP183">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ183">
         <v>1</v>
@@ -41306,7 +41306,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ193">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR193">
         <v>1.23</v>
@@ -42461,7 +42461,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -43157,7 +43157,7 @@
         <v>1.2</v>
       </c>
       <c r="AP202">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ202">
         <v>1.33</v>
@@ -44602,7 +44602,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ209">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR209">
         <v>1.24</v>
@@ -44933,7 +44933,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -46787,7 +46787,7 @@
         <v>215</v>
       </c>
       <c r="P220" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -46865,7 +46865,7 @@
         <v>0.83</v>
       </c>
       <c r="AP220">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ220">
         <v>0.88</v>
@@ -48641,7 +48641,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -49134,7 +49134,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ231">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR231">
         <v>2.08</v>
@@ -49465,7 +49465,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -50985,7 +50985,7 @@
         <v>0.58</v>
       </c>
       <c r="AP240">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ240">
         <v>0.53</v>
@@ -52018,7 +52018,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ245">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR245">
         <v>1.85</v>
@@ -53379,7 +53379,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -54693,7 +54693,7 @@
         <v>0.38</v>
       </c>
       <c r="AP258">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ258">
         <v>0.33</v>
@@ -55851,7 +55851,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56469,7 +56469,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56881,7 +56881,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57293,7 +57293,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57992,7 +57992,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ274">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR274">
         <v>1.35</v>
@@ -58813,7 +58813,7 @@
         <v>2.21</v>
       </c>
       <c r="AP278">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ278">
         <v>2.27</v>
@@ -59765,7 +59765,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -61363,6 +61363,212 @@
         <v>0</v>
       </c>
       <c r="BP290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7516578</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45773.41666666666</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>74</v>
+      </c>
+      <c r="H291" t="s">
+        <v>72</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>289</v>
+      </c>
+      <c r="P291" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q291">
+        <v>2.88</v>
+      </c>
+      <c r="R291">
+        <v>2.2</v>
+      </c>
+      <c r="S291">
+        <v>3.75</v>
+      </c>
+      <c r="T291">
+        <v>1.36</v>
+      </c>
+      <c r="U291">
+        <v>3</v>
+      </c>
+      <c r="V291">
+        <v>2.75</v>
+      </c>
+      <c r="W291">
+        <v>1.4</v>
+      </c>
+      <c r="X291">
+        <v>7</v>
+      </c>
+      <c r="Y291">
+        <v>1.1</v>
+      </c>
+      <c r="Z291">
+        <v>2.15</v>
+      </c>
+      <c r="AA291">
+        <v>3.4</v>
+      </c>
+      <c r="AB291">
+        <v>3.25</v>
+      </c>
+      <c r="AC291">
+        <v>0</v>
+      </c>
+      <c r="AD291">
+        <v>0</v>
+      </c>
+      <c r="AE291">
+        <v>2.04</v>
+      </c>
+      <c r="AF291">
+        <v>1.82</v>
+      </c>
+      <c r="AG291">
+        <v>1.85</v>
+      </c>
+      <c r="AH291">
+        <v>1.95</v>
+      </c>
+      <c r="AI291">
+        <v>1.67</v>
+      </c>
+      <c r="AJ291">
+        <v>2.1</v>
+      </c>
+      <c r="AK291">
+        <v>0</v>
+      </c>
+      <c r="AL291">
+        <v>0</v>
+      </c>
+      <c r="AM291">
+        <v>0</v>
+      </c>
+      <c r="AN291">
+        <v>1.44</v>
+      </c>
+      <c r="AO291">
+        <v>0.67</v>
+      </c>
+      <c r="AP291">
+        <v>1.53</v>
+      </c>
+      <c r="AQ291">
+        <v>0.63</v>
+      </c>
+      <c r="AR291">
+        <v>1.35</v>
+      </c>
+      <c r="AS291">
+        <v>1.05</v>
+      </c>
+      <c r="AT291">
+        <v>2.4</v>
+      </c>
+      <c r="AU291">
+        <v>5</v>
+      </c>
+      <c r="AV291">
+        <v>4</v>
+      </c>
+      <c r="AW291">
+        <v>8</v>
+      </c>
+      <c r="AX291">
+        <v>7</v>
+      </c>
+      <c r="AY291">
+        <v>15</v>
+      </c>
+      <c r="AZ291">
+        <v>13</v>
+      </c>
+      <c r="BA291">
+        <v>6</v>
+      </c>
+      <c r="BB291">
+        <v>4</v>
+      </c>
+      <c r="BC291">
+        <v>10</v>
+      </c>
+      <c r="BD291">
+        <v>0</v>
+      </c>
+      <c r="BE291">
+        <v>0</v>
+      </c>
+      <c r="BF291">
+        <v>0</v>
+      </c>
+      <c r="BG291">
+        <v>0</v>
+      </c>
+      <c r="BH291">
+        <v>0</v>
+      </c>
+      <c r="BI291">
+        <v>0</v>
+      </c>
+      <c r="BJ291">
+        <v>0</v>
+      </c>
+      <c r="BK291">
+        <v>0</v>
+      </c>
+      <c r="BL291">
+        <v>0</v>
+      </c>
+      <c r="BM291">
+        <v>0</v>
+      </c>
+      <c r="BN291">
+        <v>0</v>
+      </c>
+      <c r="BO291">
+        <v>0</v>
+      </c>
+      <c r="BP291">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="417">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -886,6 +886,9 @@
     <t>['62', '75']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1034,9 +1037,6 @@
   </si>
   <si>
     <t>['68', '71', '77', '86']</t>
-  </si>
-  <si>
-    <t>['13']</t>
   </si>
   <si>
     <t>['54', '70', '88']</t>
@@ -1259,6 +1259,12 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['11', '38']</t>
+  </si>
+  <si>
+    <t>['68', '69', '72']</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP291"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2085,7 +2091,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2909,7 +2915,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3115,7 +3121,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3321,7 +3327,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3527,7 +3533,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3605,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ10">
         <v>0.6</v>
@@ -3733,7 +3739,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3939,7 +3945,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4145,7 +4151,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4226,7 +4232,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ13">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4351,7 +4357,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4557,7 +4563,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4763,7 +4769,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4969,7 +4975,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5047,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ17">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5175,7 +5181,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5999,7 +6005,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6077,7 +6083,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6205,7 +6211,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6411,7 +6417,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6617,7 +6623,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6698,7 +6704,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ25">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR25">
         <v>1.86</v>
@@ -7029,7 +7035,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7647,7 +7653,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7853,7 +7859,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8471,7 +8477,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8552,7 +8558,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ34">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR34">
         <v>0.72</v>
@@ -8677,7 +8683,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8883,7 +8889,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9089,7 +9095,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9167,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ37">
         <v>1.21</v>
@@ -9501,7 +9507,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9582,7 +9588,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR39">
         <v>1.4</v>
@@ -9707,7 +9713,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10119,7 +10125,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10325,7 +10331,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10531,7 +10537,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10943,7 +10949,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11561,7 +11567,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -12054,7 +12060,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ51">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR51">
         <v>1.43</v>
@@ -12179,7 +12185,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12385,7 +12391,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12875,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ55">
         <v>0.73</v>
@@ -13003,7 +13009,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13209,7 +13215,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13621,7 +13627,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13827,7 +13833,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14033,7 +14039,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14239,7 +14245,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14317,7 +14323,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ62">
         <v>0.33</v>
@@ -14445,7 +14451,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14526,7 +14532,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14651,7 +14657,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14857,7 +14863,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15269,7 +15275,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15887,7 +15893,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16093,7 +16099,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16174,7 +16180,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ71">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR71">
         <v>1.33</v>
@@ -16583,7 +16589,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -16711,7 +16717,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17329,7 +17335,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17535,7 +17541,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17947,7 +17953,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18153,7 +18159,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18234,7 +18240,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ81">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18359,7 +18365,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18437,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18565,7 +18571,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18977,7 +18983,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19058,7 +19064,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR85">
         <v>1.46</v>
@@ -19183,7 +19189,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19389,7 +19395,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19467,7 +19473,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -20419,7 +20425,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20497,7 +20503,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ92">
         <v>0.53</v>
@@ -21733,7 +21739,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ98">
         <v>0.67</v>
@@ -21942,7 +21948,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ99">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -23590,7 +23596,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ107">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR107">
         <v>1.87</v>
@@ -24414,7 +24420,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ111">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24617,7 +24623,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ112">
         <v>1.21</v>
@@ -24823,7 +24829,7 @@
         <v>3</v>
       </c>
       <c r="AP113">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ113">
         <v>2.53</v>
@@ -25157,7 +25163,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -28247,7 +28253,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28534,7 +28540,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR131">
         <v>1.61</v>
@@ -28740,7 +28746,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR132">
         <v>1.36</v>
@@ -29561,7 +29567,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29973,7 +29979,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ138">
         <v>0.53</v>
@@ -31543,7 +31549,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31624,7 +31630,7 @@
         <v>2</v>
       </c>
       <c r="AQ146">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -31830,7 +31836,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -31955,7 +31961,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32239,7 +32245,7 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ149">
         <v>0.63</v>
@@ -34917,7 +34923,7 @@
         <v>1.13</v>
       </c>
       <c r="AP162">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ162">
         <v>1</v>
@@ -35332,7 +35338,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR164">
         <v>1.61</v>
@@ -36359,7 +36365,7 @@
         <v>0.63</v>
       </c>
       <c r="AP169">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ169">
         <v>0.33</v>
@@ -36980,7 +36986,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ172">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -37595,7 +37601,7 @@
         <v>0.44</v>
       </c>
       <c r="AP175">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ175">
         <v>0.9399999999999999</v>
@@ -37804,7 +37810,7 @@
         <v>2</v>
       </c>
       <c r="AQ176">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR176">
         <v>1.49</v>
@@ -38628,7 +38634,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ180">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR180">
         <v>1.28</v>
@@ -40067,7 +40073,7 @@
         <v>1.3</v>
       </c>
       <c r="AP187">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ187">
         <v>1.25</v>
@@ -41718,7 +41724,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ195">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR195">
         <v>1.49</v>
@@ -42461,7 +42467,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42539,7 +42545,7 @@
         <v>2.78</v>
       </c>
       <c r="AP199">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ199">
         <v>2.53</v>
@@ -43572,7 +43578,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ204">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR204">
         <v>1.37</v>
@@ -44393,7 +44399,7 @@
         <v>0.6</v>
       </c>
       <c r="AP208">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ208">
         <v>0.53</v>
@@ -44805,7 +44811,7 @@
         <v>0.7</v>
       </c>
       <c r="AP210">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ210">
         <v>0.53</v>
@@ -44933,7 +44939,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45838,7 +45844,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ215">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR215">
         <v>1.37</v>
@@ -46453,7 +46459,7 @@
         <v>0.2</v>
       </c>
       <c r="AP218">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ218">
         <v>0.33</v>
@@ -46787,7 +46793,7 @@
         <v>215</v>
       </c>
       <c r="P220" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q220">
         <v>3.2</v>
@@ -48104,7 +48110,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ226">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR226">
         <v>1.94</v>
@@ -48641,7 +48647,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -49465,7 +49471,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49543,7 +49549,7 @@
         <v>1.33</v>
       </c>
       <c r="AP233">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ233">
         <v>1.25</v>
@@ -49958,7 +49964,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ235">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR235">
         <v>1.89</v>
@@ -50161,7 +50167,7 @@
         <v>1.38</v>
       </c>
       <c r="AP236">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ236">
         <v>1.31</v>
@@ -52221,7 +52227,7 @@
         <v>0.92</v>
       </c>
       <c r="AP246">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ246">
         <v>1</v>
@@ -53379,7 +53385,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53666,7 +53672,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ253">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR253">
         <v>2.06</v>
@@ -54281,10 +54287,10 @@
         <v>2.15</v>
       </c>
       <c r="AP256">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ256">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR256">
         <v>1.33</v>
@@ -55851,7 +55857,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56344,7 +56350,7 @@
         <v>2</v>
       </c>
       <c r="AQ266">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR266">
         <v>1.43</v>
@@ -56469,7 +56475,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56881,7 +56887,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57293,7 +57299,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57989,7 +57995,7 @@
         <v>0.64</v>
       </c>
       <c r="AP274">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ274">
         <v>0.63</v>
@@ -58607,7 +58613,7 @@
         <v>0.38</v>
       </c>
       <c r="AP277">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ277">
         <v>0.33</v>
@@ -58816,7 +58822,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ278">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR278">
         <v>1.34</v>
@@ -59765,7 +59771,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -61082,7 +61088,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ289">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR289">
         <v>1.44</v>
@@ -61569,6 +61575,418 @@
         <v>0</v>
       </c>
       <c r="BP291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7516584</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45773.54166666666</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>78</v>
+      </c>
+      <c r="H292" t="s">
+        <v>76</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>2</v>
+      </c>
+      <c r="K292">
+        <v>3</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>2</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>188</v>
+      </c>
+      <c r="P292" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q292">
+        <v>3.25</v>
+      </c>
+      <c r="R292">
+        <v>2</v>
+      </c>
+      <c r="S292">
+        <v>3.6</v>
+      </c>
+      <c r="T292">
+        <v>1.5</v>
+      </c>
+      <c r="U292">
+        <v>2.5</v>
+      </c>
+      <c r="V292">
+        <v>3.5</v>
+      </c>
+      <c r="W292">
+        <v>1.29</v>
+      </c>
+      <c r="X292">
+        <v>10</v>
+      </c>
+      <c r="Y292">
+        <v>1.06</v>
+      </c>
+      <c r="Z292">
+        <v>2.5</v>
+      </c>
+      <c r="AA292">
+        <v>3</v>
+      </c>
+      <c r="AB292">
+        <v>3.03</v>
+      </c>
+      <c r="AC292">
+        <v>0</v>
+      </c>
+      <c r="AD292">
+        <v>0</v>
+      </c>
+      <c r="AE292">
+        <v>0</v>
+      </c>
+      <c r="AF292">
+        <v>0</v>
+      </c>
+      <c r="AG292">
+        <v>2.3</v>
+      </c>
+      <c r="AH292">
+        <v>1.53</v>
+      </c>
+      <c r="AI292">
+        <v>1.91</v>
+      </c>
+      <c r="AJ292">
+        <v>1.8</v>
+      </c>
+      <c r="AK292">
+        <v>0</v>
+      </c>
+      <c r="AL292">
+        <v>0</v>
+      </c>
+      <c r="AM292">
+        <v>0</v>
+      </c>
+      <c r="AN292">
+        <v>1.27</v>
+      </c>
+      <c r="AO292">
+        <v>1.56</v>
+      </c>
+      <c r="AP292">
+        <v>1.19</v>
+      </c>
+      <c r="AQ292">
+        <v>1.65</v>
+      </c>
+      <c r="AR292">
+        <v>1.32</v>
+      </c>
+      <c r="AS292">
+        <v>1.19</v>
+      </c>
+      <c r="AT292">
+        <v>2.51</v>
+      </c>
+      <c r="AU292">
+        <v>8</v>
+      </c>
+      <c r="AV292">
+        <v>6</v>
+      </c>
+      <c r="AW292">
+        <v>16</v>
+      </c>
+      <c r="AX292">
+        <v>2</v>
+      </c>
+      <c r="AY292">
+        <v>33</v>
+      </c>
+      <c r="AZ292">
+        <v>8</v>
+      </c>
+      <c r="BA292">
+        <v>9</v>
+      </c>
+      <c r="BB292">
+        <v>6</v>
+      </c>
+      <c r="BC292">
+        <v>15</v>
+      </c>
+      <c r="BD292">
+        <v>0</v>
+      </c>
+      <c r="BE292">
+        <v>0</v>
+      </c>
+      <c r="BF292">
+        <v>0</v>
+      </c>
+      <c r="BG292">
+        <v>0</v>
+      </c>
+      <c r="BH292">
+        <v>0</v>
+      </c>
+      <c r="BI292">
+        <v>0</v>
+      </c>
+      <c r="BJ292">
+        <v>0</v>
+      </c>
+      <c r="BK292">
+        <v>0</v>
+      </c>
+      <c r="BL292">
+        <v>0</v>
+      </c>
+      <c r="BM292">
+        <v>0</v>
+      </c>
+      <c r="BN292">
+        <v>0</v>
+      </c>
+      <c r="BO292">
+        <v>0</v>
+      </c>
+      <c r="BP292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7516586</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45773.54166666666</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>85</v>
+      </c>
+      <c r="H293" t="s">
+        <v>73</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>3</v>
+      </c>
+      <c r="N293">
+        <v>4</v>
+      </c>
+      <c r="O293" t="s">
+        <v>290</v>
+      </c>
+      <c r="P293" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q293">
+        <v>6</v>
+      </c>
+      <c r="R293">
+        <v>2.63</v>
+      </c>
+      <c r="S293">
+        <v>1.83</v>
+      </c>
+      <c r="T293">
+        <v>1.25</v>
+      </c>
+      <c r="U293">
+        <v>3.75</v>
+      </c>
+      <c r="V293">
+        <v>2.1</v>
+      </c>
+      <c r="W293">
+        <v>1.67</v>
+      </c>
+      <c r="X293">
+        <v>4.5</v>
+      </c>
+      <c r="Y293">
+        <v>1.18</v>
+      </c>
+      <c r="Z293">
+        <v>7.68</v>
+      </c>
+      <c r="AA293">
+        <v>5.12</v>
+      </c>
+      <c r="AB293">
+        <v>1.34</v>
+      </c>
+      <c r="AC293">
+        <v>0</v>
+      </c>
+      <c r="AD293">
+        <v>0</v>
+      </c>
+      <c r="AE293">
+        <v>0</v>
+      </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
+      <c r="AG293">
+        <v>1.44</v>
+      </c>
+      <c r="AH293">
+        <v>2.7</v>
+      </c>
+      <c r="AI293">
+        <v>1.62</v>
+      </c>
+      <c r="AJ293">
+        <v>2.2</v>
+      </c>
+      <c r="AK293">
+        <v>0</v>
+      </c>
+      <c r="AL293">
+        <v>0</v>
+      </c>
+      <c r="AM293">
+        <v>0</v>
+      </c>
+      <c r="AN293">
+        <v>2.2</v>
+      </c>
+      <c r="AO293">
+        <v>2.27</v>
+      </c>
+      <c r="AP293">
+        <v>2.06</v>
+      </c>
+      <c r="AQ293">
+        <v>2.31</v>
+      </c>
+      <c r="AR293">
+        <v>1.6</v>
+      </c>
+      <c r="AS293">
+        <v>1.66</v>
+      </c>
+      <c r="AT293">
+        <v>3.26</v>
+      </c>
+      <c r="AU293">
+        <v>6</v>
+      </c>
+      <c r="AV293">
+        <v>10</v>
+      </c>
+      <c r="AW293">
+        <v>3</v>
+      </c>
+      <c r="AX293">
+        <v>5</v>
+      </c>
+      <c r="AY293">
+        <v>9</v>
+      </c>
+      <c r="AZ293">
+        <v>16</v>
+      </c>
+      <c r="BA293">
+        <v>1</v>
+      </c>
+      <c r="BB293">
+        <v>8</v>
+      </c>
+      <c r="BC293">
+        <v>9</v>
+      </c>
+      <c r="BD293">
+        <v>0</v>
+      </c>
+      <c r="BE293">
+        <v>0</v>
+      </c>
+      <c r="BF293">
+        <v>0</v>
+      </c>
+      <c r="BG293">
+        <v>0</v>
+      </c>
+      <c r="BH293">
+        <v>0</v>
+      </c>
+      <c r="BI293">
+        <v>0</v>
+      </c>
+      <c r="BJ293">
+        <v>0</v>
+      </c>
+      <c r="BK293">
+        <v>0</v>
+      </c>
+      <c r="BL293">
+        <v>0</v>
+      </c>
+      <c r="BM293">
+        <v>0</v>
+      </c>
+      <c r="BN293">
+        <v>0</v>
+      </c>
+      <c r="BO293">
+        <v>0</v>
+      </c>
+      <c r="BP293">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -61927,19 +61927,19 @@
         <v>6</v>
       </c>
       <c r="AV293">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX293">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY293">
         <v>9</v>
       </c>
       <c r="AZ293">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA293">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="423">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -898,6 +898,9 @@
     <t>['43']</t>
   </si>
   <si>
+    <t>['25', '42', '64', '86']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1278,6 +1281,9 @@
   <si>
     <t>['29', '56', '71', '87', '89']</t>
   </si>
+  <si>
+    <t>['75']</t>
+  </si>
 </sst>
 </file>
 
@@ -1638,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2103,7 +2109,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2927,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3133,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3339,7 +3345,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3420,7 +3426,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ9">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3545,7 +3551,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3751,7 +3757,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3957,7 +3963,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4163,7 +4169,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4241,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ13">
         <v>2.31</v>
@@ -4369,7 +4375,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4575,7 +4581,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4781,7 +4787,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4987,7 +4993,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5193,7 +5199,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -6017,7 +6023,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6223,7 +6229,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6429,7 +6435,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6635,7 +6641,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7047,7 +7053,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7537,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7665,7 +7671,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7871,7 +7877,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8489,7 +8495,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8695,7 +8701,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8901,7 +8907,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9107,7 +9113,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9188,7 +9194,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ37">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -9519,7 +9525,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9725,7 +9731,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10137,7 +10143,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10343,7 +10349,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10549,7 +10555,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10836,7 +10842,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ45">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR45">
         <v>1.54</v>
@@ -10961,7 +10967,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11579,7 +11585,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -12197,7 +12203,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12403,7 +12409,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12687,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -13021,7 +13027,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13102,7 +13108,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ56">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -13227,7 +13233,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13639,7 +13645,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13845,7 +13851,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14051,7 +14057,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14257,7 +14263,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14463,7 +14469,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14669,7 +14675,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14875,7 +14881,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15287,7 +15293,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15365,7 +15371,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ67">
         <v>0.53</v>
@@ -15905,7 +15911,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16111,7 +16117,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16729,7 +16735,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17016,7 +17022,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ75">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR75">
         <v>1.52</v>
@@ -17347,7 +17353,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17553,7 +17559,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17965,7 +17971,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18171,7 +18177,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18377,7 +18383,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18583,7 +18589,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18995,7 +19001,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19201,7 +19207,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19279,7 +19285,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ86">
         <v>0.73</v>
@@ -20437,7 +20443,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21055,7 +21061,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21261,7 +21267,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21342,7 +21348,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ96">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21879,7 +21885,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22291,7 +22297,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22497,7 +22503,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22703,7 +22709,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23399,7 +23405,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ106">
         <v>0.88</v>
@@ -23527,7 +23533,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -24145,7 +24151,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24351,7 +24357,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24638,7 +24644,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ112">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -25175,7 +25181,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25587,7 +25593,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26411,7 +26417,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26617,7 +26623,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27235,7 +27241,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27853,7 +27859,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28265,7 +28271,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28343,7 +28349,7 @@
         <v>0.33</v>
       </c>
       <c r="AP130">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ130">
         <v>0.31</v>
@@ -29089,7 +29095,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -31024,7 +31030,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ143">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR143">
         <v>1.95</v>
@@ -31149,7 +31155,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31355,7 +31361,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31561,7 +31567,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31973,7 +31979,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32463,7 +32469,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ150">
         <v>0.9399999999999999</v>
@@ -32591,7 +32597,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33003,7 +33009,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33209,7 +33215,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33621,7 +33627,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33908,7 +33914,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ157">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -34033,7 +34039,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34445,7 +34451,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34651,7 +34657,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35475,7 +35481,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36505,7 +36511,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36789,7 +36795,7 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ171">
         <v>1.31</v>
@@ -36917,7 +36923,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38025,7 +38031,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP177">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ177">
         <v>0.63</v>
@@ -38153,7 +38159,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38565,7 +38571,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38977,7 +38983,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39183,7 +39189,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39389,7 +39395,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39470,7 +39476,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ184">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR184">
         <v>1.37</v>
@@ -39801,7 +39807,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40419,7 +40425,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40625,7 +40631,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40831,7 +40837,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41243,7 +41249,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41861,7 +41867,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42067,7 +42073,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42145,7 +42151,7 @@
         <v>0.7</v>
       </c>
       <c r="AP197">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ197">
         <v>0.63</v>
@@ -42273,7 +42279,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42479,7 +42485,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42891,7 +42897,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43097,7 +43103,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43303,7 +43309,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43509,7 +43515,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44002,7 +44008,7 @@
         <v>2</v>
       </c>
       <c r="AQ206">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR206">
         <v>1.42</v>
@@ -44951,7 +44957,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45569,7 +45575,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45775,7 +45781,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -45981,7 +45987,7 @@
         <v>240</v>
       </c>
       <c r="P216" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q216">
         <v>1.57</v>
@@ -46187,7 +46193,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46599,7 +46605,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -47217,7 +47223,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47629,7 +47635,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47835,7 +47841,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48659,7 +48665,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48865,7 +48871,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49483,7 +49489,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49895,7 +49901,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -49973,7 +49979,7 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ235">
         <v>1.65</v>
@@ -50388,7 +50394,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ237">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR237">
         <v>1.51</v>
@@ -50513,7 +50519,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50719,7 +50725,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51131,7 +51137,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51337,7 +51343,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51543,7 +51549,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51749,7 +51755,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -52573,7 +52579,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52985,7 +52991,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53191,7 +53197,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53397,7 +53403,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53475,7 +53481,7 @@
         <v>1.23</v>
       </c>
       <c r="AP252">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ252">
         <v>1.25</v>
@@ -54221,7 +54227,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -55045,7 +55051,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55457,7 +55463,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55538,7 +55544,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ262">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR262">
         <v>1.43</v>
@@ -55663,7 +55669,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55869,7 +55875,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56487,7 +56493,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56899,7 +56905,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57183,7 +57189,7 @@
         <v>0.62</v>
       </c>
       <c r="AP270">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ270">
         <v>0.6</v>
@@ -57311,7 +57317,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57517,7 +57523,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -58135,7 +58141,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58216,7 +58222,7 @@
         <v>2</v>
       </c>
       <c r="AQ275">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR275">
         <v>1.68</v>
@@ -58753,7 +58759,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59371,7 +59377,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59783,7 +59789,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60195,7 +60201,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60273,7 +60279,7 @@
         <v>1.36</v>
       </c>
       <c r="AP285">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ285">
         <v>1.33</v>
@@ -60813,7 +60819,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61225,7 +61231,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61637,7 +61643,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61682,10 +61688,10 @@
         <v>0</v>
       </c>
       <c r="AE292">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF292">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG292">
         <v>2.3</v>
@@ -61843,7 +61849,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62049,7 +62055,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62461,7 +62467,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62823,6 +62829,212 @@
         <v>0</v>
       </c>
       <c r="BP297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7516585</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45775.58333333334</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>81</v>
+      </c>
+      <c r="H298" t="s">
+        <v>83</v>
+      </c>
+      <c r="I298">
+        <v>2</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>2</v>
+      </c>
+      <c r="L298">
+        <v>4</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>5</v>
+      </c>
+      <c r="O298" t="s">
+        <v>294</v>
+      </c>
+      <c r="P298" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q298">
+        <v>2.88</v>
+      </c>
+      <c r="R298">
+        <v>2.1</v>
+      </c>
+      <c r="S298">
+        <v>3.75</v>
+      </c>
+      <c r="T298">
+        <v>1.44</v>
+      </c>
+      <c r="U298">
+        <v>2.63</v>
+      </c>
+      <c r="V298">
+        <v>3</v>
+      </c>
+      <c r="W298">
+        <v>1.36</v>
+      </c>
+      <c r="X298">
+        <v>9</v>
+      </c>
+      <c r="Y298">
+        <v>1.07</v>
+      </c>
+      <c r="Z298">
+        <v>2.24</v>
+      </c>
+      <c r="AA298">
+        <v>3.18</v>
+      </c>
+      <c r="AB298">
+        <v>3.3</v>
+      </c>
+      <c r="AC298">
+        <v>0</v>
+      </c>
+      <c r="AD298">
+        <v>0</v>
+      </c>
+      <c r="AE298">
+        <v>0</v>
+      </c>
+      <c r="AF298">
+        <v>0</v>
+      </c>
+      <c r="AG298">
+        <v>2</v>
+      </c>
+      <c r="AH298">
+        <v>1.7</v>
+      </c>
+      <c r="AI298">
+        <v>1.83</v>
+      </c>
+      <c r="AJ298">
+        <v>1.83</v>
+      </c>
+      <c r="AK298">
+        <v>0</v>
+      </c>
+      <c r="AL298">
+        <v>0</v>
+      </c>
+      <c r="AM298">
+        <v>0</v>
+      </c>
+      <c r="AN298">
+        <v>2.13</v>
+      </c>
+      <c r="AO298">
+        <v>1.21</v>
+      </c>
+      <c r="AP298">
+        <v>2.19</v>
+      </c>
+      <c r="AQ298">
+        <v>1.13</v>
+      </c>
+      <c r="AR298">
+        <v>1.83</v>
+      </c>
+      <c r="AS298">
+        <v>1.3</v>
+      </c>
+      <c r="AT298">
+        <v>3.13</v>
+      </c>
+      <c r="AU298">
+        <v>14</v>
+      </c>
+      <c r="AV298">
+        <v>8</v>
+      </c>
+      <c r="AW298">
+        <v>16</v>
+      </c>
+      <c r="AX298">
+        <v>5</v>
+      </c>
+      <c r="AY298">
+        <v>37</v>
+      </c>
+      <c r="AZ298">
+        <v>14</v>
+      </c>
+      <c r="BA298">
+        <v>7</v>
+      </c>
+      <c r="BB298">
+        <v>4</v>
+      </c>
+      <c r="BC298">
+        <v>11</v>
+      </c>
+      <c r="BD298">
+        <v>0</v>
+      </c>
+      <c r="BE298">
+        <v>0</v>
+      </c>
+      <c r="BF298">
+        <v>0</v>
+      </c>
+      <c r="BG298">
+        <v>0</v>
+      </c>
+      <c r="BH298">
+        <v>0</v>
+      </c>
+      <c r="BI298">
+        <v>0</v>
+      </c>
+      <c r="BJ298">
+        <v>0</v>
+      </c>
+      <c r="BK298">
+        <v>0</v>
+      </c>
+      <c r="BL298">
+        <v>0</v>
+      </c>
+      <c r="BM298">
+        <v>0</v>
+      </c>
+      <c r="BN298">
+        <v>0</v>
+      </c>
+      <c r="BO298">
+        <v>0</v>
+      </c>
+      <c r="BP298">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="423">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -901,6 +901,9 @@
     <t>['25', '42', '64', '86']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1187,9 +1190,6 @@
   </si>
   <si>
     <t>['2']</t>
-  </si>
-  <si>
-    <t>['62']</t>
   </si>
   <si>
     <t>['47', '86']</t>
@@ -1644,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2109,7 +2109,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2190,7 +2190,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ4">
         <v>0.53</v>
@@ -2933,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3139,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3345,7 +3345,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3551,7 +3551,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3757,7 +3757,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3963,7 +3963,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4169,7 +4169,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4375,7 +4375,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4581,7 +4581,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4787,7 +4787,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4993,7 +4993,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5199,7 +5199,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -6023,7 +6023,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6104,7 +6104,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ22">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR22">
         <v>1.83</v>
@@ -6229,7 +6229,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6435,7 +6435,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ24">
         <v>0.33</v>
@@ -6641,7 +6641,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7053,7 +7053,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7671,7 +7671,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7877,7 +7877,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8495,7 +8495,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8701,7 +8701,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8907,7 +8907,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8988,7 +8988,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR36">
         <v>1.86</v>
@@ -9113,7 +9113,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9525,7 +9525,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9731,7 +9731,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10143,7 +10143,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10349,7 +10349,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10427,7 +10427,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ43">
         <v>0.31</v>
@@ -10555,7 +10555,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10967,7 +10967,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11585,7 +11585,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -12203,7 +12203,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12409,7 +12409,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -13027,7 +13027,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13233,7 +13233,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13645,7 +13645,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13851,7 +13851,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14057,7 +14057,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14138,7 +14138,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ61">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR61">
         <v>1.54</v>
@@ -14263,7 +14263,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14469,7 +14469,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14547,7 +14547,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ63">
         <v>2.31</v>
@@ -14675,7 +14675,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14881,7 +14881,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15293,7 +15293,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15911,7 +15911,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16117,7 +16117,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16735,7 +16735,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17353,7 +17353,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17431,7 +17431,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ77">
         <v>2.56</v>
@@ -17559,7 +17559,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17846,7 +17846,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17971,7 +17971,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18177,7 +18177,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18383,7 +18383,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18589,7 +18589,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -19001,7 +19001,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19207,7 +19207,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19494,7 +19494,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ87">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR87">
         <v>1.44</v>
@@ -20443,7 +20443,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21061,7 +21061,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21267,7 +21267,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21885,7 +21885,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22297,7 +22297,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22503,7 +22503,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22581,7 +22581,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ102">
         <v>0.9399999999999999</v>
@@ -22709,7 +22709,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23408,7 +23408,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR106">
         <v>1.79</v>
@@ -23533,7 +23533,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -24151,7 +24151,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24357,7 +24357,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -25181,7 +25181,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25593,7 +25593,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26083,7 +26083,7 @@
         <v>1.17</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ119">
         <v>0.53</v>
@@ -26417,7 +26417,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26498,7 +26498,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ121">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26623,7 +26623,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27241,7 +27241,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27859,7 +27859,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28271,7 +28271,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29095,7 +29095,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -30206,7 +30206,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ139">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -30821,7 +30821,7 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -31155,7 +31155,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31361,7 +31361,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31567,7 +31567,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31979,7 +31979,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32597,7 +32597,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33009,7 +33009,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33215,7 +33215,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33627,7 +33627,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33708,7 +33708,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ156">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR156">
         <v>1.36</v>
@@ -34039,7 +34039,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34117,7 +34117,7 @@
         <v>1.11</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ158">
         <v>1.25</v>
@@ -34451,7 +34451,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34657,7 +34657,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35481,7 +35481,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36511,7 +36511,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36923,7 +36923,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38159,7 +38159,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38571,7 +38571,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38983,7 +38983,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39189,7 +39189,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39395,7 +39395,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39682,7 +39682,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ185">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR185">
         <v>2.01</v>
@@ -39807,7 +39807,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40297,7 +40297,7 @@
         <v>1.22</v>
       </c>
       <c r="AP188">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ188">
         <v>1.33</v>
@@ -40425,7 +40425,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40631,7 +40631,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40837,7 +40837,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41249,7 +41249,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41867,7 +41867,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42073,7 +42073,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42279,7 +42279,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42485,7 +42485,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42897,7 +42897,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42978,7 +42978,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ201">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR201">
         <v>1.5</v>
@@ -43103,7 +43103,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43309,7 +43309,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43515,7 +43515,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44005,7 +44005,7 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ206">
         <v>1.13</v>
@@ -44957,7 +44957,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45575,7 +45575,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45781,7 +45781,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -45987,7 +45987,7 @@
         <v>240</v>
       </c>
       <c r="P216" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="Q216">
         <v>1.57</v>
@@ -46892,7 +46892,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ220">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR220">
         <v>1.28</v>
@@ -47095,7 +47095,7 @@
         <v>1.5</v>
       </c>
       <c r="AP221">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ221">
         <v>1.31</v>
@@ -48665,7 +48665,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -49489,7 +49489,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -50597,7 +50597,7 @@
         <v>1.15</v>
       </c>
       <c r="AP238">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ238">
         <v>0.9399999999999999</v>
@@ -51424,7 +51424,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ242">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR242">
         <v>1.48</v>
@@ -53403,7 +53403,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53893,7 +53893,7 @@
         <v>0.71</v>
       </c>
       <c r="AP254">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ254">
         <v>0.63</v>
@@ -55875,7 +55875,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56162,7 +56162,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ265">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR265">
         <v>1.49</v>
@@ -56365,7 +56365,7 @@
         <v>1.79</v>
       </c>
       <c r="AP266">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ266">
         <v>1.65</v>
@@ -56493,7 +56493,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56905,7 +56905,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57317,7 +57317,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -59458,7 +59458,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ281">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR281">
         <v>1.29</v>
@@ -59789,7 +59789,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -63035,6 +63035,212 @@
         <v>0</v>
       </c>
       <c r="BP298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7516591</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45779.58333333334</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>72</v>
+      </c>
+      <c r="H299" t="s">
+        <v>79</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>1</v>
+      </c>
+      <c r="O299" t="s">
+        <v>295</v>
+      </c>
+      <c r="P299" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q299">
+        <v>3.1</v>
+      </c>
+      <c r="R299">
+        <v>2.2</v>
+      </c>
+      <c r="S299">
+        <v>3.4</v>
+      </c>
+      <c r="T299">
+        <v>1.36</v>
+      </c>
+      <c r="U299">
+        <v>3</v>
+      </c>
+      <c r="V299">
+        <v>2.75</v>
+      </c>
+      <c r="W299">
+        <v>1.4</v>
+      </c>
+      <c r="X299">
+        <v>7</v>
+      </c>
+      <c r="Y299">
+        <v>1.1</v>
+      </c>
+      <c r="Z299">
+        <v>2.45</v>
+      </c>
+      <c r="AA299">
+        <v>3.3</v>
+      </c>
+      <c r="AB299">
+        <v>2.75</v>
+      </c>
+      <c r="AC299">
+        <v>0</v>
+      </c>
+      <c r="AD299">
+        <v>0</v>
+      </c>
+      <c r="AE299">
+        <v>2.34</v>
+      </c>
+      <c r="AF299">
+        <v>1.62</v>
+      </c>
+      <c r="AG299">
+        <v>1.95</v>
+      </c>
+      <c r="AH299">
+        <v>1.85</v>
+      </c>
+      <c r="AI299">
+        <v>1.73</v>
+      </c>
+      <c r="AJ299">
+        <v>2</v>
+      </c>
+      <c r="AK299">
+        <v>0</v>
+      </c>
+      <c r="AL299">
+        <v>0</v>
+      </c>
+      <c r="AM299">
+        <v>0</v>
+      </c>
+      <c r="AN299">
+        <v>2</v>
+      </c>
+      <c r="AO299">
+        <v>0.88</v>
+      </c>
+      <c r="AP299">
+        <v>2.06</v>
+      </c>
+      <c r="AQ299">
+        <v>0.82</v>
+      </c>
+      <c r="AR299">
+        <v>1.42</v>
+      </c>
+      <c r="AS299">
+        <v>1.3</v>
+      </c>
+      <c r="AT299">
+        <v>2.72</v>
+      </c>
+      <c r="AU299">
+        <v>4</v>
+      </c>
+      <c r="AV299">
+        <v>9</v>
+      </c>
+      <c r="AW299">
+        <v>5</v>
+      </c>
+      <c r="AX299">
+        <v>8</v>
+      </c>
+      <c r="AY299">
+        <v>9</v>
+      </c>
+      <c r="AZ299">
+        <v>19</v>
+      </c>
+      <c r="BA299">
+        <v>4</v>
+      </c>
+      <c r="BB299">
+        <v>6</v>
+      </c>
+      <c r="BC299">
+        <v>10</v>
+      </c>
+      <c r="BD299">
+        <v>0</v>
+      </c>
+      <c r="BE299">
+        <v>0</v>
+      </c>
+      <c r="BF299">
+        <v>0</v>
+      </c>
+      <c r="BG299">
+        <v>0</v>
+      </c>
+      <c r="BH299">
+        <v>0</v>
+      </c>
+      <c r="BI299">
+        <v>0</v>
+      </c>
+      <c r="BJ299">
+        <v>0</v>
+      </c>
+      <c r="BK299">
+        <v>0</v>
+      </c>
+      <c r="BL299">
+        <v>0</v>
+      </c>
+      <c r="BM299">
+        <v>0</v>
+      </c>
+      <c r="BN299">
+        <v>0</v>
+      </c>
+      <c r="BO299">
+        <v>0</v>
+      </c>
+      <c r="BP299">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="427">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -904,6 +904,18 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['77', '90+4']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['4', '56']</t>
+  </si>
+  <si>
+    <t>['9', '15', '21', '31']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -938,9 +950,6 @@
   </si>
   <si>
     <t>['5']</t>
-  </si>
-  <si>
-    <t>['30']</t>
   </si>
   <si>
     <t>['45+4']</t>
@@ -1283,6 +1292,9 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['9', '30', '82', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP299"/>
+  <dimension ref="A1:BP303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1981,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -2109,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2933,7 +2945,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3011,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -3139,7 +3151,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3345,7 +3357,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3423,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3551,7 +3563,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3632,7 +3644,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ10">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3757,7 +3769,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3963,7 +3975,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4044,7 +4056,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4169,7 +4181,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4375,7 +4387,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4581,7 +4593,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4787,7 +4799,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4993,7 +5005,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5199,7 +5211,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5483,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ19">
         <v>1.31</v>
@@ -5689,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
         <v>0.53</v>
@@ -6023,7 +6035,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6229,7 +6241,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6435,7 +6447,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6641,7 +6653,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6719,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25">
         <v>2.31</v>
@@ -7053,7 +7065,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7131,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
         <v>1.31</v>
@@ -7671,7 +7683,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7877,7 +7889,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8370,7 +8382,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -8495,7 +8507,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8573,7 +8585,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ34">
         <v>1.65</v>
@@ -8701,7 +8713,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8782,7 +8794,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ35">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8907,7 +8919,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9113,7 +9125,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9194,7 +9206,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -9397,7 +9409,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -9525,7 +9537,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9731,7 +9743,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10015,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
         <v>0.33</v>
@@ -10143,7 +10155,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10349,7 +10361,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10555,7 +10567,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10633,10 +10645,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR44">
         <v>2.36</v>
@@ -10842,7 +10854,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ45">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.54</v>
@@ -10967,7 +10979,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11251,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ47">
         <v>0.9399999999999999</v>
@@ -11460,7 +11472,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ48">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11585,7 +11597,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -12075,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51">
         <v>1.65</v>
@@ -12203,7 +12215,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12409,7 +12421,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -13027,7 +13039,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13108,7 +13120,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -13233,7 +13245,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13517,7 +13529,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58">
         <v>0.9399999999999999</v>
@@ -13645,7 +13657,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13723,7 +13735,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ59">
         <v>1.31</v>
@@ -13851,7 +13863,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13932,7 +13944,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ60">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR60">
         <v>1.5</v>
@@ -14057,7 +14069,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14263,7 +14275,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14469,7 +14481,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14675,7 +14687,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14881,7 +14893,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14959,7 +14971,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -15293,7 +15305,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15374,7 +15386,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ67">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
         <v>1.89</v>
@@ -15577,7 +15589,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ68">
         <v>0.73</v>
@@ -15911,7 +15923,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16117,7 +16129,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16401,7 +16413,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ72">
         <v>0.63</v>
@@ -16735,7 +16747,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16816,7 +16828,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ74">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -17022,7 +17034,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.52</v>
@@ -17353,7 +17365,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17559,7 +17571,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17971,7 +17983,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18049,7 +18061,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1.31</v>
@@ -18177,7 +18189,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18383,7 +18395,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18589,7 +18601,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18670,7 +18682,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ83">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>1.37</v>
@@ -18873,7 +18885,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -19001,7 +19013,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19207,7 +19219,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19697,7 +19709,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ88">
         <v>0.63</v>
@@ -20315,7 +20327,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -20443,7 +20455,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21061,7 +21073,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21267,7 +21279,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21348,7 +21360,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ96">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21885,7 +21897,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22297,7 +22309,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22503,7 +22515,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22709,7 +22721,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22787,10 +22799,10 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ103">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22993,7 +23005,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>0.73</v>
@@ -23533,7 +23545,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23611,7 +23623,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ107">
         <v>1.65</v>
@@ -23820,7 +23832,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ108">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.89</v>
@@ -24151,7 +24163,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24357,7 +24369,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24644,7 +24656,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ112">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -25181,7 +25193,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25593,7 +25605,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26086,7 +26098,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ119">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.31</v>
@@ -26417,7 +26429,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26623,7 +26635,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26907,7 +26919,7 @@
         <v>0.67</v>
       </c>
       <c r="AP123">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ123">
         <v>0.73</v>
@@ -27113,7 +27125,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -27241,7 +27253,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27319,7 +27331,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ125">
         <v>1.25</v>
@@ -27525,7 +27537,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ126">
         <v>1.33</v>
@@ -27734,7 +27746,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ127">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR127">
         <v>2</v>
@@ -27859,7 +27871,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28271,7 +28283,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29095,7 +29107,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -30000,7 +30012,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ138">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -30203,7 +30215,7 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ139">
         <v>0.82</v>
@@ -30409,10 +30421,10 @@
         <v>0.57</v>
       </c>
       <c r="AP140">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR140">
         <v>1.29</v>
@@ -30615,7 +30627,7 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ141">
         <v>0.53</v>
@@ -31030,7 +31042,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ143">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR143">
         <v>1.95</v>
@@ -31155,7 +31167,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31361,7 +31373,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31439,7 +31451,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ145">
         <v>0.73</v>
@@ -31567,7 +31579,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31979,7 +31991,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32597,7 +32609,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33009,7 +33021,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33215,7 +33227,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33293,7 +33305,7 @@
         <v>0.29</v>
       </c>
       <c r="AP154">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ154">
         <v>0.31</v>
@@ -33499,7 +33511,7 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ155">
         <v>1.33</v>
@@ -33627,7 +33639,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33705,7 +33717,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
         <v>0.82</v>
@@ -33914,7 +33926,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ157">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -34039,7 +34051,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34323,7 +34335,7 @@
         <v>0.75</v>
       </c>
       <c r="AP159">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ159">
         <v>0.53</v>
@@ -34451,7 +34463,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34657,7 +34669,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34738,7 +34750,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ161">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR161">
         <v>1.42</v>
@@ -35481,7 +35493,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -35559,7 +35571,7 @@
         <v>1.13</v>
       </c>
       <c r="AP165">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ165">
         <v>0.9399999999999999</v>
@@ -36511,7 +36523,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36923,7 +36935,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -37207,7 +37219,7 @@
         <v>3</v>
       </c>
       <c r="AP173">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ173">
         <v>2.56</v>
@@ -38159,7 +38171,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38571,7 +38583,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38858,7 +38870,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ181">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR181">
         <v>1.64</v>
@@ -38983,7 +38995,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39064,7 +39076,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ182">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR182">
         <v>1.49</v>
@@ -39189,7 +39201,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39395,7 +39407,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39473,10 +39485,10 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ184">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR184">
         <v>1.37</v>
@@ -39679,7 +39691,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ185">
         <v>0.82</v>
@@ -39807,7 +39819,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -39885,7 +39897,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP186">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ186">
         <v>0.31</v>
@@ -40425,7 +40437,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40631,7 +40643,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40837,7 +40849,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41124,7 +41136,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ192">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -41249,7 +41261,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41327,7 +41339,7 @@
         <v>0.5</v>
       </c>
       <c r="AP193">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ193">
         <v>0.63</v>
@@ -41867,7 +41879,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42073,7 +42085,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42279,7 +42291,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42485,7 +42497,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42897,7 +42909,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43103,7 +43115,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43309,7 +43321,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43515,7 +43527,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -43593,7 +43605,7 @@
         <v>2.18</v>
       </c>
       <c r="AP204">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ204">
         <v>2.31</v>
@@ -43799,7 +43811,7 @@
         <v>0.5</v>
       </c>
       <c r="AP205">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ205">
         <v>0.31</v>
@@ -44008,7 +44020,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ206">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR206">
         <v>1.42</v>
@@ -44832,7 +44844,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ210">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -44957,7 +44969,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45447,7 +45459,7 @@
         <v>0.91</v>
       </c>
       <c r="AP213">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ213">
         <v>0.63</v>
@@ -45575,7 +45587,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45781,7 +45793,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -46193,7 +46205,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46271,7 +46283,7 @@
         <v>2.8</v>
       </c>
       <c r="AP217">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ217">
         <v>2.56</v>
@@ -46605,7 +46617,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -47223,7 +47235,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47635,7 +47647,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47713,7 +47725,7 @@
         <v>0.45</v>
       </c>
       <c r="AP224">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ224">
         <v>0.31</v>
@@ -47841,7 +47853,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -47922,7 +47934,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ225">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR225">
         <v>1.61</v>
@@ -48125,7 +48137,7 @@
         <v>2.25</v>
       </c>
       <c r="AP226">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ226">
         <v>2.31</v>
@@ -48665,7 +48677,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48743,7 +48755,7 @@
         <v>0.83</v>
       </c>
       <c r="AP229">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ229">
         <v>0.63</v>
@@ -48871,7 +48883,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49489,7 +49501,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49776,7 +49788,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ234">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR234">
         <v>1.51</v>
@@ -49901,7 +49913,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50394,7 +50406,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ237">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR237">
         <v>1.51</v>
@@ -50519,7 +50531,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50725,7 +50737,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51137,7 +51149,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51343,7 +51355,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51549,7 +51561,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51627,7 +51639,7 @@
         <v>2.67</v>
       </c>
       <c r="AP243">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ243">
         <v>2.56</v>
@@ -51755,7 +51767,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -51836,7 +51848,7 @@
         <v>2</v>
       </c>
       <c r="AQ244">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR244">
         <v>1.61</v>
@@ -52039,7 +52051,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP245">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ245">
         <v>0.63</v>
@@ -52579,7 +52591,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52991,7 +53003,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53069,7 +53081,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ250">
         <v>0.9399999999999999</v>
@@ -53197,7 +53209,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53275,10 +53287,10 @@
         <v>0.58</v>
       </c>
       <c r="AP251">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ251">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR251">
         <v>1.24</v>
@@ -53403,7 +53415,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -54227,7 +54239,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54514,7 +54526,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ257">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR257">
         <v>1.32</v>
@@ -55051,7 +55063,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55463,7 +55475,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55544,7 +55556,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ262">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR262">
         <v>1.43</v>
@@ -55669,7 +55681,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55875,7 +55887,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -55953,10 +55965,10 @@
         <v>0.54</v>
       </c>
       <c r="AP264">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ264">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR264">
         <v>1.49</v>
@@ -56493,7 +56505,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56571,7 +56583,7 @@
         <v>0.86</v>
       </c>
       <c r="AP267">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ267">
         <v>0.9399999999999999</v>
@@ -56777,7 +56789,7 @@
         <v>1.21</v>
       </c>
       <c r="AP268">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ268">
         <v>1.25</v>
@@ -56905,7 +56917,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57192,7 +57204,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ270">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR270">
         <v>1.8</v>
@@ -57317,7 +57329,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57523,7 +57535,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -58141,7 +58153,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58222,7 +58234,7 @@
         <v>2</v>
       </c>
       <c r="AQ275">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR275">
         <v>1.68</v>
@@ -58759,7 +58771,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59377,7 +59389,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59455,7 +59467,7 @@
         <v>0.73</v>
       </c>
       <c r="AP281">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ281">
         <v>0.82</v>
@@ -59661,7 +59673,7 @@
         <v>1</v>
       </c>
       <c r="AP282">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ282">
         <v>0.9399999999999999</v>
@@ -59789,7 +59801,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -59870,7 +59882,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ283">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR283">
         <v>1.68</v>
@@ -60201,7 +60213,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60488,7 +60500,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ286">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR286">
         <v>1.45</v>
@@ -60691,7 +60703,7 @@
         <v>1.33</v>
       </c>
       <c r="AP287">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ287">
         <v>1.25</v>
@@ -60819,7 +60831,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61103,7 +61115,7 @@
         <v>1.67</v>
       </c>
       <c r="AP289">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ289">
         <v>1.65</v>
@@ -61231,7 +61243,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61643,7 +61655,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61849,7 +61861,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62055,7 +62067,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62467,7 +62479,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62879,7 +62891,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -62960,7 +62972,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ298">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR298">
         <v>1.83</v>
@@ -63241,6 +63253,830 @@
         <v>0</v>
       </c>
       <c r="BP299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7516588</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45780.41666666666</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>77</v>
+      </c>
+      <c r="H300" t="s">
+        <v>85</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>296</v>
+      </c>
+      <c r="P300" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q300">
+        <v>2.5</v>
+      </c>
+      <c r="R300">
+        <v>2.38</v>
+      </c>
+      <c r="S300">
+        <v>4</v>
+      </c>
+      <c r="T300">
+        <v>1.3</v>
+      </c>
+      <c r="U300">
+        <v>3.4</v>
+      </c>
+      <c r="V300">
+        <v>2.5</v>
+      </c>
+      <c r="W300">
+        <v>1.5</v>
+      </c>
+      <c r="X300">
+        <v>6</v>
+      </c>
+      <c r="Y300">
+        <v>1.13</v>
+      </c>
+      <c r="Z300">
+        <v>1.91</v>
+      </c>
+      <c r="AA300">
+        <v>3.6</v>
+      </c>
+      <c r="AB300">
+        <v>3.6</v>
+      </c>
+      <c r="AC300">
+        <v>0</v>
+      </c>
+      <c r="AD300">
+        <v>0</v>
+      </c>
+      <c r="AE300">
+        <v>0</v>
+      </c>
+      <c r="AF300">
+        <v>0</v>
+      </c>
+      <c r="AG300">
+        <v>1.67</v>
+      </c>
+      <c r="AH300">
+        <v>2.15</v>
+      </c>
+      <c r="AI300">
+        <v>1.62</v>
+      </c>
+      <c r="AJ300">
+        <v>2.2</v>
+      </c>
+      <c r="AK300">
+        <v>0</v>
+      </c>
+      <c r="AL300">
+        <v>0</v>
+      </c>
+      <c r="AM300">
+        <v>0</v>
+      </c>
+      <c r="AN300">
+        <v>1.47</v>
+      </c>
+      <c r="AO300">
+        <v>0.6</v>
+      </c>
+      <c r="AP300">
+        <v>1.56</v>
+      </c>
+      <c r="AQ300">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR300">
+        <v>1.47</v>
+      </c>
+      <c r="AS300">
+        <v>1.22</v>
+      </c>
+      <c r="AT300">
+        <v>2.69</v>
+      </c>
+      <c r="AU300">
+        <v>13</v>
+      </c>
+      <c r="AV300">
+        <v>4</v>
+      </c>
+      <c r="AW300">
+        <v>10</v>
+      </c>
+      <c r="AX300">
+        <v>10</v>
+      </c>
+      <c r="AY300">
+        <v>26</v>
+      </c>
+      <c r="AZ300">
+        <v>21</v>
+      </c>
+      <c r="BA300">
+        <v>12</v>
+      </c>
+      <c r="BB300">
+        <v>6</v>
+      </c>
+      <c r="BC300">
+        <v>18</v>
+      </c>
+      <c r="BD300">
+        <v>0</v>
+      </c>
+      <c r="BE300">
+        <v>0</v>
+      </c>
+      <c r="BF300">
+        <v>0</v>
+      </c>
+      <c r="BG300">
+        <v>0</v>
+      </c>
+      <c r="BH300">
+        <v>0</v>
+      </c>
+      <c r="BI300">
+        <v>0</v>
+      </c>
+      <c r="BJ300">
+        <v>0</v>
+      </c>
+      <c r="BK300">
+        <v>0</v>
+      </c>
+      <c r="BL300">
+        <v>0</v>
+      </c>
+      <c r="BM300">
+        <v>0</v>
+      </c>
+      <c r="BN300">
+        <v>0</v>
+      </c>
+      <c r="BO300">
+        <v>0</v>
+      </c>
+      <c r="BP300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7516593</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45780.41666666666</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>75</v>
+      </c>
+      <c r="H301" t="s">
+        <v>80</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="N301">
+        <v>2</v>
+      </c>
+      <c r="O301" t="s">
+        <v>297</v>
+      </c>
+      <c r="P301" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q301">
+        <v>2.63</v>
+      </c>
+      <c r="R301">
+        <v>2.25</v>
+      </c>
+      <c r="S301">
+        <v>4</v>
+      </c>
+      <c r="T301">
+        <v>1.36</v>
+      </c>
+      <c r="U301">
+        <v>3</v>
+      </c>
+      <c r="V301">
+        <v>2.63</v>
+      </c>
+      <c r="W301">
+        <v>1.44</v>
+      </c>
+      <c r="X301">
+        <v>7</v>
+      </c>
+      <c r="Y301">
+        <v>1.1</v>
+      </c>
+      <c r="Z301">
+        <v>2</v>
+      </c>
+      <c r="AA301">
+        <v>3.4</v>
+      </c>
+      <c r="AB301">
+        <v>3.4</v>
+      </c>
+      <c r="AC301">
+        <v>0</v>
+      </c>
+      <c r="AD301">
+        <v>0</v>
+      </c>
+      <c r="AE301">
+        <v>0</v>
+      </c>
+      <c r="AF301">
+        <v>0</v>
+      </c>
+      <c r="AG301">
+        <v>1.85</v>
+      </c>
+      <c r="AH301">
+        <v>1.95</v>
+      </c>
+      <c r="AI301">
+        <v>1.73</v>
+      </c>
+      <c r="AJ301">
+        <v>2</v>
+      </c>
+      <c r="AK301">
+        <v>0</v>
+      </c>
+      <c r="AL301">
+        <v>0</v>
+      </c>
+      <c r="AM301">
+        <v>0</v>
+      </c>
+      <c r="AN301">
+        <v>1.6</v>
+      </c>
+      <c r="AO301">
+        <v>1</v>
+      </c>
+      <c r="AP301">
+        <v>1.56</v>
+      </c>
+      <c r="AQ301">
+        <v>1</v>
+      </c>
+      <c r="AR301">
+        <v>1.4</v>
+      </c>
+      <c r="AS301">
+        <v>1.21</v>
+      </c>
+      <c r="AT301">
+        <v>2.61</v>
+      </c>
+      <c r="AU301">
+        <v>3</v>
+      </c>
+      <c r="AV301">
+        <v>3</v>
+      </c>
+      <c r="AW301">
+        <v>16</v>
+      </c>
+      <c r="AX301">
+        <v>5</v>
+      </c>
+      <c r="AY301">
+        <v>22</v>
+      </c>
+      <c r="AZ301">
+        <v>9</v>
+      </c>
+      <c r="BA301">
+        <v>4</v>
+      </c>
+      <c r="BB301">
+        <v>6</v>
+      </c>
+      <c r="BC301">
+        <v>10</v>
+      </c>
+      <c r="BD301">
+        <v>0</v>
+      </c>
+      <c r="BE301">
+        <v>0</v>
+      </c>
+      <c r="BF301">
+        <v>0</v>
+      </c>
+      <c r="BG301">
+        <v>0</v>
+      </c>
+      <c r="BH301">
+        <v>0</v>
+      </c>
+      <c r="BI301">
+        <v>0</v>
+      </c>
+      <c r="BJ301">
+        <v>0</v>
+      </c>
+      <c r="BK301">
+        <v>0</v>
+      </c>
+      <c r="BL301">
+        <v>0</v>
+      </c>
+      <c r="BM301">
+        <v>0</v>
+      </c>
+      <c r="BN301">
+        <v>0</v>
+      </c>
+      <c r="BO301">
+        <v>0</v>
+      </c>
+      <c r="BP301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7516595</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>87</v>
+      </c>
+      <c r="H302" t="s">
+        <v>83</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>2</v>
+      </c>
+      <c r="K302">
+        <v>3</v>
+      </c>
+      <c r="L302">
+        <v>2</v>
+      </c>
+      <c r="M302">
+        <v>4</v>
+      </c>
+      <c r="N302">
+        <v>6</v>
+      </c>
+      <c r="O302" t="s">
+        <v>298</v>
+      </c>
+      <c r="P302" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q302">
+        <v>5.5</v>
+      </c>
+      <c r="R302">
+        <v>2.5</v>
+      </c>
+      <c r="S302">
+        <v>1.95</v>
+      </c>
+      <c r="T302">
+        <v>1.25</v>
+      </c>
+      <c r="U302">
+        <v>3.75</v>
+      </c>
+      <c r="V302">
+        <v>2.25</v>
+      </c>
+      <c r="W302">
+        <v>1.57</v>
+      </c>
+      <c r="X302">
+        <v>5.5</v>
+      </c>
+      <c r="Y302">
+        <v>1.14</v>
+      </c>
+      <c r="Z302">
+        <v>5.72</v>
+      </c>
+      <c r="AA302">
+        <v>4.55</v>
+      </c>
+      <c r="AB302">
+        <v>1.48</v>
+      </c>
+      <c r="AC302">
+        <v>0</v>
+      </c>
+      <c r="AD302">
+        <v>0</v>
+      </c>
+      <c r="AE302">
+        <v>0</v>
+      </c>
+      <c r="AF302">
+        <v>0</v>
+      </c>
+      <c r="AG302">
+        <v>1.57</v>
+      </c>
+      <c r="AH302">
+        <v>2.25</v>
+      </c>
+      <c r="AI302">
+        <v>1.67</v>
+      </c>
+      <c r="AJ302">
+        <v>2.1</v>
+      </c>
+      <c r="AK302">
+        <v>0</v>
+      </c>
+      <c r="AL302">
+        <v>0</v>
+      </c>
+      <c r="AM302">
+        <v>0</v>
+      </c>
+      <c r="AN302">
+        <v>0.88</v>
+      </c>
+      <c r="AO302">
+        <v>1.13</v>
+      </c>
+      <c r="AP302">
+        <v>0.82</v>
+      </c>
+      <c r="AQ302">
+        <v>1.25</v>
+      </c>
+      <c r="AR302">
+        <v>1.31</v>
+      </c>
+      <c r="AS302">
+        <v>1.33</v>
+      </c>
+      <c r="AT302">
+        <v>2.64</v>
+      </c>
+      <c r="AU302">
+        <v>5</v>
+      </c>
+      <c r="AV302">
+        <v>8</v>
+      </c>
+      <c r="AW302">
+        <v>5</v>
+      </c>
+      <c r="AX302">
+        <v>12</v>
+      </c>
+      <c r="AY302">
+        <v>11</v>
+      </c>
+      <c r="AZ302">
+        <v>22</v>
+      </c>
+      <c r="BA302">
+        <v>4</v>
+      </c>
+      <c r="BB302">
+        <v>7</v>
+      </c>
+      <c r="BC302">
+        <v>11</v>
+      </c>
+      <c r="BD302">
+        <v>0</v>
+      </c>
+      <c r="BE302">
+        <v>0</v>
+      </c>
+      <c r="BF302">
+        <v>0</v>
+      </c>
+      <c r="BG302">
+        <v>0</v>
+      </c>
+      <c r="BH302">
+        <v>0</v>
+      </c>
+      <c r="BI302">
+        <v>0</v>
+      </c>
+      <c r="BJ302">
+        <v>0</v>
+      </c>
+      <c r="BK302">
+        <v>0</v>
+      </c>
+      <c r="BL302">
+        <v>0</v>
+      </c>
+      <c r="BM302">
+        <v>0</v>
+      </c>
+      <c r="BN302">
+        <v>0</v>
+      </c>
+      <c r="BO302">
+        <v>0</v>
+      </c>
+      <c r="BP302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7516587</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>70</v>
+      </c>
+      <c r="H303" t="s">
+        <v>74</v>
+      </c>
+      <c r="I303">
+        <v>4</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>5</v>
+      </c>
+      <c r="L303">
+        <v>4</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>5</v>
+      </c>
+      <c r="O303" t="s">
+        <v>299</v>
+      </c>
+      <c r="P303" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q303">
+        <v>1.57</v>
+      </c>
+      <c r="R303">
+        <v>3.1</v>
+      </c>
+      <c r="S303">
+        <v>8.5</v>
+      </c>
+      <c r="T303">
+        <v>1.18</v>
+      </c>
+      <c r="U303">
+        <v>4.5</v>
+      </c>
+      <c r="V303">
+        <v>1.83</v>
+      </c>
+      <c r="W303">
+        <v>1.83</v>
+      </c>
+      <c r="X303">
+        <v>3.75</v>
+      </c>
+      <c r="Y303">
+        <v>1.25</v>
+      </c>
+      <c r="Z303">
+        <v>1.22</v>
+      </c>
+      <c r="AA303">
+        <v>7</v>
+      </c>
+      <c r="AB303">
+        <v>10</v>
+      </c>
+      <c r="AC303">
+        <v>0</v>
+      </c>
+      <c r="AD303">
+        <v>0</v>
+      </c>
+      <c r="AE303">
+        <v>0</v>
+      </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
+      <c r="AG303">
+        <v>1.33</v>
+      </c>
+      <c r="AH303">
+        <v>3.4</v>
+      </c>
+      <c r="AI303">
+        <v>1.8</v>
+      </c>
+      <c r="AJ303">
+        <v>1.91</v>
+      </c>
+      <c r="AK303">
+        <v>0</v>
+      </c>
+      <c r="AL303">
+        <v>0</v>
+      </c>
+      <c r="AM303">
+        <v>0</v>
+      </c>
+      <c r="AN303">
+        <v>2.6</v>
+      </c>
+      <c r="AO303">
+        <v>0.53</v>
+      </c>
+      <c r="AP303">
+        <v>2.63</v>
+      </c>
+      <c r="AQ303">
+        <v>0.5</v>
+      </c>
+      <c r="AR303">
+        <v>2.03</v>
+      </c>
+      <c r="AS303">
+        <v>1.17</v>
+      </c>
+      <c r="AT303">
+        <v>3.2</v>
+      </c>
+      <c r="AU303">
+        <v>10</v>
+      </c>
+      <c r="AV303">
+        <v>3</v>
+      </c>
+      <c r="AW303">
+        <v>16</v>
+      </c>
+      <c r="AX303">
+        <v>2</v>
+      </c>
+      <c r="AY303">
+        <v>33</v>
+      </c>
+      <c r="AZ303">
+        <v>6</v>
+      </c>
+      <c r="BA303">
+        <v>3</v>
+      </c>
+      <c r="BB303">
+        <v>0</v>
+      </c>
+      <c r="BC303">
+        <v>3</v>
+      </c>
+      <c r="BD303">
+        <v>0</v>
+      </c>
+      <c r="BE303">
+        <v>0</v>
+      </c>
+      <c r="BF303">
+        <v>0</v>
+      </c>
+      <c r="BG303">
+        <v>0</v>
+      </c>
+      <c r="BH303">
+        <v>0</v>
+      </c>
+      <c r="BI303">
+        <v>0</v>
+      </c>
+      <c r="BJ303">
+        <v>0</v>
+      </c>
+      <c r="BK303">
+        <v>0</v>
+      </c>
+      <c r="BL303">
+        <v>0</v>
+      </c>
+      <c r="BM303">
+        <v>0</v>
+      </c>
+      <c r="BN303">
+        <v>0</v>
+      </c>
+      <c r="BO303">
+        <v>0</v>
+      </c>
+      <c r="BP303">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="428">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -916,6 +916,9 @@
     <t>['9', '15', '21', '31']</t>
   </si>
   <si>
+    <t>['4', '61', '90+5']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1656,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP303"/>
+  <dimension ref="A1:BP306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2121,7 +2124,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2408,7 +2411,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ4">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2611,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ5">
         <v>0.31</v>
@@ -2945,7 +2948,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3026,7 +3029,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3151,7 +3154,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3229,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3357,7 +3360,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3563,7 +3566,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3769,7 +3772,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3975,7 +3978,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4181,7 +4184,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4387,7 +4390,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4465,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ14">
         <v>0.9399999999999999</v>
@@ -4593,7 +4596,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4799,7 +4802,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -5005,7 +5008,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5704,7 +5707,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5910,7 +5913,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -6035,7 +6038,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6241,7 +6244,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6447,7 +6450,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6653,7 +6656,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6937,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ26">
         <v>0.63</v>
@@ -7065,7 +7068,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7683,7 +7686,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7761,7 +7764,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ30">
         <v>2.56</v>
@@ -7889,7 +7892,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8507,7 +8510,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8713,7 +8716,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8997,7 +9000,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ36">
         <v>0.82</v>
@@ -9125,7 +9128,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9537,7 +9540,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9743,7 +9746,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9824,7 +9827,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR40">
         <v>2.02</v>
@@ -10155,7 +10158,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10236,7 +10239,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10361,7 +10364,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10567,7 +10570,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10851,7 +10854,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10979,7 +10982,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11597,7 +11600,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11675,7 +11678,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ49">
         <v>2.56</v>
@@ -12215,7 +12218,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12293,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ52">
         <v>0.63</v>
@@ -12421,7 +12424,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12502,7 +12505,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -13039,7 +13042,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13245,7 +13248,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13323,10 +13326,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ57">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57">
         <v>1.53</v>
@@ -13657,7 +13660,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13863,7 +13866,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14069,7 +14072,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14275,7 +14278,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14481,7 +14484,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14687,7 +14690,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14768,7 +14771,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR64">
         <v>1.79</v>
@@ -14893,7 +14896,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15305,7 +15308,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15923,7 +15926,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16004,7 +16007,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>1.39</v>
@@ -16129,7 +16132,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16207,7 +16210,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ71">
         <v>1.65</v>
@@ -16622,7 +16625,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
         <v>1.52</v>
@@ -16747,7 +16750,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17240,7 +17243,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ76">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -17365,7 +17368,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17571,7 +17574,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17983,7 +17986,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18189,7 +18192,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18267,7 +18270,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ81">
         <v>2.31</v>
@@ -18395,7 +18398,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18601,7 +18604,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18679,7 +18682,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ83">
         <v>0.5</v>
@@ -19013,7 +19016,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19219,7 +19222,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19915,7 +19918,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -20124,7 +20127,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -20330,7 +20333,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -20455,7 +20458,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20536,7 +20539,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ92">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -21073,7 +21076,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21279,7 +21282,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21897,7 +21900,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22181,7 +22184,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ100">
         <v>0.63</v>
@@ -22309,7 +22312,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22515,7 +22518,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22721,7 +22724,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23211,10 +23214,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR105">
         <v>1.42</v>
@@ -23545,7 +23548,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23829,7 +23832,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ108">
         <v>0.5</v>
@@ -24038,7 +24041,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -24163,7 +24166,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24369,7 +24372,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -25193,7 +25196,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25477,7 +25480,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ116">
         <v>0.63</v>
@@ -25605,7 +25608,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25686,7 +25689,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -26301,7 +26304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP120">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -26429,7 +26432,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26507,7 +26510,7 @@
         <v>0.86</v>
       </c>
       <c r="AP121">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ121">
         <v>0.82</v>
@@ -26635,7 +26638,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26716,7 +26719,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ122">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR122">
         <v>1.44</v>
@@ -27253,7 +27256,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27334,7 +27337,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ125">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27540,7 +27543,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR126">
         <v>1.08</v>
@@ -27743,7 +27746,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ127">
         <v>0.5600000000000001</v>
@@ -27871,7 +27874,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28283,7 +28286,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29107,7 +29110,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29806,7 +29809,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -30630,7 +30633,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ141">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR141">
         <v>1.1</v>
@@ -31039,7 +31042,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ143">
         <v>1.25</v>
@@ -31167,7 +31170,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31245,10 +31248,10 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
         <v>1.34</v>
@@ -31373,7 +31376,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31579,7 +31582,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31991,7 +31994,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32609,7 +32612,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33021,7 +33024,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33227,7 +33230,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33514,7 +33517,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ155">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR155">
         <v>1.43</v>
@@ -33639,7 +33642,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33923,7 +33926,7 @@
         <v>0.88</v>
       </c>
       <c r="AP157">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ157">
         <v>1.25</v>
@@ -34051,7 +34054,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34132,7 +34135,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ158">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR158">
         <v>1.38</v>
@@ -34338,7 +34341,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ159">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR159">
         <v>2.09</v>
@@ -34463,7 +34466,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34541,7 +34544,7 @@
         <v>0.5</v>
       </c>
       <c r="AP160">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ160">
         <v>0.73</v>
@@ -34669,7 +34672,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35159,7 +35162,7 @@
         <v>0.29</v>
       </c>
       <c r="AP163">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ163">
         <v>0.33</v>
@@ -35493,7 +35496,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36523,7 +36526,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36935,7 +36938,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38171,7 +38174,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38583,7 +38586,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38661,7 +38664,7 @@
         <v>2.1</v>
       </c>
       <c r="AP180">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ180">
         <v>2.31</v>
@@ -38995,7 +38998,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39073,7 +39076,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP182">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ182">
         <v>0.5600000000000001</v>
@@ -39201,7 +39204,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39407,7 +39410,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39819,7 +39822,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40106,7 +40109,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ187">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
         <v>1.3</v>
@@ -40312,7 +40315,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ188">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR188">
         <v>1.45</v>
@@ -40437,7 +40440,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40515,10 +40518,10 @@
         <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ189">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR189">
         <v>2.02</v>
@@ -40643,7 +40646,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40849,7 +40852,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41261,7 +41264,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41879,7 +41882,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -41957,7 +41960,7 @@
         <v>1.5</v>
       </c>
       <c r="AP196">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ196">
         <v>1.31</v>
@@ -42085,7 +42088,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42291,7 +42294,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42369,7 +42372,7 @@
         <v>1.2</v>
       </c>
       <c r="AP198">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ198">
         <v>0.9399999999999999</v>
@@ -42497,7 +42500,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42781,7 +42784,7 @@
         <v>0.22</v>
       </c>
       <c r="AP200">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ200">
         <v>0.33</v>
@@ -42909,7 +42912,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43115,7 +43118,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43196,7 +43199,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ202">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR202">
         <v>1.3</v>
@@ -43321,7 +43324,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43527,7 +43530,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44226,7 +44229,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ207">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR207">
         <v>1.63</v>
@@ -44432,7 +44435,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ208">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR208">
         <v>1.34</v>
@@ -44635,7 +44638,7 @@
         <v>0.73</v>
       </c>
       <c r="AP209">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ209">
         <v>0.63</v>
@@ -44969,7 +44972,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45587,7 +45590,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45793,7 +45796,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -46077,7 +46080,7 @@
         <v>1.64</v>
       </c>
       <c r="AP216">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ216">
         <v>1.31</v>
@@ -46205,7 +46208,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46617,7 +46620,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46698,7 +46701,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ219">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR219">
         <v>1.52</v>
@@ -47235,7 +47238,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47313,7 +47316,7 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ222">
         <v>0.9399999999999999</v>
@@ -47522,7 +47525,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ223">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR223">
         <v>1.54</v>
@@ -47647,7 +47650,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47853,7 +47856,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48343,7 +48346,7 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ227">
         <v>0.9399999999999999</v>
@@ -48677,7 +48680,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48883,7 +48886,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49167,7 +49170,7 @@
         <v>0.75</v>
       </c>
       <c r="AP231">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ231">
         <v>0.63</v>
@@ -49501,7 +49504,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49582,7 +49585,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ233">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR233">
         <v>1.5</v>
@@ -49913,7 +49916,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50531,7 +50534,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50737,7 +50740,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51024,7 +51027,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ240">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR240">
         <v>1.28</v>
@@ -51149,7 +51152,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51227,7 +51230,7 @@
         <v>0.42</v>
       </c>
       <c r="AP241">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ241">
         <v>0.31</v>
@@ -51355,7 +51358,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51561,7 +51564,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51767,7 +51770,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -52591,7 +52594,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52878,7 +52881,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ249">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR249">
         <v>1.36</v>
@@ -53003,7 +53006,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53209,7 +53212,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53415,7 +53418,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53496,7 +53499,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ252">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR252">
         <v>1.84</v>
@@ -53699,7 +53702,7 @@
         <v>1.85</v>
       </c>
       <c r="AP253">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ253">
         <v>1.65</v>
@@ -54239,7 +54242,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54938,7 +54941,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ259">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR259">
         <v>1.69</v>
@@ -55063,7 +55066,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55141,7 +55144,7 @@
         <v>1.29</v>
       </c>
       <c r="AP260">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ260">
         <v>1.31</v>
@@ -55475,7 +55478,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55681,7 +55684,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55759,7 +55762,7 @@
         <v>0.85</v>
       </c>
       <c r="AP263">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ263">
         <v>1</v>
@@ -55887,7 +55890,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56505,7 +56508,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56792,7 +56795,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ268">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR268">
         <v>1.29</v>
@@ -56917,7 +56920,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -56995,7 +56998,7 @@
         <v>0.62</v>
       </c>
       <c r="AP269">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ269">
         <v>0.73</v>
@@ -57329,7 +57332,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57410,7 +57413,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ271">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR271">
         <v>1.67</v>
@@ -57535,7 +57538,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57613,7 +57616,7 @@
         <v>2.5</v>
       </c>
       <c r="AP272">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ272">
         <v>2.56</v>
@@ -57822,7 +57825,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ273">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR273">
         <v>1.32</v>
@@ -58153,7 +58156,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58771,7 +58774,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59389,7 +59392,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59801,7 +59804,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60085,7 +60088,7 @@
         <v>0.57</v>
       </c>
       <c r="AP284">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AQ284">
         <v>0.73</v>
@@ -60213,7 +60216,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60294,7 +60297,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ285">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR285">
         <v>1.81</v>
@@ -60706,7 +60709,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ287">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR287">
         <v>1.48</v>
@@ -60831,7 +60834,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -60909,7 +60912,7 @@
         <v>1</v>
       </c>
       <c r="AP288">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AQ288">
         <v>1</v>
@@ -61243,7 +61246,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61655,7 +61658,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61861,7 +61864,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62067,7 +62070,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62479,7 +62482,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62891,7 +62894,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63715,7 +63718,7 @@
         <v>298</v>
       </c>
       <c r="P302" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q302">
         <v>5.5</v>
@@ -64077,6 +64080,624 @@
         <v>0</v>
       </c>
       <c r="BP303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7516589</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>76</v>
+      </c>
+      <c r="H304" t="s">
+        <v>86</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="L304">
+        <v>3</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>3</v>
+      </c>
+      <c r="O304" t="s">
+        <v>300</v>
+      </c>
+      <c r="P304" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q304">
+        <v>2.88</v>
+      </c>
+      <c r="R304">
+        <v>2.1</v>
+      </c>
+      <c r="S304">
+        <v>4</v>
+      </c>
+      <c r="T304">
+        <v>1.4</v>
+      </c>
+      <c r="U304">
+        <v>2.75</v>
+      </c>
+      <c r="V304">
+        <v>3</v>
+      </c>
+      <c r="W304">
+        <v>1.36</v>
+      </c>
+      <c r="X304">
+        <v>8</v>
+      </c>
+      <c r="Y304">
+        <v>1.08</v>
+      </c>
+      <c r="Z304">
+        <v>2.1</v>
+      </c>
+      <c r="AA304">
+        <v>3.2</v>
+      </c>
+      <c r="AB304">
+        <v>3.3</v>
+      </c>
+      <c r="AC304">
+        <v>0</v>
+      </c>
+      <c r="AD304">
+        <v>0</v>
+      </c>
+      <c r="AE304">
+        <v>0</v>
+      </c>
+      <c r="AF304">
+        <v>0</v>
+      </c>
+      <c r="AG304">
+        <v>2.05</v>
+      </c>
+      <c r="AH304">
+        <v>1.75</v>
+      </c>
+      <c r="AI304">
+        <v>1.8</v>
+      </c>
+      <c r="AJ304">
+        <v>1.91</v>
+      </c>
+      <c r="AK304">
+        <v>0</v>
+      </c>
+      <c r="AL304">
+        <v>0</v>
+      </c>
+      <c r="AM304">
+        <v>0</v>
+      </c>
+      <c r="AN304">
+        <v>1.73</v>
+      </c>
+      <c r="AO304">
+        <v>1.25</v>
+      </c>
+      <c r="AP304">
+        <v>1.81</v>
+      </c>
+      <c r="AQ304">
+        <v>1.18</v>
+      </c>
+      <c r="AR304">
+        <v>1.55</v>
+      </c>
+      <c r="AS304">
+        <v>1.21</v>
+      </c>
+      <c r="AT304">
+        <v>2.76</v>
+      </c>
+      <c r="AU304">
+        <v>5</v>
+      </c>
+      <c r="AV304">
+        <v>0</v>
+      </c>
+      <c r="AW304">
+        <v>13</v>
+      </c>
+      <c r="AX304">
+        <v>9</v>
+      </c>
+      <c r="AY304">
+        <v>22</v>
+      </c>
+      <c r="AZ304">
+        <v>9</v>
+      </c>
+      <c r="BA304">
+        <v>5</v>
+      </c>
+      <c r="BB304">
+        <v>3</v>
+      </c>
+      <c r="BC304">
+        <v>8</v>
+      </c>
+      <c r="BD304">
+        <v>0</v>
+      </c>
+      <c r="BE304">
+        <v>0</v>
+      </c>
+      <c r="BF304">
+        <v>0</v>
+      </c>
+      <c r="BG304">
+        <v>0</v>
+      </c>
+      <c r="BH304">
+        <v>0</v>
+      </c>
+      <c r="BI304">
+        <v>0</v>
+      </c>
+      <c r="BJ304">
+        <v>0</v>
+      </c>
+      <c r="BK304">
+        <v>0</v>
+      </c>
+      <c r="BL304">
+        <v>0</v>
+      </c>
+      <c r="BM304">
+        <v>0</v>
+      </c>
+      <c r="BN304">
+        <v>0</v>
+      </c>
+      <c r="BO304">
+        <v>0</v>
+      </c>
+      <c r="BP304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7516590</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45781.54166666666</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>82</v>
+      </c>
+      <c r="H305" t="s">
+        <v>81</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>2</v>
+      </c>
+      <c r="K305">
+        <v>3</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>2</v>
+      </c>
+      <c r="N305">
+        <v>3</v>
+      </c>
+      <c r="O305" t="s">
+        <v>125</v>
+      </c>
+      <c r="P305" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q305">
+        <v>8.5</v>
+      </c>
+      <c r="R305">
+        <v>2.75</v>
+      </c>
+      <c r="S305">
+        <v>1.73</v>
+      </c>
+      <c r="T305">
+        <v>1.25</v>
+      </c>
+      <c r="U305">
+        <v>3.75</v>
+      </c>
+      <c r="V305">
+        <v>2.2</v>
+      </c>
+      <c r="W305">
+        <v>1.62</v>
+      </c>
+      <c r="X305">
+        <v>5</v>
+      </c>
+      <c r="Y305">
+        <v>1.17</v>
+      </c>
+      <c r="Z305">
+        <v>7.41</v>
+      </c>
+      <c r="AA305">
+        <v>5.75</v>
+      </c>
+      <c r="AB305">
+        <v>1.28</v>
+      </c>
+      <c r="AC305">
+        <v>0</v>
+      </c>
+      <c r="AD305">
+        <v>0</v>
+      </c>
+      <c r="AE305">
+        <v>0</v>
+      </c>
+      <c r="AF305">
+        <v>0</v>
+      </c>
+      <c r="AG305">
+        <v>1.53</v>
+      </c>
+      <c r="AH305">
+        <v>2.3</v>
+      </c>
+      <c r="AI305">
+        <v>1.91</v>
+      </c>
+      <c r="AJ305">
+        <v>1.8</v>
+      </c>
+      <c r="AK305">
+        <v>0</v>
+      </c>
+      <c r="AL305">
+        <v>0</v>
+      </c>
+      <c r="AM305">
+        <v>0</v>
+      </c>
+      <c r="AN305">
+        <v>0.33</v>
+      </c>
+      <c r="AO305">
+        <v>0.53</v>
+      </c>
+      <c r="AP305">
+        <v>0.31</v>
+      </c>
+      <c r="AQ305">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR305">
+        <v>1.16</v>
+      </c>
+      <c r="AS305">
+        <v>1.32</v>
+      </c>
+      <c r="AT305">
+        <v>2.48</v>
+      </c>
+      <c r="AU305">
+        <v>4</v>
+      </c>
+      <c r="AV305">
+        <v>6</v>
+      </c>
+      <c r="AW305">
+        <v>7</v>
+      </c>
+      <c r="AX305">
+        <v>9</v>
+      </c>
+      <c r="AY305">
+        <v>12</v>
+      </c>
+      <c r="AZ305">
+        <v>16</v>
+      </c>
+      <c r="BA305">
+        <v>3</v>
+      </c>
+      <c r="BB305">
+        <v>4</v>
+      </c>
+      <c r="BC305">
+        <v>7</v>
+      </c>
+      <c r="BD305">
+        <v>0</v>
+      </c>
+      <c r="BE305">
+        <v>0</v>
+      </c>
+      <c r="BF305">
+        <v>0</v>
+      </c>
+      <c r="BG305">
+        <v>0</v>
+      </c>
+      <c r="BH305">
+        <v>0</v>
+      </c>
+      <c r="BI305">
+        <v>0</v>
+      </c>
+      <c r="BJ305">
+        <v>0</v>
+      </c>
+      <c r="BK305">
+        <v>0</v>
+      </c>
+      <c r="BL305">
+        <v>0</v>
+      </c>
+      <c r="BM305">
+        <v>0</v>
+      </c>
+      <c r="BN305">
+        <v>0</v>
+      </c>
+      <c r="BO305">
+        <v>0</v>
+      </c>
+      <c r="BP305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7516594</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45781.54166666666</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>73</v>
+      </c>
+      <c r="H306" t="s">
+        <v>84</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="N306">
+        <v>1</v>
+      </c>
+      <c r="O306" t="s">
+        <v>91</v>
+      </c>
+      <c r="P306" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q306">
+        <v>2</v>
+      </c>
+      <c r="R306">
+        <v>2.5</v>
+      </c>
+      <c r="S306">
+        <v>5.5</v>
+      </c>
+      <c r="T306">
+        <v>1.25</v>
+      </c>
+      <c r="U306">
+        <v>3.75</v>
+      </c>
+      <c r="V306">
+        <v>2.25</v>
+      </c>
+      <c r="W306">
+        <v>1.57</v>
+      </c>
+      <c r="X306">
+        <v>5.5</v>
+      </c>
+      <c r="Y306">
+        <v>1.14</v>
+      </c>
+      <c r="Z306">
+        <v>1.53</v>
+      </c>
+      <c r="AA306">
+        <v>4.2</v>
+      </c>
+      <c r="AB306">
+        <v>5.25</v>
+      </c>
+      <c r="AC306">
+        <v>0</v>
+      </c>
+      <c r="AD306">
+        <v>0</v>
+      </c>
+      <c r="AE306">
+        <v>3.75</v>
+      </c>
+      <c r="AF306">
+        <v>1.28</v>
+      </c>
+      <c r="AG306">
+        <v>1.57</v>
+      </c>
+      <c r="AH306">
+        <v>2.35</v>
+      </c>
+      <c r="AI306">
+        <v>1.67</v>
+      </c>
+      <c r="AJ306">
+        <v>2.1</v>
+      </c>
+      <c r="AK306">
+        <v>0</v>
+      </c>
+      <c r="AL306">
+        <v>0</v>
+      </c>
+      <c r="AM306">
+        <v>0</v>
+      </c>
+      <c r="AN306">
+        <v>2.53</v>
+      </c>
+      <c r="AO306">
+        <v>1.33</v>
+      </c>
+      <c r="AP306">
+        <v>2.38</v>
+      </c>
+      <c r="AQ306">
+        <v>1.44</v>
+      </c>
+      <c r="AR306">
+        <v>2.17</v>
+      </c>
+      <c r="AS306">
+        <v>1.46</v>
+      </c>
+      <c r="AT306">
+        <v>3.63</v>
+      </c>
+      <c r="AU306">
+        <v>9</v>
+      </c>
+      <c r="AV306">
+        <v>5</v>
+      </c>
+      <c r="AW306">
+        <v>10</v>
+      </c>
+      <c r="AX306">
+        <v>4</v>
+      </c>
+      <c r="AY306">
+        <v>23</v>
+      </c>
+      <c r="AZ306">
+        <v>10</v>
+      </c>
+      <c r="BA306">
+        <v>8</v>
+      </c>
+      <c r="BB306">
+        <v>5</v>
+      </c>
+      <c r="BC306">
+        <v>13</v>
+      </c>
+      <c r="BD306">
+        <v>0</v>
+      </c>
+      <c r="BE306">
+        <v>0</v>
+      </c>
+      <c r="BF306">
+        <v>0</v>
+      </c>
+      <c r="BG306">
+        <v>0</v>
+      </c>
+      <c r="BH306">
+        <v>0</v>
+      </c>
+      <c r="BI306">
+        <v>0</v>
+      </c>
+      <c r="BJ306">
+        <v>0</v>
+      </c>
+      <c r="BK306">
+        <v>0</v>
+      </c>
+      <c r="BL306">
+        <v>0</v>
+      </c>
+      <c r="BM306">
+        <v>0</v>
+      </c>
+      <c r="BN306">
+        <v>0</v>
+      </c>
+      <c r="BO306">
+        <v>0</v>
+      </c>
+      <c r="BP306">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="429">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,9 @@
     <t>['4', '61', '90+5']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1659,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP306"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2124,7 +2127,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2202,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
         <v>0.82</v>
@@ -2823,7 +2826,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2948,7 +2951,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3154,7 +3157,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3360,7 +3363,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3566,7 +3569,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3772,7 +3775,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3978,7 +3981,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4184,7 +4187,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4390,7 +4393,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4596,7 +4599,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4802,7 +4805,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -5008,7 +5011,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -6038,7 +6041,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6244,7 +6247,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6322,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23">
         <v>0.31</v>
@@ -6450,7 +6453,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6656,7 +6659,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7068,7 +7071,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7686,7 +7689,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7892,7 +7895,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8179,7 +8182,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -8510,7 +8513,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8716,7 +8719,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -9128,7 +9131,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9540,7 +9543,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9618,7 +9621,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
         <v>2.31</v>
@@ -9746,7 +9749,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10158,7 +10161,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10364,7 +10367,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10570,7 +10573,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10982,7 +10985,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11600,7 +11603,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11884,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>0.63</v>
@@ -12218,7 +12221,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12424,7 +12427,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12917,7 +12920,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ55">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.55</v>
@@ -13042,7 +13045,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13248,7 +13251,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13660,7 +13663,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13866,7 +13869,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14072,7 +14075,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14278,7 +14281,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14484,7 +14487,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14690,7 +14693,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14896,7 +14899,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15180,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
         <v>0.9399999999999999</v>
@@ -15308,7 +15311,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15595,7 +15598,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ68">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
         <v>0.8</v>
@@ -15926,7 +15929,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16132,7 +16135,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16750,7 +16753,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17368,7 +17371,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17574,7 +17577,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17986,7 +17989,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18192,7 +18195,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18398,7 +18401,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18604,7 +18607,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -19016,7 +19019,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19094,7 +19097,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ85">
         <v>1.65</v>
@@ -19222,7 +19225,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19303,7 +19306,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ86">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -20458,7 +20461,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -21076,7 +21079,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21282,7 +21285,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21900,7 +21903,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22312,7 +22315,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22390,7 +22393,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22518,7 +22521,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22724,7 +22727,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23011,7 +23014,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23548,7 +23551,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -24166,7 +24169,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24372,7 +24375,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -25196,7 +25199,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25608,7 +25611,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26432,7 +26435,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26638,7 +26641,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26925,7 +26928,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ123">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR123">
         <v>1.28</v>
@@ -27256,7 +27259,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27874,7 +27877,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28286,7 +28289,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29110,7 +29113,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29806,7 +29809,7 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ137">
         <v>1.18</v>
@@ -31170,7 +31173,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31376,7 +31379,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31457,7 +31460,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ145">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR145">
         <v>2.07</v>
@@ -31582,7 +31585,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31994,7 +31997,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32612,7 +32615,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33024,7 +33027,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33230,7 +33233,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33642,7 +33645,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34054,7 +34057,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34466,7 +34469,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34547,7 +34550,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ160">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34672,7 +34675,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34750,7 +34753,7 @@
         <v>0.5</v>
       </c>
       <c r="AP161">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ161">
         <v>0.5600000000000001</v>
@@ -35496,7 +35499,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36526,7 +36529,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36938,7 +36941,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38174,7 +38177,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38586,7 +38589,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38998,7 +39001,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39204,7 +39207,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39410,7 +39413,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39822,7 +39825,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40440,7 +40443,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40646,7 +40649,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40724,7 +40727,7 @@
         <v>0.25</v>
       </c>
       <c r="AP190">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ190">
         <v>0.33</v>
@@ -40852,7 +40855,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41264,7 +41267,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41551,7 +41554,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ194">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41882,7 +41885,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42088,7 +42091,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42294,7 +42297,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42500,7 +42503,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42912,7 +42915,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43118,7 +43121,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43324,7 +43327,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43402,7 +43405,7 @@
         <v>1.09</v>
       </c>
       <c r="AP203">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ203">
         <v>0.9399999999999999</v>
@@ -43530,7 +43533,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44972,7 +44975,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45259,7 +45262,7 @@
         <v>2</v>
       </c>
       <c r="AQ212">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR212">
         <v>1.58</v>
@@ -45590,7 +45593,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45796,7 +45799,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -46208,7 +46211,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46620,7 +46623,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -47238,7 +47241,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47650,7 +47653,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47856,7 +47859,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48680,7 +48683,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48886,7 +48889,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -48964,7 +48967,7 @@
         <v>2.82</v>
       </c>
       <c r="AP230">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ230">
         <v>2.56</v>
@@ -49379,7 +49382,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ232">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR232">
         <v>1.38</v>
@@ -49504,7 +49507,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49916,7 +49919,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50534,7 +50537,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50740,7 +50743,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51152,7 +51155,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51358,7 +51361,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51564,7 +51567,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51770,7 +51773,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -52466,7 +52469,7 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ247">
         <v>0.63</v>
@@ -52594,7 +52597,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52675,7 +52678,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ248">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR248">
         <v>1.48</v>
@@ -53006,7 +53009,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53212,7 +53215,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53418,7 +53421,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -54242,7 +54245,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -55066,7 +55069,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55478,7 +55481,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55684,7 +55687,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55890,7 +55893,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56508,7 +56511,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56920,7 +56923,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57001,7 +57004,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ269">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR269">
         <v>2.11</v>
@@ -57332,7 +57335,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57410,7 +57413,7 @@
         <v>1.38</v>
       </c>
       <c r="AP271">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ271">
         <v>1.44</v>
@@ -57538,7 +57541,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -58156,7 +58159,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58774,7 +58777,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59392,7 +59395,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59804,7 +59807,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -59882,7 +59885,7 @@
         <v>0.57</v>
       </c>
       <c r="AP283">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ283">
         <v>0.5</v>
@@ -60091,7 +60094,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ284">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR284">
         <v>1.2</v>
@@ -60216,7 +60219,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60834,7 +60837,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61246,7 +61249,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61658,7 +61661,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61864,7 +61867,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62070,7 +62073,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62482,7 +62485,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62894,7 +62897,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63718,7 +63721,7 @@
         <v>298</v>
       </c>
       <c r="P302" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q302">
         <v>5.5</v>
@@ -64635,22 +64638,22 @@
         <v>3.63</v>
       </c>
       <c r="AU306">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV306">
         <v>5</v>
       </c>
       <c r="AW306">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX306">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY306">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ306">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA306">
         <v>8</v>
@@ -64698,6 +64701,212 @@
         <v>0</v>
       </c>
       <c r="BP306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7516592</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45782.58333333334</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>71</v>
+      </c>
+      <c r="H307" t="s">
+        <v>88</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307" t="s">
+        <v>301</v>
+      </c>
+      <c r="P307" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q307">
+        <v>3.1</v>
+      </c>
+      <c r="R307">
+        <v>2.4</v>
+      </c>
+      <c r="S307">
+        <v>3</v>
+      </c>
+      <c r="T307">
+        <v>1.29</v>
+      </c>
+      <c r="U307">
+        <v>3.5</v>
+      </c>
+      <c r="V307">
+        <v>2.25</v>
+      </c>
+      <c r="W307">
+        <v>1.57</v>
+      </c>
+      <c r="X307">
+        <v>5.5</v>
+      </c>
+      <c r="Y307">
+        <v>1.14</v>
+      </c>
+      <c r="Z307">
+        <v>2.64</v>
+      </c>
+      <c r="AA307">
+        <v>3.63</v>
+      </c>
+      <c r="AB307">
+        <v>2.45</v>
+      </c>
+      <c r="AC307">
+        <v>0</v>
+      </c>
+      <c r="AD307">
+        <v>0</v>
+      </c>
+      <c r="AE307">
+        <v>0</v>
+      </c>
+      <c r="AF307">
+        <v>0</v>
+      </c>
+      <c r="AG307">
+        <v>1.52</v>
+      </c>
+      <c r="AH307">
+        <v>2.4</v>
+      </c>
+      <c r="AI307">
+        <v>1.5</v>
+      </c>
+      <c r="AJ307">
+        <v>2.5</v>
+      </c>
+      <c r="AK307">
+        <v>0</v>
+      </c>
+      <c r="AL307">
+        <v>0</v>
+      </c>
+      <c r="AM307">
+        <v>0</v>
+      </c>
+      <c r="AN307">
+        <v>1.4</v>
+      </c>
+      <c r="AO307">
+        <v>0.73</v>
+      </c>
+      <c r="AP307">
+        <v>1.38</v>
+      </c>
+      <c r="AQ307">
+        <v>0.75</v>
+      </c>
+      <c r="AR307">
+        <v>1.71</v>
+      </c>
+      <c r="AS307">
+        <v>1.32</v>
+      </c>
+      <c r="AT307">
+        <v>3.03</v>
+      </c>
+      <c r="AU307">
+        <v>7</v>
+      </c>
+      <c r="AV307">
+        <v>3</v>
+      </c>
+      <c r="AW307">
+        <v>6</v>
+      </c>
+      <c r="AX307">
+        <v>5</v>
+      </c>
+      <c r="AY307">
+        <v>15</v>
+      </c>
+      <c r="AZ307">
+        <v>10</v>
+      </c>
+      <c r="BA307">
+        <v>12</v>
+      </c>
+      <c r="BB307">
+        <v>1</v>
+      </c>
+      <c r="BC307">
+        <v>13</v>
+      </c>
+      <c r="BD307">
+        <v>0</v>
+      </c>
+      <c r="BE307">
+        <v>0</v>
+      </c>
+      <c r="BF307">
+        <v>0</v>
+      </c>
+      <c r="BG307">
+        <v>0</v>
+      </c>
+      <c r="BH307">
+        <v>0</v>
+      </c>
+      <c r="BI307">
+        <v>0</v>
+      </c>
+      <c r="BJ307">
+        <v>0</v>
+      </c>
+      <c r="BK307">
+        <v>0</v>
+      </c>
+      <c r="BL307">
+        <v>0</v>
+      </c>
+      <c r="BM307">
+        <v>0</v>
+      </c>
+      <c r="BN307">
+        <v>0</v>
+      </c>
+      <c r="BO307">
+        <v>0</v>
+      </c>
+      <c r="BP307">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="430">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1302,6 +1302,9 @@
   <si>
     <t>['9', '30', '82', '90+1']</t>
   </si>
+  <si>
+    <t>['44', '60', '86', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1662,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP307"/>
+  <dimension ref="A1:BP309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4268,7 +4271,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ13">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4677,10 +4680,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ15">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5089,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ17">
         <v>1.65</v>
@@ -6740,7 +6743,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ25">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR25">
         <v>1.86</v>
@@ -6946,7 +6949,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ26">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR26">
         <v>1.44</v>
@@ -7973,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ31">
         <v>0.63</v>
@@ -9624,7 +9627,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR39">
         <v>1.4</v>
@@ -12302,7 +12305,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ52">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR52">
         <v>1.43</v>
@@ -12917,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -14568,7 +14571,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ63">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -15801,7 +15804,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -16422,7 +16425,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ72">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR72">
         <v>1.95</v>
@@ -16625,7 +16628,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ73">
         <v>1.44</v>
@@ -18276,7 +18279,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ81">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -19509,7 +19512,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ87">
         <v>0.82</v>
@@ -20127,7 +20130,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ90">
         <v>1.18</v>
@@ -20539,7 +20542,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ92">
         <v>0.6899999999999999</v>
@@ -21778,7 +21781,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ98">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21984,7 +21987,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ99">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -24041,7 +24044,7 @@
         <v>1.6</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ109">
         <v>1.44</v>
@@ -24456,7 +24459,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ111">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24659,7 +24662,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ112">
         <v>1.25</v>
@@ -25486,7 +25489,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ116">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR116">
         <v>1.6</v>
@@ -26719,7 +26722,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122">
         <v>0.6899999999999999</v>
@@ -28576,7 +28579,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR131">
         <v>1.61</v>
@@ -28988,7 +28991,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ133">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR133">
         <v>1.67</v>
@@ -29397,7 +29400,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ135">
         <v>0.33</v>
@@ -29603,7 +29606,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ136">
         <v>0.9399999999999999</v>
@@ -31666,7 +31669,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ146">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -32078,7 +32081,7 @@
         <v>2</v>
       </c>
       <c r="AQ148">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR148">
         <v>1.58</v>
@@ -32281,7 +32284,7 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ149">
         <v>0.63</v>
@@ -33105,7 +33108,7 @@
         <v>1.86</v>
       </c>
       <c r="AP153">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ153">
         <v>1.31</v>
@@ -35992,7 +35995,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ167">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR167">
         <v>1.22</v>
@@ -36401,7 +36404,7 @@
         <v>0.63</v>
       </c>
       <c r="AP169">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ169">
         <v>0.31</v>
@@ -36607,7 +36610,7 @@
         <v>3</v>
       </c>
       <c r="AP170">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ170">
         <v>2.56</v>
@@ -37022,7 +37025,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ172">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -37431,7 +37434,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ174">
         <v>0.9399999999999999</v>
@@ -37637,7 +37640,7 @@
         <v>0.44</v>
       </c>
       <c r="AP175">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ175">
         <v>0.9399999999999999</v>
@@ -38464,7 +38467,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ179">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR179">
         <v>1.37</v>
@@ -38670,7 +38673,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ180">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR180">
         <v>1.28</v>
@@ -41757,7 +41760,7 @@
         <v>2</v>
       </c>
       <c r="AP195">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ195">
         <v>1.65</v>
@@ -42172,7 +42175,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ197">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR197">
         <v>1.83</v>
@@ -42581,7 +42584,7 @@
         <v>2.78</v>
       </c>
       <c r="AP199">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ199">
         <v>2.56</v>
@@ -43614,7 +43617,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ204">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR204">
         <v>1.37</v>
@@ -44847,7 +44850,7 @@
         <v>0.7</v>
       </c>
       <c r="AP210">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210">
         <v>0.5</v>
@@ -45053,7 +45056,7 @@
         <v>0.45</v>
       </c>
       <c r="AP211">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ211">
         <v>0.9399999999999999</v>
@@ -45468,7 +45471,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ213">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR213">
         <v>1.23</v>
@@ -48146,7 +48149,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ226">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR226">
         <v>1.94</v>
@@ -48764,7 +48767,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ229">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR229">
         <v>1.54</v>
@@ -49585,7 +49588,7 @@
         <v>1.33</v>
       </c>
       <c r="AP233">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ233">
         <v>1.18</v>
@@ -49791,7 +49794,7 @@
         <v>0.64</v>
       </c>
       <c r="AP234">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ234">
         <v>0.5</v>
@@ -52263,7 +52266,7 @@
         <v>0.92</v>
       </c>
       <c r="AP246">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ246">
         <v>1</v>
@@ -52472,7 +52475,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ247">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR247">
         <v>1.69</v>
@@ -52675,7 +52678,7 @@
         <v>0.42</v>
       </c>
       <c r="AP248">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ248">
         <v>0.75</v>
@@ -53914,7 +53917,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ254">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR254">
         <v>1.43</v>
@@ -54326,7 +54329,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ256">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR256">
         <v>1.33</v>
@@ -56177,7 +56180,7 @@
         <v>0.79</v>
       </c>
       <c r="AP265">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ265">
         <v>0.82</v>
@@ -58649,7 +58652,7 @@
         <v>0.38</v>
       </c>
       <c r="AP277">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ277">
         <v>0.33</v>
@@ -58858,7 +58861,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ278">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR278">
         <v>1.34</v>
@@ -60503,7 +60506,7 @@
         <v>0.64</v>
       </c>
       <c r="AP286">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ286">
         <v>0.5600000000000001</v>
@@ -61945,10 +61948,10 @@
         <v>2.27</v>
       </c>
       <c r="AP293">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ293">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR293">
         <v>1.6</v>
@@ -62154,7 +62157,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ294">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR294">
         <v>1.71</v>
@@ -64907,6 +64910,418 @@
         <v>0</v>
       </c>
       <c r="BP307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7516604</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45786.58333333334</v>
+      </c>
+      <c r="F308">
+        <v>35</v>
+      </c>
+      <c r="G308" t="s">
+        <v>85</v>
+      </c>
+      <c r="H308" t="s">
+        <v>75</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308" t="s">
+        <v>91</v>
+      </c>
+      <c r="P308" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q308">
+        <v>3</v>
+      </c>
+      <c r="R308">
+        <v>2.3</v>
+      </c>
+      <c r="S308">
+        <v>3.25</v>
+      </c>
+      <c r="T308">
+        <v>1.33</v>
+      </c>
+      <c r="U308">
+        <v>3.25</v>
+      </c>
+      <c r="V308">
+        <v>2.5</v>
+      </c>
+      <c r="W308">
+        <v>1.5</v>
+      </c>
+      <c r="X308">
+        <v>6</v>
+      </c>
+      <c r="Y308">
+        <v>1.13</v>
+      </c>
+      <c r="Z308">
+        <v>2.5</v>
+      </c>
+      <c r="AA308">
+        <v>3.45</v>
+      </c>
+      <c r="AB308">
+        <v>2.69</v>
+      </c>
+      <c r="AC308">
+        <v>0</v>
+      </c>
+      <c r="AD308">
+        <v>0</v>
+      </c>
+      <c r="AE308">
+        <v>0</v>
+      </c>
+      <c r="AF308">
+        <v>0</v>
+      </c>
+      <c r="AG308">
+        <v>1.67</v>
+      </c>
+      <c r="AH308">
+        <v>2.05</v>
+      </c>
+      <c r="AI308">
+        <v>1.57</v>
+      </c>
+      <c r="AJ308">
+        <v>2.25</v>
+      </c>
+      <c r="AK308">
+        <v>0</v>
+      </c>
+      <c r="AL308">
+        <v>0</v>
+      </c>
+      <c r="AM308">
+        <v>0</v>
+      </c>
+      <c r="AN308">
+        <v>2.06</v>
+      </c>
+      <c r="AO308">
+        <v>0.63</v>
+      </c>
+      <c r="AP308">
+        <v>1.94</v>
+      </c>
+      <c r="AQ308">
+        <v>0.76</v>
+      </c>
+      <c r="AR308">
+        <v>1.58</v>
+      </c>
+      <c r="AS308">
+        <v>1.16</v>
+      </c>
+      <c r="AT308">
+        <v>2.74</v>
+      </c>
+      <c r="AU308">
+        <v>-1</v>
+      </c>
+      <c r="AV308">
+        <v>-1</v>
+      </c>
+      <c r="AW308">
+        <v>-1</v>
+      </c>
+      <c r="AX308">
+        <v>-1</v>
+      </c>
+      <c r="AY308">
+        <v>-1</v>
+      </c>
+      <c r="AZ308">
+        <v>-1</v>
+      </c>
+      <c r="BA308">
+        <v>-1</v>
+      </c>
+      <c r="BB308">
+        <v>-1</v>
+      </c>
+      <c r="BC308">
+        <v>-1</v>
+      </c>
+      <c r="BD308">
+        <v>0</v>
+      </c>
+      <c r="BE308">
+        <v>0</v>
+      </c>
+      <c r="BF308">
+        <v>0</v>
+      </c>
+      <c r="BG308">
+        <v>0</v>
+      </c>
+      <c r="BH308">
+        <v>0</v>
+      </c>
+      <c r="BI308">
+        <v>0</v>
+      </c>
+      <c r="BJ308">
+        <v>0</v>
+      </c>
+      <c r="BK308">
+        <v>0</v>
+      </c>
+      <c r="BL308">
+        <v>0</v>
+      </c>
+      <c r="BM308">
+        <v>0</v>
+      </c>
+      <c r="BN308">
+        <v>0</v>
+      </c>
+      <c r="BO308">
+        <v>0</v>
+      </c>
+      <c r="BP308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:68">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7516601</v>
+      </c>
+      <c r="C309" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45786.58333333334</v>
+      </c>
+      <c r="F309">
+        <v>35</v>
+      </c>
+      <c r="G309" t="s">
+        <v>83</v>
+      </c>
+      <c r="H309" t="s">
+        <v>73</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+      <c r="M309">
+        <v>4</v>
+      </c>
+      <c r="N309">
+        <v>5</v>
+      </c>
+      <c r="O309" t="s">
+        <v>138</v>
+      </c>
+      <c r="P309" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q309">
+        <v>4.33</v>
+      </c>
+      <c r="R309">
+        <v>2.38</v>
+      </c>
+      <c r="S309">
+        <v>2.3</v>
+      </c>
+      <c r="T309">
+        <v>1.3</v>
+      </c>
+      <c r="U309">
+        <v>3.4</v>
+      </c>
+      <c r="V309">
+        <v>2.5</v>
+      </c>
+      <c r="W309">
+        <v>1.5</v>
+      </c>
+      <c r="X309">
+        <v>6</v>
+      </c>
+      <c r="Y309">
+        <v>1.13</v>
+      </c>
+      <c r="Z309">
+        <v>4.2</v>
+      </c>
+      <c r="AA309">
+        <v>3.78</v>
+      </c>
+      <c r="AB309">
+        <v>1.78</v>
+      </c>
+      <c r="AC309">
+        <v>0</v>
+      </c>
+      <c r="AD309">
+        <v>0</v>
+      </c>
+      <c r="AE309">
+        <v>0</v>
+      </c>
+      <c r="AF309">
+        <v>0</v>
+      </c>
+      <c r="AG309">
+        <v>1.65</v>
+      </c>
+      <c r="AH309">
+        <v>2.15</v>
+      </c>
+      <c r="AI309">
+        <v>1.67</v>
+      </c>
+      <c r="AJ309">
+        <v>2.1</v>
+      </c>
+      <c r="AK309">
+        <v>0</v>
+      </c>
+      <c r="AL309">
+        <v>0</v>
+      </c>
+      <c r="AM309">
+        <v>0</v>
+      </c>
+      <c r="AN309">
+        <v>1.94</v>
+      </c>
+      <c r="AO309">
+        <v>2.31</v>
+      </c>
+      <c r="AP309">
+        <v>1.82</v>
+      </c>
+      <c r="AQ309">
+        <v>2.35</v>
+      </c>
+      <c r="AR309">
+        <v>1.44</v>
+      </c>
+      <c r="AS309">
+        <v>1.65</v>
+      </c>
+      <c r="AT309">
+        <v>3.09</v>
+      </c>
+      <c r="AU309">
+        <v>-1</v>
+      </c>
+      <c r="AV309">
+        <v>-1</v>
+      </c>
+      <c r="AW309">
+        <v>-1</v>
+      </c>
+      <c r="AX309">
+        <v>-1</v>
+      </c>
+      <c r="AY309">
+        <v>-1</v>
+      </c>
+      <c r="AZ309">
+        <v>-1</v>
+      </c>
+      <c r="BA309">
+        <v>-1</v>
+      </c>
+      <c r="BB309">
+        <v>-1</v>
+      </c>
+      <c r="BC309">
+        <v>-1</v>
+      </c>
+      <c r="BD309">
+        <v>0</v>
+      </c>
+      <c r="BE309">
+        <v>0</v>
+      </c>
+      <c r="BF309">
+        <v>0</v>
+      </c>
+      <c r="BG309">
+        <v>0</v>
+      </c>
+      <c r="BH309">
+        <v>0</v>
+      </c>
+      <c r="BI309">
+        <v>0</v>
+      </c>
+      <c r="BJ309">
+        <v>0</v>
+      </c>
+      <c r="BK309">
+        <v>0</v>
+      </c>
+      <c r="BL309">
+        <v>0</v>
+      </c>
+      <c r="BM309">
+        <v>0</v>
+      </c>
+      <c r="BN309">
+        <v>0</v>
+      </c>
+      <c r="BO309">
+        <v>0</v>
+      </c>
+      <c r="BP309">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -65053,31 +65053,31 @@
         <v>2.74</v>
       </c>
       <c r="AU308">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV308">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW308">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX308">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY308">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ308">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA308">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC308">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BD308">
         <v>0</v>
@@ -65259,31 +65259,31 @@
         <v>3.09</v>
       </c>
       <c r="AU309">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV309">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW309">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX309">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY309">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ309">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA309">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB309">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC309">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD309">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="433">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -922,6 +922,9 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['47', '77']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1305,6 +1308,12 @@
   <si>
     <t>['44', '60', '86', '90+3']</t>
   </si>
+  <si>
+    <t>['38', '64', '90+1']</t>
+  </si>
+  <si>
+    <t>['66', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1665,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP309"/>
+  <dimension ref="A1:BP312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2130,7 +2139,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2954,7 +2963,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3160,7 +3169,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3366,7 +3375,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3572,7 +3581,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3778,7 +3787,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3856,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3984,7 +3993,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4190,7 +4199,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4396,7 +4405,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4477,7 +4486,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ14">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4602,7 +4611,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4808,7 +4817,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -5014,7 +5023,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5298,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ18">
         <v>0.9399999999999999</v>
@@ -5507,7 +5516,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ19">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6044,7 +6053,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6250,7 +6259,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6456,7 +6465,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6662,7 +6671,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7074,7 +7083,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7155,7 +7164,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -7358,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7692,7 +7701,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7773,7 +7782,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ30">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR30">
         <v>1.28</v>
@@ -7898,7 +7907,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8182,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ32">
         <v>0.75</v>
@@ -8516,7 +8525,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8722,7 +8731,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -9134,7 +9143,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9421,7 +9430,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>2.66</v>
@@ -9546,7 +9555,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9752,7 +9761,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10164,7 +10173,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10242,7 +10251,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.44</v>
@@ -10370,7 +10379,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10576,7 +10585,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10988,7 +10997,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11066,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11478,7 +11487,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -11606,7 +11615,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11687,7 +11696,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ49">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR49">
         <v>1.64</v>
@@ -12224,7 +12233,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12430,7 +12439,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -13048,7 +13057,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13254,7 +13263,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13541,7 +13550,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ58">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13666,7 +13675,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13747,7 +13756,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ59">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR59">
         <v>2.34</v>
@@ -13872,7 +13881,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13950,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ60">
         <v>0.5600000000000001</v>
@@ -14078,7 +14087,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14156,7 +14165,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>0.82</v>
@@ -14284,7 +14293,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14490,7 +14499,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14696,7 +14705,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14902,7 +14911,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15314,7 +15323,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15932,7 +15941,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16010,7 +16019,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70">
         <v>1.18</v>
@@ -16138,7 +16147,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16756,7 +16765,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17040,7 +17049,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1.25</v>
@@ -17246,7 +17255,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ76">
         <v>0.6899999999999999</v>
@@ -17374,7 +17383,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17455,7 +17464,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ77">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17580,7 +17589,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17992,7 +18001,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18073,7 +18082,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR80">
         <v>1.32</v>
@@ -18198,7 +18207,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18404,7 +18413,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18485,7 +18494,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR82">
         <v>1.45</v>
@@ -18610,7 +18619,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -19022,7 +19031,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19228,7 +19237,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -20464,7 +20473,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20751,7 +20760,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ93">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
         <v>1.31</v>
@@ -21082,7 +21091,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21163,7 +21172,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR95">
         <v>1.8</v>
@@ -21288,7 +21297,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21366,7 +21375,7 @@
         <v>1.4</v>
       </c>
       <c r="AP96">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ96">
         <v>1.25</v>
@@ -21572,7 +21581,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ97">
         <v>0.33</v>
@@ -21906,7 +21915,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21984,7 +21993,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>2.35</v>
@@ -22318,7 +22327,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22524,7 +22533,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22730,7 +22739,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23554,7 +23563,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -24172,7 +24181,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24250,10 +24259,10 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ110">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR110">
         <v>1.36</v>
@@ -24378,7 +24387,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24871,7 +24880,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ113">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -25077,7 +25086,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ114">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR114">
         <v>1.24</v>
@@ -25202,7 +25211,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25280,7 +25289,7 @@
         <v>0.2</v>
       </c>
       <c r="AP115">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ115">
         <v>0.33</v>
@@ -25614,7 +25623,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25898,7 +25907,7 @@
         <v>0.4</v>
       </c>
       <c r="AP118">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>0.31</v>
@@ -26438,7 +26447,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26644,7 +26653,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27262,7 +27271,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27880,7 +27889,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27958,10 +27967,10 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR128">
         <v>1.57</v>
@@ -28164,7 +28173,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129">
         <v>0.63</v>
@@ -28292,7 +28301,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28782,7 +28791,7 @@
         <v>2.5</v>
       </c>
       <c r="AP132">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ132">
         <v>1.65</v>
@@ -29116,7 +29125,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29197,7 +29206,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ134">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR134">
         <v>1.23</v>
@@ -29609,7 +29618,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ136">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -31176,7 +31185,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31382,7 +31391,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31588,7 +31597,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31666,7 +31675,7 @@
         <v>2.13</v>
       </c>
       <c r="AP146">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ146">
         <v>2.35</v>
@@ -32000,7 +32009,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32493,7 +32502,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ150">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR150">
         <v>1.84</v>
@@ -32618,7 +32627,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -32699,7 +32708,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ151">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR151">
         <v>1.61</v>
@@ -32902,7 +32911,7 @@
         <v>0.57</v>
       </c>
       <c r="AP152">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
         <v>0.9399999999999999</v>
@@ -33030,7 +33039,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33111,7 +33120,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ153">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR153">
         <v>1.53</v>
@@ -33236,7 +33245,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33648,7 +33657,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34060,7 +34069,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34472,7 +34481,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34678,7 +34687,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35502,7 +35511,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -35583,7 +35592,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ165">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR165">
         <v>1.23</v>
@@ -36198,7 +36207,7 @@
         <v>0.63</v>
       </c>
       <c r="AP168">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ168">
         <v>0.63</v>
@@ -36532,7 +36541,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36613,7 +36622,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ170">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR170">
         <v>1.59</v>
@@ -36819,7 +36828,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ171">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR171">
         <v>1.84</v>
@@ -36944,7 +36953,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -37022,7 +37031,7 @@
         <v>2</v>
       </c>
       <c r="AP172">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ172">
         <v>2.35</v>
@@ -37231,7 +37240,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ173">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR173">
         <v>1.25</v>
@@ -37437,7 +37446,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ174">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR174">
         <v>1.54</v>
@@ -38180,7 +38189,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38258,10 +38267,10 @@
         <v>1.56</v>
       </c>
       <c r="AP178">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ178">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR178">
         <v>1.34</v>
@@ -38464,7 +38473,7 @@
         <v>0.78</v>
       </c>
       <c r="AP179">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ179">
         <v>0.76</v>
@@ -38592,7 +38601,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38876,7 +38885,7 @@
         <v>0.88</v>
       </c>
       <c r="AP181">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ181">
         <v>0.5</v>
@@ -39004,7 +39013,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39210,7 +39219,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39416,7 +39425,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39828,7 +39837,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40446,7 +40455,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40652,7 +40661,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40858,7 +40867,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -40936,7 +40945,7 @@
         <v>0.5</v>
       </c>
       <c r="AP191">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ191">
         <v>0.9399999999999999</v>
@@ -41142,7 +41151,7 @@
         <v>0.78</v>
       </c>
       <c r="AP192">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ192">
         <v>0.5</v>
@@ -41270,7 +41279,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41888,7 +41897,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -41969,7 +41978,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ196">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR196">
         <v>1.21</v>
@@ -42094,7 +42103,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42300,7 +42309,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42381,7 +42390,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ198">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR198">
         <v>1.98</v>
@@ -42506,7 +42515,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42587,7 +42596,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ199">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR199">
         <v>1.47</v>
@@ -42918,7 +42927,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43124,7 +43133,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43330,7 +43339,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43411,7 +43420,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR203">
         <v>1.69</v>
@@ -43536,7 +43545,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44232,7 +44241,7 @@
         <v>1.45</v>
       </c>
       <c r="AP207">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ207">
         <v>1.18</v>
@@ -44978,7 +44987,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45596,7 +45605,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45674,7 +45683,7 @@
         <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ214">
         <v>1</v>
@@ -45802,7 +45811,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -45880,7 +45889,7 @@
         <v>1.82</v>
       </c>
       <c r="AP215">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ215">
         <v>1.65</v>
@@ -46089,7 +46098,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ216">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR216">
         <v>2.13</v>
@@ -46214,7 +46223,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46295,7 +46304,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ217">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR217">
         <v>1.53</v>
@@ -46626,7 +46635,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46704,7 +46713,7 @@
         <v>1.36</v>
       </c>
       <c r="AP219">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ219">
         <v>1.44</v>
@@ -47119,7 +47128,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ221">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR221">
         <v>1.42</v>
@@ -47244,7 +47253,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47325,7 +47334,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ222">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR222">
         <v>1.55</v>
@@ -47656,7 +47665,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47862,7 +47871,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -47940,7 +47949,7 @@
         <v>0.5</v>
       </c>
       <c r="AP225">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ225">
         <v>0.5600000000000001</v>
@@ -48686,7 +48695,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48892,7 +48901,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -48973,7 +48982,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ230">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR230">
         <v>1.68</v>
@@ -49382,7 +49391,7 @@
         <v>0.45</v>
       </c>
       <c r="AP232">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ232">
         <v>0.75</v>
@@ -49510,7 +49519,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49922,7 +49931,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50209,7 +50218,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ236">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR236">
         <v>1.31</v>
@@ -50540,7 +50549,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50621,7 +50630,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ238">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR238">
         <v>1.39</v>
@@ -50746,7 +50755,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -50824,7 +50833,7 @@
         <v>0.18</v>
       </c>
       <c r="AP239">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ239">
         <v>0.33</v>
@@ -51158,7 +51167,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51364,7 +51373,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51442,7 +51451,7 @@
         <v>0.85</v>
       </c>
       <c r="AP242">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ242">
         <v>0.82</v>
@@ -51570,7 +51579,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51651,7 +51660,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ243">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR243">
         <v>1.46</v>
@@ -51776,7 +51785,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -52600,7 +52609,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52884,7 +52893,7 @@
         <v>1.5</v>
       </c>
       <c r="AP249">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ249">
         <v>1.44</v>
@@ -53012,7 +53021,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53218,7 +53227,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53424,7 +53433,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -54248,7 +54257,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54532,7 +54541,7 @@
         <v>0.67</v>
       </c>
       <c r="AP257">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ257">
         <v>0.5600000000000001</v>
@@ -54944,7 +54953,7 @@
         <v>0.54</v>
       </c>
       <c r="AP259">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ259">
         <v>0.6899999999999999</v>
@@ -55072,7 +55081,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55153,7 +55162,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ260">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR260">
         <v>1.62</v>
@@ -55359,7 +55368,7 @@
         <v>2</v>
       </c>
       <c r="AQ261">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR261">
         <v>1.64</v>
@@ -55484,7 +55493,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55562,7 +55571,7 @@
         <v>0.92</v>
       </c>
       <c r="AP262">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ262">
         <v>1.25</v>
@@ -55690,7 +55699,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55896,7 +55905,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56514,7 +56523,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56926,7 +56935,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57338,7 +57347,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57544,7 +57553,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57625,7 +57634,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ272">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR272">
         <v>1.63</v>
@@ -57828,7 +57837,7 @@
         <v>0.57</v>
       </c>
       <c r="AP273">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ273">
         <v>0.6899999999999999</v>
@@ -58162,7 +58171,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58449,7 +58458,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ276">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR276">
         <v>1.57</v>
@@ -58780,7 +58789,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59064,10 +59073,10 @@
         <v>1.07</v>
       </c>
       <c r="AP279">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ279">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR279">
         <v>1.69</v>
@@ -59270,7 +59279,7 @@
         <v>0.36</v>
       </c>
       <c r="AP280">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ280">
         <v>0.31</v>
@@ -59398,7 +59407,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59810,7 +59819,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60222,7 +60231,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60840,7 +60849,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61252,7 +61261,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61664,7 +61673,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61870,7 +61879,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62076,7 +62085,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62154,7 +62163,7 @@
         <v>0.67</v>
       </c>
       <c r="AP294">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ294">
         <v>0.76</v>
@@ -62360,7 +62369,7 @@
         <v>0.33</v>
       </c>
       <c r="AP295">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ295">
         <v>0.31</v>
@@ -62488,7 +62497,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62566,10 +62575,10 @@
         <v>2.53</v>
       </c>
       <c r="AP296">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ296">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AR296">
         <v>1.5</v>
@@ -62775,7 +62784,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ297">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR297">
         <v>1.52</v>
@@ -62900,7 +62909,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63724,7 +63733,7 @@
         <v>298</v>
       </c>
       <c r="P302" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q302">
         <v>5.5</v>
@@ -64754,7 +64763,7 @@
         <v>301</v>
       </c>
       <c r="P307" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65056,19 +65065,19 @@
         <v>4</v>
       </c>
       <c r="AV308">
+        <v>5</v>
+      </c>
+      <c r="AW308">
         <v>4</v>
-      </c>
-      <c r="AW308">
-        <v>7</v>
       </c>
       <c r="AX308">
         <v>4</v>
       </c>
       <c r="AY308">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ308">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA308">
         <v>2</v>
@@ -65166,7 +65175,7 @@
         <v>138</v>
       </c>
       <c r="P309" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q309">
         <v>4.33</v>
@@ -65259,22 +65268,22 @@
         <v>3.09</v>
       </c>
       <c r="AU309">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV309">
+        <v>10</v>
+      </c>
+      <c r="AW309">
+        <v>2</v>
+      </c>
+      <c r="AX309">
         <v>5</v>
       </c>
-      <c r="AW309">
-        <v>8</v>
-      </c>
-      <c r="AX309">
-        <v>6</v>
-      </c>
       <c r="AY309">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ309">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA309">
         <v>5</v>
@@ -65322,6 +65331,624 @@
         <v>0</v>
       </c>
       <c r="BP309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:68">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7516602</v>
+      </c>
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" t="s">
+        <v>69</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F310">
+        <v>35</v>
+      </c>
+      <c r="G310" t="s">
+        <v>86</v>
+      </c>
+      <c r="H310" t="s">
+        <v>71</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+      <c r="M310">
+        <v>3</v>
+      </c>
+      <c r="N310">
+        <v>3</v>
+      </c>
+      <c r="O310" t="s">
+        <v>91</v>
+      </c>
+      <c r="P310" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q310">
+        <v>2.88</v>
+      </c>
+      <c r="R310">
+        <v>2.4</v>
+      </c>
+      <c r="S310">
+        <v>3.2</v>
+      </c>
+      <c r="T310">
+        <v>1.29</v>
+      </c>
+      <c r="U310">
+        <v>3.5</v>
+      </c>
+      <c r="V310">
+        <v>2.25</v>
+      </c>
+      <c r="W310">
+        <v>1.57</v>
+      </c>
+      <c r="X310">
+        <v>5.5</v>
+      </c>
+      <c r="Y310">
+        <v>1.14</v>
+      </c>
+      <c r="Z310">
+        <v>2.3</v>
+      </c>
+      <c r="AA310">
+        <v>3.6</v>
+      </c>
+      <c r="AB310">
+        <v>2.8</v>
+      </c>
+      <c r="AC310">
+        <v>0</v>
+      </c>
+      <c r="AD310">
+        <v>0</v>
+      </c>
+      <c r="AE310">
+        <v>0</v>
+      </c>
+      <c r="AF310">
+        <v>0</v>
+      </c>
+      <c r="AG310">
+        <v>1.57</v>
+      </c>
+      <c r="AH310">
+        <v>2.25</v>
+      </c>
+      <c r="AI310">
+        <v>1.5</v>
+      </c>
+      <c r="AJ310">
+        <v>2.5</v>
+      </c>
+      <c r="AK310">
+        <v>0</v>
+      </c>
+      <c r="AL310">
+        <v>0</v>
+      </c>
+      <c r="AM310">
+        <v>0</v>
+      </c>
+      <c r="AN310">
+        <v>1.88</v>
+      </c>
+      <c r="AO310">
+        <v>1.31</v>
+      </c>
+      <c r="AP310">
+        <v>1.76</v>
+      </c>
+      <c r="AQ310">
+        <v>1.41</v>
+      </c>
+      <c r="AR310">
+        <v>1.47</v>
+      </c>
+      <c r="AS310">
+        <v>1.36</v>
+      </c>
+      <c r="AT310">
+        <v>2.83</v>
+      </c>
+      <c r="AU310">
+        <v>2</v>
+      </c>
+      <c r="AV310">
+        <v>5</v>
+      </c>
+      <c r="AW310">
+        <v>6</v>
+      </c>
+      <c r="AX310">
+        <v>6</v>
+      </c>
+      <c r="AY310">
+        <v>10</v>
+      </c>
+      <c r="AZ310">
+        <v>14</v>
+      </c>
+      <c r="BA310">
+        <v>2</v>
+      </c>
+      <c r="BB310">
+        <v>2</v>
+      </c>
+      <c r="BC310">
+        <v>4</v>
+      </c>
+      <c r="BD310">
+        <v>0</v>
+      </c>
+      <c r="BE310">
+        <v>0</v>
+      </c>
+      <c r="BF310">
+        <v>0</v>
+      </c>
+      <c r="BG310">
+        <v>0</v>
+      </c>
+      <c r="BH310">
+        <v>0</v>
+      </c>
+      <c r="BI310">
+        <v>0</v>
+      </c>
+      <c r="BJ310">
+        <v>0</v>
+      </c>
+      <c r="BK310">
+        <v>0</v>
+      </c>
+      <c r="BL310">
+        <v>0</v>
+      </c>
+      <c r="BM310">
+        <v>0</v>
+      </c>
+      <c r="BN310">
+        <v>0</v>
+      </c>
+      <c r="BO310">
+        <v>0</v>
+      </c>
+      <c r="BP310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:68">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>7516599</v>
+      </c>
+      <c r="C311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D311" t="s">
+        <v>69</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F311">
+        <v>35</v>
+      </c>
+      <c r="G311" t="s">
+        <v>79</v>
+      </c>
+      <c r="H311" t="s">
+        <v>77</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>2</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="N311">
+        <v>3</v>
+      </c>
+      <c r="O311" t="s">
+        <v>302</v>
+      </c>
+      <c r="P311" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q311">
+        <v>2.75</v>
+      </c>
+      <c r="R311">
+        <v>2.2</v>
+      </c>
+      <c r="S311">
+        <v>3.75</v>
+      </c>
+      <c r="T311">
+        <v>1.36</v>
+      </c>
+      <c r="U311">
+        <v>3</v>
+      </c>
+      <c r="V311">
+        <v>2.75</v>
+      </c>
+      <c r="W311">
+        <v>1.4</v>
+      </c>
+      <c r="X311">
+        <v>7</v>
+      </c>
+      <c r="Y311">
+        <v>1.1</v>
+      </c>
+      <c r="Z311">
+        <v>2.1</v>
+      </c>
+      <c r="AA311">
+        <v>3.4</v>
+      </c>
+      <c r="AB311">
+        <v>3.4</v>
+      </c>
+      <c r="AC311">
+        <v>0</v>
+      </c>
+      <c r="AD311">
+        <v>0</v>
+      </c>
+      <c r="AE311">
+        <v>0</v>
+      </c>
+      <c r="AF311">
+        <v>0</v>
+      </c>
+      <c r="AG311">
+        <v>1.85</v>
+      </c>
+      <c r="AH311">
+        <v>1.85</v>
+      </c>
+      <c r="AI311">
+        <v>1.73</v>
+      </c>
+      <c r="AJ311">
+        <v>2</v>
+      </c>
+      <c r="AK311">
+        <v>0</v>
+      </c>
+      <c r="AL311">
+        <v>0</v>
+      </c>
+      <c r="AM311">
+        <v>0</v>
+      </c>
+      <c r="AN311">
+        <v>1.81</v>
+      </c>
+      <c r="AO311">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP311">
+        <v>1.88</v>
+      </c>
+      <c r="AQ311">
+        <v>0.88</v>
+      </c>
+      <c r="AR311">
+        <v>1.4</v>
+      </c>
+      <c r="AS311">
+        <v>1.2</v>
+      </c>
+      <c r="AT311">
+        <v>2.6</v>
+      </c>
+      <c r="AU311">
+        <v>8</v>
+      </c>
+      <c r="AV311">
+        <v>4</v>
+      </c>
+      <c r="AW311">
+        <v>11</v>
+      </c>
+      <c r="AX311">
+        <v>9</v>
+      </c>
+      <c r="AY311">
+        <v>21</v>
+      </c>
+      <c r="AZ311">
+        <v>15</v>
+      </c>
+      <c r="BA311">
+        <v>5</v>
+      </c>
+      <c r="BB311">
+        <v>5</v>
+      </c>
+      <c r="BC311">
+        <v>10</v>
+      </c>
+      <c r="BD311">
+        <v>0</v>
+      </c>
+      <c r="BE311">
+        <v>0</v>
+      </c>
+      <c r="BF311">
+        <v>0</v>
+      </c>
+      <c r="BG311">
+        <v>0</v>
+      </c>
+      <c r="BH311">
+        <v>0</v>
+      </c>
+      <c r="BI311">
+        <v>0</v>
+      </c>
+      <c r="BJ311">
+        <v>0</v>
+      </c>
+      <c r="BK311">
+        <v>0</v>
+      </c>
+      <c r="BL311">
+        <v>0</v>
+      </c>
+      <c r="BM311">
+        <v>0</v>
+      </c>
+      <c r="BN311">
+        <v>0</v>
+      </c>
+      <c r="BO311">
+        <v>0</v>
+      </c>
+      <c r="BP311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:68">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>7516600</v>
+      </c>
+      <c r="C312" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" t="s">
+        <v>69</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F312">
+        <v>35</v>
+      </c>
+      <c r="G312" t="s">
+        <v>88</v>
+      </c>
+      <c r="H312" t="s">
+        <v>70</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312">
+        <v>2</v>
+      </c>
+      <c r="N312">
+        <v>2</v>
+      </c>
+      <c r="O312" t="s">
+        <v>91</v>
+      </c>
+      <c r="P312" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q312">
+        <v>4</v>
+      </c>
+      <c r="R312">
+        <v>2.5</v>
+      </c>
+      <c r="S312">
+        <v>2.25</v>
+      </c>
+      <c r="T312">
+        <v>1.25</v>
+      </c>
+      <c r="U312">
+        <v>3.75</v>
+      </c>
+      <c r="V312">
+        <v>2.1</v>
+      </c>
+      <c r="W312">
+        <v>1.67</v>
+      </c>
+      <c r="X312">
+        <v>5</v>
+      </c>
+      <c r="Y312">
+        <v>1.17</v>
+      </c>
+      <c r="Z312">
+        <v>3.75</v>
+      </c>
+      <c r="AA312">
+        <v>3.9</v>
+      </c>
+      <c r="AB312">
+        <v>1.83</v>
+      </c>
+      <c r="AC312">
+        <v>0</v>
+      </c>
+      <c r="AD312">
+        <v>0</v>
+      </c>
+      <c r="AE312">
+        <v>0</v>
+      </c>
+      <c r="AF312">
+        <v>0</v>
+      </c>
+      <c r="AG312">
+        <v>1.48</v>
+      </c>
+      <c r="AH312">
+        <v>2.6</v>
+      </c>
+      <c r="AI312">
+        <v>1.5</v>
+      </c>
+      <c r="AJ312">
+        <v>2.5</v>
+      </c>
+      <c r="AK312">
+        <v>0</v>
+      </c>
+      <c r="AL312">
+        <v>0</v>
+      </c>
+      <c r="AM312">
+        <v>0</v>
+      </c>
+      <c r="AN312">
+        <v>2.13</v>
+      </c>
+      <c r="AO312">
+        <v>2.56</v>
+      </c>
+      <c r="AP312">
+        <v>2</v>
+      </c>
+      <c r="AQ312">
+        <v>2.59</v>
+      </c>
+      <c r="AR312">
+        <v>1.72</v>
+      </c>
+      <c r="AS312">
+        <v>1.85</v>
+      </c>
+      <c r="AT312">
+        <v>3.57</v>
+      </c>
+      <c r="AU312">
+        <v>6</v>
+      </c>
+      <c r="AV312">
+        <v>9</v>
+      </c>
+      <c r="AW312">
+        <v>7</v>
+      </c>
+      <c r="AX312">
+        <v>11</v>
+      </c>
+      <c r="AY312">
+        <v>15</v>
+      </c>
+      <c r="AZ312">
+        <v>22</v>
+      </c>
+      <c r="BA312">
+        <v>1</v>
+      </c>
+      <c r="BB312">
+        <v>9</v>
+      </c>
+      <c r="BC312">
+        <v>10</v>
+      </c>
+      <c r="BD312">
+        <v>0</v>
+      </c>
+      <c r="BE312">
+        <v>0</v>
+      </c>
+      <c r="BF312">
+        <v>0</v>
+      </c>
+      <c r="BG312">
+        <v>0</v>
+      </c>
+      <c r="BH312">
+        <v>0</v>
+      </c>
+      <c r="BI312">
+        <v>0</v>
+      </c>
+      <c r="BJ312">
+        <v>0</v>
+      </c>
+      <c r="BK312">
+        <v>0</v>
+      </c>
+      <c r="BL312">
+        <v>0</v>
+      </c>
+      <c r="BM312">
+        <v>0</v>
+      </c>
+      <c r="BN312">
+        <v>0</v>
+      </c>
+      <c r="BO312">
+        <v>0</v>
+      </c>
+      <c r="BP312">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="433">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1674,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP312"/>
+  <dimension ref="A1:BP314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2014,7 +2014,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ13">
         <v>2.35</v>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>1.18</v>
@@ -6546,7 +6546,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ24">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>0.5600000000000001</v>
@@ -10048,7 +10048,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -12723,7 +12723,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -13135,7 +13135,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.25</v>
@@ -15401,7 +15401,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ67">
         <v>0.5</v>
@@ -17667,10 +17667,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -19315,7 +19315,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ86">
         <v>0.75</v>
@@ -20757,7 +20757,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>0.88</v>
@@ -21584,7 +21584,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ97">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -23435,7 +23435,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ106">
         <v>0.82</v>
@@ -25083,7 +25083,7 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
         <v>1.41</v>
@@ -25292,7 +25292,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR115">
         <v>1.38</v>
@@ -28379,7 +28379,7 @@
         <v>0.33</v>
       </c>
       <c r="AP130">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ130">
         <v>0.31</v>
@@ -29203,7 +29203,7 @@
         <v>3</v>
       </c>
       <c r="AP134">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>2.59</v>
@@ -29412,7 +29412,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ135">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -31881,7 +31881,7 @@
         <v>2.14</v>
       </c>
       <c r="AP147">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>1.65</v>
@@ -32499,7 +32499,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ150">
         <v>0.88</v>
@@ -35180,7 +35180,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ163">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR163">
         <v>1.98</v>
@@ -36001,7 +36001,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
         <v>0.76</v>
@@ -36825,7 +36825,7 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ171">
         <v>1.41</v>
@@ -38061,7 +38061,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP177">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ177">
         <v>0.63</v>
@@ -39297,7 +39297,7 @@
         <v>1.11</v>
       </c>
       <c r="AP183">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ183">
         <v>1</v>
@@ -40742,7 +40742,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ190">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR190">
         <v>1.45</v>
@@ -42181,7 +42181,7 @@
         <v>0.7</v>
       </c>
       <c r="AP197">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ197">
         <v>0.76</v>
@@ -42802,7 +42802,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ200">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR200">
         <v>1.51</v>
@@ -43211,7 +43211,7 @@
         <v>1.2</v>
       </c>
       <c r="AP202">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202">
         <v>1.44</v>
@@ -46510,7 +46510,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ218">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR218">
         <v>1.3</v>
@@ -46919,7 +46919,7 @@
         <v>0.83</v>
       </c>
       <c r="AP220">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ220">
         <v>0.82</v>
@@ -50009,7 +50009,7 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ235">
         <v>1.65</v>
@@ -50836,7 +50836,7 @@
         <v>2</v>
       </c>
       <c r="AQ239">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR239">
         <v>1.65</v>
@@ -51039,7 +51039,7 @@
         <v>0.58</v>
       </c>
       <c r="AP240">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
         <v>0.6899999999999999</v>
@@ -53511,7 +53511,7 @@
         <v>1.23</v>
       </c>
       <c r="AP252">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ252">
         <v>1.18</v>
@@ -54132,7 +54132,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ255">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR255">
         <v>1.5</v>
@@ -54747,7 +54747,7 @@
         <v>0.38</v>
       </c>
       <c r="AP258">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ258">
         <v>0.31</v>
@@ -57219,7 +57219,7 @@
         <v>0.62</v>
       </c>
       <c r="AP270">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ270">
         <v>0.5600000000000001</v>
@@ -58664,7 +58664,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ277">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR277">
         <v>1.53</v>
@@ -58867,7 +58867,7 @@
         <v>2.21</v>
       </c>
       <c r="AP278">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ278">
         <v>2.35</v>
@@ -60309,7 +60309,7 @@
         <v>1.36</v>
       </c>
       <c r="AP285">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ285">
         <v>1.44</v>
@@ -61342,7 +61342,7 @@
         <v>2</v>
       </c>
       <c r="AQ290">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AR290">
         <v>1.67</v>
@@ -61545,7 +61545,7 @@
         <v>0.67</v>
       </c>
       <c r="AP291">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ291">
         <v>0.63</v>
@@ -62987,7 +62987,7 @@
         <v>1.21</v>
       </c>
       <c r="AP298">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ298">
         <v>1.25</v>
@@ -65949,6 +65949,418 @@
         <v>0</v>
       </c>
       <c r="BP312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:68">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>7516596</v>
+      </c>
+      <c r="C313" t="s">
+        <v>68</v>
+      </c>
+      <c r="D313" t="s">
+        <v>69</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45788.41666666666</v>
+      </c>
+      <c r="F313">
+        <v>35</v>
+      </c>
+      <c r="G313" t="s">
+        <v>74</v>
+      </c>
+      <c r="H313" t="s">
+        <v>78</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+      <c r="O313" t="s">
+        <v>91</v>
+      </c>
+      <c r="P313" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q313">
+        <v>2.88</v>
+      </c>
+      <c r="R313">
+        <v>2.1</v>
+      </c>
+      <c r="S313">
+        <v>3.75</v>
+      </c>
+      <c r="T313">
+        <v>1.4</v>
+      </c>
+      <c r="U313">
+        <v>2.75</v>
+      </c>
+      <c r="V313">
+        <v>3</v>
+      </c>
+      <c r="W313">
+        <v>1.36</v>
+      </c>
+      <c r="X313">
+        <v>8</v>
+      </c>
+      <c r="Y313">
+        <v>1.08</v>
+      </c>
+      <c r="Z313">
+        <v>2.25</v>
+      </c>
+      <c r="AA313">
+        <v>3.3</v>
+      </c>
+      <c r="AB313">
+        <v>3.2</v>
+      </c>
+      <c r="AC313">
+        <v>2.64</v>
+      </c>
+      <c r="AD313">
+        <v>1.51</v>
+      </c>
+      <c r="AE313">
+        <v>0</v>
+      </c>
+      <c r="AF313">
+        <v>0</v>
+      </c>
+      <c r="AG313">
+        <v>2</v>
+      </c>
+      <c r="AH313">
+        <v>1.73</v>
+      </c>
+      <c r="AI313">
+        <v>1.8</v>
+      </c>
+      <c r="AJ313">
+        <v>1.91</v>
+      </c>
+      <c r="AK313">
+        <v>0</v>
+      </c>
+      <c r="AL313">
+        <v>0</v>
+      </c>
+      <c r="AM313">
+        <v>0</v>
+      </c>
+      <c r="AN313">
+        <v>1.53</v>
+      </c>
+      <c r="AO313">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP313">
+        <v>1.5</v>
+      </c>
+      <c r="AQ313">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR313">
+        <v>1.36</v>
+      </c>
+      <c r="AS313">
+        <v>1.16</v>
+      </c>
+      <c r="AT313">
+        <v>2.52</v>
+      </c>
+      <c r="AU313">
+        <v>3</v>
+      </c>
+      <c r="AV313">
+        <v>2</v>
+      </c>
+      <c r="AW313">
+        <v>10</v>
+      </c>
+      <c r="AX313">
+        <v>5</v>
+      </c>
+      <c r="AY313">
+        <v>15</v>
+      </c>
+      <c r="AZ313">
+        <v>7</v>
+      </c>
+      <c r="BA313">
+        <v>9</v>
+      </c>
+      <c r="BB313">
+        <v>5</v>
+      </c>
+      <c r="BC313">
+        <v>14</v>
+      </c>
+      <c r="BD313">
+        <v>0</v>
+      </c>
+      <c r="BE313">
+        <v>0</v>
+      </c>
+      <c r="BF313">
+        <v>0</v>
+      </c>
+      <c r="BG313">
+        <v>0</v>
+      </c>
+      <c r="BH313">
+        <v>0</v>
+      </c>
+      <c r="BI313">
+        <v>0</v>
+      </c>
+      <c r="BJ313">
+        <v>0</v>
+      </c>
+      <c r="BK313">
+        <v>0</v>
+      </c>
+      <c r="BL313">
+        <v>0</v>
+      </c>
+      <c r="BM313">
+        <v>0</v>
+      </c>
+      <c r="BN313">
+        <v>0</v>
+      </c>
+      <c r="BO313">
+        <v>0</v>
+      </c>
+      <c r="BP313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:68">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>7516603</v>
+      </c>
+      <c r="C314" t="s">
+        <v>68</v>
+      </c>
+      <c r="D314" t="s">
+        <v>69</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45788.54166666666</v>
+      </c>
+      <c r="F314">
+        <v>35</v>
+      </c>
+      <c r="G314" t="s">
+        <v>81</v>
+      </c>
+      <c r="H314" t="s">
+        <v>87</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>1</v>
+      </c>
+      <c r="K314">
+        <v>2</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+      <c r="N314">
+        <v>2</v>
+      </c>
+      <c r="O314" t="s">
+        <v>139</v>
+      </c>
+      <c r="P314" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q314">
+        <v>1.62</v>
+      </c>
+      <c r="R314">
+        <v>3</v>
+      </c>
+      <c r="S314">
+        <v>7.5</v>
+      </c>
+      <c r="T314">
+        <v>1.18</v>
+      </c>
+      <c r="U314">
+        <v>4.5</v>
+      </c>
+      <c r="V314">
+        <v>1.91</v>
+      </c>
+      <c r="W314">
+        <v>1.8</v>
+      </c>
+      <c r="X314">
+        <v>4</v>
+      </c>
+      <c r="Y314">
+        <v>1.22</v>
+      </c>
+      <c r="Z314">
+        <v>1.28</v>
+      </c>
+      <c r="AA314">
+        <v>6</v>
+      </c>
+      <c r="AB314">
+        <v>9</v>
+      </c>
+      <c r="AC314">
+        <v>0</v>
+      </c>
+      <c r="AD314">
+        <v>0</v>
+      </c>
+      <c r="AE314">
+        <v>0</v>
+      </c>
+      <c r="AF314">
+        <v>0</v>
+      </c>
+      <c r="AG314">
+        <v>1.33</v>
+      </c>
+      <c r="AH314">
+        <v>3.4</v>
+      </c>
+      <c r="AI314">
+        <v>1.73</v>
+      </c>
+      <c r="AJ314">
+        <v>2</v>
+      </c>
+      <c r="AK314">
+        <v>0</v>
+      </c>
+      <c r="AL314">
+        <v>0</v>
+      </c>
+      <c r="AM314">
+        <v>0</v>
+      </c>
+      <c r="AN314">
+        <v>2.19</v>
+      </c>
+      <c r="AO314">
+        <v>0.33</v>
+      </c>
+      <c r="AP314">
+        <v>2.12</v>
+      </c>
+      <c r="AQ314">
+        <v>0.38</v>
+      </c>
+      <c r="AR314">
+        <v>1.92</v>
+      </c>
+      <c r="AS314">
+        <v>1.25</v>
+      </c>
+      <c r="AT314">
+        <v>3.17</v>
+      </c>
+      <c r="AU314">
+        <v>-1</v>
+      </c>
+      <c r="AV314">
+        <v>-1</v>
+      </c>
+      <c r="AW314">
+        <v>-1</v>
+      </c>
+      <c r="AX314">
+        <v>-1</v>
+      </c>
+      <c r="AY314">
+        <v>-1</v>
+      </c>
+      <c r="AZ314">
+        <v>-1</v>
+      </c>
+      <c r="BA314">
+        <v>-1</v>
+      </c>
+      <c r="BB314">
+        <v>-1</v>
+      </c>
+      <c r="BC314">
+        <v>-1</v>
+      </c>
+      <c r="BD314">
+        <v>0</v>
+      </c>
+      <c r="BE314">
+        <v>0</v>
+      </c>
+      <c r="BF314">
+        <v>0</v>
+      </c>
+      <c r="BG314">
+        <v>0</v>
+      </c>
+      <c r="BH314">
+        <v>0</v>
+      </c>
+      <c r="BI314">
+        <v>0</v>
+      </c>
+      <c r="BJ314">
+        <v>0</v>
+      </c>
+      <c r="BK314">
+        <v>0</v>
+      </c>
+      <c r="BL314">
+        <v>0</v>
+      </c>
+      <c r="BM314">
+        <v>0</v>
+      </c>
+      <c r="BN314">
+        <v>0</v>
+      </c>
+      <c r="BO314">
+        <v>0</v>
+      </c>
+      <c r="BP314">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="435">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -925,6 +925,9 @@
     <t>['47', '77']</t>
   </si>
   <si>
+    <t>['29', '44', '62', '83']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1314,6 +1317,9 @@
   <si>
     <t>['66', '84']</t>
   </si>
+  <si>
+    <t>['45+8']</t>
+  </si>
 </sst>
 </file>
 
@@ -1674,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP314"/>
+  <dimension ref="A1:BP315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2139,7 +2145,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2632,7 +2638,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ5">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2963,7 +2969,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3169,7 +3175,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3375,7 +3381,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3581,7 +3587,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3787,7 +3793,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3993,7 +3999,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4199,7 +4205,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4405,7 +4411,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4611,7 +4617,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4817,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4895,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ16">
         <v>0.63</v>
@@ -5023,7 +5029,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -6053,7 +6059,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6259,7 +6265,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6340,7 +6346,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR23">
         <v>0.96</v>
@@ -6465,7 +6471,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6671,7 +6677,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7083,7 +7089,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7701,7 +7707,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7907,7 +7913,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8397,7 +8403,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -8525,7 +8531,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8731,7 +8737,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -9143,7 +9149,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9555,7 +9561,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9761,7 +9767,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10173,7 +10179,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10379,7 +10385,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10460,7 +10466,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ43">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -10585,7 +10591,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10997,7 +11003,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11615,7 +11621,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -12233,7 +12239,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12439,7 +12445,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12517,7 +12523,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ53">
         <v>1.18</v>
@@ -13057,7 +13063,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13263,7 +13269,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13675,7 +13681,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13881,7 +13887,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14087,7 +14093,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14293,7 +14299,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14374,7 +14380,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ62">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14499,7 +14505,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14705,7 +14711,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14911,7 +14917,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15323,7 +15329,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15941,7 +15947,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16147,7 +16153,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16765,7 +16771,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17383,7 +17389,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17589,7 +17595,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17873,7 +17879,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ79">
         <v>0.82</v>
@@ -18001,7 +18007,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18207,7 +18213,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18413,7 +18419,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18619,7 +18625,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -19031,7 +19037,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19237,7 +19243,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -20473,7 +20479,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20966,7 +20972,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ94">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR94">
         <v>1.6</v>
@@ -21091,7 +21097,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21169,7 +21175,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ95">
         <v>1.41</v>
@@ -21297,7 +21303,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21915,7 +21921,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22327,7 +22333,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22533,7 +22539,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22739,7 +22745,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23563,7 +23569,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -24181,7 +24187,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24387,7 +24393,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -25211,7 +25217,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25623,7 +25629,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25701,7 +25707,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ117">
         <v>0.6899999999999999</v>
@@ -25910,7 +25916,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -26447,7 +26453,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26653,7 +26659,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27271,7 +27277,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27889,7 +27895,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28301,7 +28307,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28382,7 +28388,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ130">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR130">
         <v>1.76</v>
@@ -28585,7 +28591,7 @@
         <v>2.43</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ131">
         <v>2.35</v>
@@ -29125,7 +29131,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -31185,7 +31191,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31391,7 +31397,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31597,7 +31603,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -32009,7 +32015,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32087,7 +32093,7 @@
         <v>0.71</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ148">
         <v>0.76</v>
@@ -32627,7 +32633,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33039,7 +33045,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33245,7 +33251,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33326,7 +33332,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ154">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR154">
         <v>1.16</v>
@@ -33657,7 +33663,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34069,7 +34075,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34481,7 +34487,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34687,7 +34693,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35511,7 +35517,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -35795,7 +35801,7 @@
         <v>0.5</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ166">
         <v>0.9399999999999999</v>
@@ -36416,7 +36422,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ169">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR169">
         <v>1.48</v>
@@ -36541,7 +36547,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36953,7 +36959,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -37855,7 +37861,7 @@
         <v>2.11</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ176">
         <v>1.65</v>
@@ -38189,7 +38195,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38601,7 +38607,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -39013,7 +39019,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39219,7 +39225,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39425,7 +39431,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39837,7 +39843,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -39918,7 +39924,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ186">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR186">
         <v>1.47</v>
@@ -40455,7 +40461,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40661,7 +40667,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40867,7 +40873,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41279,7 +41285,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41897,7 +41903,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42103,7 +42109,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42309,7 +42315,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42515,7 +42521,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42927,7 +42933,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43133,7 +43139,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43339,7 +43345,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43545,7 +43551,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -43832,7 +43838,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ205">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR205">
         <v>2.03</v>
@@ -44987,7 +44993,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45271,7 +45277,7 @@
         <v>0.5</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ212">
         <v>0.75</v>
@@ -45605,7 +45611,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45811,7 +45817,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -46223,7 +46229,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46635,7 +46641,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -47253,7 +47259,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47665,7 +47671,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47746,7 +47752,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ224">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR224">
         <v>1.38</v>
@@ -47871,7 +47877,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48567,7 +48573,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ228">
         <v>1</v>
@@ -48695,7 +48701,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48901,7 +48907,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49519,7 +49525,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49931,7 +49937,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50549,7 +50555,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50755,7 +50761,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51167,7 +51173,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51248,7 +51254,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ241">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR241">
         <v>1.52</v>
@@ -51373,7 +51379,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51579,7 +51585,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51785,7 +51791,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -51863,7 +51869,7 @@
         <v>0.45</v>
       </c>
       <c r="AP244">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ244">
         <v>0.5600000000000001</v>
@@ -52609,7 +52615,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53021,7 +53027,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53227,7 +53233,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53433,7 +53439,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -54257,7 +54263,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54750,7 +54756,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ258">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR258">
         <v>1.32</v>
@@ -55081,7 +55087,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55365,7 +55371,7 @@
         <v>2.69</v>
       </c>
       <c r="AP261">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ261">
         <v>2.59</v>
@@ -55493,7 +55499,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55699,7 +55705,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55905,7 +55911,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56523,7 +56529,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56935,7 +56941,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57347,7 +57353,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57553,7 +57559,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -58171,7 +58177,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58249,7 +58255,7 @@
         <v>1.08</v>
       </c>
       <c r="AP275">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ275">
         <v>1.25</v>
@@ -58789,7 +58795,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59282,7 +59288,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ280">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR280">
         <v>1.42</v>
@@ -59407,7 +59413,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59819,7 +59825,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60231,7 +60237,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60849,7 +60855,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61261,7 +61267,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61339,7 +61345,7 @@
         <v>0.36</v>
       </c>
       <c r="AP290">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ290">
         <v>0.38</v>
@@ -61673,7 +61679,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61879,7 +61885,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62085,7 +62091,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62372,7 +62378,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ295">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR295">
         <v>1.29</v>
@@ -62497,7 +62503,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62909,7 +62915,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63733,7 +63739,7 @@
         <v>298</v>
       </c>
       <c r="P302" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q302">
         <v>5.5</v>
@@ -64763,7 +64769,7 @@
         <v>301</v>
       </c>
       <c r="P307" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65175,7 +65181,7 @@
         <v>138</v>
       </c>
       <c r="P309" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q309">
         <v>4.33</v>
@@ -65381,7 +65387,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q310">
         <v>2.88</v>
@@ -65793,7 +65799,7 @@
         <v>91</v>
       </c>
       <c r="P312" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66298,31 +66304,31 @@
         <v>3.17</v>
       </c>
       <c r="AU314">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV314">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW314">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX314">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY314">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="AZ314">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA314">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB314">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC314">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD314">
         <v>0</v>
@@ -66361,6 +66367,212 @@
         <v>0</v>
       </c>
       <c r="BP314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:68">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>7516597</v>
+      </c>
+      <c r="C315" t="s">
+        <v>68</v>
+      </c>
+      <c r="D315" t="s">
+        <v>69</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45788.54166666666</v>
+      </c>
+      <c r="F315">
+        <v>35</v>
+      </c>
+      <c r="G315" t="s">
+        <v>84</v>
+      </c>
+      <c r="H315" t="s">
+        <v>82</v>
+      </c>
+      <c r="I315">
+        <v>2</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>3</v>
+      </c>
+      <c r="L315">
+        <v>4</v>
+      </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
+      <c r="N315">
+        <v>5</v>
+      </c>
+      <c r="O315" t="s">
+        <v>303</v>
+      </c>
+      <c r="P315" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q315">
+        <v>1.36</v>
+      </c>
+      <c r="R315">
+        <v>3.75</v>
+      </c>
+      <c r="S315">
+        <v>12</v>
+      </c>
+      <c r="T315">
+        <v>1.13</v>
+      </c>
+      <c r="U315">
+        <v>6</v>
+      </c>
+      <c r="V315">
+        <v>1.67</v>
+      </c>
+      <c r="W315">
+        <v>2.1</v>
+      </c>
+      <c r="X315">
+        <v>3</v>
+      </c>
+      <c r="Y315">
+        <v>1.36</v>
+      </c>
+      <c r="Z315">
+        <v>1.11</v>
+      </c>
+      <c r="AA315">
+        <v>10</v>
+      </c>
+      <c r="AB315">
+        <v>19</v>
+      </c>
+      <c r="AC315">
+        <v>0</v>
+      </c>
+      <c r="AD315">
+        <v>0</v>
+      </c>
+      <c r="AE315">
+        <v>0</v>
+      </c>
+      <c r="AF315">
+        <v>0</v>
+      </c>
+      <c r="AG315">
+        <v>1.22</v>
+      </c>
+      <c r="AH315">
+        <v>4.2</v>
+      </c>
+      <c r="AI315">
+        <v>1.83</v>
+      </c>
+      <c r="AJ315">
+        <v>1.83</v>
+      </c>
+      <c r="AK315">
+        <v>0</v>
+      </c>
+      <c r="AL315">
+        <v>0</v>
+      </c>
+      <c r="AM315">
+        <v>0</v>
+      </c>
+      <c r="AN315">
+        <v>2</v>
+      </c>
+      <c r="AO315">
+        <v>0.31</v>
+      </c>
+      <c r="AP315">
+        <v>2.06</v>
+      </c>
+      <c r="AQ315">
+        <v>0.29</v>
+      </c>
+      <c r="AR315">
+        <v>1.7</v>
+      </c>
+      <c r="AS315">
+        <v>1.09</v>
+      </c>
+      <c r="AT315">
+        <v>2.79</v>
+      </c>
+      <c r="AU315">
+        <v>14</v>
+      </c>
+      <c r="AV315">
+        <v>4</v>
+      </c>
+      <c r="AW315">
+        <v>16</v>
+      </c>
+      <c r="AX315">
+        <v>5</v>
+      </c>
+      <c r="AY315">
+        <v>37</v>
+      </c>
+      <c r="AZ315">
+        <v>11</v>
+      </c>
+      <c r="BA315">
+        <v>13</v>
+      </c>
+      <c r="BB315">
+        <v>4</v>
+      </c>
+      <c r="BC315">
+        <v>17</v>
+      </c>
+      <c r="BD315">
+        <v>0</v>
+      </c>
+      <c r="BE315">
+        <v>0</v>
+      </c>
+      <c r="BF315">
+        <v>0</v>
+      </c>
+      <c r="BG315">
+        <v>0</v>
+      </c>
+      <c r="BH315">
+        <v>0</v>
+      </c>
+      <c r="BI315">
+        <v>0</v>
+      </c>
+      <c r="BJ315">
+        <v>0</v>
+      </c>
+      <c r="BK315">
+        <v>0</v>
+      </c>
+      <c r="BL315">
+        <v>0</v>
+      </c>
+      <c r="BM315">
+        <v>0</v>
+      </c>
+      <c r="BN315">
+        <v>0</v>
+      </c>
+      <c r="BO315">
+        <v>0</v>
+      </c>
+      <c r="BP315">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="436">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -928,6 +928,9 @@
     <t>['29', '44', '62', '83']</t>
   </si>
   <si>
+    <t>['12', '29', '63']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1680,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP315"/>
+  <dimension ref="A1:BP316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2145,7 +2148,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2969,7 +2972,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3175,7 +3178,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3381,7 +3384,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3587,7 +3590,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3793,7 +3796,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3999,7 +4002,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4077,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -4205,7 +4208,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4411,7 +4414,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4617,7 +4620,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4823,7 +4826,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4904,7 +4907,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ16">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5029,7 +5032,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -6059,7 +6062,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6265,7 +6268,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6471,7 +6474,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6677,7 +6680,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7089,7 +7092,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7707,7 +7710,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7913,7 +7916,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -7994,7 +7997,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR31">
         <v>1.45</v>
@@ -8531,7 +8534,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8737,7 +8740,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -9149,7 +9152,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9561,7 +9564,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9767,7 +9770,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9845,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ40">
         <v>1.18</v>
@@ -10179,7 +10182,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10385,7 +10388,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10591,7 +10594,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -11003,7 +11006,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11621,7 +11624,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11908,7 +11911,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ50">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR50">
         <v>1.45</v>
@@ -12239,7 +12242,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12445,7 +12448,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -13063,7 +13066,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13269,7 +13272,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13681,7 +13684,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13887,7 +13890,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14093,7 +14096,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14299,7 +14302,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14505,7 +14508,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14711,7 +14714,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14789,7 +14792,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ64">
         <v>1.44</v>
@@ -14917,7 +14920,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14998,7 +15001,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -15329,7 +15332,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15947,7 +15950,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16153,7 +16156,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16771,7 +16774,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16849,7 +16852,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ74">
         <v>0.5600000000000001</v>
@@ -17389,7 +17392,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17595,7 +17598,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18007,7 +18010,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18213,7 +18216,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18419,7 +18422,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18625,7 +18628,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -19037,7 +19040,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19243,7 +19246,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19736,7 +19739,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -20479,7 +20482,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20969,7 +20972,7 @@
         <v>0.25</v>
       </c>
       <c r="AP94">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ94">
         <v>0.29</v>
@@ -21097,7 +21100,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21303,7 +21306,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21921,7 +21924,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22208,7 +22211,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ100">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR100">
         <v>1.54</v>
@@ -22333,7 +22336,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22539,7 +22542,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22745,7 +22748,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23569,7 +23572,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -24187,7 +24190,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24393,7 +24396,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24471,7 +24474,7 @@
         <v>2.33</v>
       </c>
       <c r="AP111">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ111">
         <v>2.35</v>
@@ -25217,7 +25220,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25629,7 +25632,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26453,7 +26456,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26659,7 +26662,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27277,7 +27280,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27895,7 +27898,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28182,7 +28185,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ129">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR129">
         <v>1.29</v>
@@ -28307,7 +28310,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29003,7 +29006,7 @@
         <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ133">
         <v>0.76</v>
@@ -29131,7 +29134,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -31191,7 +31194,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31397,7 +31400,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31603,7 +31606,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -32015,7 +32018,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32302,7 +32305,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR149">
         <v>1.44</v>
@@ -32633,7 +32636,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -32711,7 +32714,7 @@
         <v>3</v>
       </c>
       <c r="AP151">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ151">
         <v>2.59</v>
@@ -33045,7 +33048,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33251,7 +33254,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33663,7 +33666,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34075,7 +34078,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34487,7 +34490,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34693,7 +34696,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35389,7 +35392,7 @@
         <v>2</v>
       </c>
       <c r="AP164">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ164">
         <v>1.65</v>
@@ -35517,7 +35520,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36216,7 +36219,7 @@
         <v>2</v>
       </c>
       <c r="AQ168">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR168">
         <v>1.65</v>
@@ -36547,7 +36550,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36959,7 +36962,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38070,7 +38073,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ177">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR177">
         <v>1.85</v>
@@ -38195,7 +38198,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38607,7 +38610,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -39019,7 +39022,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39225,7 +39228,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39431,7 +39434,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39843,7 +39846,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40461,7 +40464,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40667,7 +40670,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40873,7 +40876,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41285,7 +41288,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41366,7 +41369,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ193">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR193">
         <v>1.23</v>
@@ -41569,7 +41572,7 @@
         <v>0.44</v>
       </c>
       <c r="AP194">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ194">
         <v>0.75</v>
@@ -41903,7 +41906,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42109,7 +42112,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42315,7 +42318,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42521,7 +42524,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42933,7 +42936,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43011,7 +43014,7 @@
         <v>0.91</v>
       </c>
       <c r="AP201">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ201">
         <v>0.82</v>
@@ -43139,7 +43142,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43345,7 +43348,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43551,7 +43554,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44662,7 +44665,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ209">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR209">
         <v>1.24</v>
@@ -44993,7 +44996,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45611,7 +45614,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45817,7 +45820,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -46229,7 +46232,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46641,7 +46644,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -47259,7 +47262,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47543,7 +47546,7 @@
         <v>0.64</v>
       </c>
       <c r="AP223">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ223">
         <v>0.6899999999999999</v>
@@ -47671,7 +47674,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47877,7 +47880,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48701,7 +48704,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48907,7 +48910,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49194,7 +49197,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ231">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR231">
         <v>2.08</v>
@@ -49525,7 +49528,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49937,7 +49940,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50427,7 +50430,7 @@
         <v>1</v>
       </c>
       <c r="AP237">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ237">
         <v>1.25</v>
@@ -50555,7 +50558,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50761,7 +50764,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51173,7 +51176,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51379,7 +51382,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51585,7 +51588,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51791,7 +51794,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -52078,7 +52081,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ245">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR245">
         <v>1.85</v>
@@ -52615,7 +52618,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53027,7 +53030,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53233,7 +53236,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53439,7 +53442,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -54135,7 +54138,7 @@
         <v>0.42</v>
       </c>
       <c r="AP255">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ255">
         <v>0.38</v>
@@ -54263,7 +54266,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -55087,7 +55090,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55499,7 +55502,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55705,7 +55708,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55911,7 +55914,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56529,7 +56532,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56941,7 +56944,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57353,7 +57356,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57559,7 +57562,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -58052,7 +58055,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ274">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR274">
         <v>1.35</v>
@@ -58177,7 +58180,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58461,7 +58464,7 @@
         <v>1.4</v>
       </c>
       <c r="AP276">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ276">
         <v>1.41</v>
@@ -58795,7 +58798,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59413,7 +59416,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59825,7 +59828,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60237,7 +60240,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60855,7 +60858,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61267,7 +61270,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61554,7 +61557,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ291">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR291">
         <v>1.35</v>
@@ -61679,7 +61682,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61885,7 +61888,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62091,7 +62094,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62503,7 +62506,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62787,7 +62790,7 @@
         <v>1</v>
       </c>
       <c r="AP297">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ297">
         <v>0.88</v>
@@ -62915,7 +62918,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63739,7 +63742,7 @@
         <v>298</v>
       </c>
       <c r="P302" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q302">
         <v>5.5</v>
@@ -64769,7 +64772,7 @@
         <v>301</v>
       </c>
       <c r="P307" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65181,7 +65184,7 @@
         <v>138</v>
       </c>
       <c r="P309" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q309">
         <v>4.33</v>
@@ -65387,7 +65390,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q310">
         <v>2.88</v>
@@ -65799,7 +65802,7 @@
         <v>91</v>
       </c>
       <c r="P312" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66417,7 +66420,7 @@
         <v>303</v>
       </c>
       <c r="P315" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q315">
         <v>1.36</v>
@@ -66574,6 +66577,212 @@
       </c>
       <c r="BP315">
         <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:68">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>7516598</v>
+      </c>
+      <c r="C316" t="s">
+        <v>68</v>
+      </c>
+      <c r="D316" t="s">
+        <v>69</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45789.58333333334</v>
+      </c>
+      <c r="F316">
+        <v>35</v>
+      </c>
+      <c r="G316" t="s">
+        <v>80</v>
+      </c>
+      <c r="H316" t="s">
+        <v>72</v>
+      </c>
+      <c r="I316">
+        <v>2</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316">
+        <v>3</v>
+      </c>
+      <c r="L316">
+        <v>3</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="N316">
+        <v>4</v>
+      </c>
+      <c r="O316" t="s">
+        <v>304</v>
+      </c>
+      <c r="P316" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q316">
+        <v>2.6</v>
+      </c>
+      <c r="R316">
+        <v>2.2</v>
+      </c>
+      <c r="S316">
+        <v>4.33</v>
+      </c>
+      <c r="T316">
+        <v>1.36</v>
+      </c>
+      <c r="U316">
+        <v>3</v>
+      </c>
+      <c r="V316">
+        <v>2.75</v>
+      </c>
+      <c r="W316">
+        <v>1.4</v>
+      </c>
+      <c r="X316">
+        <v>7</v>
+      </c>
+      <c r="Y316">
+        <v>1.1</v>
+      </c>
+      <c r="Z316">
+        <v>1.96</v>
+      </c>
+      <c r="AA316">
+        <v>3.44</v>
+      </c>
+      <c r="AB316">
+        <v>3.6</v>
+      </c>
+      <c r="AC316">
+        <v>1.05</v>
+      </c>
+      <c r="AD316">
+        <v>9</v>
+      </c>
+      <c r="AE316">
+        <v>1.3</v>
+      </c>
+      <c r="AF316">
+        <v>3.45</v>
+      </c>
+      <c r="AG316">
+        <v>1.88</v>
+      </c>
+      <c r="AH316">
+        <v>1.88</v>
+      </c>
+      <c r="AI316">
+        <v>1.8</v>
+      </c>
+      <c r="AJ316">
+        <v>1.91</v>
+      </c>
+      <c r="AK316">
+        <v>1.25</v>
+      </c>
+      <c r="AL316">
+        <v>1.25</v>
+      </c>
+      <c r="AM316">
+        <v>1.83</v>
+      </c>
+      <c r="AN316">
+        <v>1.56</v>
+      </c>
+      <c r="AO316">
+        <v>0.63</v>
+      </c>
+      <c r="AP316">
+        <v>1.65</v>
+      </c>
+      <c r="AQ316">
+        <v>0.59</v>
+      </c>
+      <c r="AR316">
+        <v>1.51</v>
+      </c>
+      <c r="AS316">
+        <v>1.07</v>
+      </c>
+      <c r="AT316">
+        <v>2.58</v>
+      </c>
+      <c r="AU316">
+        <v>7</v>
+      </c>
+      <c r="AV316">
+        <v>3</v>
+      </c>
+      <c r="AW316">
+        <v>6</v>
+      </c>
+      <c r="AX316">
+        <v>5</v>
+      </c>
+      <c r="AY316">
+        <v>14</v>
+      </c>
+      <c r="AZ316">
+        <v>8</v>
+      </c>
+      <c r="BA316">
+        <v>6</v>
+      </c>
+      <c r="BB316">
+        <v>1</v>
+      </c>
+      <c r="BC316">
+        <v>7</v>
+      </c>
+      <c r="BD316">
+        <v>1.65</v>
+      </c>
+      <c r="BE316">
+        <v>8.5</v>
+      </c>
+      <c r="BF316">
+        <v>2.5</v>
+      </c>
+      <c r="BG316">
+        <v>1.25</v>
+      </c>
+      <c r="BH316">
+        <v>3.28</v>
+      </c>
+      <c r="BI316">
+        <v>1.48</v>
+      </c>
+      <c r="BJ316">
+        <v>2.4</v>
+      </c>
+      <c r="BK316">
+        <v>1.85</v>
+      </c>
+      <c r="BL316">
+        <v>1.85</v>
+      </c>
+      <c r="BM316">
+        <v>2.38</v>
+      </c>
+      <c r="BN316">
+        <v>1.49</v>
+      </c>
+      <c r="BO316">
+        <v>3.2</v>
+      </c>
+      <c r="BP316">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="437">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1323,6 +1323,9 @@
   <si>
     <t>['45+8']</t>
   </si>
+  <si>
+    <t>['10', '26', '38', '56', '61']</t>
+  </si>
 </sst>
 </file>
 
@@ -1683,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP316"/>
+  <dimension ref="A1:BP317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,7 +2026,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ2">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -4492,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ14">
         <v>0.88</v>
@@ -6555,7 +6558,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ24">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -7788,7 +7791,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ30">
         <v>2.59</v>
@@ -10057,7 +10060,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -12320,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ52">
         <v>0.76</v>
@@ -16234,7 +16237,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ71">
         <v>1.65</v>
@@ -17679,7 +17682,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -18706,7 +18709,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ83">
         <v>0.5</v>
@@ -21593,7 +21596,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ97">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -23238,7 +23241,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ105">
         <v>1.18</v>
@@ -25301,7 +25304,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR115">
         <v>1.38</v>
@@ -26534,7 +26537,7 @@
         <v>0.86</v>
       </c>
       <c r="AP121">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ121">
         <v>0.82</v>
@@ -29421,7 +29424,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ135">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -31272,7 +31275,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ144">
         <v>1.44</v>
@@ -33950,7 +33953,7 @@
         <v>0.88</v>
       </c>
       <c r="AP157">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ157">
         <v>1.25</v>
@@ -35189,7 +35192,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ163">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR163">
         <v>1.98</v>
@@ -38688,7 +38691,7 @@
         <v>2.1</v>
       </c>
       <c r="AP180">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ180">
         <v>2.35</v>
@@ -40751,7 +40754,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ190">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR190">
         <v>1.45</v>
@@ -41984,7 +41987,7 @@
         <v>1.5</v>
       </c>
       <c r="AP196">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ196">
         <v>1.41</v>
@@ -42811,7 +42814,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ200">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR200">
         <v>1.51</v>
@@ -44662,7 +44665,7 @@
         <v>0.73</v>
       </c>
       <c r="AP209">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ209">
         <v>0.59</v>
@@ -46519,7 +46522,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ218">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR218">
         <v>1.3</v>
@@ -48370,7 +48373,7 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ227">
         <v>0.9399999999999999</v>
@@ -50845,7 +50848,7 @@
         <v>2</v>
       </c>
       <c r="AQ239">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR239">
         <v>1.65</v>
@@ -54141,7 +54144,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ255">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR255">
         <v>1.5</v>
@@ -55786,7 +55789,7 @@
         <v>0.85</v>
       </c>
       <c r="AP263">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ263">
         <v>1</v>
@@ -58673,7 +58676,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ277">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR277">
         <v>1.53</v>
@@ -60112,7 +60115,7 @@
         <v>0.57</v>
       </c>
       <c r="AP284">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ284">
         <v>0.75</v>
@@ -61351,7 +61354,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ290">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR290">
         <v>1.67</v>
@@ -64438,7 +64441,7 @@
         <v>0.53</v>
       </c>
       <c r="AP305">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ305">
         <v>0.6899999999999999</v>
@@ -66295,7 +66298,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ314">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR314">
         <v>1.92</v>
@@ -66783,6 +66786,212 @@
       </c>
       <c r="BP316">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="317" spans="1:68">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>7516609</v>
+      </c>
+      <c r="C317" t="s">
+        <v>68</v>
+      </c>
+      <c r="D317" t="s">
+        <v>69</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45794.54166666666</v>
+      </c>
+      <c r="F317">
+        <v>36</v>
+      </c>
+      <c r="G317" t="s">
+        <v>82</v>
+      </c>
+      <c r="H317" t="s">
+        <v>87</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>3</v>
+      </c>
+      <c r="K317">
+        <v>3</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+      <c r="M317">
+        <v>5</v>
+      </c>
+      <c r="N317">
+        <v>5</v>
+      </c>
+      <c r="O317" t="s">
+        <v>91</v>
+      </c>
+      <c r="P317" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q317">
+        <v>3.55</v>
+      </c>
+      <c r="R317">
+        <v>2.4</v>
+      </c>
+      <c r="S317">
+        <v>2.38</v>
+      </c>
+      <c r="T317">
+        <v>1.22</v>
+      </c>
+      <c r="U317">
+        <v>3.8</v>
+      </c>
+      <c r="V317">
+        <v>2</v>
+      </c>
+      <c r="W317">
+        <v>1.73</v>
+      </c>
+      <c r="X317">
+        <v>4</v>
+      </c>
+      <c r="Y317">
+        <v>1.2</v>
+      </c>
+      <c r="Z317">
+        <v>3.19</v>
+      </c>
+      <c r="AA317">
+        <v>4.34</v>
+      </c>
+      <c r="AB317">
+        <v>1.9</v>
+      </c>
+      <c r="AC317">
+        <v>1.01</v>
+      </c>
+      <c r="AD317">
+        <v>17</v>
+      </c>
+      <c r="AE317">
+        <v>1.12</v>
+      </c>
+      <c r="AF317">
+        <v>5.75</v>
+      </c>
+      <c r="AG317">
+        <v>1.4</v>
+      </c>
+      <c r="AH317">
+        <v>2.9</v>
+      </c>
+      <c r="AI317">
+        <v>1.36</v>
+      </c>
+      <c r="AJ317">
+        <v>2.9</v>
+      </c>
+      <c r="AK317">
+        <v>1.77</v>
+      </c>
+      <c r="AL317">
+        <v>1.2</v>
+      </c>
+      <c r="AM317">
+        <v>1.33</v>
+      </c>
+      <c r="AN317">
+        <v>0.31</v>
+      </c>
+      <c r="AO317">
+        <v>0.38</v>
+      </c>
+      <c r="AP317">
+        <v>0.29</v>
+      </c>
+      <c r="AQ317">
+        <v>0.53</v>
+      </c>
+      <c r="AR317">
+        <v>1.17</v>
+      </c>
+      <c r="AS317">
+        <v>1.21</v>
+      </c>
+      <c r="AT317">
+        <v>2.38</v>
+      </c>
+      <c r="AU317">
+        <v>6</v>
+      </c>
+      <c r="AV317">
+        <v>9</v>
+      </c>
+      <c r="AW317">
+        <v>5</v>
+      </c>
+      <c r="AX317">
+        <v>6</v>
+      </c>
+      <c r="AY317">
+        <v>16</v>
+      </c>
+      <c r="AZ317">
+        <v>17</v>
+      </c>
+      <c r="BA317">
+        <v>5</v>
+      </c>
+      <c r="BB317">
+        <v>6</v>
+      </c>
+      <c r="BC317">
+        <v>11</v>
+      </c>
+      <c r="BD317">
+        <v>2.05</v>
+      </c>
+      <c r="BE317">
+        <v>6.4</v>
+      </c>
+      <c r="BF317">
+        <v>1.95</v>
+      </c>
+      <c r="BG317">
+        <v>1.28</v>
+      </c>
+      <c r="BH317">
+        <v>3.2</v>
+      </c>
+      <c r="BI317">
+        <v>1.49</v>
+      </c>
+      <c r="BJ317">
+        <v>2.4</v>
+      </c>
+      <c r="BK317">
+        <v>1.79</v>
+      </c>
+      <c r="BL317">
+        <v>1.9</v>
+      </c>
+      <c r="BM317">
+        <v>2.23</v>
+      </c>
+      <c r="BN317">
+        <v>1.56</v>
+      </c>
+      <c r="BO317">
+        <v>2.88</v>
+      </c>
+      <c r="BP317">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="444">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -931,6 +931,21 @@
     <t>['12', '29', '63']</t>
   </si>
   <si>
+    <t>['26', '29', '89']</t>
+  </si>
+  <si>
+    <t>['11', '32', '50', '62', '85', '87']</t>
+  </si>
+  <si>
+    <t>['22', '60']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['32', '84']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1326,6 +1341,12 @@
   <si>
     <t>['10', '26', '38', '56', '61']</t>
   </si>
+  <si>
+    <t>['26', '45+2', '77']</t>
+  </si>
+  <si>
+    <t>['13', '55', '81']</t>
+  </si>
 </sst>
 </file>
 
@@ -1686,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP317"/>
+  <dimension ref="A1:BP325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ2">
         <v>0.53</v>
@@ -2151,7 +2172,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2229,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>0.82</v>
@@ -2435,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2641,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ5">
         <v>0.29</v>
@@ -2850,7 +2871,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2975,7 +2996,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3053,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ7">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3181,7 +3202,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3259,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3387,7 +3408,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3465,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3593,7 +3614,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3671,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3799,7 +3820,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -4005,7 +4026,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4086,7 +4107,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4211,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4417,7 +4438,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4623,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4829,7 +4850,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -5035,7 +5056,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5731,10 +5752,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ20">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5940,7 +5961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -6065,7 +6086,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6143,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ22">
         <v>0.82</v>
@@ -6271,7 +6292,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6349,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
         <v>0.29</v>
@@ -6477,7 +6498,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6555,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.53</v>
@@ -6683,7 +6704,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6761,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ25">
         <v>2.35</v>
@@ -6967,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ26">
         <v>0.76</v>
@@ -7095,7 +7116,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7173,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ27">
         <v>1.41</v>
@@ -7382,7 +7403,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7713,7 +7734,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7919,7 +7940,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8206,7 +8227,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -8412,7 +8433,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -8537,7 +8558,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8743,7 +8764,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8824,7 +8845,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -9027,7 +9048,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
         <v>0.82</v>
@@ -9155,7 +9176,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9233,10 +9254,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -9439,7 +9460,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -9567,7 +9588,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9645,7 +9666,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
         <v>2.35</v>
@@ -9773,7 +9794,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9854,7 +9875,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ40">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR40">
         <v>2.02</v>
@@ -10057,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ41">
         <v>0.53</v>
@@ -10185,7 +10206,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10266,7 +10287,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10391,7 +10412,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10469,7 +10490,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.29</v>
@@ -10597,7 +10618,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10675,10 +10696,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ44">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR44">
         <v>2.36</v>
@@ -10881,10 +10902,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR45">
         <v>1.54</v>
@@ -11009,7 +11030,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11090,7 +11111,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46">
         <v>0.55</v>
@@ -11502,7 +11523,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11627,7 +11648,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11705,7 +11726,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ49">
         <v>2.59</v>
@@ -11911,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
         <v>0.59</v>
@@ -12117,7 +12138,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ51">
         <v>1.65</v>
@@ -12245,7 +12266,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12451,7 +12472,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12532,7 +12553,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ53">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12738,7 +12759,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12944,7 +12965,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR55">
         <v>1.55</v>
@@ -13069,7 +13090,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13150,7 +13171,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -13275,7 +13296,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13353,10 +13374,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR57">
         <v>1.53</v>
@@ -13559,7 +13580,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13687,7 +13708,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13765,7 +13786,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ59">
         <v>1.41</v>
@@ -13893,7 +13914,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13974,7 +13995,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ60">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR60">
         <v>1.5</v>
@@ -14099,7 +14120,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14305,7 +14326,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14383,7 +14404,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ62">
         <v>0.29</v>
@@ -14511,7 +14532,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14589,7 +14610,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>2.35</v>
@@ -14717,7 +14738,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14798,7 +14819,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ64">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR64">
         <v>1.79</v>
@@ -14923,7 +14944,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15001,7 +15022,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ65">
         <v>0.59</v>
@@ -15207,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>0.9399999999999999</v>
@@ -15335,7 +15356,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15416,7 +15437,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR67">
         <v>1.89</v>
@@ -15622,7 +15643,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR68">
         <v>0.8</v>
@@ -15828,7 +15849,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
         <v>1.48</v>
@@ -15953,7 +15974,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16034,7 +16055,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ70">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
         <v>1.39</v>
@@ -16159,7 +16180,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16443,7 +16464,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ72">
         <v>0.76</v>
@@ -16652,7 +16673,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR73">
         <v>1.52</v>
@@ -16777,7 +16798,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16858,7 +16879,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ74">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -17064,7 +17085,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR75">
         <v>1.52</v>
@@ -17270,7 +17291,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ76">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -17395,7 +17416,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17473,7 +17494,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>2.59</v>
@@ -17601,7 +17622,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18013,7 +18034,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18091,7 +18112,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80">
         <v>1.41</v>
@@ -18219,7 +18240,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18297,7 +18318,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>2.35</v>
@@ -18425,7 +18446,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18503,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ82">
         <v>0.88</v>
@@ -18631,7 +18652,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18712,7 +18733,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR83">
         <v>1.37</v>
@@ -18918,7 +18939,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
         <v>0.9</v>
@@ -19043,7 +19064,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19121,7 +19142,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
         <v>1.65</v>
@@ -19249,7 +19270,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19330,7 +19351,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19739,7 +19760,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ88">
         <v>0.59</v>
@@ -19945,7 +19966,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -20154,7 +20175,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ90">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -20357,10 +20378,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -20485,7 +20506,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20566,7 +20587,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ92">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -21103,7 +21124,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21309,7 +21330,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21390,7 +21411,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21799,7 +21820,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ98">
         <v>0.76</v>
@@ -21927,7 +21948,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22211,7 +22232,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100">
         <v>0.59</v>
@@ -22339,7 +22360,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22417,10 +22438,10 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22545,7 +22566,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22623,7 +22644,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>0.9399999999999999</v>
@@ -22751,7 +22772,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22832,7 +22853,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ103">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -23035,10 +23056,10 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ104">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23244,7 +23265,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ105">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.42</v>
@@ -23575,7 +23596,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23653,7 +23674,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ107">
         <v>1.65</v>
@@ -23859,10 +23880,10 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR108">
         <v>1.89</v>
@@ -24068,7 +24089,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ109">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -24193,7 +24214,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24399,7 +24420,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24686,7 +24707,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24889,7 +24910,7 @@
         <v>3</v>
       </c>
       <c r="AP113">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113">
         <v>2.59</v>
@@ -25223,7 +25244,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25507,7 +25528,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ116">
         <v>0.76</v>
@@ -25635,7 +25656,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25716,7 +25737,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ117">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -26125,10 +26146,10 @@
         <v>1.17</v>
       </c>
       <c r="AP119">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR119">
         <v>1.31</v>
@@ -26331,7 +26352,7 @@
         <v>0.67</v>
       </c>
       <c r="AP120">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -26459,7 +26480,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26665,7 +26686,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26746,7 +26767,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ122">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR122">
         <v>1.44</v>
@@ -26949,10 +26970,10 @@
         <v>0.67</v>
       </c>
       <c r="AP123">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ123">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR123">
         <v>1.28</v>
@@ -27155,10 +27176,10 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -27283,7 +27304,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27361,10 +27382,10 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ125">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27570,7 +27591,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR126">
         <v>1.08</v>
@@ -27773,10 +27794,10 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ127">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR127">
         <v>2</v>
@@ -27901,7 +27922,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28313,7 +28334,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29137,7 +29158,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29833,10 +29854,10 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -30039,10 +30060,10 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ138">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -30245,7 +30266,7 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ139">
         <v>0.82</v>
@@ -30451,10 +30472,10 @@
         <v>0.57</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ140">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR140">
         <v>1.29</v>
@@ -30660,7 +30681,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ141">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR141">
         <v>1.1</v>
@@ -30863,10 +30884,10 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR142">
         <v>1.4</v>
@@ -31069,10 +31090,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR143">
         <v>1.95</v>
@@ -31197,7 +31218,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31278,7 +31299,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ144">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR144">
         <v>1.34</v>
@@ -31403,7 +31424,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31481,10 +31502,10 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ145">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR145">
         <v>2.07</v>
@@ -31609,7 +31630,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -32021,7 +32042,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32639,7 +32660,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33051,7 +33072,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33257,7 +33278,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33541,10 +33562,10 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ155">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR155">
         <v>1.43</v>
@@ -33669,7 +33690,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33747,7 +33768,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ156">
         <v>0.82</v>
@@ -33956,7 +33977,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ157">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -34081,7 +34102,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34159,10 +34180,10 @@
         <v>1.11</v>
       </c>
       <c r="AP158">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR158">
         <v>1.38</v>
@@ -34365,10 +34386,10 @@
         <v>0.75</v>
       </c>
       <c r="AP159">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ159">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR159">
         <v>2.09</v>
@@ -34493,7 +34514,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34571,10 +34592,10 @@
         <v>0.5</v>
       </c>
       <c r="AP160">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ160">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34699,7 +34720,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34777,10 +34798,10 @@
         <v>0.5</v>
       </c>
       <c r="AP161">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ161">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR161">
         <v>1.42</v>
@@ -34983,10 +35004,10 @@
         <v>1.13</v>
       </c>
       <c r="AP162">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR162">
         <v>1.29</v>
@@ -35189,7 +35210,7 @@
         <v>0.29</v>
       </c>
       <c r="AP163">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ163">
         <v>0.53</v>
@@ -35523,7 +35544,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36553,7 +36574,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36965,7 +36986,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38201,7 +38222,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38613,7 +38634,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38900,7 +38921,7 @@
         <v>2</v>
       </c>
       <c r="AQ181">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR181">
         <v>1.64</v>
@@ -39025,7 +39046,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39103,10 +39124,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP182">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ182">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR182">
         <v>1.49</v>
@@ -39231,7 +39252,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39312,7 +39333,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
         <v>1.21</v>
@@ -39437,7 +39458,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39515,10 +39536,10 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR184">
         <v>1.37</v>
@@ -39721,7 +39742,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ185">
         <v>0.82</v>
@@ -39849,7 +39870,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -39927,7 +39948,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP186">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ186">
         <v>0.29</v>
@@ -40133,10 +40154,10 @@
         <v>1.3</v>
       </c>
       <c r="AP187">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ187">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR187">
         <v>1.3</v>
@@ -40339,10 +40360,10 @@
         <v>1.22</v>
       </c>
       <c r="AP188">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ188">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR188">
         <v>1.45</v>
@@ -40467,7 +40488,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40545,10 +40566,10 @@
         <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ189">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR189">
         <v>2.02</v>
@@ -40673,7 +40694,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40751,7 +40772,7 @@
         <v>0.25</v>
       </c>
       <c r="AP190">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ190">
         <v>0.53</v>
@@ -40879,7 +40900,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41166,7 +41187,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ192">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -41291,7 +41312,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41578,7 +41599,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ194">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41909,7 +41930,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42115,7 +42136,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42321,7 +42342,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42399,7 +42420,7 @@
         <v>1.2</v>
       </c>
       <c r="AP198">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ198">
         <v>0.88</v>
@@ -42527,7 +42548,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42811,7 +42832,7 @@
         <v>0.22</v>
       </c>
       <c r="AP200">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ200">
         <v>0.53</v>
@@ -42939,7 +42960,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43145,7 +43166,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43226,7 +43247,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ202">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR202">
         <v>1.3</v>
@@ -43351,7 +43372,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43429,7 +43450,7 @@
         <v>1.09</v>
       </c>
       <c r="AP203">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ203">
         <v>0.88</v>
@@ -43557,7 +43578,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -43635,7 +43656,7 @@
         <v>2.18</v>
       </c>
       <c r="AP204">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ204">
         <v>2.35</v>
@@ -43841,7 +43862,7 @@
         <v>0.5</v>
       </c>
       <c r="AP205">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ205">
         <v>0.29</v>
@@ -44047,10 +44068,10 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ206">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR206">
         <v>1.42</v>
@@ -44256,7 +44277,7 @@
         <v>2</v>
       </c>
       <c r="AQ207">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR207">
         <v>1.63</v>
@@ -44459,10 +44480,10 @@
         <v>0.6</v>
       </c>
       <c r="AP208">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ208">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR208">
         <v>1.34</v>
@@ -44874,7 +44895,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ210">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -44999,7 +45020,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45286,7 +45307,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ212">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR212">
         <v>1.58</v>
@@ -45617,7 +45638,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45698,7 +45719,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ214">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214">
         <v>1.58</v>
@@ -45823,7 +45844,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -46107,7 +46128,7 @@
         <v>1.64</v>
       </c>
       <c r="AP216">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ216">
         <v>1.41</v>
@@ -46235,7 +46256,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46313,7 +46334,7 @@
         <v>2.8</v>
       </c>
       <c r="AP217">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ217">
         <v>2.59</v>
@@ -46519,7 +46540,7 @@
         <v>0.2</v>
       </c>
       <c r="AP218">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ218">
         <v>0.53</v>
@@ -46647,7 +46668,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46728,7 +46749,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ219">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR219">
         <v>1.52</v>
@@ -47137,7 +47158,7 @@
         <v>1.5</v>
       </c>
       <c r="AP221">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ221">
         <v>1.41</v>
@@ -47265,7 +47286,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47343,7 +47364,7 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ222">
         <v>0.88</v>
@@ -47552,7 +47573,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ223">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR223">
         <v>1.54</v>
@@ -47677,7 +47698,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47755,7 +47776,7 @@
         <v>0.45</v>
       </c>
       <c r="AP224">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ224">
         <v>0.29</v>
@@ -47883,7 +47904,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -47964,7 +47985,7 @@
         <v>2</v>
       </c>
       <c r="AQ225">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR225">
         <v>1.61</v>
@@ -48167,7 +48188,7 @@
         <v>2.25</v>
       </c>
       <c r="AP226">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ226">
         <v>2.35</v>
@@ -48582,7 +48603,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR228">
         <v>1.59</v>
@@ -48707,7 +48728,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48785,7 +48806,7 @@
         <v>0.83</v>
       </c>
       <c r="AP229">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ229">
         <v>0.76</v>
@@ -48913,7 +48934,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -48991,7 +49012,7 @@
         <v>2.82</v>
       </c>
       <c r="AP230">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ230">
         <v>2.59</v>
@@ -49197,7 +49218,7 @@
         <v>0.75</v>
       </c>
       <c r="AP231">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ231">
         <v>0.59</v>
@@ -49406,7 +49427,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ232">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR232">
         <v>1.38</v>
@@ -49531,7 +49552,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49612,7 +49633,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ233">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR233">
         <v>1.5</v>
@@ -49818,7 +49839,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ234">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR234">
         <v>1.51</v>
@@ -49943,7 +49964,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50227,7 +50248,7 @@
         <v>1.38</v>
       </c>
       <c r="AP236">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ236">
         <v>1.41</v>
@@ -50436,7 +50457,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ237">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR237">
         <v>1.51</v>
@@ -50561,7 +50582,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50639,7 +50660,7 @@
         <v>1.15</v>
       </c>
       <c r="AP238">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ238">
         <v>0.88</v>
@@ -50767,7 +50788,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51054,7 +51075,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR240">
         <v>1.28</v>
@@ -51179,7 +51200,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51257,7 +51278,7 @@
         <v>0.42</v>
       </c>
       <c r="AP241">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ241">
         <v>0.29</v>
@@ -51385,7 +51406,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51591,7 +51612,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51669,7 +51690,7 @@
         <v>2.67</v>
       </c>
       <c r="AP243">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ243">
         <v>2.59</v>
@@ -51797,7 +51818,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -51878,7 +51899,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ244">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR244">
         <v>1.61</v>
@@ -52081,7 +52102,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP245">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ245">
         <v>0.59</v>
@@ -52290,7 +52311,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ246">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR246">
         <v>1.54</v>
@@ -52493,7 +52514,7 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ247">
         <v>0.76</v>
@@ -52621,7 +52642,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52702,7 +52723,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ248">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR248">
         <v>1.48</v>
@@ -52908,7 +52929,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ249">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR249">
         <v>1.36</v>
@@ -53033,7 +53054,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53111,7 +53132,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ250">
         <v>0.9399999999999999</v>
@@ -53239,7 +53260,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53320,7 +53341,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ251">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR251">
         <v>1.24</v>
@@ -53445,7 +53466,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53526,7 +53547,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ252">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR252">
         <v>1.84</v>
@@ -53729,7 +53750,7 @@
         <v>1.85</v>
       </c>
       <c r="AP253">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ253">
         <v>1.65</v>
@@ -53935,7 +53956,7 @@
         <v>0.71</v>
       </c>
       <c r="AP254">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ254">
         <v>0.76</v>
@@ -54269,7 +54290,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54347,7 +54368,7 @@
         <v>2.15</v>
       </c>
       <c r="AP256">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ256">
         <v>2.35</v>
@@ -54556,7 +54577,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ257">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR257">
         <v>1.32</v>
@@ -54968,7 +54989,7 @@
         <v>2</v>
       </c>
       <c r="AQ259">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR259">
         <v>1.69</v>
@@ -55093,7 +55114,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55171,7 +55192,7 @@
         <v>1.29</v>
       </c>
       <c r="AP260">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ260">
         <v>1.41</v>
@@ -55505,7 +55526,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55586,7 +55607,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ262">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR262">
         <v>1.43</v>
@@ -55711,7 +55732,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55792,7 +55813,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ263">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR263">
         <v>1.19</v>
@@ -55917,7 +55938,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -55995,10 +56016,10 @@
         <v>0.54</v>
       </c>
       <c r="AP264">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ264">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR264">
         <v>1.49</v>
@@ -56407,7 +56428,7 @@
         <v>1.79</v>
       </c>
       <c r="AP266">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ266">
         <v>1.65</v>
@@ -56535,7 +56556,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56613,7 +56634,7 @@
         <v>0.86</v>
       </c>
       <c r="AP267">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ267">
         <v>0.9399999999999999</v>
@@ -56822,7 +56843,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ268">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR268">
         <v>1.29</v>
@@ -56947,7 +56968,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57025,10 +57046,10 @@
         <v>0.62</v>
       </c>
       <c r="AP269">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ269">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR269">
         <v>2.11</v>
@@ -57234,7 +57255,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ270">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR270">
         <v>1.8</v>
@@ -57359,7 +57380,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57437,10 +57458,10 @@
         <v>1.38</v>
       </c>
       <c r="AP271">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ271">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR271">
         <v>1.67</v>
@@ -57565,7 +57586,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57643,7 +57664,7 @@
         <v>2.5</v>
       </c>
       <c r="AP272">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ272">
         <v>2.59</v>
@@ -57852,7 +57873,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ273">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR273">
         <v>1.32</v>
@@ -58055,7 +58076,7 @@
         <v>0.64</v>
       </c>
       <c r="AP274">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ274">
         <v>0.59</v>
@@ -58183,7 +58204,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58264,7 +58285,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ275">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR275">
         <v>1.68</v>
@@ -58801,7 +58822,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59419,7 +59440,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59703,7 +59724,7 @@
         <v>1</v>
       </c>
       <c r="AP282">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ282">
         <v>0.9399999999999999</v>
@@ -59831,7 +59852,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -59909,10 +59930,10 @@
         <v>0.57</v>
       </c>
       <c r="AP283">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ283">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR283">
         <v>1.68</v>
@@ -60118,7 +60139,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ284">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR284">
         <v>1.2</v>
@@ -60243,7 +60264,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60324,7 +60345,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ285">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR285">
         <v>1.81</v>
@@ -60530,7 +60551,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ286">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR286">
         <v>1.45</v>
@@ -60733,10 +60754,10 @@
         <v>1.33</v>
       </c>
       <c r="AP287">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ287">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR287">
         <v>1.48</v>
@@ -60861,7 +60882,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -60939,10 +60960,10 @@
         <v>1</v>
       </c>
       <c r="AP288">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ288">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR288">
         <v>2.12</v>
@@ -61145,7 +61166,7 @@
         <v>1.67</v>
       </c>
       <c r="AP289">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ289">
         <v>1.65</v>
@@ -61273,7 +61294,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61685,7 +61706,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61763,7 +61784,7 @@
         <v>1.56</v>
       </c>
       <c r="AP292">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ292">
         <v>1.65</v>
@@ -61891,7 +61912,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62097,7 +62118,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62509,7 +62530,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62921,7 +62942,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63002,7 +63023,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ298">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR298">
         <v>1.83</v>
@@ -63205,7 +63226,7 @@
         <v>0.88</v>
       </c>
       <c r="AP299">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ299">
         <v>0.82</v>
@@ -63411,10 +63432,10 @@
         <v>0.6</v>
       </c>
       <c r="AP300">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ300">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR300">
         <v>1.47</v>
@@ -63617,10 +63638,10 @@
         <v>1</v>
       </c>
       <c r="AP301">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ301">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR301">
         <v>1.4</v>
@@ -63745,7 +63766,7 @@
         <v>298</v>
       </c>
       <c r="P302" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q302">
         <v>5.5</v>
@@ -63826,7 +63847,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ302">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR302">
         <v>1.31</v>
@@ -64029,10 +64050,10 @@
         <v>0.53</v>
       </c>
       <c r="AP303">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ303">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR303">
         <v>2.03</v>
@@ -64235,10 +64256,10 @@
         <v>1.25</v>
       </c>
       <c r="AP304">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ304">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR304">
         <v>1.55</v>
@@ -64444,7 +64465,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ305">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR305">
         <v>1.16</v>
@@ -64647,10 +64668,10 @@
         <v>1.33</v>
       </c>
       <c r="AP306">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ306">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR306">
         <v>2.17</v>
@@ -64775,7 +64796,7 @@
         <v>301</v>
       </c>
       <c r="P307" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -64853,10 +64874,10 @@
         <v>0.73</v>
       </c>
       <c r="AP307">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ307">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR307">
         <v>1.71</v>
@@ -65187,7 +65208,7 @@
         <v>138</v>
       </c>
       <c r="P309" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q309">
         <v>4.33</v>
@@ -65393,7 +65414,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q310">
         <v>2.88</v>
@@ -65805,7 +65826,7 @@
         <v>91</v>
       </c>
       <c r="P312" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66423,7 +66444,7 @@
         <v>303</v>
       </c>
       <c r="P315" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q315">
         <v>1.36</v>
@@ -66835,7 +66856,7 @@
         <v>91</v>
       </c>
       <c r="P317" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q317">
         <v>3.55</v>
@@ -66992,6 +67013,1654 @@
       </c>
       <c r="BP317">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="318" spans="1:68">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>7516605</v>
+      </c>
+      <c r="C318" t="s">
+        <v>68</v>
+      </c>
+      <c r="D318" t="s">
+        <v>69</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F318">
+        <v>36</v>
+      </c>
+      <c r="G318" t="s">
+        <v>78</v>
+      </c>
+      <c r="H318" t="s">
+        <v>88</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>1</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318">
+        <v>1</v>
+      </c>
+      <c r="N318">
+        <v>2</v>
+      </c>
+      <c r="O318" t="s">
+        <v>236</v>
+      </c>
+      <c r="P318" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q318">
+        <v>3</v>
+      </c>
+      <c r="R318">
+        <v>2.1</v>
+      </c>
+      <c r="S318">
+        <v>3.2</v>
+      </c>
+      <c r="T318">
+        <v>1.36</v>
+      </c>
+      <c r="U318">
+        <v>2.88</v>
+      </c>
+      <c r="V318">
+        <v>2.65</v>
+      </c>
+      <c r="W318">
+        <v>1.42</v>
+      </c>
+      <c r="X318">
+        <v>6.25</v>
+      </c>
+      <c r="Y318">
+        <v>1.09</v>
+      </c>
+      <c r="Z318">
+        <v>1.98</v>
+      </c>
+      <c r="AA318">
+        <v>3.62</v>
+      </c>
+      <c r="AB318">
+        <v>3.68</v>
+      </c>
+      <c r="AC318">
+        <v>1.05</v>
+      </c>
+      <c r="AD318">
+        <v>9.5</v>
+      </c>
+      <c r="AE318">
+        <v>1.28</v>
+      </c>
+      <c r="AF318">
+        <v>3.65</v>
+      </c>
+      <c r="AG318">
+        <v>1.85</v>
+      </c>
+      <c r="AH318">
+        <v>1.99</v>
+      </c>
+      <c r="AI318">
+        <v>1.62</v>
+      </c>
+      <c r="AJ318">
+        <v>2.15</v>
+      </c>
+      <c r="AK318">
+        <v>1.44</v>
+      </c>
+      <c r="AL318">
+        <v>1.25</v>
+      </c>
+      <c r="AM318">
+        <v>1.53</v>
+      </c>
+      <c r="AN318">
+        <v>1.19</v>
+      </c>
+      <c r="AO318">
+        <v>0.75</v>
+      </c>
+      <c r="AP318">
+        <v>1.18</v>
+      </c>
+      <c r="AQ318">
+        <v>0.76</v>
+      </c>
+      <c r="AR318">
+        <v>1.41</v>
+      </c>
+      <c r="AS318">
+        <v>1.29</v>
+      </c>
+      <c r="AT318">
+        <v>2.7</v>
+      </c>
+      <c r="AU318">
+        <v>6</v>
+      </c>
+      <c r="AV318">
+        <v>7</v>
+      </c>
+      <c r="AW318">
+        <v>11</v>
+      </c>
+      <c r="AX318">
+        <v>4</v>
+      </c>
+      <c r="AY318">
+        <v>21</v>
+      </c>
+      <c r="AZ318">
+        <v>12</v>
+      </c>
+      <c r="BA318">
+        <v>5</v>
+      </c>
+      <c r="BB318">
+        <v>4</v>
+      </c>
+      <c r="BC318">
+        <v>9</v>
+      </c>
+      <c r="BD318">
+        <v>1.91</v>
+      </c>
+      <c r="BE318">
+        <v>8</v>
+      </c>
+      <c r="BF318">
+        <v>2.1</v>
+      </c>
+      <c r="BG318">
+        <v>1.26</v>
+      </c>
+      <c r="BH318">
+        <v>3.22</v>
+      </c>
+      <c r="BI318">
+        <v>1.55</v>
+      </c>
+      <c r="BJ318">
+        <v>2.35</v>
+      </c>
+      <c r="BK318">
+        <v>1.93</v>
+      </c>
+      <c r="BL318">
+        <v>1.86</v>
+      </c>
+      <c r="BM318">
+        <v>2.42</v>
+      </c>
+      <c r="BN318">
+        <v>1.52</v>
+      </c>
+      <c r="BO318">
+        <v>3.28</v>
+      </c>
+      <c r="BP318">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:68">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>7516606</v>
+      </c>
+      <c r="C319" t="s">
+        <v>68</v>
+      </c>
+      <c r="D319" t="s">
+        <v>69</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F319">
+        <v>36</v>
+      </c>
+      <c r="G319" t="s">
+        <v>70</v>
+      </c>
+      <c r="H319" t="s">
+        <v>80</v>
+      </c>
+      <c r="I319">
+        <v>2</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>2</v>
+      </c>
+      <c r="L319">
+        <v>3</v>
+      </c>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>3</v>
+      </c>
+      <c r="O319" t="s">
+        <v>305</v>
+      </c>
+      <c r="P319" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q319">
+        <v>1.44</v>
+      </c>
+      <c r="R319">
+        <v>3.1</v>
+      </c>
+      <c r="S319">
+        <v>9.5</v>
+      </c>
+      <c r="T319">
+        <v>1.17</v>
+      </c>
+      <c r="U319">
+        <v>4.5</v>
+      </c>
+      <c r="V319">
+        <v>1.77</v>
+      </c>
+      <c r="W319">
+        <v>1.95</v>
+      </c>
+      <c r="X319">
+        <v>3.3</v>
+      </c>
+      <c r="Y319">
+        <v>1.28</v>
+      </c>
+      <c r="Z319">
+        <v>1.16</v>
+      </c>
+      <c r="AA319">
+        <v>7.95</v>
+      </c>
+      <c r="AB319">
+        <v>11.53</v>
+      </c>
+      <c r="AC319">
+        <v>1.01</v>
+      </c>
+      <c r="AD319">
+        <v>29</v>
+      </c>
+      <c r="AE319">
+        <v>1.09</v>
+      </c>
+      <c r="AF319">
+        <v>7</v>
+      </c>
+      <c r="AG319">
+        <v>1.3</v>
+      </c>
+      <c r="AH319">
+        <v>3.45</v>
+      </c>
+      <c r="AI319">
+        <v>1.77</v>
+      </c>
+      <c r="AJ319">
+        <v>1.95</v>
+      </c>
+      <c r="AK319">
+        <v>1.03</v>
+      </c>
+      <c r="AL319">
+        <v>1.07</v>
+      </c>
+      <c r="AM319">
+        <v>5</v>
+      </c>
+      <c r="AN319">
+        <v>2.63</v>
+      </c>
+      <c r="AO319">
+        <v>1</v>
+      </c>
+      <c r="AP319">
+        <v>2.65</v>
+      </c>
+      <c r="AQ319">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR319">
+        <v>2.07</v>
+      </c>
+      <c r="AS319">
+        <v>1.19</v>
+      </c>
+      <c r="AT319">
+        <v>3.26</v>
+      </c>
+      <c r="AU319">
+        <v>7</v>
+      </c>
+      <c r="AV319">
+        <v>3</v>
+      </c>
+      <c r="AW319">
+        <v>18</v>
+      </c>
+      <c r="AX319">
+        <v>3</v>
+      </c>
+      <c r="AY319">
+        <v>31</v>
+      </c>
+      <c r="AZ319">
+        <v>7</v>
+      </c>
+      <c r="BA319">
+        <v>5</v>
+      </c>
+      <c r="BB319">
+        <v>3</v>
+      </c>
+      <c r="BC319">
+        <v>8</v>
+      </c>
+      <c r="BD319">
+        <v>0</v>
+      </c>
+      <c r="BE319">
+        <v>0</v>
+      </c>
+      <c r="BF319">
+        <v>0</v>
+      </c>
+      <c r="BG319">
+        <v>0</v>
+      </c>
+      <c r="BH319">
+        <v>0</v>
+      </c>
+      <c r="BI319">
+        <v>0</v>
+      </c>
+      <c r="BJ319">
+        <v>0</v>
+      </c>
+      <c r="BK319">
+        <v>1.58</v>
+      </c>
+      <c r="BL319">
+        <v>2.28</v>
+      </c>
+      <c r="BM319">
+        <v>1.96</v>
+      </c>
+      <c r="BN319">
+        <v>1.83</v>
+      </c>
+      <c r="BO319">
+        <v>2.47</v>
+      </c>
+      <c r="BP319">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="320" spans="1:68">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>7516607</v>
+      </c>
+      <c r="C320" t="s">
+        <v>68</v>
+      </c>
+      <c r="D320" t="s">
+        <v>69</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F320">
+        <v>36</v>
+      </c>
+      <c r="G320" t="s">
+        <v>77</v>
+      </c>
+      <c r="H320" t="s">
+        <v>81</v>
+      </c>
+      <c r="I320">
+        <v>2</v>
+      </c>
+      <c r="J320">
+        <v>2</v>
+      </c>
+      <c r="K320">
+        <v>4</v>
+      </c>
+      <c r="L320">
+        <v>6</v>
+      </c>
+      <c r="M320">
+        <v>3</v>
+      </c>
+      <c r="N320">
+        <v>9</v>
+      </c>
+      <c r="O320" t="s">
+        <v>306</v>
+      </c>
+      <c r="P320" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q320">
+        <v>2.4</v>
+      </c>
+      <c r="R320">
+        <v>2.25</v>
+      </c>
+      <c r="S320">
+        <v>3.9</v>
+      </c>
+      <c r="T320">
+        <v>1.3</v>
+      </c>
+      <c r="U320">
+        <v>3.2</v>
+      </c>
+      <c r="V320">
+        <v>2.35</v>
+      </c>
+      <c r="W320">
+        <v>1.53</v>
+      </c>
+      <c r="X320">
+        <v>5.25</v>
+      </c>
+      <c r="Y320">
+        <v>1.12</v>
+      </c>
+      <c r="Z320">
+        <v>1.95</v>
+      </c>
+      <c r="AA320">
+        <v>3.79</v>
+      </c>
+      <c r="AB320">
+        <v>3.62</v>
+      </c>
+      <c r="AC320">
+        <v>1.04</v>
+      </c>
+      <c r="AD320">
+        <v>10</v>
+      </c>
+      <c r="AE320">
+        <v>1.2</v>
+      </c>
+      <c r="AF320">
+        <v>4.33</v>
+      </c>
+      <c r="AG320">
+        <v>1.61</v>
+      </c>
+      <c r="AH320">
+        <v>2.15</v>
+      </c>
+      <c r="AI320">
+        <v>1.55</v>
+      </c>
+      <c r="AJ320">
+        <v>2.3</v>
+      </c>
+      <c r="AK320">
+        <v>1.28</v>
+      </c>
+      <c r="AL320">
+        <v>1.22</v>
+      </c>
+      <c r="AM320">
+        <v>1.8</v>
+      </c>
+      <c r="AN320">
+        <v>1.56</v>
+      </c>
+      <c r="AO320">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP320">
+        <v>1.65</v>
+      </c>
+      <c r="AQ320">
+        <v>0.65</v>
+      </c>
+      <c r="AR320">
+        <v>1.54</v>
+      </c>
+      <c r="AS320">
+        <v>1.34</v>
+      </c>
+      <c r="AT320">
+        <v>2.88</v>
+      </c>
+      <c r="AU320">
+        <v>9</v>
+      </c>
+      <c r="AV320">
+        <v>6</v>
+      </c>
+      <c r="AW320">
+        <v>3</v>
+      </c>
+      <c r="AX320">
+        <v>15</v>
+      </c>
+      <c r="AY320">
+        <v>12</v>
+      </c>
+      <c r="AZ320">
+        <v>23</v>
+      </c>
+      <c r="BA320">
+        <v>2</v>
+      </c>
+      <c r="BB320">
+        <v>2</v>
+      </c>
+      <c r="BC320">
+        <v>4</v>
+      </c>
+      <c r="BD320">
+        <v>0</v>
+      </c>
+      <c r="BE320">
+        <v>0</v>
+      </c>
+      <c r="BF320">
+        <v>0</v>
+      </c>
+      <c r="BG320">
+        <v>0</v>
+      </c>
+      <c r="BH320">
+        <v>0</v>
+      </c>
+      <c r="BI320">
+        <v>0</v>
+      </c>
+      <c r="BJ320">
+        <v>0</v>
+      </c>
+      <c r="BK320">
+        <v>1.76</v>
+      </c>
+      <c r="BL320">
+        <v>2.02</v>
+      </c>
+      <c r="BM320">
+        <v>2.21</v>
+      </c>
+      <c r="BN320">
+        <v>1.63</v>
+      </c>
+      <c r="BO320">
+        <v>0</v>
+      </c>
+      <c r="BP320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:68">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>7516608</v>
+      </c>
+      <c r="C321" t="s">
+        <v>68</v>
+      </c>
+      <c r="D321" t="s">
+        <v>69</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F321">
+        <v>36</v>
+      </c>
+      <c r="G321" t="s">
+        <v>76</v>
+      </c>
+      <c r="H321" t="s">
+        <v>74</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>1</v>
+      </c>
+      <c r="O321" t="s">
+        <v>254</v>
+      </c>
+      <c r="P321" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q321">
+        <v>2.3</v>
+      </c>
+      <c r="R321">
+        <v>2.2</v>
+      </c>
+      <c r="S321">
+        <v>4.5</v>
+      </c>
+      <c r="T321">
+        <v>1.33</v>
+      </c>
+      <c r="U321">
+        <v>3</v>
+      </c>
+      <c r="V321">
+        <v>2.55</v>
+      </c>
+      <c r="W321">
+        <v>1.45</v>
+      </c>
+      <c r="X321">
+        <v>5.75</v>
+      </c>
+      <c r="Y321">
+        <v>1.1</v>
+      </c>
+      <c r="Z321">
+        <v>1.81</v>
+      </c>
+      <c r="AA321">
+        <v>3.83</v>
+      </c>
+      <c r="AB321">
+        <v>4.16</v>
+      </c>
+      <c r="AC321">
+        <v>1.05</v>
+      </c>
+      <c r="AD321">
+        <v>9.5</v>
+      </c>
+      <c r="AE321">
+        <v>1.25</v>
+      </c>
+      <c r="AF321">
+        <v>3.85</v>
+      </c>
+      <c r="AG321">
+        <v>1.73</v>
+      </c>
+      <c r="AH321">
+        <v>2</v>
+      </c>
+      <c r="AI321">
+        <v>1.67</v>
+      </c>
+      <c r="AJ321">
+        <v>2.1</v>
+      </c>
+      <c r="AK321">
+        <v>1.22</v>
+      </c>
+      <c r="AL321">
+        <v>1.22</v>
+      </c>
+      <c r="AM321">
+        <v>1.95</v>
+      </c>
+      <c r="AN321">
+        <v>1.81</v>
+      </c>
+      <c r="AO321">
+        <v>0.5</v>
+      </c>
+      <c r="AP321">
+        <v>1.88</v>
+      </c>
+      <c r="AQ321">
+        <v>0.47</v>
+      </c>
+      <c r="AR321">
+        <v>1.56</v>
+      </c>
+      <c r="AS321">
+        <v>1.13</v>
+      </c>
+      <c r="AT321">
+        <v>2.69</v>
+      </c>
+      <c r="AU321">
+        <v>5</v>
+      </c>
+      <c r="AV321">
+        <v>0</v>
+      </c>
+      <c r="AW321">
+        <v>5</v>
+      </c>
+      <c r="AX321">
+        <v>4</v>
+      </c>
+      <c r="AY321">
+        <v>10</v>
+      </c>
+      <c r="AZ321">
+        <v>4</v>
+      </c>
+      <c r="BA321">
+        <v>5</v>
+      </c>
+      <c r="BB321">
+        <v>4</v>
+      </c>
+      <c r="BC321">
+        <v>9</v>
+      </c>
+      <c r="BD321">
+        <v>0</v>
+      </c>
+      <c r="BE321">
+        <v>0</v>
+      </c>
+      <c r="BF321">
+        <v>0</v>
+      </c>
+      <c r="BG321">
+        <v>0</v>
+      </c>
+      <c r="BH321">
+        <v>0</v>
+      </c>
+      <c r="BI321">
+        <v>1.6</v>
+      </c>
+      <c r="BJ321">
+        <v>2.25</v>
+      </c>
+      <c r="BK321">
+        <v>2.01</v>
+      </c>
+      <c r="BL321">
+        <v>1.78</v>
+      </c>
+      <c r="BM321">
+        <v>2.55</v>
+      </c>
+      <c r="BN321">
+        <v>1.46</v>
+      </c>
+      <c r="BO321">
+        <v>0</v>
+      </c>
+      <c r="BP321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:68">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>7516610</v>
+      </c>
+      <c r="C322" t="s">
+        <v>68</v>
+      </c>
+      <c r="D322" t="s">
+        <v>69</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F322">
+        <v>36</v>
+      </c>
+      <c r="G322" t="s">
+        <v>72</v>
+      </c>
+      <c r="H322" t="s">
+        <v>85</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+      <c r="O322" t="s">
+        <v>91</v>
+      </c>
+      <c r="P322" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q322">
+        <v>2.45</v>
+      </c>
+      <c r="R322">
+        <v>2.2</v>
+      </c>
+      <c r="S322">
+        <v>3.9</v>
+      </c>
+      <c r="T322">
+        <v>1.33</v>
+      </c>
+      <c r="U322">
+        <v>3.1</v>
+      </c>
+      <c r="V322">
+        <v>2.4</v>
+      </c>
+      <c r="W322">
+        <v>1.5</v>
+      </c>
+      <c r="X322">
+        <v>5.25</v>
+      </c>
+      <c r="Y322">
+        <v>1.12</v>
+      </c>
+      <c r="Z322">
+        <v>2</v>
+      </c>
+      <c r="AA322">
+        <v>3.33</v>
+      </c>
+      <c r="AB322">
+        <v>3.99</v>
+      </c>
+      <c r="AC322">
+        <v>1.05</v>
+      </c>
+      <c r="AD322">
+        <v>9.5</v>
+      </c>
+      <c r="AE322">
+        <v>1.22</v>
+      </c>
+      <c r="AF322">
+        <v>4.2</v>
+      </c>
+      <c r="AG322">
+        <v>1.66</v>
+      </c>
+      <c r="AH322">
+        <v>2.05</v>
+      </c>
+      <c r="AI322">
+        <v>1.57</v>
+      </c>
+      <c r="AJ322">
+        <v>2.25</v>
+      </c>
+      <c r="AK322">
+        <v>1.28</v>
+      </c>
+      <c r="AL322">
+        <v>1.25</v>
+      </c>
+      <c r="AM322">
+        <v>1.75</v>
+      </c>
+      <c r="AN322">
+        <v>2.06</v>
+      </c>
+      <c r="AO322">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP322">
+        <v>2</v>
+      </c>
+      <c r="AQ322">
+        <v>0.59</v>
+      </c>
+      <c r="AR322">
+        <v>1.41</v>
+      </c>
+      <c r="AS322">
+        <v>1.24</v>
+      </c>
+      <c r="AT322">
+        <v>2.65</v>
+      </c>
+      <c r="AU322">
+        <v>4</v>
+      </c>
+      <c r="AV322">
+        <v>3</v>
+      </c>
+      <c r="AW322">
+        <v>3</v>
+      </c>
+      <c r="AX322">
+        <v>3</v>
+      </c>
+      <c r="AY322">
+        <v>9</v>
+      </c>
+      <c r="AZ322">
+        <v>8</v>
+      </c>
+      <c r="BA322">
+        <v>5</v>
+      </c>
+      <c r="BB322">
+        <v>6</v>
+      </c>
+      <c r="BC322">
+        <v>11</v>
+      </c>
+      <c r="BD322">
+        <v>0</v>
+      </c>
+      <c r="BE322">
+        <v>0</v>
+      </c>
+      <c r="BF322">
+        <v>0</v>
+      </c>
+      <c r="BG322">
+        <v>0</v>
+      </c>
+      <c r="BH322">
+        <v>0</v>
+      </c>
+      <c r="BI322">
+        <v>1.58</v>
+      </c>
+      <c r="BJ322">
+        <v>2.28</v>
+      </c>
+      <c r="BK322">
+        <v>1.98</v>
+      </c>
+      <c r="BL322">
+        <v>1.82</v>
+      </c>
+      <c r="BM322">
+        <v>2.51</v>
+      </c>
+      <c r="BN322">
+        <v>1.48</v>
+      </c>
+      <c r="BO322">
+        <v>0</v>
+      </c>
+      <c r="BP322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:68">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>7516611</v>
+      </c>
+      <c r="C323" t="s">
+        <v>68</v>
+      </c>
+      <c r="D323" t="s">
+        <v>69</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F323">
+        <v>36</v>
+      </c>
+      <c r="G323" t="s">
+        <v>71</v>
+      </c>
+      <c r="H323" t="s">
+        <v>83</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>1</v>
+      </c>
+      <c r="K323">
+        <v>2</v>
+      </c>
+      <c r="L323">
+        <v>2</v>
+      </c>
+      <c r="M323">
+        <v>3</v>
+      </c>
+      <c r="N323">
+        <v>5</v>
+      </c>
+      <c r="O323" t="s">
+        <v>307</v>
+      </c>
+      <c r="P323" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q323">
+        <v>2.85</v>
+      </c>
+      <c r="R323">
+        <v>2.2</v>
+      </c>
+      <c r="S323">
+        <v>3.2</v>
+      </c>
+      <c r="T323">
+        <v>1.3</v>
+      </c>
+      <c r="U323">
+        <v>3.2</v>
+      </c>
+      <c r="V323">
+        <v>2.38</v>
+      </c>
+      <c r="W323">
+        <v>1.53</v>
+      </c>
+      <c r="X323">
+        <v>5.25</v>
+      </c>
+      <c r="Y323">
+        <v>1.12</v>
+      </c>
+      <c r="Z323">
+        <v>2.42</v>
+      </c>
+      <c r="AA323">
+        <v>3.33</v>
+      </c>
+      <c r="AB323">
+        <v>2.98</v>
+      </c>
+      <c r="AC323">
+        <v>1.04</v>
+      </c>
+      <c r="AD323">
+        <v>10</v>
+      </c>
+      <c r="AE323">
+        <v>1.22</v>
+      </c>
+      <c r="AF323">
+        <v>4.2</v>
+      </c>
+      <c r="AG323">
+        <v>1.65</v>
+      </c>
+      <c r="AH323">
+        <v>2.15</v>
+      </c>
+      <c r="AI323">
+        <v>1.5</v>
+      </c>
+      <c r="AJ323">
+        <v>2.4</v>
+      </c>
+      <c r="AK323">
+        <v>1.42</v>
+      </c>
+      <c r="AL323">
+        <v>1.25</v>
+      </c>
+      <c r="AM323">
+        <v>1.55</v>
+      </c>
+      <c r="AN323">
+        <v>1.38</v>
+      </c>
+      <c r="AO323">
+        <v>1.25</v>
+      </c>
+      <c r="AP323">
+        <v>1.29</v>
+      </c>
+      <c r="AQ323">
+        <v>1.35</v>
+      </c>
+      <c r="AR323">
+        <v>1.71</v>
+      </c>
+      <c r="AS323">
+        <v>1.39</v>
+      </c>
+      <c r="AT323">
+        <v>3.1</v>
+      </c>
+      <c r="AU323">
+        <v>-1</v>
+      </c>
+      <c r="AV323">
+        <v>-1</v>
+      </c>
+      <c r="AW323">
+        <v>-1</v>
+      </c>
+      <c r="AX323">
+        <v>-1</v>
+      </c>
+      <c r="AY323">
+        <v>-1</v>
+      </c>
+      <c r="AZ323">
+        <v>-1</v>
+      </c>
+      <c r="BA323">
+        <v>-1</v>
+      </c>
+      <c r="BB323">
+        <v>-1</v>
+      </c>
+      <c r="BC323">
+        <v>-1</v>
+      </c>
+      <c r="BD323">
+        <v>0</v>
+      </c>
+      <c r="BE323">
+        <v>0</v>
+      </c>
+      <c r="BF323">
+        <v>0</v>
+      </c>
+      <c r="BG323">
+        <v>0</v>
+      </c>
+      <c r="BH323">
+        <v>0</v>
+      </c>
+      <c r="BI323">
+        <v>1.55</v>
+      </c>
+      <c r="BJ323">
+        <v>2.37</v>
+      </c>
+      <c r="BK323">
+        <v>1.92</v>
+      </c>
+      <c r="BL323">
+        <v>1.87</v>
+      </c>
+      <c r="BM323">
+        <v>2.43</v>
+      </c>
+      <c r="BN323">
+        <v>1.52</v>
+      </c>
+      <c r="BO323">
+        <v>0</v>
+      </c>
+      <c r="BP323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:68">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>7516612</v>
+      </c>
+      <c r="C324" t="s">
+        <v>68</v>
+      </c>
+      <c r="D324" t="s">
+        <v>69</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F324">
+        <v>36</v>
+      </c>
+      <c r="G324" t="s">
+        <v>75</v>
+      </c>
+      <c r="H324" t="s">
+        <v>84</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324">
+        <v>1</v>
+      </c>
+      <c r="N324">
+        <v>2</v>
+      </c>
+      <c r="O324" t="s">
+        <v>308</v>
+      </c>
+      <c r="P324" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q324">
+        <v>3.75</v>
+      </c>
+      <c r="R324">
+        <v>2.2</v>
+      </c>
+      <c r="S324">
+        <v>2.5</v>
+      </c>
+      <c r="T324">
+        <v>1.3</v>
+      </c>
+      <c r="U324">
+        <v>3.2</v>
+      </c>
+      <c r="V324">
+        <v>2.38</v>
+      </c>
+      <c r="W324">
+        <v>1.53</v>
+      </c>
+      <c r="X324">
+        <v>5.25</v>
+      </c>
+      <c r="Y324">
+        <v>1.12</v>
+      </c>
+      <c r="Z324">
+        <v>3.49</v>
+      </c>
+      <c r="AA324">
+        <v>3.69</v>
+      </c>
+      <c r="AB324">
+        <v>2.02</v>
+      </c>
+      <c r="AC324">
+        <v>1.04</v>
+      </c>
+      <c r="AD324">
+        <v>10</v>
+      </c>
+      <c r="AE324">
+        <v>1.22</v>
+      </c>
+      <c r="AF324">
+        <v>4.2</v>
+      </c>
+      <c r="AG324">
+        <v>1.61</v>
+      </c>
+      <c r="AH324">
+        <v>2.15</v>
+      </c>
+      <c r="AI324">
+        <v>1.55</v>
+      </c>
+      <c r="AJ324">
+        <v>2.3</v>
+      </c>
+      <c r="AK324">
+        <v>1.77</v>
+      </c>
+      <c r="AL324">
+        <v>1.22</v>
+      </c>
+      <c r="AM324">
+        <v>1.3</v>
+      </c>
+      <c r="AN324">
+        <v>1.56</v>
+      </c>
+      <c r="AO324">
+        <v>1.44</v>
+      </c>
+      <c r="AP324">
+        <v>1.53</v>
+      </c>
+      <c r="AQ324">
+        <v>1.41</v>
+      </c>
+      <c r="AR324">
+        <v>1.43</v>
+      </c>
+      <c r="AS324">
+        <v>1.43</v>
+      </c>
+      <c r="AT324">
+        <v>2.86</v>
+      </c>
+      <c r="AU324">
+        <v>-1</v>
+      </c>
+      <c r="AV324">
+        <v>-1</v>
+      </c>
+      <c r="AW324">
+        <v>-1</v>
+      </c>
+      <c r="AX324">
+        <v>-1</v>
+      </c>
+      <c r="AY324">
+        <v>-1</v>
+      </c>
+      <c r="AZ324">
+        <v>-1</v>
+      </c>
+      <c r="BA324">
+        <v>-1</v>
+      </c>
+      <c r="BB324">
+        <v>-1</v>
+      </c>
+      <c r="BC324">
+        <v>-1</v>
+      </c>
+      <c r="BD324">
+        <v>0</v>
+      </c>
+      <c r="BE324">
+        <v>0</v>
+      </c>
+      <c r="BF324">
+        <v>0</v>
+      </c>
+      <c r="BG324">
+        <v>0</v>
+      </c>
+      <c r="BH324">
+        <v>0</v>
+      </c>
+      <c r="BI324">
+        <v>1.58</v>
+      </c>
+      <c r="BJ324">
+        <v>2.31</v>
+      </c>
+      <c r="BK324">
+        <v>1.96</v>
+      </c>
+      <c r="BL324">
+        <v>1.83</v>
+      </c>
+      <c r="BM324">
+        <v>2.48</v>
+      </c>
+      <c r="BN324">
+        <v>1.5</v>
+      </c>
+      <c r="BO324">
+        <v>0</v>
+      </c>
+      <c r="BP324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:68">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>7516613</v>
+      </c>
+      <c r="C325" t="s">
+        <v>68</v>
+      </c>
+      <c r="D325" t="s">
+        <v>69</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F325">
+        <v>36</v>
+      </c>
+      <c r="G325" t="s">
+        <v>73</v>
+      </c>
+      <c r="H325" t="s">
+        <v>86</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>1</v>
+      </c>
+      <c r="L325">
+        <v>2</v>
+      </c>
+      <c r="M325">
+        <v>1</v>
+      </c>
+      <c r="N325">
+        <v>3</v>
+      </c>
+      <c r="O325" t="s">
+        <v>309</v>
+      </c>
+      <c r="P325" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q325">
+        <v>1.53</v>
+      </c>
+      <c r="R325">
+        <v>3</v>
+      </c>
+      <c r="S325">
+        <v>7.5</v>
+      </c>
+      <c r="T325">
+        <v>1.17</v>
+      </c>
+      <c r="U325">
+        <v>4.5</v>
+      </c>
+      <c r="V325">
+        <v>1.85</v>
+      </c>
+      <c r="W325">
+        <v>1.85</v>
+      </c>
+      <c r="X325">
+        <v>3.7</v>
+      </c>
+      <c r="Y325">
+        <v>1.22</v>
+      </c>
+      <c r="Z325">
+        <v>1.22</v>
+      </c>
+      <c r="AA325">
+        <v>7.01</v>
+      </c>
+      <c r="AB325">
+        <v>10.24</v>
+      </c>
+      <c r="AC325">
+        <v>1.01</v>
+      </c>
+      <c r="AD325">
+        <v>26</v>
+      </c>
+      <c r="AE325">
+        <v>1.09</v>
+      </c>
+      <c r="AF325">
+        <v>7</v>
+      </c>
+      <c r="AG325">
+        <v>1.33</v>
+      </c>
+      <c r="AH325">
+        <v>3.2</v>
+      </c>
+      <c r="AI325">
+        <v>1.73</v>
+      </c>
+      <c r="AJ325">
+        <v>2</v>
+      </c>
+      <c r="AK325">
+        <v>1.05</v>
+      </c>
+      <c r="AL325">
+        <v>1.1</v>
+      </c>
+      <c r="AM325">
+        <v>4</v>
+      </c>
+      <c r="AN325">
+        <v>2.38</v>
+      </c>
+      <c r="AO325">
+        <v>1.18</v>
+      </c>
+      <c r="AP325">
+        <v>2.41</v>
+      </c>
+      <c r="AQ325">
+        <v>1.11</v>
+      </c>
+      <c r="AR325">
+        <v>2.15</v>
+      </c>
+      <c r="AS325">
+        <v>1.19</v>
+      </c>
+      <c r="AT325">
+        <v>3.34</v>
+      </c>
+      <c r="AU325">
+        <v>-1</v>
+      </c>
+      <c r="AV325">
+        <v>-1</v>
+      </c>
+      <c r="AW325">
+        <v>-1</v>
+      </c>
+      <c r="AX325">
+        <v>-1</v>
+      </c>
+      <c r="AY325">
+        <v>-1</v>
+      </c>
+      <c r="AZ325">
+        <v>-1</v>
+      </c>
+      <c r="BA325">
+        <v>-1</v>
+      </c>
+      <c r="BB325">
+        <v>-1</v>
+      </c>
+      <c r="BC325">
+        <v>-1</v>
+      </c>
+      <c r="BD325">
+        <v>1.12</v>
+      </c>
+      <c r="BE325">
+        <v>15</v>
+      </c>
+      <c r="BF325">
+        <v>5.8</v>
+      </c>
+      <c r="BG325">
+        <v>1.26</v>
+      </c>
+      <c r="BH325">
+        <v>3.22</v>
+      </c>
+      <c r="BI325">
+        <v>1.49</v>
+      </c>
+      <c r="BJ325">
+        <v>2.51</v>
+      </c>
+      <c r="BK325">
+        <v>1.69</v>
+      </c>
+      <c r="BL325">
+        <v>2.13</v>
+      </c>
+      <c r="BM325">
+        <v>2.13</v>
+      </c>
+      <c r="BN325">
+        <v>1.69</v>
+      </c>
+      <c r="BO325">
+        <v>3.2</v>
+      </c>
+      <c r="BP325">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -68185,31 +68185,31 @@
         <v>3.1</v>
       </c>
       <c r="AU323">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV323">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW323">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX323">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY323">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ323">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA323">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB323">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC323">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD323">
         <v>0</v>
@@ -68391,31 +68391,31 @@
         <v>2.86</v>
       </c>
       <c r="AU324">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV324">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW324">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX324">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY324">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ324">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA324">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB324">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC324">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD324">
         <v>0</v>
@@ -68597,31 +68597,31 @@
         <v>3.34</v>
       </c>
       <c r="AU325">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV325">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW325">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX325">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY325">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ325">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA325">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB325">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC325">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD325">
         <v>1.12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="455">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -946,10 +946,25 @@
     <t>['32', '84']</t>
   </si>
   <si>
-    <t>['7', '81', '89']</t>
+    <t>['40', '42']</t>
+  </si>
+  <si>
+    <t>['24', '45+5']</t>
+  </si>
+  <si>
+    <t>['20', '35']</t>
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['86', '88']</t>
+  </si>
+  <si>
+    <t>['44', '53', '63', '66']</t>
+  </si>
+  <si>
+    <t>['7', '81', '89']</t>
   </si>
   <si>
     <t>['31', '36']</t>
@@ -1347,6 +1362,24 @@
   <si>
     <t>['13', '55', '81']</t>
   </si>
+  <si>
+    <t>['70', '90+1']</t>
+  </si>
+  <si>
+    <t>['51', '68']</t>
+  </si>
+  <si>
+    <t>['32', '65', '90+4']</t>
+  </si>
+  <si>
+    <t>['61', '90+1']</t>
+  </si>
+  <si>
+    <t>['38', '40']</t>
+  </si>
+  <si>
+    <t>['27', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1707,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP325"/>
+  <dimension ref="A1:BP334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2172,7 +2205,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2665,7 +2698,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ5">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2996,7 +3029,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3202,7 +3235,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3408,7 +3441,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3614,7 +3647,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3820,7 +3853,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3898,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4026,7 +4059,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4104,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ12">
         <v>0.47</v>
@@ -4232,7 +4265,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4310,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4438,7 +4471,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4519,7 +4552,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4644,7 +4677,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4722,10 +4755,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ15">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4850,7 +4883,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4928,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ16">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5056,7 +5089,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5134,10 +5167,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ17">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5340,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>0.9399999999999999</v>
@@ -5546,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ19">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6086,7 +6119,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6292,7 +6325,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6373,7 +6406,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ23">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR23">
         <v>0.96</v>
@@ -6498,7 +6531,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6704,7 +6737,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6785,7 +6818,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ25">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR25">
         <v>1.86</v>
@@ -6991,7 +7024,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ26">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>1.44</v>
@@ -7116,7 +7149,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7197,7 +7230,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ27">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -7400,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -7606,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7734,7 +7767,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7815,7 +7848,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ30">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR30">
         <v>1.28</v>
@@ -7940,7 +7973,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8018,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ31">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.45</v>
@@ -8224,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>0.76</v>
@@ -8430,7 +8463,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ33">
         <v>0.47</v>
@@ -8558,7 +8591,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8636,10 +8669,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ34">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR34">
         <v>0.72</v>
@@ -8764,7 +8797,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -9176,7 +9209,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9463,7 +9496,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ38">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>2.66</v>
@@ -9588,7 +9621,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9669,7 +9702,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR39">
         <v>1.4</v>
@@ -9794,7 +9827,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9872,7 +9905,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ40">
         <v>1.11</v>
@@ -10206,7 +10239,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10284,7 +10317,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ42">
         <v>1.41</v>
@@ -10412,7 +10445,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10493,7 +10526,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -10618,7 +10651,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -11030,7 +11063,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11108,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ46">
         <v>0.9399999999999999</v>
@@ -11314,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ47">
         <v>0.9399999999999999</v>
@@ -11520,7 +11553,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48">
         <v>0.47</v>
@@ -11648,7 +11681,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11729,7 +11762,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ49">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR49">
         <v>1.64</v>
@@ -11935,7 +11968,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR50">
         <v>1.45</v>
@@ -12141,7 +12174,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ51">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR51">
         <v>1.43</v>
@@ -12266,7 +12299,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12347,7 +12380,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ52">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR52">
         <v>1.43</v>
@@ -12472,7 +12505,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12550,7 +12583,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ53">
         <v>1.11</v>
@@ -12756,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>0.9399999999999999</v>
@@ -12962,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55">
         <v>0.76</v>
@@ -13090,7 +13123,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13296,7 +13329,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13583,7 +13616,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13708,7 +13741,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13789,7 +13822,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ59">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR59">
         <v>2.34</v>
@@ -13914,7 +13947,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13992,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60">
         <v>0.59</v>
@@ -14120,7 +14153,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14198,7 +14231,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61">
         <v>0.82</v>
@@ -14326,7 +14359,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14407,7 +14440,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ62">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14532,7 +14565,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14613,7 +14646,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14738,7 +14771,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14816,7 +14849,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ64">
         <v>1.41</v>
@@ -14944,7 +14977,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15025,7 +15058,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ65">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -15356,7 +15389,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15434,7 +15467,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.47</v>
@@ -15640,7 +15673,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ68">
         <v>0.76</v>
@@ -15846,7 +15879,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -15974,7 +16007,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16052,7 +16085,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ70">
         <v>1.11</v>
@@ -16180,7 +16213,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16261,7 +16294,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ71">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR71">
         <v>1.33</v>
@@ -16467,7 +16500,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ72">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR72">
         <v>1.95</v>
@@ -16670,7 +16703,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ73">
         <v>1.41</v>
@@ -16798,7 +16831,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16876,7 +16909,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ74">
         <v>0.59</v>
@@ -17082,7 +17115,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ75">
         <v>1.35</v>
@@ -17288,7 +17321,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ76">
         <v>0.65</v>
@@ -17416,7 +17449,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17497,7 +17530,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17622,7 +17655,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17906,7 +17939,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ79">
         <v>0.82</v>
@@ -18034,7 +18067,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18115,7 +18148,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ80">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR80">
         <v>1.32</v>
@@ -18240,7 +18273,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18321,7 +18354,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18446,7 +18479,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18527,7 +18560,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ82">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.45</v>
@@ -18652,7 +18685,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18936,7 +18969,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ84">
         <v>0.9399999999999999</v>
@@ -19064,7 +19097,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19145,7 +19178,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR85">
         <v>1.46</v>
@@ -19270,7 +19303,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19348,7 +19381,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>0.76</v>
@@ -19554,7 +19587,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ87">
         <v>0.82</v>
@@ -19763,7 +19796,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ88">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -20172,7 +20205,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ90">
         <v>1.11</v>
@@ -20506,7 +20539,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20584,7 +20617,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ92">
         <v>0.65</v>
@@ -20793,7 +20826,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.31</v>
@@ -20996,10 +21029,10 @@
         <v>0.25</v>
       </c>
       <c r="AP94">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ94">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR94">
         <v>1.6</v>
@@ -21124,7 +21157,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21202,10 +21235,10 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ95">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR95">
         <v>1.8</v>
@@ -21330,7 +21363,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21408,7 +21441,7 @@
         <v>1.4</v>
       </c>
       <c r="AP96">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ96">
         <v>1.35</v>
@@ -21614,7 +21647,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97">
         <v>0.53</v>
@@ -21823,7 +21856,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ98">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21948,7 +21981,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22026,10 +22059,10 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ99">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -22235,7 +22268,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ100">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR100">
         <v>1.54</v>
@@ -22360,7 +22393,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22566,7 +22599,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22772,7 +22805,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22850,7 +22883,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ103">
         <v>0.59</v>
@@ -23468,7 +23501,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>0.82</v>
@@ -23596,7 +23629,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23677,7 +23710,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ107">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR107">
         <v>1.87</v>
@@ -24086,7 +24119,7 @@
         <v>1.6</v>
       </c>
       <c r="AP109">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ109">
         <v>1.41</v>
@@ -24214,7 +24247,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24292,10 +24325,10 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ110">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.36</v>
@@ -24420,7 +24453,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24498,10 +24531,10 @@
         <v>2.33</v>
       </c>
       <c r="AP111">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ111">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24704,7 +24737,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ112">
         <v>1.35</v>
@@ -24913,7 +24946,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ113">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -25119,7 +25152,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR114">
         <v>1.24</v>
@@ -25244,7 +25277,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25322,7 +25355,7 @@
         <v>0.2</v>
       </c>
       <c r="AP115">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ115">
         <v>0.53</v>
@@ -25531,7 +25564,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ116">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR116">
         <v>1.6</v>
@@ -25656,7 +25689,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25734,7 +25767,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ117">
         <v>0.65</v>
@@ -25940,10 +25973,10 @@
         <v>0.4</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ118">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -26480,7 +26513,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26686,7 +26719,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26764,7 +26797,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ122">
         <v>0.65</v>
@@ -27304,7 +27337,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27588,7 +27621,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
         <v>1.41</v>
@@ -27922,7 +27955,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28000,10 +28033,10 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR128">
         <v>1.57</v>
@@ -28206,10 +28239,10 @@
         <v>0.67</v>
       </c>
       <c r="AP129">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ129">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR129">
         <v>1.29</v>
@@ -28334,7 +28367,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28412,10 +28445,10 @@
         <v>0.33</v>
       </c>
       <c r="AP130">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR130">
         <v>1.76</v>
@@ -28618,10 +28651,10 @@
         <v>2.43</v>
       </c>
       <c r="AP131">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ131">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR131">
         <v>1.61</v>
@@ -28824,10 +28857,10 @@
         <v>2.5</v>
       </c>
       <c r="AP132">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ132">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR132">
         <v>1.36</v>
@@ -29030,10 +29063,10 @@
         <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ133">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR133">
         <v>1.67</v>
@@ -29158,7 +29191,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29239,7 +29272,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR134">
         <v>1.23</v>
@@ -29442,7 +29475,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ135">
         <v>0.53</v>
@@ -29648,10 +29681,10 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ136">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -30678,7 +30711,7 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ141">
         <v>0.65</v>
@@ -31218,7 +31251,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31424,7 +31457,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31630,7 +31663,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31708,10 +31741,10 @@
         <v>2.13</v>
       </c>
       <c r="AP146">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ146">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -31917,7 +31950,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -32042,7 +32075,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32120,10 +32153,10 @@
         <v>0.71</v>
       </c>
       <c r="AP148">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ148">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR148">
         <v>1.58</v>
@@ -32326,10 +32359,10 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ149">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR149">
         <v>1.44</v>
@@ -32532,10 +32565,10 @@
         <v>1.29</v>
       </c>
       <c r="AP150">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.84</v>
@@ -32660,7 +32693,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -32738,10 +32771,10 @@
         <v>3</v>
       </c>
       <c r="AP151">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ151">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR151">
         <v>1.61</v>
@@ -32944,7 +32977,7 @@
         <v>0.57</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ152">
         <v>0.9399999999999999</v>
@@ -33072,7 +33105,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33150,10 +33183,10 @@
         <v>1.86</v>
       </c>
       <c r="AP153">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ153">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR153">
         <v>1.53</v>
@@ -33278,7 +33311,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33356,10 +33389,10 @@
         <v>0.29</v>
       </c>
       <c r="AP154">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ154">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR154">
         <v>1.16</v>
@@ -33690,7 +33723,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34102,7 +34135,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34514,7 +34547,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34720,7 +34753,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35416,10 +35449,10 @@
         <v>2</v>
       </c>
       <c r="AP164">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ164">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR164">
         <v>1.61</v>
@@ -35544,7 +35577,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -35622,10 +35655,10 @@
         <v>1.13</v>
       </c>
       <c r="AP165">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.23</v>
@@ -35828,7 +35861,7 @@
         <v>0.5</v>
       </c>
       <c r="AP166">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ166">
         <v>0.9399999999999999</v>
@@ -36037,7 +36070,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR167">
         <v>1.22</v>
@@ -36240,10 +36273,10 @@
         <v>0.63</v>
       </c>
       <c r="AP168">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ168">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR168">
         <v>1.65</v>
@@ -36446,10 +36479,10 @@
         <v>0.63</v>
       </c>
       <c r="AP169">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ169">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR169">
         <v>1.48</v>
@@ -36574,7 +36607,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -36652,10 +36685,10 @@
         <v>3</v>
       </c>
       <c r="AP170">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ170">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR170">
         <v>1.59</v>
@@ -36858,10 +36891,10 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR171">
         <v>1.84</v>
@@ -36986,7 +37019,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -37064,10 +37097,10 @@
         <v>2</v>
       </c>
       <c r="AP172">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ172">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -37270,10 +37303,10 @@
         <v>3</v>
       </c>
       <c r="AP173">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ173">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR173">
         <v>1.25</v>
@@ -37476,10 +37509,10 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ174">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>1.54</v>
@@ -37682,7 +37715,7 @@
         <v>0.44</v>
       </c>
       <c r="AP175">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ175">
         <v>0.9399999999999999</v>
@@ -37888,10 +37921,10 @@
         <v>2.11</v>
       </c>
       <c r="AP176">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ176">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR176">
         <v>1.49</v>
@@ -38094,10 +38127,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP177">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ177">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR177">
         <v>1.85</v>
@@ -38222,7 +38255,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38300,10 +38333,10 @@
         <v>1.56</v>
       </c>
       <c r="AP178">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ178">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR178">
         <v>1.34</v>
@@ -38506,10 +38539,10 @@
         <v>0.78</v>
       </c>
       <c r="AP179">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ179">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR179">
         <v>1.37</v>
@@ -38634,7 +38667,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38715,7 +38748,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ180">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR180">
         <v>1.28</v>
@@ -38918,7 +38951,7 @@
         <v>0.88</v>
       </c>
       <c r="AP181">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ181">
         <v>0.47</v>
@@ -39046,7 +39079,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39252,7 +39285,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39458,7 +39491,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39870,7 +39903,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -39951,7 +39984,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ186">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR186">
         <v>1.47</v>
@@ -40488,7 +40521,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40694,7 +40727,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40900,7 +40933,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -40978,7 +41011,7 @@
         <v>0.5</v>
       </c>
       <c r="AP191">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ191">
         <v>0.9399999999999999</v>
@@ -41184,7 +41217,7 @@
         <v>0.78</v>
       </c>
       <c r="AP192">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ192">
         <v>0.47</v>
@@ -41312,7 +41345,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41390,10 +41423,10 @@
         <v>0.5</v>
       </c>
       <c r="AP193">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ193">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR193">
         <v>1.23</v>
@@ -41596,7 +41629,7 @@
         <v>0.44</v>
       </c>
       <c r="AP194">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ194">
         <v>0.76</v>
@@ -41802,10 +41835,10 @@
         <v>2</v>
       </c>
       <c r="AP195">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ195">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR195">
         <v>1.49</v>
@@ -41930,7 +41963,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42011,7 +42044,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ196">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR196">
         <v>1.21</v>
@@ -42136,7 +42169,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42214,10 +42247,10 @@
         <v>0.7</v>
       </c>
       <c r="AP197">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ197">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR197">
         <v>1.83</v>
@@ -42342,7 +42375,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42423,7 +42456,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ198">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.98</v>
@@ -42548,7 +42581,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42626,10 +42659,10 @@
         <v>2.78</v>
       </c>
       <c r="AP199">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ199">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR199">
         <v>1.47</v>
@@ -42960,7 +42993,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43038,7 +43071,7 @@
         <v>0.91</v>
       </c>
       <c r="AP201">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ201">
         <v>0.82</v>
@@ -43166,7 +43199,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43372,7 +43405,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43453,7 +43486,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ203">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR203">
         <v>1.69</v>
@@ -43578,7 +43611,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -43659,7 +43692,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ204">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR204">
         <v>1.37</v>
@@ -43865,7 +43898,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ205">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR205">
         <v>2.03</v>
@@ -44274,7 +44307,7 @@
         <v>1.45</v>
       </c>
       <c r="AP207">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ207">
         <v>1.11</v>
@@ -44689,7 +44722,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ209">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR209">
         <v>1.24</v>
@@ -44892,7 +44925,7 @@
         <v>0.7</v>
       </c>
       <c r="AP210">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ210">
         <v>0.47</v>
@@ -45020,7 +45053,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45098,7 +45131,7 @@
         <v>0.45</v>
       </c>
       <c r="AP211">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ211">
         <v>0.9399999999999999</v>
@@ -45304,7 +45337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP212">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ212">
         <v>0.76</v>
@@ -45510,10 +45543,10 @@
         <v>0.91</v>
       </c>
       <c r="AP213">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ213">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR213">
         <v>1.23</v>
@@ -45638,7 +45671,7 @@
         <v>239</v>
       </c>
       <c r="P214" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q214">
         <v>2.2</v>
@@ -45716,7 +45749,7 @@
         <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ214">
         <v>0.9399999999999999</v>
@@ -45844,7 +45877,7 @@
         <v>91</v>
       </c>
       <c r="P215" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q215">
         <v>3.3</v>
@@ -45922,10 +45955,10 @@
         <v>1.82</v>
       </c>
       <c r="AP215">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ215">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR215">
         <v>1.37</v>
@@ -46131,7 +46164,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ216">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR216">
         <v>2.13</v>
@@ -46256,7 +46289,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46337,7 +46370,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ217">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR217">
         <v>1.53</v>
@@ -46668,7 +46701,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46746,7 +46779,7 @@
         <v>1.36</v>
       </c>
       <c r="AP219">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ219">
         <v>1.41</v>
@@ -47161,7 +47194,7 @@
         <v>2</v>
       </c>
       <c r="AQ221">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR221">
         <v>1.42</v>
@@ -47286,7 +47319,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47367,7 +47400,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ222">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR222">
         <v>1.55</v>
@@ -47570,7 +47603,7 @@
         <v>0.64</v>
       </c>
       <c r="AP223">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ223">
         <v>0.65</v>
@@ -47698,7 +47731,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47779,7 +47812,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ224">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR224">
         <v>1.38</v>
@@ -47904,7 +47937,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -47982,7 +48015,7 @@
         <v>0.5</v>
       </c>
       <c r="AP225">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ225">
         <v>0.59</v>
@@ -48191,7 +48224,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ226">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR226">
         <v>1.94</v>
@@ -48600,7 +48633,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ228">
         <v>0.9399999999999999</v>
@@ -48728,7 +48761,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48809,7 +48842,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ229">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR229">
         <v>1.54</v>
@@ -48934,7 +48967,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49015,7 +49048,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ230">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR230">
         <v>1.68</v>
@@ -49221,7 +49254,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ231">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR231">
         <v>2.08</v>
@@ -49424,7 +49457,7 @@
         <v>0.45</v>
       </c>
       <c r="AP232">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ232">
         <v>0.76</v>
@@ -49552,7 +49585,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49630,7 +49663,7 @@
         <v>1.33</v>
       </c>
       <c r="AP233">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ233">
         <v>1.11</v>
@@ -49836,7 +49869,7 @@
         <v>0.64</v>
       </c>
       <c r="AP234">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ234">
         <v>0.47</v>
@@ -49964,7 +49997,7 @@
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q235">
         <v>2.8</v>
@@ -50042,10 +50075,10 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ235">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR235">
         <v>1.89</v>
@@ -50251,7 +50284,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ236">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR236">
         <v>1.31</v>
@@ -50454,7 +50487,7 @@
         <v>1</v>
       </c>
       <c r="AP237">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ237">
         <v>1.35</v>
@@ -50582,7 +50615,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50663,7 +50696,7 @@
         <v>2</v>
       </c>
       <c r="AQ238">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR238">
         <v>1.39</v>
@@ -50788,7 +50821,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -50866,7 +50899,7 @@
         <v>0.18</v>
       </c>
       <c r="AP239">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ239">
         <v>0.53</v>
@@ -51200,7 +51233,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q241">
         <v>1.64</v>
@@ -51281,7 +51314,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ241">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR241">
         <v>1.52</v>
@@ -51406,7 +51439,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q242">
         <v>2.7</v>
@@ -51484,7 +51517,7 @@
         <v>0.85</v>
       </c>
       <c r="AP242">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ242">
         <v>0.82</v>
@@ -51612,7 +51645,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51693,7 +51726,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ243">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR243">
         <v>1.46</v>
@@ -51818,7 +51851,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -51896,7 +51929,7 @@
         <v>0.45</v>
       </c>
       <c r="AP244">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ244">
         <v>0.59</v>
@@ -52105,7 +52138,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ245">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR245">
         <v>1.85</v>
@@ -52308,7 +52341,7 @@
         <v>0.92</v>
       </c>
       <c r="AP246">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ246">
         <v>0.9399999999999999</v>
@@ -52517,7 +52550,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ247">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR247">
         <v>1.69</v>
@@ -52642,7 +52675,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52720,7 +52753,7 @@
         <v>0.42</v>
       </c>
       <c r="AP248">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ248">
         <v>0.76</v>
@@ -52926,7 +52959,7 @@
         <v>1.5</v>
       </c>
       <c r="AP249">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ249">
         <v>1.41</v>
@@ -53054,7 +53087,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53260,7 +53293,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53338,7 +53371,7 @@
         <v>0.58</v>
       </c>
       <c r="AP251">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ251">
         <v>0.47</v>
@@ -53466,7 +53499,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53544,7 +53577,7 @@
         <v>1.23</v>
       </c>
       <c r="AP252">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ252">
         <v>1.11</v>
@@ -53753,7 +53786,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ253">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR253">
         <v>2.06</v>
@@ -53959,7 +53992,7 @@
         <v>2</v>
       </c>
       <c r="AQ254">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR254">
         <v>1.43</v>
@@ -54162,7 +54195,7 @@
         <v>0.42</v>
       </c>
       <c r="AP255">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ255">
         <v>0.53</v>
@@ -54290,7 +54323,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54371,7 +54404,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ256">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR256">
         <v>1.33</v>
@@ -54574,7 +54607,7 @@
         <v>0.67</v>
       </c>
       <c r="AP257">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ257">
         <v>0.59</v>
@@ -54783,7 +54816,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ258">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR258">
         <v>1.32</v>
@@ -54986,7 +55019,7 @@
         <v>0.54</v>
       </c>
       <c r="AP259">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ259">
         <v>0.65</v>
@@ -55114,7 +55147,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55195,7 +55228,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ260">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR260">
         <v>1.62</v>
@@ -55398,10 +55431,10 @@
         <v>2.69</v>
       </c>
       <c r="AP261">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ261">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR261">
         <v>1.64</v>
@@ -55526,7 +55559,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55604,7 +55637,7 @@
         <v>0.92</v>
       </c>
       <c r="AP262">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ262">
         <v>1.35</v>
@@ -55732,7 +55765,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55938,7 +55971,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56222,7 +56255,7 @@
         <v>0.79</v>
       </c>
       <c r="AP265">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ265">
         <v>0.82</v>
@@ -56431,7 +56464,7 @@
         <v>2</v>
       </c>
       <c r="AQ266">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR266">
         <v>1.43</v>
@@ -56556,7 +56589,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56840,7 +56873,7 @@
         <v>1.21</v>
       </c>
       <c r="AP268">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ268">
         <v>1.11</v>
@@ -56968,7 +57001,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57252,7 +57285,7 @@
         <v>0.62</v>
       </c>
       <c r="AP270">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ270">
         <v>0.59</v>
@@ -57380,7 +57413,7 @@
         <v>96</v>
       </c>
       <c r="P271" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q271">
         <v>3.5</v>
@@ -57586,7 +57619,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57667,7 +57700,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ272">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR272">
         <v>1.63</v>
@@ -57870,7 +57903,7 @@
         <v>0.57</v>
       </c>
       <c r="AP273">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ273">
         <v>0.65</v>
@@ -58079,7 +58112,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ274">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR274">
         <v>1.35</v>
@@ -58204,7 +58237,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58282,7 +58315,7 @@
         <v>1.08</v>
       </c>
       <c r="AP275">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ275">
         <v>1.35</v>
@@ -58488,10 +58521,10 @@
         <v>1.4</v>
       </c>
       <c r="AP276">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ276">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR276">
         <v>1.57</v>
@@ -58694,7 +58727,7 @@
         <v>0.38</v>
       </c>
       <c r="AP277">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ277">
         <v>0.53</v>
@@ -58822,7 +58855,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -58903,7 +58936,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ278">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR278">
         <v>1.34</v>
@@ -59106,10 +59139,10 @@
         <v>1.07</v>
       </c>
       <c r="AP279">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ279">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR279">
         <v>1.69</v>
@@ -59312,10 +59345,10 @@
         <v>0.36</v>
       </c>
       <c r="AP280">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ280">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR280">
         <v>1.42</v>
@@ -59440,7 +59473,7 @@
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q281">
         <v>4.33</v>
@@ -59518,7 +59551,7 @@
         <v>0.73</v>
       </c>
       <c r="AP281">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ281">
         <v>0.82</v>
@@ -59852,7 +59885,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60264,7 +60297,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60342,7 +60375,7 @@
         <v>1.36</v>
       </c>
       <c r="AP285">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ285">
         <v>1.41</v>
@@ -60548,7 +60581,7 @@
         <v>0.64</v>
       </c>
       <c r="AP286">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ286">
         <v>0.59</v>
@@ -60882,7 +60915,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61169,7 +61202,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ289">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR289">
         <v>1.44</v>
@@ -61294,7 +61327,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61372,7 +61405,7 @@
         <v>0.36</v>
       </c>
       <c r="AP290">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ290">
         <v>0.53</v>
@@ -61581,7 +61614,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ291">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR291">
         <v>1.35</v>
@@ -61706,7 +61739,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61787,7 +61820,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ292">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR292">
         <v>1.32</v>
@@ -61912,7 +61945,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -61990,10 +62023,10 @@
         <v>2.27</v>
       </c>
       <c r="AP293">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ293">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR293">
         <v>1.6</v>
@@ -62118,7 +62151,7 @@
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q294">
         <v>2.38</v>
@@ -62196,10 +62229,10 @@
         <v>0.67</v>
       </c>
       <c r="AP294">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ294">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR294">
         <v>1.71</v>
@@ -62402,10 +62435,10 @@
         <v>0.33</v>
       </c>
       <c r="AP295">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ295">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR295">
         <v>1.29</v>
@@ -62530,7 +62563,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62608,10 +62641,10 @@
         <v>2.53</v>
       </c>
       <c r="AP296">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ296">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR296">
         <v>1.5</v>
@@ -62814,10 +62847,10 @@
         <v>1</v>
       </c>
       <c r="AP297">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ297">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR297">
         <v>1.52</v>
@@ -62942,7 +62975,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63020,7 +63053,7 @@
         <v>1.21</v>
       </c>
       <c r="AP298">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ298">
         <v>1.35</v>
@@ -63766,7 +63799,7 @@
         <v>298</v>
       </c>
       <c r="P302" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q302">
         <v>5.5</v>
@@ -63844,7 +63877,7 @@
         <v>1.13</v>
       </c>
       <c r="AP302">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ302">
         <v>1.35</v>
@@ -64796,7 +64829,7 @@
         <v>301</v>
       </c>
       <c r="P307" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65080,10 +65113,10 @@
         <v>0.63</v>
       </c>
       <c r="AP308">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ308">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR308">
         <v>1.58</v>
@@ -65208,7 +65241,7 @@
         <v>138</v>
       </c>
       <c r="P309" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q309">
         <v>4.33</v>
@@ -65286,10 +65319,10 @@
         <v>2.31</v>
       </c>
       <c r="AP309">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ309">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AR309">
         <v>1.44</v>
@@ -65414,7 +65447,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q310">
         <v>2.88</v>
@@ -65492,10 +65525,10 @@
         <v>1.31</v>
       </c>
       <c r="AP310">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ310">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR310">
         <v>1.47</v>
@@ -65698,10 +65731,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP311">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ311">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR311">
         <v>1.4</v>
@@ -65826,7 +65859,7 @@
         <v>91</v>
       </c>
       <c r="P312" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -65904,10 +65937,10 @@
         <v>2.56</v>
       </c>
       <c r="AP312">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ312">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR312">
         <v>1.72</v>
@@ -66316,7 +66349,7 @@
         <v>0.33</v>
       </c>
       <c r="AP314">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ314">
         <v>0.53</v>
@@ -66444,7 +66477,7 @@
         <v>303</v>
       </c>
       <c r="P315" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q315">
         <v>1.36</v>
@@ -66522,10 +66555,10 @@
         <v>0.31</v>
       </c>
       <c r="AP315">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ315">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR315">
         <v>1.7</v>
@@ -66728,10 +66761,10 @@
         <v>0.63</v>
       </c>
       <c r="AP316">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ316">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR316">
         <v>1.51</v>
@@ -66856,7 +66889,7 @@
         <v>91</v>
       </c>
       <c r="P317" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q317">
         <v>3.55</v>
@@ -67474,7 +67507,7 @@
         <v>306</v>
       </c>
       <c r="P320" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q320">
         <v>2.4</v>
@@ -68092,7 +68125,7 @@
         <v>307</v>
       </c>
       <c r="P323" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q323">
         <v>2.85</v>
@@ -68661,6 +68694,1860 @@
       </c>
       <c r="BP325">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="326" spans="1:68">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>7516619</v>
+      </c>
+      <c r="C326" t="s">
+        <v>68</v>
+      </c>
+      <c r="D326" t="s">
+        <v>69</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45801.41666666666</v>
+      </c>
+      <c r="F326">
+        <v>37</v>
+      </c>
+      <c r="G326" t="s">
+        <v>86</v>
+      </c>
+      <c r="H326" t="s">
+        <v>72</v>
+      </c>
+      <c r="I326">
+        <v>2</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>2</v>
+      </c>
+      <c r="L326">
+        <v>2</v>
+      </c>
+      <c r="M326">
+        <v>1</v>
+      </c>
+      <c r="N326">
+        <v>3</v>
+      </c>
+      <c r="O326" t="s">
+        <v>310</v>
+      </c>
+      <c r="P326" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q326">
+        <v>2.4</v>
+      </c>
+      <c r="R326">
+        <v>2.3</v>
+      </c>
+      <c r="S326">
+        <v>4</v>
+      </c>
+      <c r="T326">
+        <v>1.3</v>
+      </c>
+      <c r="U326">
+        <v>3.4</v>
+      </c>
+      <c r="V326">
+        <v>2.5</v>
+      </c>
+      <c r="W326">
+        <v>1.5</v>
+      </c>
+      <c r="X326">
+        <v>6</v>
+      </c>
+      <c r="Y326">
+        <v>1.13</v>
+      </c>
+      <c r="Z326">
+        <v>1.85</v>
+      </c>
+      <c r="AA326">
+        <v>3.6</v>
+      </c>
+      <c r="AB326">
+        <v>3.75</v>
+      </c>
+      <c r="AC326">
+        <v>1.04</v>
+      </c>
+      <c r="AD326">
+        <v>10</v>
+      </c>
+      <c r="AE326">
+        <v>1.22</v>
+      </c>
+      <c r="AF326">
+        <v>4</v>
+      </c>
+      <c r="AG326">
+        <v>1.7</v>
+      </c>
+      <c r="AH326">
+        <v>2.1</v>
+      </c>
+      <c r="AI326">
+        <v>1.62</v>
+      </c>
+      <c r="AJ326">
+        <v>2.2</v>
+      </c>
+      <c r="AK326">
+        <v>1.25</v>
+      </c>
+      <c r="AL326">
+        <v>1.28</v>
+      </c>
+      <c r="AM326">
+        <v>1.85</v>
+      </c>
+      <c r="AN326">
+        <v>1.76</v>
+      </c>
+      <c r="AO326">
+        <v>0.59</v>
+      </c>
+      <c r="AP326">
+        <v>1.83</v>
+      </c>
+      <c r="AQ326">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR326">
+        <v>1.43</v>
+      </c>
+      <c r="AS326">
+        <v>1.05</v>
+      </c>
+      <c r="AT326">
+        <v>2.48</v>
+      </c>
+      <c r="AU326">
+        <v>5</v>
+      </c>
+      <c r="AV326">
+        <v>7</v>
+      </c>
+      <c r="AW326">
+        <v>2</v>
+      </c>
+      <c r="AX326">
+        <v>6</v>
+      </c>
+      <c r="AY326">
+        <v>7</v>
+      </c>
+      <c r="AZ326">
+        <v>15</v>
+      </c>
+      <c r="BA326">
+        <v>2</v>
+      </c>
+      <c r="BB326">
+        <v>6</v>
+      </c>
+      <c r="BC326">
+        <v>8</v>
+      </c>
+      <c r="BD326">
+        <v>1.72</v>
+      </c>
+      <c r="BE326">
+        <v>6.5</v>
+      </c>
+      <c r="BF326">
+        <v>2.38</v>
+      </c>
+      <c r="BG326">
+        <v>1.3</v>
+      </c>
+      <c r="BH326">
+        <v>3.1</v>
+      </c>
+      <c r="BI326">
+        <v>1.52</v>
+      </c>
+      <c r="BJ326">
+        <v>2.33</v>
+      </c>
+      <c r="BK326">
+        <v>1.83</v>
+      </c>
+      <c r="BL326">
+        <v>1.85</v>
+      </c>
+      <c r="BM326">
+        <v>2.3</v>
+      </c>
+      <c r="BN326">
+        <v>1.54</v>
+      </c>
+      <c r="BO326">
+        <v>2.9</v>
+      </c>
+      <c r="BP326">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="327" spans="1:68">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>7516622</v>
+      </c>
+      <c r="C327" t="s">
+        <v>68</v>
+      </c>
+      <c r="D327" t="s">
+        <v>69</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45801.54166666666</v>
+      </c>
+      <c r="F327">
+        <v>37</v>
+      </c>
+      <c r="G327" t="s">
+        <v>81</v>
+      </c>
+      <c r="H327" t="s">
+        <v>70</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327">
+        <v>2</v>
+      </c>
+      <c r="N327">
+        <v>2</v>
+      </c>
+      <c r="O327" t="s">
+        <v>91</v>
+      </c>
+      <c r="P327" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q327">
+        <v>4</v>
+      </c>
+      <c r="R327">
+        <v>2.63</v>
+      </c>
+      <c r="S327">
+        <v>2.2</v>
+      </c>
+      <c r="T327">
+        <v>1.22</v>
+      </c>
+      <c r="U327">
+        <v>4</v>
+      </c>
+      <c r="V327">
+        <v>2</v>
+      </c>
+      <c r="W327">
+        <v>1.73</v>
+      </c>
+      <c r="X327">
+        <v>4.33</v>
+      </c>
+      <c r="Y327">
+        <v>1.2</v>
+      </c>
+      <c r="Z327">
+        <v>3.7</v>
+      </c>
+      <c r="AA327">
+        <v>4.59</v>
+      </c>
+      <c r="AB327">
+        <v>1.75</v>
+      </c>
+      <c r="AC327">
+        <v>1.01</v>
+      </c>
+      <c r="AD327">
+        <v>17</v>
+      </c>
+      <c r="AE327">
+        <v>1.11</v>
+      </c>
+      <c r="AF327">
+        <v>6.25</v>
+      </c>
+      <c r="AG327">
+        <v>1.4</v>
+      </c>
+      <c r="AH327">
+        <v>2.88</v>
+      </c>
+      <c r="AI327">
+        <v>1.44</v>
+      </c>
+      <c r="AJ327">
+        <v>2.63</v>
+      </c>
+      <c r="AK327">
+        <v>1.98</v>
+      </c>
+      <c r="AL327">
+        <v>1.22</v>
+      </c>
+      <c r="AM327">
+        <v>1.25</v>
+      </c>
+      <c r="AN327">
+        <v>2.12</v>
+      </c>
+      <c r="AO327">
+        <v>2.59</v>
+      </c>
+      <c r="AP327">
+        <v>2</v>
+      </c>
+      <c r="AQ327">
+        <v>2.61</v>
+      </c>
+      <c r="AR327">
+        <v>1.96</v>
+      </c>
+      <c r="AS327">
+        <v>1.88</v>
+      </c>
+      <c r="AT327">
+        <v>3.84</v>
+      </c>
+      <c r="AU327">
+        <v>7</v>
+      </c>
+      <c r="AV327">
+        <v>5</v>
+      </c>
+      <c r="AW327">
+        <v>16</v>
+      </c>
+      <c r="AX327">
+        <v>11</v>
+      </c>
+      <c r="AY327">
+        <v>26</v>
+      </c>
+      <c r="AZ327">
+        <v>19</v>
+      </c>
+      <c r="BA327">
+        <v>7</v>
+      </c>
+      <c r="BB327">
+        <v>6</v>
+      </c>
+      <c r="BC327">
+        <v>13</v>
+      </c>
+      <c r="BD327">
+        <v>2.65</v>
+      </c>
+      <c r="BE327">
+        <v>6.5</v>
+      </c>
+      <c r="BF327">
+        <v>1.57</v>
+      </c>
+      <c r="BG327">
+        <v>1.3</v>
+      </c>
+      <c r="BH327">
+        <v>3.05</v>
+      </c>
+      <c r="BI327">
+        <v>1.54</v>
+      </c>
+      <c r="BJ327">
+        <v>2.3</v>
+      </c>
+      <c r="BK327">
+        <v>1.88</v>
+      </c>
+      <c r="BL327">
+        <v>1.81</v>
+      </c>
+      <c r="BM327">
+        <v>2.35</v>
+      </c>
+      <c r="BN327">
+        <v>1.5</v>
+      </c>
+      <c r="BO327">
+        <v>3.05</v>
+      </c>
+      <c r="BP327">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="328" spans="1:68">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>7516621</v>
+      </c>
+      <c r="C328" t="s">
+        <v>68</v>
+      </c>
+      <c r="D328" t="s">
+        <v>69</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45801.54166666666</v>
+      </c>
+      <c r="F328">
+        <v>37</v>
+      </c>
+      <c r="G328" t="s">
+        <v>85</v>
+      </c>
+      <c r="H328" t="s">
+        <v>71</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>2</v>
+      </c>
+      <c r="L328">
+        <v>2</v>
+      </c>
+      <c r="M328">
+        <v>2</v>
+      </c>
+      <c r="N328">
+        <v>4</v>
+      </c>
+      <c r="O328" t="s">
+        <v>311</v>
+      </c>
+      <c r="P328" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q328">
+        <v>3.1</v>
+      </c>
+      <c r="R328">
+        <v>2.4</v>
+      </c>
+      <c r="S328">
+        <v>2.88</v>
+      </c>
+      <c r="T328">
+        <v>1.25</v>
+      </c>
+      <c r="U328">
+        <v>3.75</v>
+      </c>
+      <c r="V328">
+        <v>2.2</v>
+      </c>
+      <c r="W328">
+        <v>1.62</v>
+      </c>
+      <c r="X328">
+        <v>5</v>
+      </c>
+      <c r="Y328">
+        <v>1.17</v>
+      </c>
+      <c r="Z328">
+        <v>2.7</v>
+      </c>
+      <c r="AA328">
+        <v>3.65</v>
+      </c>
+      <c r="AB328">
+        <v>2.44</v>
+      </c>
+      <c r="AC328">
+        <v>1.01</v>
+      </c>
+      <c r="AD328">
+        <v>13</v>
+      </c>
+      <c r="AE328">
+        <v>1.18</v>
+      </c>
+      <c r="AF328">
+        <v>4.75</v>
+      </c>
+      <c r="AG328">
+        <v>1.53</v>
+      </c>
+      <c r="AH328">
+        <v>2.4</v>
+      </c>
+      <c r="AI328">
+        <v>1.44</v>
+      </c>
+      <c r="AJ328">
+        <v>2.63</v>
+      </c>
+      <c r="AK328">
+        <v>1.53</v>
+      </c>
+      <c r="AL328">
+        <v>1.26</v>
+      </c>
+      <c r="AM328">
+        <v>1.47</v>
+      </c>
+      <c r="AN328">
+        <v>1.94</v>
+      </c>
+      <c r="AO328">
+        <v>1.41</v>
+      </c>
+      <c r="AP328">
+        <v>1.89</v>
+      </c>
+      <c r="AQ328">
+        <v>1.39</v>
+      </c>
+      <c r="AR328">
+        <v>1.55</v>
+      </c>
+      <c r="AS328">
+        <v>1.36</v>
+      </c>
+      <c r="AT328">
+        <v>2.91</v>
+      </c>
+      <c r="AU328">
+        <v>4</v>
+      </c>
+      <c r="AV328">
+        <v>6</v>
+      </c>
+      <c r="AW328">
+        <v>8</v>
+      </c>
+      <c r="AX328">
+        <v>9</v>
+      </c>
+      <c r="AY328">
+        <v>13</v>
+      </c>
+      <c r="AZ328">
+        <v>15</v>
+      </c>
+      <c r="BA328">
+        <v>3</v>
+      </c>
+      <c r="BB328">
+        <v>8</v>
+      </c>
+      <c r="BC328">
+        <v>11</v>
+      </c>
+      <c r="BD328">
+        <v>1.98</v>
+      </c>
+      <c r="BE328">
+        <v>6.75</v>
+      </c>
+      <c r="BF328">
+        <v>1.98</v>
+      </c>
+      <c r="BG328">
+        <v>1.24</v>
+      </c>
+      <c r="BH328">
+        <v>3.55</v>
+      </c>
+      <c r="BI328">
+        <v>1.43</v>
+      </c>
+      <c r="BJ328">
+        <v>2.6</v>
+      </c>
+      <c r="BK328">
+        <v>1.68</v>
+      </c>
+      <c r="BL328">
+        <v>2.02</v>
+      </c>
+      <c r="BM328">
+        <v>2.07</v>
+      </c>
+      <c r="BN328">
+        <v>1.66</v>
+      </c>
+      <c r="BO328">
+        <v>2.6</v>
+      </c>
+      <c r="BP328">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="329" spans="1:68">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>7516620</v>
+      </c>
+      <c r="C329" t="s">
+        <v>68</v>
+      </c>
+      <c r="D329" t="s">
+        <v>69</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45802.54166666666</v>
+      </c>
+      <c r="F329">
+        <v>37</v>
+      </c>
+      <c r="G329" t="s">
+        <v>83</v>
+      </c>
+      <c r="H329" t="s">
+        <v>82</v>
+      </c>
+      <c r="I329">
+        <v>2</v>
+      </c>
+      <c r="J329">
+        <v>1</v>
+      </c>
+      <c r="K329">
+        <v>3</v>
+      </c>
+      <c r="L329">
+        <v>2</v>
+      </c>
+      <c r="M329">
+        <v>3</v>
+      </c>
+      <c r="N329">
+        <v>5</v>
+      </c>
+      <c r="O329" t="s">
+        <v>312</v>
+      </c>
+      <c r="P329" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q329">
+        <v>1.36</v>
+      </c>
+      <c r="R329">
+        <v>4</v>
+      </c>
+      <c r="S329">
+        <v>12</v>
+      </c>
+      <c r="T329">
+        <v>1.13</v>
+      </c>
+      <c r="U329">
+        <v>6</v>
+      </c>
+      <c r="V329">
+        <v>1.57</v>
+      </c>
+      <c r="W329">
+        <v>2.25</v>
+      </c>
+      <c r="X329">
+        <v>2.75</v>
+      </c>
+      <c r="Y329">
+        <v>1.4</v>
+      </c>
+      <c r="Z329">
+        <v>1.08</v>
+      </c>
+      <c r="AA329">
+        <v>10.92</v>
+      </c>
+      <c r="AB329">
+        <v>16.16</v>
+      </c>
+      <c r="AC329">
+        <v>1.01</v>
+      </c>
+      <c r="AD329">
+        <v>36</v>
+      </c>
+      <c r="AE329">
+        <v>1.06</v>
+      </c>
+      <c r="AF329">
+        <v>8.5</v>
+      </c>
+      <c r="AG329">
+        <v>1.18</v>
+      </c>
+      <c r="AH329">
+        <v>4.5</v>
+      </c>
+      <c r="AI329">
+        <v>1.73</v>
+      </c>
+      <c r="AJ329">
+        <v>2</v>
+      </c>
+      <c r="AK329">
+        <v>1.01</v>
+      </c>
+      <c r="AL329">
+        <v>1.05</v>
+      </c>
+      <c r="AM329">
+        <v>6.75</v>
+      </c>
+      <c r="AN329">
+        <v>1.82</v>
+      </c>
+      <c r="AO329">
+        <v>0.29</v>
+      </c>
+      <c r="AP329">
+        <v>1.72</v>
+      </c>
+      <c r="AQ329">
+        <v>0.44</v>
+      </c>
+      <c r="AR329">
+        <v>1.43</v>
+      </c>
+      <c r="AS329">
+        <v>1.08</v>
+      </c>
+      <c r="AT329">
+        <v>2.51</v>
+      </c>
+      <c r="AU329">
+        <v>8</v>
+      </c>
+      <c r="AV329">
+        <v>5</v>
+      </c>
+      <c r="AW329">
+        <v>21</v>
+      </c>
+      <c r="AX329">
+        <v>3</v>
+      </c>
+      <c r="AY329">
+        <v>39</v>
+      </c>
+      <c r="AZ329">
+        <v>9</v>
+      </c>
+      <c r="BA329">
+        <v>10</v>
+      </c>
+      <c r="BB329">
+        <v>0</v>
+      </c>
+      <c r="BC329">
+        <v>10</v>
+      </c>
+      <c r="BD329">
+        <v>1.16</v>
+      </c>
+      <c r="BE329">
+        <v>9.5</v>
+      </c>
+      <c r="BF329">
+        <v>5.4</v>
+      </c>
+      <c r="BG329">
+        <v>1.24</v>
+      </c>
+      <c r="BH329">
+        <v>3.55</v>
+      </c>
+      <c r="BI329">
+        <v>1.4</v>
+      </c>
+      <c r="BJ329">
+        <v>2.65</v>
+      </c>
+      <c r="BK329">
+        <v>1.66</v>
+      </c>
+      <c r="BL329">
+        <v>2.06</v>
+      </c>
+      <c r="BM329">
+        <v>2.04</v>
+      </c>
+      <c r="BN329">
+        <v>1.68</v>
+      </c>
+      <c r="BO329">
+        <v>2.55</v>
+      </c>
+      <c r="BP329">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="330" spans="1:68">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>7516614</v>
+      </c>
+      <c r="C330" t="s">
+        <v>68</v>
+      </c>
+      <c r="D330" t="s">
+        <v>69</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45802.54166666666</v>
+      </c>
+      <c r="F330">
+        <v>37</v>
+      </c>
+      <c r="G330" t="s">
+        <v>84</v>
+      </c>
+      <c r="H330" t="s">
+        <v>77</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+      <c r="N330">
+        <v>3</v>
+      </c>
+      <c r="O330" t="s">
+        <v>313</v>
+      </c>
+      <c r="P330" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q330">
+        <v>1.91</v>
+      </c>
+      <c r="R330">
+        <v>2.6</v>
+      </c>
+      <c r="S330">
+        <v>6</v>
+      </c>
+      <c r="T330">
+        <v>1.25</v>
+      </c>
+      <c r="U330">
+        <v>3.75</v>
+      </c>
+      <c r="V330">
+        <v>2.25</v>
+      </c>
+      <c r="W330">
+        <v>1.57</v>
+      </c>
+      <c r="X330">
+        <v>5.5</v>
+      </c>
+      <c r="Y330">
+        <v>1.14</v>
+      </c>
+      <c r="Z330">
+        <v>1.44</v>
+      </c>
+      <c r="AA330">
+        <v>4.33</v>
+      </c>
+      <c r="AB330">
+        <v>6.25</v>
+      </c>
+      <c r="AC330">
+        <v>1.03</v>
+      </c>
+      <c r="AD330">
+        <v>11</v>
+      </c>
+      <c r="AE330">
+        <v>1.2</v>
+      </c>
+      <c r="AF330">
+        <v>4.5</v>
+      </c>
+      <c r="AG330">
+        <v>1.57</v>
+      </c>
+      <c r="AH330">
+        <v>2.35</v>
+      </c>
+      <c r="AI330">
+        <v>1.73</v>
+      </c>
+      <c r="AJ330">
+        <v>2</v>
+      </c>
+      <c r="AK330">
+        <v>1.14</v>
+      </c>
+      <c r="AL330">
+        <v>1.21</v>
+      </c>
+      <c r="AM330">
+        <v>2.4</v>
+      </c>
+      <c r="AN330">
+        <v>2.06</v>
+      </c>
+      <c r="AO330">
+        <v>0.88</v>
+      </c>
+      <c r="AP330">
+        <v>1.94</v>
+      </c>
+      <c r="AQ330">
+        <v>1</v>
+      </c>
+      <c r="AR330">
+        <v>1.8</v>
+      </c>
+      <c r="AS330">
+        <v>1.22</v>
+      </c>
+      <c r="AT330">
+        <v>3.02</v>
+      </c>
+      <c r="AU330">
+        <v>2</v>
+      </c>
+      <c r="AV330">
+        <v>6</v>
+      </c>
+      <c r="AW330">
+        <v>23</v>
+      </c>
+      <c r="AX330">
+        <v>5</v>
+      </c>
+      <c r="AY330">
+        <v>36</v>
+      </c>
+      <c r="AZ330">
+        <v>13</v>
+      </c>
+      <c r="BA330">
+        <v>6</v>
+      </c>
+      <c r="BB330">
+        <v>7</v>
+      </c>
+      <c r="BC330">
+        <v>13</v>
+      </c>
+      <c r="BD330">
+        <v>1.38</v>
+      </c>
+      <c r="BE330">
+        <v>7.5</v>
+      </c>
+      <c r="BF330">
+        <v>3.4</v>
+      </c>
+      <c r="BG330">
+        <v>1.27</v>
+      </c>
+      <c r="BH330">
+        <v>3.3</v>
+      </c>
+      <c r="BI330">
+        <v>1.48</v>
+      </c>
+      <c r="BJ330">
+        <v>2.45</v>
+      </c>
+      <c r="BK330">
+        <v>1.75</v>
+      </c>
+      <c r="BL330">
+        <v>1.95</v>
+      </c>
+      <c r="BM330">
+        <v>2.18</v>
+      </c>
+      <c r="BN330">
+        <v>1.58</v>
+      </c>
+      <c r="BO330">
+        <v>2.75</v>
+      </c>
+      <c r="BP330">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="331" spans="1:68">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>7516617</v>
+      </c>
+      <c r="C331" t="s">
+        <v>68</v>
+      </c>
+      <c r="D331" t="s">
+        <v>69</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45802.54166666666</v>
+      </c>
+      <c r="F331">
+        <v>37</v>
+      </c>
+      <c r="G331" t="s">
+        <v>79</v>
+      </c>
+      <c r="H331" t="s">
+        <v>75</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>2</v>
+      </c>
+      <c r="K331">
+        <v>2</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
+        <v>3</v>
+      </c>
+      <c r="O331" t="s">
+        <v>193</v>
+      </c>
+      <c r="P331" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q331">
+        <v>3.6</v>
+      </c>
+      <c r="R331">
+        <v>2.25</v>
+      </c>
+      <c r="S331">
+        <v>2.88</v>
+      </c>
+      <c r="T331">
+        <v>1.36</v>
+      </c>
+      <c r="U331">
+        <v>3</v>
+      </c>
+      <c r="V331">
+        <v>2.63</v>
+      </c>
+      <c r="W331">
+        <v>1.44</v>
+      </c>
+      <c r="X331">
+        <v>7</v>
+      </c>
+      <c r="Y331">
+        <v>1.1</v>
+      </c>
+      <c r="Z331">
+        <v>3</v>
+      </c>
+      <c r="AA331">
+        <v>3.4</v>
+      </c>
+      <c r="AB331">
+        <v>2.2</v>
+      </c>
+      <c r="AC331">
+        <v>1.05</v>
+      </c>
+      <c r="AD331">
+        <v>9.5</v>
+      </c>
+      <c r="AE331">
+        <v>1.25</v>
+      </c>
+      <c r="AF331">
+        <v>3.75</v>
+      </c>
+      <c r="AG331">
+        <v>1.75</v>
+      </c>
+      <c r="AH331">
+        <v>1.93</v>
+      </c>
+      <c r="AI331">
+        <v>1.67</v>
+      </c>
+      <c r="AJ331">
+        <v>2.1</v>
+      </c>
+      <c r="AK331">
+        <v>1.63</v>
+      </c>
+      <c r="AL331">
+        <v>1.29</v>
+      </c>
+      <c r="AM331">
+        <v>1.36</v>
+      </c>
+      <c r="AN331">
+        <v>1.88</v>
+      </c>
+      <c r="AO331">
+        <v>0.76</v>
+      </c>
+      <c r="AP331">
+        <v>1.78</v>
+      </c>
+      <c r="AQ331">
+        <v>0.89</v>
+      </c>
+      <c r="AR331">
+        <v>1.44</v>
+      </c>
+      <c r="AS331">
+        <v>1.15</v>
+      </c>
+      <c r="AT331">
+        <v>2.59</v>
+      </c>
+      <c r="AU331">
+        <v>6</v>
+      </c>
+      <c r="AV331">
+        <v>5</v>
+      </c>
+      <c r="AW331">
+        <v>9</v>
+      </c>
+      <c r="AX331">
+        <v>5</v>
+      </c>
+      <c r="AY331">
+        <v>16</v>
+      </c>
+      <c r="AZ331">
+        <v>10</v>
+      </c>
+      <c r="BA331">
+        <v>6</v>
+      </c>
+      <c r="BB331">
+        <v>2</v>
+      </c>
+      <c r="BC331">
+        <v>8</v>
+      </c>
+      <c r="BD331">
+        <v>2.23</v>
+      </c>
+      <c r="BE331">
+        <v>6.5</v>
+      </c>
+      <c r="BF331">
+        <v>1.78</v>
+      </c>
+      <c r="BG331">
+        <v>1.3</v>
+      </c>
+      <c r="BH331">
+        <v>3.15</v>
+      </c>
+      <c r="BI331">
+        <v>1.53</v>
+      </c>
+      <c r="BJ331">
+        <v>2.32</v>
+      </c>
+      <c r="BK331">
+        <v>1.85</v>
+      </c>
+      <c r="BL331">
+        <v>1.83</v>
+      </c>
+      <c r="BM331">
+        <v>2.33</v>
+      </c>
+      <c r="BN331">
+        <v>1.52</v>
+      </c>
+      <c r="BO331">
+        <v>2.95</v>
+      </c>
+      <c r="BP331">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="332" spans="1:68">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>7516616</v>
+      </c>
+      <c r="C332" t="s">
+        <v>68</v>
+      </c>
+      <c r="D332" t="s">
+        <v>69</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45802.54166666666</v>
+      </c>
+      <c r="F332">
+        <v>37</v>
+      </c>
+      <c r="G332" t="s">
+        <v>80</v>
+      </c>
+      <c r="H332" t="s">
+        <v>78</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+      <c r="K332">
+        <v>1</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332">
+        <v>1</v>
+      </c>
+      <c r="N332">
+        <v>2</v>
+      </c>
+      <c r="O332" t="s">
+        <v>295</v>
+      </c>
+      <c r="P332" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q332">
+        <v>4.33</v>
+      </c>
+      <c r="R332">
+        <v>2.2</v>
+      </c>
+      <c r="S332">
+        <v>2.6</v>
+      </c>
+      <c r="T332">
+        <v>1.36</v>
+      </c>
+      <c r="U332">
+        <v>3</v>
+      </c>
+      <c r="V332">
+        <v>2.75</v>
+      </c>
+      <c r="W332">
+        <v>1.4</v>
+      </c>
+      <c r="X332">
+        <v>7</v>
+      </c>
+      <c r="Y332">
+        <v>1.1</v>
+      </c>
+      <c r="Z332">
+        <v>3.5</v>
+      </c>
+      <c r="AA332">
+        <v>3.6</v>
+      </c>
+      <c r="AB332">
+        <v>2</v>
+      </c>
+      <c r="AC332">
+        <v>1.05</v>
+      </c>
+      <c r="AD332">
+        <v>9.5</v>
+      </c>
+      <c r="AE332">
+        <v>1.28</v>
+      </c>
+      <c r="AF332">
+        <v>3.55</v>
+      </c>
+      <c r="AG332">
+        <v>1.8</v>
+      </c>
+      <c r="AH332">
+        <v>1.91</v>
+      </c>
+      <c r="AI332">
+        <v>1.8</v>
+      </c>
+      <c r="AJ332">
+        <v>1.91</v>
+      </c>
+      <c r="AK332">
+        <v>1.77</v>
+      </c>
+      <c r="AL332">
+        <v>1.28</v>
+      </c>
+      <c r="AM332">
+        <v>1.29</v>
+      </c>
+      <c r="AN332">
+        <v>1.65</v>
+      </c>
+      <c r="AO332">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP332">
+        <v>1.61</v>
+      </c>
+      <c r="AQ332">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR332">
+        <v>1.52</v>
+      </c>
+      <c r="AS332">
+        <v>1.13</v>
+      </c>
+      <c r="AT332">
+        <v>2.65</v>
+      </c>
+      <c r="AU332">
+        <v>6</v>
+      </c>
+      <c r="AV332">
+        <v>6</v>
+      </c>
+      <c r="AW332">
+        <v>5</v>
+      </c>
+      <c r="AX332">
+        <v>11</v>
+      </c>
+      <c r="AY332">
+        <v>11</v>
+      </c>
+      <c r="AZ332">
+        <v>19</v>
+      </c>
+      <c r="BA332">
+        <v>8</v>
+      </c>
+      <c r="BB332">
+        <v>6</v>
+      </c>
+      <c r="BC332">
+        <v>14</v>
+      </c>
+      <c r="BD332">
+        <v>2.18</v>
+      </c>
+      <c r="BE332">
+        <v>6.4</v>
+      </c>
+      <c r="BF332">
+        <v>1.82</v>
+      </c>
+      <c r="BG332">
+        <v>1.33</v>
+      </c>
+      <c r="BH332">
+        <v>2.95</v>
+      </c>
+      <c r="BI332">
+        <v>1.57</v>
+      </c>
+      <c r="BJ332">
+        <v>2.23</v>
+      </c>
+      <c r="BK332">
+        <v>1.92</v>
+      </c>
+      <c r="BL332">
+        <v>1.77</v>
+      </c>
+      <c r="BM332">
+        <v>2.4</v>
+      </c>
+      <c r="BN332">
+        <v>1.49</v>
+      </c>
+      <c r="BO332">
+        <v>3.15</v>
+      </c>
+      <c r="BP332">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:68">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>7516618</v>
+      </c>
+      <c r="C333" t="s">
+        <v>68</v>
+      </c>
+      <c r="D333" t="s">
+        <v>69</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45802.54166666666</v>
+      </c>
+      <c r="F333">
+        <v>37</v>
+      </c>
+      <c r="G333" t="s">
+        <v>88</v>
+      </c>
+      <c r="H333" t="s">
+        <v>76</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>1</v>
+      </c>
+      <c r="L333">
+        <v>2</v>
+      </c>
+      <c r="M333">
+        <v>2</v>
+      </c>
+      <c r="N333">
+        <v>4</v>
+      </c>
+      <c r="O333" t="s">
+        <v>314</v>
+      </c>
+      <c r="P333" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q333">
+        <v>2.88</v>
+      </c>
+      <c r="R333">
+        <v>2.3</v>
+      </c>
+      <c r="S333">
+        <v>3.4</v>
+      </c>
+      <c r="T333">
+        <v>1.3</v>
+      </c>
+      <c r="U333">
+        <v>3.4</v>
+      </c>
+      <c r="V333">
+        <v>2.5</v>
+      </c>
+      <c r="W333">
+        <v>1.5</v>
+      </c>
+      <c r="X333">
+        <v>6</v>
+      </c>
+      <c r="Y333">
+        <v>1.13</v>
+      </c>
+      <c r="Z333">
+        <v>2.25</v>
+      </c>
+      <c r="AA333">
+        <v>3.5</v>
+      </c>
+      <c r="AB333">
+        <v>2.9</v>
+      </c>
+      <c r="AC333">
+        <v>1.04</v>
+      </c>
+      <c r="AD333">
+        <v>10</v>
+      </c>
+      <c r="AE333">
+        <v>1.22</v>
+      </c>
+      <c r="AF333">
+        <v>4.2</v>
+      </c>
+      <c r="AG333">
+        <v>1.66</v>
+      </c>
+      <c r="AH333">
+        <v>2.05</v>
+      </c>
+      <c r="AI333">
+        <v>1.57</v>
+      </c>
+      <c r="AJ333">
+        <v>2.25</v>
+      </c>
+      <c r="AK333">
+        <v>1.38</v>
+      </c>
+      <c r="AL333">
+        <v>1.29</v>
+      </c>
+      <c r="AM333">
+        <v>1.6</v>
+      </c>
+      <c r="AN333">
+        <v>2</v>
+      </c>
+      <c r="AO333">
+        <v>1.65</v>
+      </c>
+      <c r="AP333">
+        <v>1.94</v>
+      </c>
+      <c r="AQ333">
+        <v>1.61</v>
+      </c>
+      <c r="AR333">
+        <v>1.71</v>
+      </c>
+      <c r="AS333">
+        <v>1.19</v>
+      </c>
+      <c r="AT333">
+        <v>2.9</v>
+      </c>
+      <c r="AU333">
+        <v>7</v>
+      </c>
+      <c r="AV333">
+        <v>4</v>
+      </c>
+      <c r="AW333">
+        <v>16</v>
+      </c>
+      <c r="AX333">
+        <v>4</v>
+      </c>
+      <c r="AY333">
+        <v>27</v>
+      </c>
+      <c r="AZ333">
+        <v>10</v>
+      </c>
+      <c r="BA333">
+        <v>11</v>
+      </c>
+      <c r="BB333">
+        <v>2</v>
+      </c>
+      <c r="BC333">
+        <v>13</v>
+      </c>
+      <c r="BD333">
+        <v>1.73</v>
+      </c>
+      <c r="BE333">
+        <v>6.75</v>
+      </c>
+      <c r="BF333">
+        <v>2.32</v>
+      </c>
+      <c r="BG333">
+        <v>1.25</v>
+      </c>
+      <c r="BH333">
+        <v>3.45</v>
+      </c>
+      <c r="BI333">
+        <v>1.44</v>
+      </c>
+      <c r="BJ333">
+        <v>2.55</v>
+      </c>
+      <c r="BK333">
+        <v>1.7</v>
+      </c>
+      <c r="BL333">
+        <v>2</v>
+      </c>
+      <c r="BM333">
+        <v>2.08</v>
+      </c>
+      <c r="BN333">
+        <v>1.65</v>
+      </c>
+      <c r="BO333">
+        <v>2.65</v>
+      </c>
+      <c r="BP333">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="334" spans="1:68">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>7516615</v>
+      </c>
+      <c r="C334" t="s">
+        <v>68</v>
+      </c>
+      <c r="D334" t="s">
+        <v>69</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F334">
+        <v>37</v>
+      </c>
+      <c r="G334" t="s">
+        <v>87</v>
+      </c>
+      <c r="H334" t="s">
+        <v>73</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334">
+        <v>2</v>
+      </c>
+      <c r="L334">
+        <v>4</v>
+      </c>
+      <c r="M334">
+        <v>2</v>
+      </c>
+      <c r="N334">
+        <v>6</v>
+      </c>
+      <c r="O334" t="s">
+        <v>315</v>
+      </c>
+      <c r="P334" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q334">
+        <v>7.5</v>
+      </c>
+      <c r="R334">
+        <v>3.25</v>
+      </c>
+      <c r="S334">
+        <v>1.57</v>
+      </c>
+      <c r="T334">
+        <v>1.14</v>
+      </c>
+      <c r="U334">
+        <v>5.5</v>
+      </c>
+      <c r="V334">
+        <v>1.67</v>
+      </c>
+      <c r="W334">
+        <v>2.1</v>
+      </c>
+      <c r="X334">
+        <v>3.25</v>
+      </c>
+      <c r="Y334">
+        <v>1.33</v>
+      </c>
+      <c r="Z334">
+        <v>9.59</v>
+      </c>
+      <c r="AA334">
+        <v>7.03</v>
+      </c>
+      <c r="AB334">
+        <v>1.2</v>
+      </c>
+      <c r="AC334">
+        <v>1.01</v>
+      </c>
+      <c r="AD334">
+        <v>29</v>
+      </c>
+      <c r="AE334">
+        <v>1.06</v>
+      </c>
+      <c r="AF334">
+        <v>8.5</v>
+      </c>
+      <c r="AG334">
+        <v>1.22</v>
+      </c>
+      <c r="AH334">
+        <v>4.2</v>
+      </c>
+      <c r="AI334">
+        <v>1.53</v>
+      </c>
+      <c r="AJ334">
+        <v>2.38</v>
+      </c>
+      <c r="AK334">
+        <v>3.8</v>
+      </c>
+      <c r="AL334">
+        <v>1.11</v>
+      </c>
+      <c r="AM334">
+        <v>1.07</v>
+      </c>
+      <c r="AN334">
+        <v>0.82</v>
+      </c>
+      <c r="AO334">
+        <v>2.35</v>
+      </c>
+      <c r="AP334">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ334">
+        <v>2.22</v>
+      </c>
+      <c r="AR334">
+        <v>1.3</v>
+      </c>
+      <c r="AS334">
+        <v>1.66</v>
+      </c>
+      <c r="AT334">
+        <v>2.96</v>
+      </c>
+      <c r="AU334">
+        <v>10</v>
+      </c>
+      <c r="AV334">
+        <v>8</v>
+      </c>
+      <c r="AW334">
+        <v>6</v>
+      </c>
+      <c r="AX334">
+        <v>14</v>
+      </c>
+      <c r="AY334">
+        <v>17</v>
+      </c>
+      <c r="AZ334">
+        <v>25</v>
+      </c>
+      <c r="BA334">
+        <v>2</v>
+      </c>
+      <c r="BB334">
+        <v>8</v>
+      </c>
+      <c r="BC334">
+        <v>10</v>
+      </c>
+      <c r="BD334">
+        <v>6.5</v>
+      </c>
+      <c r="BE334">
+        <v>9.25</v>
+      </c>
+      <c r="BF334">
+        <v>1.18</v>
+      </c>
+      <c r="BG334">
+        <v>1.19</v>
+      </c>
+      <c r="BH334">
+        <v>4</v>
+      </c>
+      <c r="BI334">
+        <v>1.37</v>
+      </c>
+      <c r="BJ334">
+        <v>2.75</v>
+      </c>
+      <c r="BK334">
+        <v>1.65</v>
+      </c>
+      <c r="BL334">
+        <v>2.05</v>
+      </c>
+      <c r="BM334">
+        <v>2.1</v>
+      </c>
+      <c r="BN334">
+        <v>1.61</v>
+      </c>
+      <c r="BO334">
+        <v>2.8</v>
+      </c>
+      <c r="BP334">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -778,10 +778,10 @@
     <t>['52', '78', '90+4']</t>
   </si>
   <si>
-    <t>['9']</t>
+    <t>['45+5', '51']</t>
   </si>
   <si>
-    <t>['45+5', '51']</t>
+    <t>['9']</t>
   </si>
   <si>
     <t>['44', '67', '72']</t>
@@ -796,10 +796,10 @@
     <t>['48', '66', '77']</t>
   </si>
   <si>
-    <t>['5', '11', '62']</t>
+    <t>['15', '76']</t>
   </si>
   <si>
-    <t>['15', '76']</t>
+    <t>['5', '11', '62']</t>
   </si>
   <si>
     <t>['30', '45', '45+3', '52']</t>
@@ -862,10 +862,10 @@
     <t>['10', '21', '30', '50', '78', '87']</t>
   </si>
   <si>
-    <t>['28', '32']</t>
+    <t>['29', '81']</t>
   </si>
   <si>
-    <t>['29', '81']</t>
+    <t>['28', '32']</t>
   </si>
   <si>
     <t>['6', '34', '90+9']</t>
@@ -889,10 +889,10 @@
     <t>['13']</t>
   </si>
   <si>
-    <t>['7', '17', '38', '45+5']</t>
+    <t>['69', '78', '90+4']</t>
   </si>
   <si>
-    <t>['69', '78', '90+4']</t>
+    <t>['7', '17', '38', '45+5']</t>
   </si>
   <si>
     <t>['43']</t>
@@ -910,10 +910,10 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['4', '56']</t>
+    <t>['9', '15', '21', '31']</t>
   </si>
   <si>
-    <t>['9', '15', '21', '31']</t>
+    <t>['4', '56']</t>
   </si>
   <si>
     <t>['4', '61', '90+5']</t>
@@ -931,19 +931,19 @@
     <t>['12', '29', '63']</t>
   </si>
   <si>
-    <t>['26', '29', '89']</t>
+    <t>['32', '84']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['22', '60']</t>
   </si>
   <si>
     <t>['11', '32', '50', '62', '85', '87']</t>
   </si>
   <si>
-    <t>['22', '60']</t>
-  </si>
-  <si>
-    <t>['40']</t>
-  </si>
-  <si>
-    <t>['32', '84']</t>
+    <t>['26', '29', '89']</t>
   </si>
   <si>
     <t>['40', '42']</t>
@@ -952,13 +952,13 @@
     <t>['24', '45+5']</t>
   </si>
   <si>
-    <t>['20', '35']</t>
-  </si>
-  <si>
     <t>['64']</t>
   </si>
   <si>
     <t>['86', '88']</t>
+  </si>
+  <si>
+    <t>['20', '35']</t>
   </si>
   <si>
     <t>['44', '53', '63', '66']</t>
@@ -1240,10 +1240,10 @@
     <t>['22', '42']</t>
   </si>
   <si>
-    <t>['90+2']</t>
+    <t>['2']</t>
   </si>
   <si>
-    <t>['2']</t>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['47', '86']</t>
@@ -1357,10 +1357,10 @@
     <t>['10', '26', '38', '56', '61']</t>
   </si>
   <si>
-    <t>['26', '45+2', '77']</t>
+    <t>['13', '55', '81']</t>
   </si>
   <si>
-    <t>['13', '55', '81']</t>
+    <t>['26', '45+2', '77']</t>
   </si>
   <si>
     <t>['70', '90+1']</t>
@@ -1369,13 +1369,13 @@
     <t>['51', '68']</t>
   </si>
   <si>
-    <t>['32', '65', '90+4']</t>
-  </si>
-  <si>
     <t>['61', '90+1']</t>
   </si>
   <si>
     <t>['38', '40']</t>
+  </si>
+  <si>
+    <t>['32', '65', '90+4']</t>
   </si>
   <si>
     <t>['27', '90+4']</t>
@@ -3029,7 +3029,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -12505,7 +12505,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -19303,7 +19303,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -20539,7 +20539,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -23217,7 +23217,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -40067,7 +40067,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7516478</v>
+        <v>7516472</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -40082,190 +40082,190 @@
         <v>21</v>
       </c>
       <c r="G187" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H187" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M187">
         <v>1</v>
       </c>
       <c r="N187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O187" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="P187" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="Q187">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R187">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S187">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="T187">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="U187">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="V187">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="W187">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="X187">
+        <v>6</v>
+      </c>
+      <c r="Y187">
+        <v>1.16</v>
+      </c>
+      <c r="Z187">
+        <v>3.83</v>
+      </c>
+      <c r="AA187">
+        <v>3.83</v>
+      </c>
+      <c r="AB187">
+        <v>1.84</v>
+      </c>
+      <c r="AC187">
+        <v>1.04</v>
+      </c>
+      <c r="AD187">
+        <v>15</v>
+      </c>
+      <c r="AE187">
+        <v>1.19</v>
+      </c>
+      <c r="AF187">
+        <v>4.5</v>
+      </c>
+      <c r="AG187">
+        <v>1.61</v>
+      </c>
+      <c r="AH187">
+        <v>2.26</v>
+      </c>
+      <c r="AI187">
+        <v>1.57</v>
+      </c>
+      <c r="AJ187">
+        <v>2.35</v>
+      </c>
+      <c r="AK187">
+        <v>2</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.3</v>
+      </c>
+      <c r="AN187">
+        <v>1.78</v>
+      </c>
+      <c r="AO187">
+        <v>1.22</v>
+      </c>
+      <c r="AP187">
+        <v>2</v>
+      </c>
+      <c r="AQ187">
+        <v>1.41</v>
+      </c>
+      <c r="AR187">
+        <v>1.45</v>
+      </c>
+      <c r="AS187">
+        <v>1.36</v>
+      </c>
+      <c r="AT187">
+        <v>2.81</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>3</v>
+      </c>
+      <c r="AX187">
+        <v>5</v>
+      </c>
+      <c r="AY187">
         <v>9</v>
       </c>
-      <c r="Y187">
-        <v>1.09</v>
-      </c>
-      <c r="Z187">
-        <v>2.69</v>
-      </c>
-      <c r="AA187">
-        <v>3.26</v>
-      </c>
-      <c r="AB187">
-        <v>2.6</v>
-      </c>
-      <c r="AC187">
-        <v>1.05</v>
-      </c>
-      <c r="AD187">
-        <v>9</v>
-      </c>
-      <c r="AE187">
-        <v>1.32</v>
-      </c>
-      <c r="AF187">
-        <v>3.25</v>
-      </c>
-      <c r="AG187">
-        <v>1.99</v>
-      </c>
-      <c r="AH187">
-        <v>1.78</v>
-      </c>
-      <c r="AI187">
-        <v>1.78</v>
-      </c>
-      <c r="AJ187">
-        <v>2</v>
-      </c>
-      <c r="AK187">
-        <v>1.52</v>
-      </c>
-      <c r="AL187">
-        <v>1.36</v>
-      </c>
-      <c r="AM187">
-        <v>1.5</v>
-      </c>
-      <c r="AN187">
-        <v>1.22</v>
-      </c>
-      <c r="AO187">
-        <v>1.3</v>
-      </c>
-      <c r="AP187">
-        <v>1.18</v>
-      </c>
-      <c r="AQ187">
-        <v>1.11</v>
-      </c>
-      <c r="AR187">
-        <v>1.3</v>
-      </c>
-      <c r="AS187">
-        <v>1.11</v>
-      </c>
-      <c r="AT187">
-        <v>2.41</v>
-      </c>
-      <c r="AU187">
-        <v>3</v>
-      </c>
-      <c r="AV187">
+      <c r="AZ187">
+        <v>12</v>
+      </c>
+      <c r="BA187">
+        <v>1</v>
+      </c>
+      <c r="BB187">
         <v>5</v>
       </c>
-      <c r="AW187">
-        <v>15</v>
-      </c>
-      <c r="AX187">
-        <v>4</v>
-      </c>
-      <c r="AY187">
-        <v>20</v>
-      </c>
-      <c r="AZ187">
-        <v>10</v>
-      </c>
-      <c r="BA187">
-        <v>7</v>
-      </c>
-      <c r="BB187">
-        <v>2</v>
-      </c>
       <c r="BC187">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD187">
-        <v>1.79</v>
+        <v>2.33</v>
       </c>
       <c r="BE187">
         <v>6.4</v>
       </c>
       <c r="BF187">
-        <v>2.23</v>
+        <v>1.74</v>
       </c>
       <c r="BG187">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="BH187">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BI187">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BJ187">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="BK187">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="BL187">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BM187">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="BN187">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="BO187">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="BP187">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -40273,7 +40273,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7516472</v>
+        <v>7516478</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -40288,190 +40288,190 @@
         <v>21</v>
       </c>
       <c r="G188" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H188" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M188">
         <v>1</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O188" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="P188" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="Q188">
+        <v>3.4</v>
+      </c>
+      <c r="R188">
+        <v>2.1</v>
+      </c>
+      <c r="S188">
+        <v>3.3</v>
+      </c>
+      <c r="T188">
+        <v>1.47</v>
+      </c>
+      <c r="U188">
+        <v>2.85</v>
+      </c>
+      <c r="V188">
+        <v>3.2</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>9</v>
+      </c>
+      <c r="Y188">
+        <v>1.09</v>
+      </c>
+      <c r="Z188">
+        <v>2.69</v>
+      </c>
+      <c r="AA188">
+        <v>3.26</v>
+      </c>
+      <c r="AB188">
+        <v>2.6</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>9</v>
+      </c>
+      <c r="AE188">
+        <v>1.32</v>
+      </c>
+      <c r="AF188">
+        <v>3.25</v>
+      </c>
+      <c r="AG188">
+        <v>1.99</v>
+      </c>
+      <c r="AH188">
+        <v>1.78</v>
+      </c>
+      <c r="AI188">
+        <v>1.78</v>
+      </c>
+      <c r="AJ188">
+        <v>2</v>
+      </c>
+      <c r="AK188">
+        <v>1.52</v>
+      </c>
+      <c r="AL188">
+        <v>1.36</v>
+      </c>
+      <c r="AM188">
+        <v>1.5</v>
+      </c>
+      <c r="AN188">
+        <v>1.22</v>
+      </c>
+      <c r="AO188">
+        <v>1.3</v>
+      </c>
+      <c r="AP188">
+        <v>1.18</v>
+      </c>
+      <c r="AQ188">
+        <v>1.11</v>
+      </c>
+      <c r="AR188">
+        <v>1.3</v>
+      </c>
+      <c r="AS188">
+        <v>1.11</v>
+      </c>
+      <c r="AT188">
+        <v>2.41</v>
+      </c>
+      <c r="AU188">
+        <v>3</v>
+      </c>
+      <c r="AV188">
+        <v>5</v>
+      </c>
+      <c r="AW188">
+        <v>15</v>
+      </c>
+      <c r="AX188">
         <v>4</v>
       </c>
-      <c r="R188">
-        <v>2.4</v>
-      </c>
-      <c r="S188">
-        <v>2.45</v>
-      </c>
-      <c r="T188">
-        <v>1.33</v>
-      </c>
-      <c r="U188">
-        <v>3.6</v>
-      </c>
-      <c r="V188">
-        <v>2.5</v>
-      </c>
-      <c r="W188">
-        <v>1.6</v>
-      </c>
-      <c r="X188">
-        <v>6</v>
-      </c>
-      <c r="Y188">
-        <v>1.16</v>
-      </c>
-      <c r="Z188">
-        <v>3.83</v>
-      </c>
-      <c r="AA188">
-        <v>3.83</v>
-      </c>
-      <c r="AB188">
-        <v>1.84</v>
-      </c>
-      <c r="AC188">
-        <v>1.04</v>
-      </c>
-      <c r="AD188">
-        <v>15</v>
-      </c>
-      <c r="AE188">
-        <v>1.19</v>
-      </c>
-      <c r="AF188">
-        <v>4.5</v>
-      </c>
-      <c r="AG188">
-        <v>1.61</v>
-      </c>
-      <c r="AH188">
-        <v>2.26</v>
-      </c>
-      <c r="AI188">
-        <v>1.57</v>
-      </c>
-      <c r="AJ188">
-        <v>2.35</v>
-      </c>
-      <c r="AK188">
-        <v>2</v>
-      </c>
-      <c r="AL188">
-        <v>1.28</v>
-      </c>
-      <c r="AM188">
-        <v>1.3</v>
-      </c>
-      <c r="AN188">
-        <v>1.78</v>
-      </c>
-      <c r="AO188">
-        <v>1.22</v>
-      </c>
-      <c r="AP188">
-        <v>2</v>
-      </c>
-      <c r="AQ188">
-        <v>1.41</v>
-      </c>
-      <c r="AR188">
-        <v>1.45</v>
-      </c>
-      <c r="AS188">
-        <v>1.36</v>
-      </c>
-      <c r="AT188">
-        <v>2.81</v>
-      </c>
-      <c r="AU188">
-        <v>5</v>
-      </c>
-      <c r="AV188">
-        <v>4</v>
-      </c>
-      <c r="AW188">
-        <v>3</v>
-      </c>
-      <c r="AX188">
-        <v>5</v>
-      </c>
       <c r="AY188">
+        <v>20</v>
+      </c>
+      <c r="AZ188">
+        <v>10</v>
+      </c>
+      <c r="BA188">
+        <v>7</v>
+      </c>
+      <c r="BB188">
+        <v>2</v>
+      </c>
+      <c r="BC188">
         <v>9</v>
       </c>
-      <c r="AZ188">
-        <v>12</v>
-      </c>
-      <c r="BA188">
-        <v>1</v>
-      </c>
-      <c r="BB188">
-        <v>5</v>
-      </c>
-      <c r="BC188">
-        <v>6</v>
-      </c>
       <c r="BD188">
-        <v>2.33</v>
+        <v>1.79</v>
       </c>
       <c r="BE188">
         <v>6.4</v>
       </c>
       <c r="BF188">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="BG188">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="BH188">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BI188">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BJ188">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="BK188">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="BL188">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="BM188">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="BN188">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="BO188">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BP188">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -45629,7 +45629,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7516498</v>
+        <v>7516501</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45644,190 +45644,190 @@
         <v>24</v>
       </c>
       <c r="G214" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H214" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M214">
         <v>1</v>
       </c>
       <c r="N214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O214" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="P214" t="s">
         <v>408</v>
       </c>
       <c r="Q214">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="R214">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T214">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="U214">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="V214">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="W214">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="X214">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y214">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="Z214">
-        <v>1.66</v>
+        <v>2.55</v>
       </c>
       <c r="AA214">
-        <v>3.99</v>
+        <v>3.26</v>
       </c>
       <c r="AB214">
-        <v>4.72</v>
+        <v>2.74</v>
       </c>
       <c r="AC214">
         <v>1.05</v>
       </c>
       <c r="AD214">
-        <v>13</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE214">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AF214">
-        <v>4.12</v>
+        <v>3.25</v>
       </c>
       <c r="AG214">
-        <v>1.72</v>
+        <v>2.03</v>
       </c>
       <c r="AH214">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="AI214">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AJ214">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AK214">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="AL214">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AM214">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AN214">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="AO214">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AQ214">
-        <v>0.9399999999999999</v>
+        <v>1.61</v>
       </c>
       <c r="AR214">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AS214">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AT214">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AU214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV214">
         <v>6</v>
       </c>
       <c r="AW214">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX214">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY214">
+        <v>13</v>
+      </c>
+      <c r="AZ214">
+        <v>13</v>
+      </c>
+      <c r="BA214">
         <v>7</v>
       </c>
-      <c r="AZ214">
-        <v>15</v>
-      </c>
-      <c r="BA214">
-        <v>4</v>
-      </c>
       <c r="BB214">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC214">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD214">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="BE214">
-        <v>5.85</v>
+        <v>6.25</v>
       </c>
       <c r="BF214">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="BG214">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="BH214">
-        <v>3.65</v>
+        <v>2.65</v>
       </c>
       <c r="BI214">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="BJ214">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="BK214">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="BL214">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="BM214">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BN214">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BO214">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="BP214">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="215" spans="1:68">
@@ -45835,7 +45835,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7516501</v>
+        <v>7516498</v>
       </c>
       <c r="C215" t="s">
         <v>68</v>
@@ -45850,190 +45850,190 @@
         <v>24</v>
       </c>
       <c r="G215" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H215" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M215">
         <v>1</v>
       </c>
       <c r="N215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O215" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="P215" t="s">
         <v>409</v>
       </c>
       <c r="Q215">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="R215">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S215">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T215">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="U215">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="V215">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="W215">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X215">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y215">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Z215">
-        <v>2.55</v>
+        <v>1.66</v>
       </c>
       <c r="AA215">
-        <v>3.26</v>
+        <v>3.99</v>
       </c>
       <c r="AB215">
-        <v>2.74</v>
+        <v>4.72</v>
       </c>
       <c r="AC215">
         <v>1.05</v>
       </c>
       <c r="AD215">
-        <v>8.699999999999999</v>
+        <v>13</v>
       </c>
       <c r="AE215">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AF215">
-        <v>3.25</v>
+        <v>4.12</v>
       </c>
       <c r="AG215">
-        <v>2.03</v>
+        <v>1.72</v>
       </c>
       <c r="AH215">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="AI215">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AJ215">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AK215">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="AL215">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AM215">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AN215">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AO215">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="AP215">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AQ215">
-        <v>1.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR215">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AS215">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AT215">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="AU215">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV215">
         <v>6</v>
       </c>
       <c r="AW215">
+        <v>4</v>
+      </c>
+      <c r="AX215">
+        <v>8</v>
+      </c>
+      <c r="AY215">
+        <v>7</v>
+      </c>
+      <c r="AZ215">
+        <v>15</v>
+      </c>
+      <c r="BA215">
+        <v>4</v>
+      </c>
+      <c r="BB215">
         <v>6</v>
       </c>
-      <c r="AX215">
-        <v>5</v>
-      </c>
-      <c r="AY215">
-        <v>13</v>
-      </c>
-      <c r="AZ215">
-        <v>13</v>
-      </c>
-      <c r="BA215">
-        <v>7</v>
-      </c>
-      <c r="BB215">
-        <v>5</v>
-      </c>
       <c r="BC215">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD215">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="BE215">
-        <v>6.25</v>
+        <v>5.85</v>
       </c>
       <c r="BF215">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="BG215">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="BH215">
-        <v>2.65</v>
+        <v>3.65</v>
       </c>
       <c r="BI215">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="BJ215">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="BK215">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="BL215">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="BM215">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="BN215">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="BO215">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="BP215">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="216" spans="1:68">
@@ -49749,7 +49749,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7516519</v>
+        <v>7516515</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49764,10 +49764,10 @@
         <v>26</v>
       </c>
       <c r="G234" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H234" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -49779,175 +49779,175 @@
         <v>1</v>
       </c>
       <c r="L234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O234" t="s">
         <v>254</v>
       </c>
       <c r="P234" t="s">
-        <v>91</v>
+        <v>416</v>
       </c>
       <c r="Q234">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="R234">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T234">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="U234">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="V234">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W234">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X234">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y234">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z234">
-        <v>1.67</v>
+        <v>2.03</v>
       </c>
       <c r="AA234">
-        <v>3.76</v>
+        <v>3.31</v>
       </c>
       <c r="AB234">
-        <v>4.91</v>
+        <v>3.75</v>
       </c>
       <c r="AC234">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD234">
-        <v>10.65</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE234">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AF234">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="AG234">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="AH234">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AI234">
+        <v>1.9</v>
+      </c>
+      <c r="AJ234">
         <v>1.87</v>
       </c>
-      <c r="AJ234">
-        <v>1.9</v>
-      </c>
       <c r="AK234">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL234">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AM234">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AN234">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="AO234">
-        <v>0.64</v>
+        <v>1.92</v>
       </c>
       <c r="AP234">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ234">
-        <v>0.47</v>
+        <v>1.61</v>
       </c>
       <c r="AR234">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="AS234">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AT234">
-        <v>2.62</v>
+        <v>3.11</v>
       </c>
       <c r="AU234">
         <v>3</v>
       </c>
       <c r="AV234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW234">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX234">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY234">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ234">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA234">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB234">
         <v>2</v>
       </c>
       <c r="BC234">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BD234">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="BE234">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF234">
+        <v>2.33</v>
+      </c>
+      <c r="BG234">
+        <v>1.41</v>
+      </c>
+      <c r="BH234">
+        <v>2.63</v>
+      </c>
+      <c r="BI234">
+        <v>1.72</v>
+      </c>
+      <c r="BJ234">
+        <v>1.98</v>
+      </c>
+      <c r="BK234">
+        <v>2.15</v>
+      </c>
+      <c r="BL234">
+        <v>1.61</v>
+      </c>
+      <c r="BM234">
         <v>2.8</v>
       </c>
-      <c r="BG234">
+      <c r="BN234">
         <v>1.36</v>
       </c>
-      <c r="BH234">
-        <v>2.8</v>
-      </c>
-      <c r="BI234">
-        <v>1.61</v>
-      </c>
-      <c r="BJ234">
-        <v>2.15</v>
-      </c>
-      <c r="BK234">
-        <v>1.98</v>
-      </c>
-      <c r="BL234">
-        <v>1.72</v>
-      </c>
-      <c r="BM234">
-        <v>2.55</v>
-      </c>
-      <c r="BN234">
-        <v>1.44</v>
-      </c>
       <c r="BO234">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="BP234">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="235" spans="1:68">
@@ -49955,7 +49955,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>7516515</v>
+        <v>7516519</v>
       </c>
       <c r="C235" t="s">
         <v>68</v>
@@ -49970,10 +49970,10 @@
         <v>26</v>
       </c>
       <c r="G235" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -49985,175 +49985,175 @@
         <v>1</v>
       </c>
       <c r="L235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O235" t="s">
         <v>255</v>
       </c>
       <c r="P235" t="s">
-        <v>416</v>
+        <v>91</v>
       </c>
       <c r="Q235">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="R235">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S235">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T235">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U235">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="V235">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W235">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X235">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y235">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z235">
-        <v>2.03</v>
+        <v>1.67</v>
       </c>
       <c r="AA235">
-        <v>3.31</v>
+        <v>3.76</v>
       </c>
       <c r="AB235">
-        <v>3.75</v>
+        <v>4.91</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD235">
-        <v>8.699999999999999</v>
+        <v>10.65</v>
       </c>
       <c r="AE235">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AF235">
-        <v>2.96</v>
+        <v>3.44</v>
       </c>
       <c r="AG235">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="AH235">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AI235">
+        <v>1.87</v>
+      </c>
+      <c r="AJ235">
         <v>1.9</v>
       </c>
-      <c r="AJ235">
-        <v>1.87</v>
-      </c>
       <c r="AK235">
+        <v>1.2</v>
+      </c>
+      <c r="AL235">
         <v>1.3</v>
       </c>
-      <c r="AL235">
-        <v>1.36</v>
-      </c>
       <c r="AM235">
+        <v>2.25</v>
+      </c>
+      <c r="AN235">
         <v>1.83</v>
       </c>
-      <c r="AN235">
-        <v>2.55</v>
-      </c>
       <c r="AO235">
-        <v>1.92</v>
+        <v>0.64</v>
       </c>
       <c r="AP235">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ235">
-        <v>1.61</v>
+        <v>0.47</v>
       </c>
       <c r="AR235">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="AS235">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AT235">
-        <v>3.11</v>
+        <v>2.62</v>
       </c>
       <c r="AU235">
         <v>3</v>
       </c>
       <c r="AV235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW235">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX235">
+        <v>8</v>
+      </c>
+      <c r="AY235">
+        <v>11</v>
+      </c>
+      <c r="AZ235">
+        <v>11</v>
+      </c>
+      <c r="BA235">
         <v>6</v>
       </c>
-      <c r="AY235">
-        <v>15</v>
-      </c>
-      <c r="AZ235">
-        <v>10</v>
-      </c>
-      <c r="BA235">
-        <v>1</v>
-      </c>
       <c r="BB235">
         <v>2</v>
       </c>
       <c r="BC235">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD235">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="BE235">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF235">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="BG235">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BH235">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="BI235">
+        <v>1.61</v>
+      </c>
+      <c r="BJ235">
+        <v>2.15</v>
+      </c>
+      <c r="BK235">
+        <v>1.98</v>
+      </c>
+      <c r="BL235">
         <v>1.72</v>
       </c>
-      <c r="BJ235">
-        <v>1.98</v>
-      </c>
-      <c r="BK235">
-        <v>2.15</v>
-      </c>
-      <c r="BL235">
-        <v>1.61</v>
-      </c>
       <c r="BM235">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BN235">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="BO235">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="BP235">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="236" spans="1:68">
@@ -51191,7 +51191,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>7516529</v>
+        <v>7516531</v>
       </c>
       <c r="C241" t="s">
         <v>68</v>
@@ -51206,166 +51206,166 @@
         <v>27</v>
       </c>
       <c r="G241" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H241" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241">
         <v>3</v>
-      </c>
-      <c r="L241">
-        <v>3</v>
-      </c>
-      <c r="M241">
-        <v>2</v>
-      </c>
-      <c r="N241">
-        <v>5</v>
       </c>
       <c r="O241" t="s">
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q241">
-        <v>1.64</v>
+        <v>2.7</v>
       </c>
       <c r="R241">
-        <v>2.87</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>9.029999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="T241">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="U241">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="V241">
-        <v>2.31</v>
+        <v>2.9</v>
       </c>
       <c r="W241">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="X241">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y241">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="Z241">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="AA241">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="AB241">
-        <v>9.5</v>
+        <v>3.45</v>
       </c>
       <c r="AC241">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AD241">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AE241">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AF241">
+        <v>3.1</v>
+      </c>
+      <c r="AG241">
+        <v>2.05</v>
+      </c>
+      <c r="AH241">
+        <v>1.75</v>
+      </c>
+      <c r="AI241">
+        <v>1.8</v>
+      </c>
+      <c r="AJ241">
+        <v>1.87</v>
+      </c>
+      <c r="AK241">
+        <v>1.3</v>
+      </c>
+      <c r="AL241">
+        <v>1.31</v>
+      </c>
+      <c r="AM241">
+        <v>1.68</v>
+      </c>
+      <c r="AN241">
+        <v>2</v>
+      </c>
+      <c r="AO241">
+        <v>0.85</v>
+      </c>
+      <c r="AP241">
+        <v>1.83</v>
+      </c>
+      <c r="AQ241">
+        <v>0.82</v>
+      </c>
+      <c r="AR241">
+        <v>1.48</v>
+      </c>
+      <c r="AS241">
+        <v>1.24</v>
+      </c>
+      <c r="AT241">
+        <v>2.72</v>
+      </c>
+      <c r="AU241">
         <v>5</v>
       </c>
-      <c r="AG241">
-        <v>1.53</v>
-      </c>
-      <c r="AH241">
-        <v>2.4</v>
-      </c>
-      <c r="AI241">
-        <v>2</v>
-      </c>
-      <c r="AJ241">
-        <v>1.73</v>
-      </c>
-      <c r="AK241">
-        <v>1.06</v>
-      </c>
-      <c r="AL241">
-        <v>1.13</v>
-      </c>
-      <c r="AM241">
-        <v>3.6</v>
-      </c>
-      <c r="AN241">
-        <v>1.92</v>
-      </c>
-      <c r="AO241">
-        <v>0.42</v>
-      </c>
-      <c r="AP241">
-        <v>1.88</v>
-      </c>
-      <c r="AQ241">
-        <v>0.44</v>
-      </c>
-      <c r="AR241">
-        <v>1.52</v>
-      </c>
-      <c r="AS241">
-        <v>1.12</v>
-      </c>
-      <c r="AT241">
-        <v>2.64</v>
-      </c>
-      <c r="AU241">
-        <v>11</v>
-      </c>
       <c r="AV241">
+        <v>4</v>
+      </c>
+      <c r="AW241">
+        <v>2</v>
+      </c>
+      <c r="AX241">
+        <v>7</v>
+      </c>
+      <c r="AY241">
+        <v>8</v>
+      </c>
+      <c r="AZ241">
+        <v>13</v>
+      </c>
+      <c r="BA241">
         <v>5</v>
       </c>
-      <c r="AW241">
-        <v>13</v>
-      </c>
-      <c r="AX241">
-        <v>3</v>
-      </c>
-      <c r="AY241">
-        <v>24</v>
-      </c>
-      <c r="AZ241">
-        <v>8</v>
-      </c>
-      <c r="BA241">
-        <v>8</v>
-      </c>
       <c r="BB241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC241">
         <v>10</v>
       </c>
       <c r="BD241">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="BE241">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF241">
-        <v>4.9</v>
+        <v>2.33</v>
       </c>
       <c r="BG241">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BH241">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="BI241">
         <v>1.61</v>
@@ -51374,22 +51374,22 @@
         <v>2.15</v>
       </c>
       <c r="BK241">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BL241">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="BM241">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BN241">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="BO241">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="BP241">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="242" spans="1:68">
@@ -51397,7 +51397,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>7516531</v>
+        <v>7516529</v>
       </c>
       <c r="C242" t="s">
         <v>68</v>
@@ -51412,166 +51412,166 @@
         <v>27</v>
       </c>
       <c r="G242" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H242" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N242">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O242" t="s">
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q242">
-        <v>2.7</v>
+        <v>1.64</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="S242">
-        <v>3.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T242">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="U242">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="V242">
-        <v>2.9</v>
+        <v>2.31</v>
       </c>
       <c r="W242">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="X242">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y242">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="Z242">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="AA242">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="AB242">
-        <v>3.45</v>
+        <v>9.5</v>
       </c>
       <c r="AC242">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD242">
+        <v>17</v>
+      </c>
+      <c r="AE242">
+        <v>1.17</v>
+      </c>
+      <c r="AF242">
+        <v>5</v>
+      </c>
+      <c r="AG242">
+        <v>1.53</v>
+      </c>
+      <c r="AH242">
+        <v>2.4</v>
+      </c>
+      <c r="AI242">
+        <v>2</v>
+      </c>
+      <c r="AJ242">
+        <v>1.73</v>
+      </c>
+      <c r="AK242">
+        <v>1.06</v>
+      </c>
+      <c r="AL242">
+        <v>1.13</v>
+      </c>
+      <c r="AM242">
+        <v>3.6</v>
+      </c>
+      <c r="AN242">
+        <v>1.92</v>
+      </c>
+      <c r="AO242">
+        <v>0.42</v>
+      </c>
+      <c r="AP242">
+        <v>1.88</v>
+      </c>
+      <c r="AQ242">
+        <v>0.44</v>
+      </c>
+      <c r="AR242">
+        <v>1.52</v>
+      </c>
+      <c r="AS242">
+        <v>1.12</v>
+      </c>
+      <c r="AT242">
+        <v>2.64</v>
+      </c>
+      <c r="AU242">
+        <v>11</v>
+      </c>
+      <c r="AV242">
+        <v>5</v>
+      </c>
+      <c r="AW242">
+        <v>13</v>
+      </c>
+      <c r="AX242">
+        <v>3</v>
+      </c>
+      <c r="AY242">
+        <v>24</v>
+      </c>
+      <c r="AZ242">
         <v>8</v>
       </c>
-      <c r="AE242">
-        <v>1.36</v>
-      </c>
-      <c r="AF242">
-        <v>3.1</v>
-      </c>
-      <c r="AG242">
-        <v>2.05</v>
-      </c>
-      <c r="AH242">
-        <v>1.75</v>
-      </c>
-      <c r="AI242">
-        <v>1.8</v>
-      </c>
-      <c r="AJ242">
-        <v>1.87</v>
-      </c>
-      <c r="AK242">
-        <v>1.3</v>
-      </c>
-      <c r="AL242">
-        <v>1.31</v>
-      </c>
-      <c r="AM242">
-        <v>1.68</v>
-      </c>
-      <c r="AN242">
-        <v>2</v>
-      </c>
-      <c r="AO242">
-        <v>0.85</v>
-      </c>
-      <c r="AP242">
-        <v>1.83</v>
-      </c>
-      <c r="AQ242">
-        <v>0.82</v>
-      </c>
-      <c r="AR242">
-        <v>1.48</v>
-      </c>
-      <c r="AS242">
-        <v>1.24</v>
-      </c>
-      <c r="AT242">
-        <v>2.72</v>
-      </c>
-      <c r="AU242">
-        <v>5</v>
-      </c>
-      <c r="AV242">
-        <v>4</v>
-      </c>
-      <c r="AW242">
-        <v>2</v>
-      </c>
-      <c r="AX242">
-        <v>7</v>
-      </c>
-      <c r="AY242">
+      <c r="BA242">
         <v>8</v>
       </c>
-      <c r="AZ242">
-        <v>13</v>
-      </c>
-      <c r="BA242">
-        <v>5</v>
-      </c>
       <c r="BB242">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC242">
         <v>10</v>
       </c>
       <c r="BD242">
-        <v>1.74</v>
+        <v>1.19</v>
       </c>
       <c r="BE242">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF242">
-        <v>2.33</v>
+        <v>4.9</v>
       </c>
       <c r="BG242">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BH242">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="BI242">
         <v>1.61</v>
@@ -51580,22 +51580,22 @@
         <v>2.15</v>
       </c>
       <c r="BK242">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BL242">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="BM242">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BN242">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="BO242">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BP242">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="243" spans="1:68">
@@ -57165,7 +57165,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>7516551</v>
+        <v>7516558</v>
       </c>
       <c r="C270" t="s">
         <v>68</v>
@@ -57180,19 +57180,19 @@
         <v>30</v>
       </c>
       <c r="G270" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H270" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
         <v>0</v>
       </c>
       <c r="K270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L270">
         <v>1</v>
@@ -57204,166 +57204,166 @@
         <v>2</v>
       </c>
       <c r="O270" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="P270" t="s">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="Q270">
+        <v>3.5</v>
+      </c>
+      <c r="R270">
         <v>2.3</v>
       </c>
-      <c r="R270">
+      <c r="S270">
+        <v>2.75</v>
+      </c>
+      <c r="T270">
+        <v>1.33</v>
+      </c>
+      <c r="U270">
+        <v>3.25</v>
+      </c>
+      <c r="V270">
+        <v>2.63</v>
+      </c>
+      <c r="W270">
+        <v>1.44</v>
+      </c>
+      <c r="X270">
+        <v>6.5</v>
+      </c>
+      <c r="Y270">
+        <v>1.11</v>
+      </c>
+      <c r="Z270">
+        <v>3.15</v>
+      </c>
+      <c r="AA270">
+        <v>3.32</v>
+      </c>
+      <c r="AB270">
+        <v>2.18</v>
+      </c>
+      <c r="AC270">
+        <v>1.04</v>
+      </c>
+      <c r="AD270">
+        <v>10</v>
+      </c>
+      <c r="AE270">
+        <v>1.22</v>
+      </c>
+      <c r="AF270">
+        <v>4.2</v>
+      </c>
+      <c r="AG270">
+        <v>1.7</v>
+      </c>
+      <c r="AH270">
+        <v>2.1</v>
+      </c>
+      <c r="AI270">
+        <v>1.57</v>
+      </c>
+      <c r="AJ270">
         <v>2.25</v>
       </c>
-      <c r="S270">
+      <c r="AK270">
+        <v>1.66</v>
+      </c>
+      <c r="AL270">
+        <v>1.28</v>
+      </c>
+      <c r="AM270">
+        <v>1.35</v>
+      </c>
+      <c r="AN270">
+        <v>1.31</v>
+      </c>
+      <c r="AO270">
+        <v>1.38</v>
+      </c>
+      <c r="AP270">
+        <v>1.29</v>
+      </c>
+      <c r="AQ270">
+        <v>1.41</v>
+      </c>
+      <c r="AR270">
+        <v>1.67</v>
+      </c>
+      <c r="AS270">
+        <v>1.5</v>
+      </c>
+      <c r="AT270">
+        <v>3.17</v>
+      </c>
+      <c r="AU270">
+        <v>6</v>
+      </c>
+      <c r="AV270">
+        <v>4</v>
+      </c>
+      <c r="AW270">
+        <v>13</v>
+      </c>
+      <c r="AX270">
         <v>5</v>
       </c>
-      <c r="T270">
-        <v>1.36</v>
-      </c>
-      <c r="U270">
-        <v>3</v>
-      </c>
-      <c r="V270">
-        <v>2.75</v>
-      </c>
-      <c r="W270">
-        <v>1.4</v>
-      </c>
-      <c r="X270">
-        <v>7</v>
-      </c>
-      <c r="Y270">
-        <v>1.1</v>
-      </c>
-      <c r="Z270">
-        <v>1.7</v>
-      </c>
-      <c r="AA270">
-        <v>3.99</v>
-      </c>
-      <c r="AB270">
-        <v>4.1</v>
-      </c>
-      <c r="AC270">
-        <v>1.05</v>
-      </c>
-      <c r="AD270">
-        <v>9.5</v>
-      </c>
-      <c r="AE270">
-        <v>1.25</v>
-      </c>
-      <c r="AF270">
-        <v>3.8</v>
-      </c>
-      <c r="AG270">
-        <v>1.8</v>
-      </c>
-      <c r="AH270">
+      <c r="AY270">
+        <v>22</v>
+      </c>
+      <c r="AZ270">
+        <v>10</v>
+      </c>
+      <c r="BA270">
+        <v>4</v>
+      </c>
+      <c r="BB270">
+        <v>5</v>
+      </c>
+      <c r="BC270">
+        <v>9</v>
+      </c>
+      <c r="BD270">
+        <v>2.32</v>
+      </c>
+      <c r="BE270">
+        <v>6.75</v>
+      </c>
+      <c r="BF270">
+        <v>1.73</v>
+      </c>
+      <c r="BG270">
+        <v>1.26</v>
+      </c>
+      <c r="BH270">
+        <v>3.4</v>
+      </c>
+      <c r="BI270">
+        <v>1.46</v>
+      </c>
+      <c r="BJ270">
+        <v>2.5</v>
+      </c>
+      <c r="BK270">
+        <v>1.74</v>
+      </c>
+      <c r="BL270">
         <v>1.96</v>
       </c>
-      <c r="AI270">
-        <v>1.8</v>
-      </c>
-      <c r="AJ270">
-        <v>1.91</v>
-      </c>
-      <c r="AK270">
-        <v>1.18</v>
-      </c>
-      <c r="AL270">
-        <v>1.25</v>
-      </c>
-      <c r="AM270">
-        <v>2.1</v>
-      </c>
-      <c r="AN270">
-        <v>2.31</v>
-      </c>
-      <c r="AO270">
-        <v>0.62</v>
-      </c>
-      <c r="AP270">
-        <v>2</v>
-      </c>
-      <c r="AQ270">
-        <v>0.59</v>
-      </c>
-      <c r="AR270">
-        <v>1.8</v>
-      </c>
-      <c r="AS270">
-        <v>1.18</v>
-      </c>
-      <c r="AT270">
-        <v>2.98</v>
-      </c>
-      <c r="AU270">
-        <v>7</v>
-      </c>
-      <c r="AV270">
-        <v>3</v>
-      </c>
-      <c r="AW270">
-        <v>10</v>
-      </c>
-      <c r="AX270">
-        <v>11</v>
-      </c>
-      <c r="AY270">
-        <v>19</v>
-      </c>
-      <c r="AZ270">
-        <v>17</v>
-      </c>
-      <c r="BA270">
-        <v>6</v>
-      </c>
-      <c r="BB270">
-        <v>2</v>
-      </c>
-      <c r="BC270">
-        <v>8</v>
-      </c>
-      <c r="BD270">
-        <v>1.34</v>
-      </c>
-      <c r="BE270">
-        <v>7.5</v>
-      </c>
-      <c r="BF270">
-        <v>3.55</v>
-      </c>
-      <c r="BG270">
-        <v>1.2</v>
-      </c>
-      <c r="BH270">
-        <v>3.95</v>
-      </c>
-      <c r="BI270">
-        <v>1.36</v>
-      </c>
-      <c r="BJ270">
-        <v>2.8</v>
-      </c>
-      <c r="BK270">
-        <v>1.58</v>
-      </c>
-      <c r="BL270">
-        <v>2.18</v>
-      </c>
       <c r="BM270">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="BN270">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="BO270">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP270">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="271" spans="1:68">
@@ -57371,7 +57371,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>7516558</v>
+        <v>7516551</v>
       </c>
       <c r="C271" t="s">
         <v>68</v>
@@ -57386,19 +57386,19 @@
         <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H271" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
       <c r="K271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L271">
         <v>1</v>
@@ -57410,166 +57410,166 @@
         <v>2</v>
       </c>
       <c r="O271" t="s">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="P271" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="Q271">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="R271">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S271">
+        <v>5</v>
+      </c>
+      <c r="T271">
+        <v>1.36</v>
+      </c>
+      <c r="U271">
+        <v>3</v>
+      </c>
+      <c r="V271">
         <v>2.75</v>
       </c>
-      <c r="T271">
-        <v>1.33</v>
-      </c>
-      <c r="U271">
-        <v>3.25</v>
-      </c>
-      <c r="V271">
-        <v>2.63</v>
-      </c>
       <c r="W271">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X271">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y271">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z271">
-        <v>3.15</v>
+        <v>1.7</v>
       </c>
       <c r="AA271">
-        <v>3.32</v>
+        <v>3.99</v>
       </c>
       <c r="AB271">
+        <v>4.1</v>
+      </c>
+      <c r="AC271">
+        <v>1.05</v>
+      </c>
+      <c r="AD271">
+        <v>9.5</v>
+      </c>
+      <c r="AE271">
+        <v>1.25</v>
+      </c>
+      <c r="AF271">
+        <v>3.8</v>
+      </c>
+      <c r="AG271">
+        <v>1.8</v>
+      </c>
+      <c r="AH271">
+        <v>1.96</v>
+      </c>
+      <c r="AI271">
+        <v>1.8</v>
+      </c>
+      <c r="AJ271">
+        <v>1.91</v>
+      </c>
+      <c r="AK271">
+        <v>1.18</v>
+      </c>
+      <c r="AL271">
+        <v>1.25</v>
+      </c>
+      <c r="AM271">
+        <v>2.1</v>
+      </c>
+      <c r="AN271">
+        <v>2.31</v>
+      </c>
+      <c r="AO271">
+        <v>0.62</v>
+      </c>
+      <c r="AP271">
+        <v>2</v>
+      </c>
+      <c r="AQ271">
+        <v>0.59</v>
+      </c>
+      <c r="AR271">
+        <v>1.8</v>
+      </c>
+      <c r="AS271">
+        <v>1.18</v>
+      </c>
+      <c r="AT271">
+        <v>2.98</v>
+      </c>
+      <c r="AU271">
+        <v>7</v>
+      </c>
+      <c r="AV271">
+        <v>3</v>
+      </c>
+      <c r="AW271">
+        <v>10</v>
+      </c>
+      <c r="AX271">
+        <v>11</v>
+      </c>
+      <c r="AY271">
+        <v>19</v>
+      </c>
+      <c r="AZ271">
+        <v>17</v>
+      </c>
+      <c r="BA271">
+        <v>6</v>
+      </c>
+      <c r="BB271">
+        <v>2</v>
+      </c>
+      <c r="BC271">
+        <v>8</v>
+      </c>
+      <c r="BD271">
+        <v>1.34</v>
+      </c>
+      <c r="BE271">
+        <v>7.5</v>
+      </c>
+      <c r="BF271">
+        <v>3.55</v>
+      </c>
+      <c r="BG271">
+        <v>1.2</v>
+      </c>
+      <c r="BH271">
+        <v>3.95</v>
+      </c>
+      <c r="BI271">
+        <v>1.36</v>
+      </c>
+      <c r="BJ271">
+        <v>2.8</v>
+      </c>
+      <c r="BK271">
+        <v>1.58</v>
+      </c>
+      <c r="BL271">
         <v>2.18</v>
       </c>
-      <c r="AC271">
-        <v>1.04</v>
-      </c>
-      <c r="AD271">
-        <v>10</v>
-      </c>
-      <c r="AE271">
-        <v>1.22</v>
-      </c>
-      <c r="AF271">
-        <v>4.2</v>
-      </c>
-      <c r="AG271">
-        <v>1.7</v>
-      </c>
-      <c r="AH271">
-        <v>2.1</v>
-      </c>
-      <c r="AI271">
-        <v>1.57</v>
-      </c>
-      <c r="AJ271">
-        <v>2.25</v>
-      </c>
-      <c r="AK271">
-        <v>1.66</v>
-      </c>
-      <c r="AL271">
-        <v>1.28</v>
-      </c>
-      <c r="AM271">
-        <v>1.35</v>
-      </c>
-      <c r="AN271">
-        <v>1.31</v>
-      </c>
-      <c r="AO271">
-        <v>1.38</v>
-      </c>
-      <c r="AP271">
-        <v>1.29</v>
-      </c>
-      <c r="AQ271">
-        <v>1.41</v>
-      </c>
-      <c r="AR271">
-        <v>1.67</v>
-      </c>
-      <c r="AS271">
+      <c r="BM271">
+        <v>1.92</v>
+      </c>
+      <c r="BN271">
+        <v>1.77</v>
+      </c>
+      <c r="BO271">
+        <v>2.4</v>
+      </c>
+      <c r="BP271">
         <v>1.5</v>
-      </c>
-      <c r="AT271">
-        <v>3.17</v>
-      </c>
-      <c r="AU271">
-        <v>6</v>
-      </c>
-      <c r="AV271">
-        <v>4</v>
-      </c>
-      <c r="AW271">
-        <v>13</v>
-      </c>
-      <c r="AX271">
-        <v>5</v>
-      </c>
-      <c r="AY271">
-        <v>22</v>
-      </c>
-      <c r="AZ271">
-        <v>10</v>
-      </c>
-      <c r="BA271">
-        <v>4</v>
-      </c>
-      <c r="BB271">
-        <v>5</v>
-      </c>
-      <c r="BC271">
-        <v>9</v>
-      </c>
-      <c r="BD271">
-        <v>2.32</v>
-      </c>
-      <c r="BE271">
-        <v>6.75</v>
-      </c>
-      <c r="BF271">
-        <v>1.73</v>
-      </c>
-      <c r="BG271">
-        <v>1.26</v>
-      </c>
-      <c r="BH271">
-        <v>3.4</v>
-      </c>
-      <c r="BI271">
-        <v>1.46</v>
-      </c>
-      <c r="BJ271">
-        <v>2.5</v>
-      </c>
-      <c r="BK271">
-        <v>1.74</v>
-      </c>
-      <c r="BL271">
-        <v>1.96</v>
-      </c>
-      <c r="BM271">
-        <v>2.15</v>
-      </c>
-      <c r="BN271">
-        <v>1.61</v>
-      </c>
-      <c r="BO271">
-        <v>2.7</v>
-      </c>
-      <c r="BP271">
-        <v>1.38</v>
       </c>
     </row>
     <row r="272" spans="1:68">
@@ -59431,7 +59431,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>7516577</v>
+        <v>7516572</v>
       </c>
       <c r="C281" t="s">
         <v>68</v>
@@ -59446,70 +59446,70 @@
         <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H281" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L281">
         <v>2</v>
       </c>
       <c r="M281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N281">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O281" t="s">
         <v>282</v>
       </c>
       <c r="P281" t="s">
-        <v>432</v>
+        <v>91</v>
       </c>
       <c r="Q281">
-        <v>4.33</v>
+        <v>1.67</v>
       </c>
       <c r="R281">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S281">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="T281">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U281">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V281">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W281">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X281">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y281">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z281">
-        <v>4.28</v>
+        <v>1.23</v>
       </c>
       <c r="AA281">
-        <v>4.24</v>
+        <v>6.32</v>
       </c>
       <c r="AB281">
-        <v>1.76</v>
+        <v>13.03</v>
       </c>
       <c r="AC281">
         <v>0</v>
@@ -59524,16 +59524,16 @@
         <v>0</v>
       </c>
       <c r="AG281">
-        <v>1.53</v>
+        <v>2.62</v>
       </c>
       <c r="AH281">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
       <c r="AI281">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="AJ281">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="AK281">
         <v>0</v>
@@ -59545,52 +59545,52 @@
         <v>0</v>
       </c>
       <c r="AN281">
-        <v>0.93</v>
+        <v>2.57</v>
       </c>
       <c r="AO281">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AP281">
+        <v>2.65</v>
+      </c>
+      <c r="AQ281">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AQ281">
-        <v>0.82</v>
-      </c>
       <c r="AR281">
-        <v>1.29</v>
+        <v>1.88</v>
       </c>
       <c r="AS281">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AT281">
-        <v>2.57</v>
+        <v>3.1</v>
       </c>
       <c r="AU281">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AV281">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW281">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AX281">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY281">
+        <v>42</v>
+      </c>
+      <c r="AZ281">
+        <v>3</v>
+      </c>
+      <c r="BA281">
         <v>16</v>
       </c>
-      <c r="AZ281">
-        <v>15</v>
-      </c>
-      <c r="BA281">
-        <v>2</v>
-      </c>
       <c r="BB281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC281">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BD281">
         <v>0</v>
@@ -59637,7 +59637,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>7516572</v>
+        <v>7516577</v>
       </c>
       <c r="C282" t="s">
         <v>68</v>
@@ -59652,151 +59652,151 @@
         <v>32</v>
       </c>
       <c r="G282" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H282" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L282">
         <v>2</v>
       </c>
       <c r="M282">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N282">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O282" t="s">
         <v>283</v>
       </c>
       <c r="P282" t="s">
-        <v>91</v>
+        <v>432</v>
       </c>
       <c r="Q282">
-        <v>1.67</v>
+        <v>4.33</v>
       </c>
       <c r="R282">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S282">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="T282">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U282">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V282">
+        <v>2.25</v>
+      </c>
+      <c r="W282">
+        <v>1.57</v>
+      </c>
+      <c r="X282">
+        <v>5.5</v>
+      </c>
+      <c r="Y282">
+        <v>1.14</v>
+      </c>
+      <c r="Z282">
+        <v>4.28</v>
+      </c>
+      <c r="AA282">
+        <v>4.24</v>
+      </c>
+      <c r="AB282">
+        <v>1.76</v>
+      </c>
+      <c r="AC282">
+        <v>0</v>
+      </c>
+      <c r="AD282">
+        <v>0</v>
+      </c>
+      <c r="AE282">
+        <v>0</v>
+      </c>
+      <c r="AF282">
+        <v>0</v>
+      </c>
+      <c r="AG282">
+        <v>1.53</v>
+      </c>
+      <c r="AH282">
+        <v>2.4</v>
+      </c>
+      <c r="AI282">
+        <v>1.53</v>
+      </c>
+      <c r="AJ282">
         <v>2.38</v>
       </c>
-      <c r="W282">
-        <v>1.53</v>
-      </c>
-      <c r="X282">
+      <c r="AK282">
+        <v>0</v>
+      </c>
+      <c r="AL282">
+        <v>0</v>
+      </c>
+      <c r="AM282">
+        <v>0</v>
+      </c>
+      <c r="AN282">
+        <v>0.93</v>
+      </c>
+      <c r="AO282">
+        <v>0.73</v>
+      </c>
+      <c r="AP282">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ282">
+        <v>0.82</v>
+      </c>
+      <c r="AR282">
+        <v>1.29</v>
+      </c>
+      <c r="AS282">
+        <v>1.28</v>
+      </c>
+      <c r="AT282">
+        <v>2.57</v>
+      </c>
+      <c r="AU282">
+        <v>7</v>
+      </c>
+      <c r="AV282">
         <v>6</v>
       </c>
-      <c r="Y282">
-        <v>1.13</v>
-      </c>
-      <c r="Z282">
-        <v>1.23</v>
-      </c>
-      <c r="AA282">
-        <v>6.32</v>
-      </c>
-      <c r="AB282">
-        <v>13.03</v>
-      </c>
-      <c r="AC282">
-        <v>0</v>
-      </c>
-      <c r="AD282">
-        <v>0</v>
-      </c>
-      <c r="AE282">
-        <v>0</v>
-      </c>
-      <c r="AF282">
-        <v>0</v>
-      </c>
-      <c r="AG282">
-        <v>2.62</v>
-      </c>
-      <c r="AH282">
-        <v>1.52</v>
-      </c>
-      <c r="AI282">
-        <v>2.2</v>
-      </c>
-      <c r="AJ282">
-        <v>1.62</v>
-      </c>
-      <c r="AK282">
-        <v>0</v>
-      </c>
-      <c r="AL282">
-        <v>0</v>
-      </c>
-      <c r="AM282">
-        <v>0</v>
-      </c>
-      <c r="AN282">
-        <v>2.57</v>
-      </c>
-      <c r="AO282">
-        <v>1</v>
-      </c>
-      <c r="AP282">
-        <v>2.65</v>
-      </c>
-      <c r="AQ282">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR282">
-        <v>1.88</v>
-      </c>
-      <c r="AS282">
-        <v>1.22</v>
-      </c>
-      <c r="AT282">
-        <v>3.1</v>
-      </c>
-      <c r="AU282">
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>6</v>
+      </c>
+      <c r="AY282">
         <v>16</v>
       </c>
-      <c r="AV282">
-        <v>0</v>
-      </c>
-      <c r="AW282">
-        <v>21</v>
-      </c>
-      <c r="AX282">
-        <v>2</v>
-      </c>
-      <c r="AY282">
-        <v>42</v>
-      </c>
       <c r="AZ282">
+        <v>15</v>
+      </c>
+      <c r="BA282">
+        <v>2</v>
+      </c>
+      <c r="BB282">
         <v>3</v>
       </c>
-      <c r="BA282">
-        <v>16</v>
-      </c>
-      <c r="BB282">
-        <v>1</v>
-      </c>
       <c r="BC282">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BD282">
         <v>0</v>
@@ -60503,7 +60503,7 @@
         <v>286</v>
       </c>
       <c r="P286" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q286">
         <v>2.25</v>
@@ -61118,7 +61118,7 @@
         <v>1</v>
       </c>
       <c r="O289" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P289" t="s">
         <v>91</v>
@@ -62109,7 +62109,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>7516582</v>
+        <v>7516581</v>
       </c>
       <c r="C294" t="s">
         <v>68</v>
@@ -62124,151 +62124,151 @@
         <v>33</v>
       </c>
       <c r="G294" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H294" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
         <v>4</v>
-      </c>
-      <c r="J294">
-        <v>2</v>
-      </c>
-      <c r="K294">
-        <v>6</v>
-      </c>
-      <c r="L294">
-        <v>4</v>
-      </c>
-      <c r="M294">
-        <v>3</v>
-      </c>
-      <c r="N294">
-        <v>7</v>
       </c>
       <c r="O294" t="s">
         <v>291</v>
       </c>
       <c r="P294" t="s">
-        <v>438</v>
+        <v>154</v>
       </c>
       <c r="Q294">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="R294">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="S294">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="T294">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="U294">
+        <v>4</v>
+      </c>
+      <c r="V294">
+        <v>2</v>
+      </c>
+      <c r="W294">
+        <v>1.73</v>
+      </c>
+      <c r="X294">
+        <v>4.33</v>
+      </c>
+      <c r="Y294">
+        <v>1.2</v>
+      </c>
+      <c r="Z294">
+        <v>1.18</v>
+      </c>
+      <c r="AA294">
+        <v>8</v>
+      </c>
+      <c r="AB294">
+        <v>11</v>
+      </c>
+      <c r="AC294">
+        <v>0</v>
+      </c>
+      <c r="AD294">
+        <v>0</v>
+      </c>
+      <c r="AE294">
+        <v>0</v>
+      </c>
+      <c r="AF294">
+        <v>0</v>
+      </c>
+      <c r="AG294">
+        <v>1.4</v>
+      </c>
+      <c r="AH294">
+        <v>2.88</v>
+      </c>
+      <c r="AI294">
+        <v>2</v>
+      </c>
+      <c r="AJ294">
+        <v>1.73</v>
+      </c>
+      <c r="AK294">
+        <v>0</v>
+      </c>
+      <c r="AL294">
+        <v>0</v>
+      </c>
+      <c r="AM294">
+        <v>0</v>
+      </c>
+      <c r="AN294">
+        <v>1.73</v>
+      </c>
+      <c r="AO294">
+        <v>0.33</v>
+      </c>
+      <c r="AP294">
+        <v>1.78</v>
+      </c>
+      <c r="AQ294">
+        <v>0.44</v>
+      </c>
+      <c r="AR294">
+        <v>1.29</v>
+      </c>
+      <c r="AS294">
+        <v>1.11</v>
+      </c>
+      <c r="AT294">
+        <v>2.4</v>
+      </c>
+      <c r="AU294">
+        <v>9</v>
+      </c>
+      <c r="AV294">
+        <v>4</v>
+      </c>
+      <c r="AW294">
+        <v>18</v>
+      </c>
+      <c r="AX294">
         <v>3</v>
       </c>
-      <c r="V294">
-        <v>2.63</v>
-      </c>
-      <c r="W294">
-        <v>1.44</v>
-      </c>
-      <c r="X294">
-        <v>7</v>
-      </c>
-      <c r="Y294">
-        <v>1.1</v>
-      </c>
-      <c r="Z294">
-        <v>1.71</v>
-      </c>
-      <c r="AA294">
-        <v>3.46</v>
-      </c>
-      <c r="AB294">
-        <v>5.14</v>
-      </c>
-      <c r="AC294">
-        <v>0</v>
-      </c>
-      <c r="AD294">
-        <v>0</v>
-      </c>
-      <c r="AE294">
-        <v>0</v>
-      </c>
-      <c r="AF294">
-        <v>0</v>
-      </c>
-      <c r="AG294">
-        <v>1.73</v>
-      </c>
-      <c r="AH294">
-        <v>2</v>
-      </c>
-      <c r="AI294">
-        <v>1.73</v>
-      </c>
-      <c r="AJ294">
-        <v>2</v>
-      </c>
-      <c r="AK294">
-        <v>0</v>
-      </c>
-      <c r="AL294">
-        <v>0</v>
-      </c>
-      <c r="AM294">
-        <v>0</v>
-      </c>
-      <c r="AN294">
-        <v>2.07</v>
-      </c>
-      <c r="AO294">
-        <v>0.67</v>
-      </c>
-      <c r="AP294">
-        <v>1.94</v>
-      </c>
-      <c r="AQ294">
-        <v>0.89</v>
-      </c>
-      <c r="AR294">
-        <v>1.71</v>
-      </c>
-      <c r="AS294">
-        <v>1.16</v>
-      </c>
-      <c r="AT294">
-        <v>2.87</v>
-      </c>
-      <c r="AU294">
-        <v>11</v>
-      </c>
-      <c r="AV294">
-        <v>5</v>
-      </c>
-      <c r="AW294">
-        <v>3</v>
-      </c>
-      <c r="AX294">
-        <v>4</v>
-      </c>
       <c r="AY294">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AZ294">
         <v>9</v>
       </c>
       <c r="BA294">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BB294">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC294">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD294">
         <v>0</v>
@@ -62315,7 +62315,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>7516581</v>
+        <v>7516582</v>
       </c>
       <c r="C295" t="s">
         <v>68</v>
@@ -62330,151 +62330,151 @@
         <v>33</v>
       </c>
       <c r="G295" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H295" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K295">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L295">
+        <v>4</v>
+      </c>
+      <c r="M295">
         <v>3</v>
       </c>
-      <c r="M295">
-        <v>1</v>
-      </c>
       <c r="N295">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O295" t="s">
         <v>292</v>
       </c>
       <c r="P295" t="s">
-        <v>154</v>
+        <v>438</v>
       </c>
       <c r="Q295">
-        <v>1.53</v>
+        <v>2.38</v>
       </c>
       <c r="R295">
+        <v>2.25</v>
+      </c>
+      <c r="S295">
+        <v>4.75</v>
+      </c>
+      <c r="T295">
+        <v>1.36</v>
+      </c>
+      <c r="U295">
         <v>3</v>
       </c>
-      <c r="S295">
-        <v>10</v>
-      </c>
-      <c r="T295">
-        <v>1.22</v>
-      </c>
-      <c r="U295">
+      <c r="V295">
+        <v>2.63</v>
+      </c>
+      <c r="W295">
+        <v>1.44</v>
+      </c>
+      <c r="X295">
+        <v>7</v>
+      </c>
+      <c r="Y295">
+        <v>1.1</v>
+      </c>
+      <c r="Z295">
+        <v>1.71</v>
+      </c>
+      <c r="AA295">
+        <v>3.46</v>
+      </c>
+      <c r="AB295">
+        <v>5.14</v>
+      </c>
+      <c r="AC295">
+        <v>0</v>
+      </c>
+      <c r="AD295">
+        <v>0</v>
+      </c>
+      <c r="AE295">
+        <v>0</v>
+      </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
+      <c r="AG295">
+        <v>1.73</v>
+      </c>
+      <c r="AH295">
+        <v>2</v>
+      </c>
+      <c r="AI295">
+        <v>1.73</v>
+      </c>
+      <c r="AJ295">
+        <v>2</v>
+      </c>
+      <c r="AK295">
+        <v>0</v>
+      </c>
+      <c r="AL295">
+        <v>0</v>
+      </c>
+      <c r="AM295">
+        <v>0</v>
+      </c>
+      <c r="AN295">
+        <v>2.07</v>
+      </c>
+      <c r="AO295">
+        <v>0.67</v>
+      </c>
+      <c r="AP295">
+        <v>1.94</v>
+      </c>
+      <c r="AQ295">
+        <v>0.89</v>
+      </c>
+      <c r="AR295">
+        <v>1.71</v>
+      </c>
+      <c r="AS295">
+        <v>1.16</v>
+      </c>
+      <c r="AT295">
+        <v>2.87</v>
+      </c>
+      <c r="AU295">
+        <v>11</v>
+      </c>
+      <c r="AV295">
+        <v>5</v>
+      </c>
+      <c r="AW295">
+        <v>3</v>
+      </c>
+      <c r="AX295">
         <v>4</v>
       </c>
-      <c r="V295">
-        <v>2</v>
-      </c>
-      <c r="W295">
-        <v>1.73</v>
-      </c>
-      <c r="X295">
-        <v>4.33</v>
-      </c>
-      <c r="Y295">
-        <v>1.2</v>
-      </c>
-      <c r="Z295">
-        <v>1.18</v>
-      </c>
-      <c r="AA295">
-        <v>8</v>
-      </c>
-      <c r="AB295">
-        <v>11</v>
-      </c>
-      <c r="AC295">
-        <v>0</v>
-      </c>
-      <c r="AD295">
-        <v>0</v>
-      </c>
-      <c r="AE295">
-        <v>0</v>
-      </c>
-      <c r="AF295">
-        <v>0</v>
-      </c>
-      <c r="AG295">
-        <v>1.4</v>
-      </c>
-      <c r="AH295">
-        <v>2.88</v>
-      </c>
-      <c r="AI295">
-        <v>2</v>
-      </c>
-      <c r="AJ295">
-        <v>1.73</v>
-      </c>
-      <c r="AK295">
-        <v>0</v>
-      </c>
-      <c r="AL295">
-        <v>0</v>
-      </c>
-      <c r="AM295">
-        <v>0</v>
-      </c>
-      <c r="AN295">
-        <v>1.73</v>
-      </c>
-      <c r="AO295">
-        <v>0.33</v>
-      </c>
-      <c r="AP295">
-        <v>1.78</v>
-      </c>
-      <c r="AQ295">
-        <v>0.44</v>
-      </c>
-      <c r="AR295">
-        <v>1.29</v>
-      </c>
-      <c r="AS295">
-        <v>1.11</v>
-      </c>
-      <c r="AT295">
-        <v>2.4</v>
-      </c>
-      <c r="AU295">
-        <v>9</v>
-      </c>
-      <c r="AV295">
-        <v>4</v>
-      </c>
-      <c r="AW295">
-        <v>18</v>
-      </c>
-      <c r="AX295">
-        <v>3</v>
-      </c>
       <c r="AY295">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AZ295">
         <v>9</v>
       </c>
       <c r="BA295">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BB295">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC295">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD295">
         <v>0</v>
@@ -63757,7 +63757,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>7516595</v>
+        <v>7516587</v>
       </c>
       <c r="C302" t="s">
         <v>68</v>
@@ -63772,70 +63772,70 @@
         <v>34</v>
       </c>
       <c r="G302" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H302" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K302">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L302">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M302">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N302">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O302" t="s">
         <v>298</v>
       </c>
       <c r="P302" t="s">
-        <v>441</v>
+        <v>125</v>
       </c>
       <c r="Q302">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="R302">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="S302">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="T302">
+        <v>1.18</v>
+      </c>
+      <c r="U302">
+        <v>4.5</v>
+      </c>
+      <c r="V302">
+        <v>1.83</v>
+      </c>
+      <c r="W302">
+        <v>1.83</v>
+      </c>
+      <c r="X302">
+        <v>3.75</v>
+      </c>
+      <c r="Y302">
         <v>1.25</v>
       </c>
-      <c r="U302">
-        <v>3.75</v>
-      </c>
-      <c r="V302">
-        <v>2.25</v>
-      </c>
-      <c r="W302">
-        <v>1.57</v>
-      </c>
-      <c r="X302">
-        <v>5.5</v>
-      </c>
-      <c r="Y302">
-        <v>1.14</v>
-      </c>
       <c r="Z302">
-        <v>5.72</v>
+        <v>1.22</v>
       </c>
       <c r="AA302">
-        <v>4.55</v>
+        <v>7</v>
       </c>
       <c r="AB302">
-        <v>1.48</v>
+        <v>10</v>
       </c>
       <c r="AC302">
         <v>0</v>
@@ -63850,16 +63850,16 @@
         <v>0</v>
       </c>
       <c r="AG302">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AH302">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AI302">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ302">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AK302">
         <v>0</v>
@@ -63871,52 +63871,52 @@
         <v>0</v>
       </c>
       <c r="AN302">
-        <v>0.88</v>
+        <v>2.6</v>
       </c>
       <c r="AO302">
-        <v>1.13</v>
+        <v>0.53</v>
       </c>
       <c r="AP302">
-        <v>0.9399999999999999</v>
+        <v>2.65</v>
       </c>
       <c r="AQ302">
-        <v>1.35</v>
+        <v>0.47</v>
       </c>
       <c r="AR302">
-        <v>1.31</v>
+        <v>2.03</v>
       </c>
       <c r="AS302">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AT302">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="AU302">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV302">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW302">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AX302">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AY302">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AZ302">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="BA302">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB302">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC302">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD302">
         <v>0</v>
@@ -63963,7 +63963,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>7516587</v>
+        <v>7516595</v>
       </c>
       <c r="C303" t="s">
         <v>68</v>
@@ -63978,151 +63978,151 @@
         <v>34</v>
       </c>
       <c r="G303" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H303" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>2</v>
+      </c>
+      <c r="K303">
+        <v>3</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
         <v>4</v>
       </c>
-      <c r="J303">
-        <v>1</v>
-      </c>
-      <c r="K303">
-        <v>5</v>
-      </c>
-      <c r="L303">
-        <v>4</v>
-      </c>
-      <c r="M303">
-        <v>1</v>
-      </c>
       <c r="N303">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O303" t="s">
         <v>299</v>
       </c>
       <c r="P303" t="s">
-        <v>125</v>
+        <v>441</v>
       </c>
       <c r="Q303">
+        <v>5.5</v>
+      </c>
+      <c r="R303">
+        <v>2.5</v>
+      </c>
+      <c r="S303">
+        <v>1.95</v>
+      </c>
+      <c r="T303">
+        <v>1.25</v>
+      </c>
+      <c r="U303">
+        <v>3.75</v>
+      </c>
+      <c r="V303">
+        <v>2.25</v>
+      </c>
+      <c r="W303">
         <v>1.57</v>
       </c>
-      <c r="R303">
-        <v>3.1</v>
-      </c>
-      <c r="S303">
-        <v>8.5</v>
-      </c>
-      <c r="T303">
-        <v>1.18</v>
-      </c>
-      <c r="U303">
-        <v>4.5</v>
-      </c>
-      <c r="V303">
-        <v>1.83</v>
-      </c>
-      <c r="W303">
-        <v>1.83</v>
-      </c>
       <c r="X303">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y303">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="Z303">
-        <v>1.22</v>
+        <v>5.72</v>
       </c>
       <c r="AA303">
+        <v>4.55</v>
+      </c>
+      <c r="AB303">
+        <v>1.48</v>
+      </c>
+      <c r="AC303">
+        <v>0</v>
+      </c>
+      <c r="AD303">
+        <v>0</v>
+      </c>
+      <c r="AE303">
+        <v>0</v>
+      </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
+      <c r="AG303">
+        <v>1.57</v>
+      </c>
+      <c r="AH303">
+        <v>2.25</v>
+      </c>
+      <c r="AI303">
+        <v>1.67</v>
+      </c>
+      <c r="AJ303">
+        <v>2.1</v>
+      </c>
+      <c r="AK303">
+        <v>0</v>
+      </c>
+      <c r="AL303">
+        <v>0</v>
+      </c>
+      <c r="AM303">
+        <v>0</v>
+      </c>
+      <c r="AN303">
+        <v>0.88</v>
+      </c>
+      <c r="AO303">
+        <v>1.13</v>
+      </c>
+      <c r="AP303">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ303">
+        <v>1.35</v>
+      </c>
+      <c r="AR303">
+        <v>1.31</v>
+      </c>
+      <c r="AS303">
+        <v>1.33</v>
+      </c>
+      <c r="AT303">
+        <v>2.64</v>
+      </c>
+      <c r="AU303">
+        <v>5</v>
+      </c>
+      <c r="AV303">
+        <v>8</v>
+      </c>
+      <c r="AW303">
+        <v>5</v>
+      </c>
+      <c r="AX303">
+        <v>12</v>
+      </c>
+      <c r="AY303">
+        <v>11</v>
+      </c>
+      <c r="AZ303">
+        <v>22</v>
+      </c>
+      <c r="BA303">
+        <v>4</v>
+      </c>
+      <c r="BB303">
         <v>7</v>
       </c>
-      <c r="AB303">
-        <v>10</v>
-      </c>
-      <c r="AC303">
-        <v>0</v>
-      </c>
-      <c r="AD303">
-        <v>0</v>
-      </c>
-      <c r="AE303">
-        <v>0</v>
-      </c>
-      <c r="AF303">
-        <v>0</v>
-      </c>
-      <c r="AG303">
-        <v>1.33</v>
-      </c>
-      <c r="AH303">
-        <v>3.4</v>
-      </c>
-      <c r="AI303">
-        <v>1.8</v>
-      </c>
-      <c r="AJ303">
-        <v>1.91</v>
-      </c>
-      <c r="AK303">
-        <v>0</v>
-      </c>
-      <c r="AL303">
-        <v>0</v>
-      </c>
-      <c r="AM303">
-        <v>0</v>
-      </c>
-      <c r="AN303">
-        <v>2.6</v>
-      </c>
-      <c r="AO303">
-        <v>0.53</v>
-      </c>
-      <c r="AP303">
-        <v>2.65</v>
-      </c>
-      <c r="AQ303">
-        <v>0.47</v>
-      </c>
-      <c r="AR303">
-        <v>2.03</v>
-      </c>
-      <c r="AS303">
-        <v>1.17</v>
-      </c>
-      <c r="AT303">
-        <v>3.2</v>
-      </c>
-      <c r="AU303">
-        <v>10</v>
-      </c>
-      <c r="AV303">
-        <v>3</v>
-      </c>
-      <c r="AW303">
-        <v>16</v>
-      </c>
-      <c r="AX303">
-        <v>2</v>
-      </c>
-      <c r="AY303">
-        <v>33</v>
-      </c>
-      <c r="AZ303">
-        <v>6</v>
-      </c>
-      <c r="BA303">
-        <v>3</v>
-      </c>
-      <c r="BB303">
-        <v>0</v>
-      </c>
       <c r="BC303">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BD303">
         <v>0</v>
@@ -64993,7 +64993,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>7516604</v>
+        <v>7516601</v>
       </c>
       <c r="C308" t="s">
         <v>68</v>
@@ -65008,49 +65008,49 @@
         <v>35</v>
       </c>
       <c r="G308" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H308" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I308">
         <v>0</v>
       </c>
       <c r="J308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M308">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N308">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O308" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="P308" t="s">
-        <v>193</v>
+        <v>442</v>
       </c>
       <c r="Q308">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="R308">
+        <v>2.38</v>
+      </c>
+      <c r="S308">
         <v>2.3</v>
       </c>
-      <c r="S308">
-        <v>3.25</v>
-      </c>
       <c r="T308">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U308">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V308">
         <v>2.5</v>
@@ -65065,13 +65065,13 @@
         <v>1.13</v>
       </c>
       <c r="Z308">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="AA308">
-        <v>3.45</v>
+        <v>3.78</v>
       </c>
       <c r="AB308">
-        <v>2.69</v>
+        <v>1.78</v>
       </c>
       <c r="AC308">
         <v>0</v>
@@ -65086,16 +65086,16 @@
         <v>0</v>
       </c>
       <c r="AG308">
+        <v>1.65</v>
+      </c>
+      <c r="AH308">
+        <v>2.15</v>
+      </c>
+      <c r="AI308">
         <v>1.67</v>
       </c>
-      <c r="AH308">
-        <v>2.05</v>
-      </c>
-      <c r="AI308">
-        <v>1.57</v>
-      </c>
       <c r="AJ308">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK308">
         <v>0</v>
@@ -65107,52 +65107,52 @@
         <v>0</v>
       </c>
       <c r="AN308">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AO308">
-        <v>0.63</v>
+        <v>2.31</v>
       </c>
       <c r="AP308">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="AQ308">
-        <v>0.89</v>
+        <v>2.22</v>
       </c>
       <c r="AR308">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AS308">
-        <v>1.16</v>
+        <v>1.65</v>
       </c>
       <c r="AT308">
-        <v>2.74</v>
+        <v>3.09</v>
       </c>
       <c r="AU308">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV308">
+        <v>10</v>
+      </c>
+      <c r="AW308">
+        <v>2</v>
+      </c>
+      <c r="AX308">
         <v>5</v>
       </c>
-      <c r="AW308">
-        <v>4</v>
-      </c>
-      <c r="AX308">
-        <v>4</v>
-      </c>
       <c r="AY308">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ308">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BA308">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB308">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC308">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BD308">
         <v>0</v>
@@ -65199,7 +65199,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>7516601</v>
+        <v>7516604</v>
       </c>
       <c r="C309" t="s">
         <v>68</v>
@@ -65214,49 +65214,49 @@
         <v>35</v>
       </c>
       <c r="G309" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H309" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M309">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N309">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O309" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="P309" t="s">
-        <v>442</v>
+        <v>193</v>
       </c>
       <c r="Q309">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R309">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S309">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="T309">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U309">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V309">
         <v>2.5</v>
@@ -65271,13 +65271,13 @@
         <v>1.13</v>
       </c>
       <c r="Z309">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="AA309">
-        <v>3.78</v>
+        <v>3.45</v>
       </c>
       <c r="AB309">
-        <v>1.78</v>
+        <v>2.69</v>
       </c>
       <c r="AC309">
         <v>0</v>
@@ -65292,16 +65292,16 @@
         <v>0</v>
       </c>
       <c r="AG309">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AH309">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AI309">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ309">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK309">
         <v>0</v>
@@ -65313,52 +65313,52 @@
         <v>0</v>
       </c>
       <c r="AN309">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AO309">
-        <v>2.31</v>
+        <v>0.63</v>
       </c>
       <c r="AP309">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AQ309">
-        <v>2.22</v>
+        <v>0.89</v>
       </c>
       <c r="AR309">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AS309">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="AT309">
-        <v>3.09</v>
+        <v>2.74</v>
       </c>
       <c r="AU309">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV309">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW309">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX309">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY309">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ309">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BA309">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB309">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC309">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BD309">
         <v>0</v>
@@ -65405,7 +65405,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>7516602</v>
+        <v>7516599</v>
       </c>
       <c r="C310" t="s">
         <v>68</v>
@@ -65420,70 +65420,70 @@
         <v>35</v>
       </c>
       <c r="G310" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H310" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M310">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N310">
         <v>3</v>
       </c>
       <c r="O310" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="P310" t="s">
-        <v>443</v>
+        <v>265</v>
       </c>
       <c r="Q310">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="R310">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S310">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T310">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U310">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V310">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W310">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X310">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y310">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z310">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AA310">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB310">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="AC310">
         <v>0</v>
@@ -65498,16 +65498,16 @@
         <v>0</v>
       </c>
       <c r="AG310">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="AH310">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="AI310">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AJ310">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AK310">
         <v>0</v>
@@ -65519,52 +65519,52 @@
         <v>0</v>
       </c>
       <c r="AN310">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AO310">
-        <v>1.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP310">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AQ310">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="AR310">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS310">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AT310">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AU310">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV310">
+        <v>4</v>
+      </c>
+      <c r="AW310">
+        <v>11</v>
+      </c>
+      <c r="AX310">
+        <v>9</v>
+      </c>
+      <c r="AY310">
+        <v>21</v>
+      </c>
+      <c r="AZ310">
+        <v>15</v>
+      </c>
+      <c r="BA310">
         <v>5</v>
       </c>
-      <c r="AW310">
-        <v>6</v>
-      </c>
-      <c r="AX310">
-        <v>6</v>
-      </c>
-      <c r="AY310">
+      <c r="BB310">
+        <v>5</v>
+      </c>
+      <c r="BC310">
         <v>10</v>
-      </c>
-      <c r="AZ310">
-        <v>14</v>
-      </c>
-      <c r="BA310">
-        <v>2</v>
-      </c>
-      <c r="BB310">
-        <v>2</v>
-      </c>
-      <c r="BC310">
-        <v>4</v>
       </c>
       <c r="BD310">
         <v>0</v>
@@ -65611,7 +65611,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>7516599</v>
+        <v>7516602</v>
       </c>
       <c r="C311" t="s">
         <v>68</v>
@@ -65626,151 +65626,151 @@
         <v>35</v>
       </c>
       <c r="G311" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H311" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I311">
         <v>0</v>
       </c>
       <c r="J311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N311">
         <v>3</v>
       </c>
       <c r="O311" t="s">
-        <v>302</v>
+        <v>91</v>
       </c>
       <c r="P311" t="s">
-        <v>265</v>
+        <v>443</v>
       </c>
       <c r="Q311">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="R311">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S311">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T311">
+        <v>1.29</v>
+      </c>
+      <c r="U311">
+        <v>3.5</v>
+      </c>
+      <c r="V311">
+        <v>2.25</v>
+      </c>
+      <c r="W311">
+        <v>1.57</v>
+      </c>
+      <c r="X311">
+        <v>5.5</v>
+      </c>
+      <c r="Y311">
+        <v>1.14</v>
+      </c>
+      <c r="Z311">
+        <v>2.3</v>
+      </c>
+      <c r="AA311">
+        <v>3.6</v>
+      </c>
+      <c r="AB311">
+        <v>2.8</v>
+      </c>
+      <c r="AC311">
+        <v>0</v>
+      </c>
+      <c r="AD311">
+        <v>0</v>
+      </c>
+      <c r="AE311">
+        <v>0</v>
+      </c>
+      <c r="AF311">
+        <v>0</v>
+      </c>
+      <c r="AG311">
+        <v>1.57</v>
+      </c>
+      <c r="AH311">
+        <v>2.25</v>
+      </c>
+      <c r="AI311">
+        <v>1.5</v>
+      </c>
+      <c r="AJ311">
+        <v>2.5</v>
+      </c>
+      <c r="AK311">
+        <v>0</v>
+      </c>
+      <c r="AL311">
+        <v>0</v>
+      </c>
+      <c r="AM311">
+        <v>0</v>
+      </c>
+      <c r="AN311">
+        <v>1.88</v>
+      </c>
+      <c r="AO311">
+        <v>1.31</v>
+      </c>
+      <c r="AP311">
+        <v>1.83</v>
+      </c>
+      <c r="AQ311">
+        <v>1.39</v>
+      </c>
+      <c r="AR311">
+        <v>1.47</v>
+      </c>
+      <c r="AS311">
         <v>1.36</v>
       </c>
-      <c r="U311">
-        <v>3</v>
-      </c>
-      <c r="V311">
-        <v>2.75</v>
-      </c>
-      <c r="W311">
-        <v>1.4</v>
-      </c>
-      <c r="X311">
-        <v>7</v>
-      </c>
-      <c r="Y311">
-        <v>1.1</v>
-      </c>
-      <c r="Z311">
-        <v>2.1</v>
-      </c>
-      <c r="AA311">
-        <v>3.4</v>
-      </c>
-      <c r="AB311">
-        <v>3.4</v>
-      </c>
-      <c r="AC311">
-        <v>0</v>
-      </c>
-      <c r="AD311">
-        <v>0</v>
-      </c>
-      <c r="AE311">
-        <v>0</v>
-      </c>
-      <c r="AF311">
-        <v>0</v>
-      </c>
-      <c r="AG311">
-        <v>1.85</v>
-      </c>
-      <c r="AH311">
-        <v>1.85</v>
-      </c>
-      <c r="AI311">
-        <v>1.73</v>
-      </c>
-      <c r="AJ311">
-        <v>2</v>
-      </c>
-      <c r="AK311">
-        <v>0</v>
-      </c>
-      <c r="AL311">
-        <v>0</v>
-      </c>
-      <c r="AM311">
-        <v>0</v>
-      </c>
-      <c r="AN311">
-        <v>1.81</v>
-      </c>
-      <c r="AO311">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP311">
-        <v>1.78</v>
-      </c>
-      <c r="AQ311">
-        <v>1</v>
-      </c>
-      <c r="AR311">
-        <v>1.4</v>
-      </c>
-      <c r="AS311">
-        <v>1.2</v>
-      </c>
       <c r="AT311">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="AU311">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV311">
+        <v>5</v>
+      </c>
+      <c r="AW311">
+        <v>6</v>
+      </c>
+      <c r="AX311">
+        <v>6</v>
+      </c>
+      <c r="AY311">
+        <v>10</v>
+      </c>
+      <c r="AZ311">
+        <v>14</v>
+      </c>
+      <c r="BA311">
+        <v>2</v>
+      </c>
+      <c r="BB311">
+        <v>2</v>
+      </c>
+      <c r="BC311">
         <v>4</v>
-      </c>
-      <c r="AW311">
-        <v>11</v>
-      </c>
-      <c r="AX311">
-        <v>9</v>
-      </c>
-      <c r="AY311">
-        <v>21</v>
-      </c>
-      <c r="AZ311">
-        <v>15</v>
-      </c>
-      <c r="BA311">
-        <v>5</v>
-      </c>
-      <c r="BB311">
-        <v>5</v>
-      </c>
-      <c r="BC311">
-        <v>10</v>
       </c>
       <c r="BD311">
         <v>0</v>
@@ -67053,7 +67053,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>7516605</v>
+        <v>7516613</v>
       </c>
       <c r="C318" t="s">
         <v>68</v>
@@ -67068,10 +67068,10 @@
         <v>36</v>
       </c>
       <c r="G318" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H318" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I318">
         <v>1</v>
@@ -67083,145 +67083,145 @@
         <v>1</v>
       </c>
       <c r="L318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M318">
         <v>1</v>
       </c>
       <c r="N318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O318" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="P318" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="Q318">
+        <v>1.53</v>
+      </c>
+      <c r="R318">
         <v>3</v>
       </c>
-      <c r="R318">
-        <v>2.1</v>
-      </c>
       <c r="S318">
+        <v>7.5</v>
+      </c>
+      <c r="T318">
+        <v>1.17</v>
+      </c>
+      <c r="U318">
+        <v>4.5</v>
+      </c>
+      <c r="V318">
+        <v>1.85</v>
+      </c>
+      <c r="W318">
+        <v>1.85</v>
+      </c>
+      <c r="X318">
+        <v>3.7</v>
+      </c>
+      <c r="Y318">
+        <v>1.22</v>
+      </c>
+      <c r="Z318">
+        <v>1.22</v>
+      </c>
+      <c r="AA318">
+        <v>7.01</v>
+      </c>
+      <c r="AB318">
+        <v>10.24</v>
+      </c>
+      <c r="AC318">
+        <v>1.01</v>
+      </c>
+      <c r="AD318">
+        <v>26</v>
+      </c>
+      <c r="AE318">
+        <v>1.09</v>
+      </c>
+      <c r="AF318">
+        <v>7</v>
+      </c>
+      <c r="AG318">
+        <v>1.33</v>
+      </c>
+      <c r="AH318">
         <v>3.2</v>
       </c>
-      <c r="T318">
-        <v>1.36</v>
-      </c>
-      <c r="U318">
-        <v>2.88</v>
-      </c>
-      <c r="V318">
-        <v>2.65</v>
-      </c>
-      <c r="W318">
-        <v>1.42</v>
-      </c>
-      <c r="X318">
-        <v>6.25</v>
-      </c>
-      <c r="Y318">
-        <v>1.09</v>
-      </c>
-      <c r="Z318">
-        <v>1.98</v>
-      </c>
-      <c r="AA318">
-        <v>3.62</v>
-      </c>
-      <c r="AB318">
-        <v>3.68</v>
-      </c>
-      <c r="AC318">
+      <c r="AI318">
+        <v>1.73</v>
+      </c>
+      <c r="AJ318">
+        <v>2</v>
+      </c>
+      <c r="AK318">
         <v>1.05</v>
       </c>
-      <c r="AD318">
-        <v>9.5</v>
-      </c>
-      <c r="AE318">
-        <v>1.28</v>
-      </c>
-      <c r="AF318">
-        <v>3.65</v>
-      </c>
-      <c r="AG318">
-        <v>1.85</v>
-      </c>
-      <c r="AH318">
-        <v>1.99</v>
-      </c>
-      <c r="AI318">
-        <v>1.62</v>
-      </c>
-      <c r="AJ318">
+      <c r="AL318">
+        <v>1.1</v>
+      </c>
+      <c r="AM318">
+        <v>4</v>
+      </c>
+      <c r="AN318">
+        <v>2.38</v>
+      </c>
+      <c r="AO318">
+        <v>1.18</v>
+      </c>
+      <c r="AP318">
+        <v>2.41</v>
+      </c>
+      <c r="AQ318">
+        <v>1.11</v>
+      </c>
+      <c r="AR318">
         <v>2.15</v>
       </c>
-      <c r="AK318">
-        <v>1.44</v>
-      </c>
-      <c r="AL318">
-        <v>1.25</v>
-      </c>
-      <c r="AM318">
-        <v>1.53</v>
-      </c>
-      <c r="AN318">
+      <c r="AS318">
         <v>1.19</v>
       </c>
-      <c r="AO318">
-        <v>0.75</v>
-      </c>
-      <c r="AP318">
-        <v>1.18</v>
-      </c>
-      <c r="AQ318">
-        <v>0.76</v>
-      </c>
-      <c r="AR318">
-        <v>1.41</v>
-      </c>
-      <c r="AS318">
-        <v>1.29</v>
-      </c>
       <c r="AT318">
-        <v>2.7</v>
+        <v>3.34</v>
       </c>
       <c r="AU318">
         <v>6</v>
       </c>
       <c r="AV318">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW318">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX318">
         <v>4</v>
       </c>
       <c r="AY318">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ318">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA318">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB318">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC318">
         <v>9</v>
       </c>
       <c r="BD318">
-        <v>1.91</v>
+        <v>1.12</v>
       </c>
       <c r="BE318">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BF318">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="BG318">
         <v>1.26</v>
@@ -67230,28 +67230,28 @@
         <v>3.22</v>
       </c>
       <c r="BI318">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BJ318">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="BK318">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="BL318">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="BM318">
-        <v>2.42</v>
+        <v>2.13</v>
       </c>
       <c r="BN318">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="BO318">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="BP318">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="319" spans="1:68">
@@ -67259,7 +67259,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>7516606</v>
+        <v>7516612</v>
       </c>
       <c r="C319" t="s">
         <v>68</v>
@@ -67274,151 +67274,151 @@
         <v>36</v>
       </c>
       <c r="G319" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H319" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J319">
         <v>0</v>
       </c>
       <c r="K319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O319" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P319" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="Q319">
+        <v>3.75</v>
+      </c>
+      <c r="R319">
+        <v>2.2</v>
+      </c>
+      <c r="S319">
+        <v>2.5</v>
+      </c>
+      <c r="T319">
+        <v>1.3</v>
+      </c>
+      <c r="U319">
+        <v>3.2</v>
+      </c>
+      <c r="V319">
+        <v>2.38</v>
+      </c>
+      <c r="W319">
+        <v>1.53</v>
+      </c>
+      <c r="X319">
+        <v>5.25</v>
+      </c>
+      <c r="Y319">
+        <v>1.12</v>
+      </c>
+      <c r="Z319">
+        <v>3.49</v>
+      </c>
+      <c r="AA319">
+        <v>3.69</v>
+      </c>
+      <c r="AB319">
+        <v>2.02</v>
+      </c>
+      <c r="AC319">
+        <v>1.04</v>
+      </c>
+      <c r="AD319">
+        <v>10</v>
+      </c>
+      <c r="AE319">
+        <v>1.22</v>
+      </c>
+      <c r="AF319">
+        <v>4.2</v>
+      </c>
+      <c r="AG319">
+        <v>1.61</v>
+      </c>
+      <c r="AH319">
+        <v>2.15</v>
+      </c>
+      <c r="AI319">
+        <v>1.55</v>
+      </c>
+      <c r="AJ319">
+        <v>2.3</v>
+      </c>
+      <c r="AK319">
+        <v>1.77</v>
+      </c>
+      <c r="AL319">
+        <v>1.22</v>
+      </c>
+      <c r="AM319">
+        <v>1.3</v>
+      </c>
+      <c r="AN319">
+        <v>1.56</v>
+      </c>
+      <c r="AO319">
         <v>1.44</v>
       </c>
-      <c r="R319">
-        <v>3.1</v>
-      </c>
-      <c r="S319">
-        <v>9.5</v>
-      </c>
-      <c r="T319">
-        <v>1.17</v>
-      </c>
-      <c r="U319">
-        <v>4.5</v>
-      </c>
-      <c r="V319">
-        <v>1.77</v>
-      </c>
-      <c r="W319">
-        <v>1.95</v>
-      </c>
-      <c r="X319">
-        <v>3.3</v>
-      </c>
-      <c r="Y319">
-        <v>1.28</v>
-      </c>
-      <c r="Z319">
-        <v>1.16</v>
-      </c>
-      <c r="AA319">
-        <v>7.95</v>
-      </c>
-      <c r="AB319">
-        <v>11.53</v>
-      </c>
-      <c r="AC319">
-        <v>1.01</v>
-      </c>
-      <c r="AD319">
-        <v>29</v>
-      </c>
-      <c r="AE319">
-        <v>1.09</v>
-      </c>
-      <c r="AF319">
+      <c r="AP319">
+        <v>1.53</v>
+      </c>
+      <c r="AQ319">
+        <v>1.41</v>
+      </c>
+      <c r="AR319">
+        <v>1.43</v>
+      </c>
+      <c r="AS319">
+        <v>1.43</v>
+      </c>
+      <c r="AT319">
+        <v>2.86</v>
+      </c>
+      <c r="AU319">
+        <v>5</v>
+      </c>
+      <c r="AV319">
+        <v>8</v>
+      </c>
+      <c r="AW319">
         <v>7</v>
       </c>
-      <c r="AG319">
-        <v>1.3</v>
-      </c>
-      <c r="AH319">
-        <v>3.45</v>
-      </c>
-      <c r="AI319">
-        <v>1.77</v>
-      </c>
-      <c r="AJ319">
-        <v>1.95</v>
-      </c>
-      <c r="AK319">
-        <v>1.03</v>
-      </c>
-      <c r="AL319">
-        <v>1.07</v>
-      </c>
-      <c r="AM319">
-        <v>5</v>
-      </c>
-      <c r="AN319">
-        <v>2.63</v>
-      </c>
-      <c r="AO319">
-        <v>1</v>
-      </c>
-      <c r="AP319">
-        <v>2.65</v>
-      </c>
-      <c r="AQ319">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR319">
-        <v>2.07</v>
-      </c>
-      <c r="AS319">
-        <v>1.19</v>
-      </c>
-      <c r="AT319">
-        <v>3.26</v>
-      </c>
-      <c r="AU319">
-        <v>7</v>
-      </c>
-      <c r="AV319">
-        <v>3</v>
-      </c>
-      <c r="AW319">
+      <c r="AX319">
+        <v>6</v>
+      </c>
+      <c r="AY319">
+        <v>13</v>
+      </c>
+      <c r="AZ319">
         <v>18</v>
       </c>
-      <c r="AX319">
-        <v>3</v>
-      </c>
-      <c r="AY319">
-        <v>31</v>
-      </c>
-      <c r="AZ319">
-        <v>7</v>
-      </c>
       <c r="BA319">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC319">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD319">
         <v>0</v>
@@ -67436,28 +67436,28 @@
         <v>0</v>
       </c>
       <c r="BI319">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="BJ319">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="BK319">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="BL319">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="BM319">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="BN319">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="BO319">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="BP319">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:68">
@@ -67465,7 +67465,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>7516607</v>
+        <v>7516611</v>
       </c>
       <c r="C320" t="s">
         <v>68</v>
@@ -67480,43 +67480,43 @@
         <v>36</v>
       </c>
       <c r="G320" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H320" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K320">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L320">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M320">
         <v>3</v>
       </c>
       <c r="N320">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O320" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P320" t="s">
         <v>447</v>
       </c>
       <c r="Q320">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="R320">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S320">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="T320">
         <v>1.3</v>
@@ -67525,7 +67525,7 @@
         <v>3.2</v>
       </c>
       <c r="V320">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="W320">
         <v>1.53</v>
@@ -67537,13 +67537,13 @@
         <v>1.12</v>
       </c>
       <c r="Z320">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="AA320">
-        <v>3.79</v>
+        <v>3.33</v>
       </c>
       <c r="AB320">
-        <v>3.62</v>
+        <v>2.98</v>
       </c>
       <c r="AC320">
         <v>1.04</v>
@@ -67552,79 +67552,79 @@
         <v>10</v>
       </c>
       <c r="AE320">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF320">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="AG320">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AH320">
         <v>2.15</v>
       </c>
       <c r="AI320">
+        <v>1.5</v>
+      </c>
+      <c r="AJ320">
+        <v>2.4</v>
+      </c>
+      <c r="AK320">
+        <v>1.42</v>
+      </c>
+      <c r="AL320">
+        <v>1.25</v>
+      </c>
+      <c r="AM320">
         <v>1.55</v>
       </c>
-      <c r="AJ320">
-        <v>2.3</v>
-      </c>
-      <c r="AK320">
-        <v>1.28</v>
-      </c>
-      <c r="AL320">
-        <v>1.22</v>
-      </c>
-      <c r="AM320">
-        <v>1.8</v>
-      </c>
       <c r="AN320">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AO320">
-        <v>0.6899999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AP320">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="AQ320">
-        <v>0.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR320">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AS320">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AT320">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AU320">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV320">
+        <v>7</v>
+      </c>
+      <c r="AW320">
+        <v>13</v>
+      </c>
+      <c r="AX320">
+        <v>4</v>
+      </c>
+      <c r="AY320">
+        <v>20</v>
+      </c>
+      <c r="AZ320">
+        <v>11</v>
+      </c>
+      <c r="BA320">
         <v>6</v>
       </c>
-      <c r="AW320">
-        <v>3</v>
-      </c>
-      <c r="AX320">
-        <v>15</v>
-      </c>
-      <c r="AY320">
-        <v>12</v>
-      </c>
-      <c r="AZ320">
-        <v>23</v>
-      </c>
-      <c r="BA320">
-        <v>2</v>
-      </c>
       <c r="BB320">
         <v>2</v>
       </c>
       <c r="BC320">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD320">
         <v>0</v>
@@ -67642,22 +67642,22 @@
         <v>0</v>
       </c>
       <c r="BI320">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BJ320">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="BK320">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="BL320">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="BM320">
-        <v>2.21</v>
+        <v>2.43</v>
       </c>
       <c r="BN320">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="BO320">
         <v>0</v>
@@ -67671,7 +67671,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>7516608</v>
+        <v>7516610</v>
       </c>
       <c r="C321" t="s">
         <v>68</v>
@@ -67686,70 +67686,70 @@
         <v>36</v>
       </c>
       <c r="G321" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H321" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321">
         <v>0</v>
       </c>
       <c r="K321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M321">
         <v>0</v>
       </c>
       <c r="N321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O321" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="P321" t="s">
         <v>91</v>
       </c>
       <c r="Q321">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="R321">
         <v>2.2</v>
       </c>
       <c r="S321">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="T321">
         <v>1.33</v>
       </c>
       <c r="U321">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V321">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="W321">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X321">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Y321">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z321">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AA321">
-        <v>3.83</v>
+        <v>3.33</v>
       </c>
       <c r="AB321">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
       <c r="AC321">
         <v>1.05</v>
@@ -67758,79 +67758,79 @@
         <v>9.5</v>
       </c>
       <c r="AE321">
+        <v>1.22</v>
+      </c>
+      <c r="AF321">
+        <v>4.2</v>
+      </c>
+      <c r="AG321">
+        <v>1.66</v>
+      </c>
+      <c r="AH321">
+        <v>2.05</v>
+      </c>
+      <c r="AI321">
+        <v>1.57</v>
+      </c>
+      <c r="AJ321">
+        <v>2.25</v>
+      </c>
+      <c r="AK321">
+        <v>1.28</v>
+      </c>
+      <c r="AL321">
         <v>1.25</v>
       </c>
-      <c r="AF321">
-        <v>3.85</v>
-      </c>
-      <c r="AG321">
-        <v>1.73</v>
-      </c>
-      <c r="AH321">
-        <v>2</v>
-      </c>
-      <c r="AI321">
-        <v>1.67</v>
-      </c>
-      <c r="AJ321">
-        <v>2.1</v>
-      </c>
-      <c r="AK321">
-        <v>1.22</v>
-      </c>
-      <c r="AL321">
-        <v>1.22</v>
-      </c>
       <c r="AM321">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AN321">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AO321">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP321">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ321">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="AR321">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AS321">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT321">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="AU321">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV321">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW321">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX321">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY321">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ321">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA321">
         <v>5</v>
       </c>
       <c r="BB321">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC321">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD321">
         <v>0</v>
@@ -67848,22 +67848,22 @@
         <v>0</v>
       </c>
       <c r="BI321">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="BJ321">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="BK321">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="BL321">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="BM321">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="BN321">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BO321">
         <v>0</v>
@@ -67877,7 +67877,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>7516610</v>
+        <v>7516607</v>
       </c>
       <c r="C322" t="s">
         <v>68</v>
@@ -67892,55 +67892,55 @@
         <v>36</v>
       </c>
       <c r="G322" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H322" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K322">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L322">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M322">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N322">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O322" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="P322" t="s">
-        <v>91</v>
+        <v>448</v>
       </c>
       <c r="Q322">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R322">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S322">
         <v>3.9</v>
       </c>
       <c r="T322">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U322">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="V322">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="W322">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X322">
         <v>5.25</v>
@@ -67949,94 +67949,94 @@
         <v>1.12</v>
       </c>
       <c r="Z322">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA322">
-        <v>3.33</v>
+        <v>3.79</v>
       </c>
       <c r="AB322">
-        <v>3.99</v>
+        <v>3.62</v>
       </c>
       <c r="AC322">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD322">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE322">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF322">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AG322">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AH322">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AI322">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AJ322">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AK322">
         <v>1.28</v>
       </c>
       <c r="AL322">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM322">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AN322">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="AO322">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP322">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ322">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="AR322">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS322">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AT322">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="AU322">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV322">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW322">
         <v>3</v>
       </c>
       <c r="AX322">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AY322">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ322">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BA322">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB322">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC322">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BD322">
         <v>0</v>
@@ -68054,22 +68054,22 @@
         <v>0</v>
       </c>
       <c r="BI322">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="BJ322">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="BK322">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="BL322">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="BM322">
-        <v>2.51</v>
+        <v>2.21</v>
       </c>
       <c r="BN322">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="BO322">
         <v>0</v>
@@ -68083,7 +68083,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>7516611</v>
+        <v>7516606</v>
       </c>
       <c r="C323" t="s">
         <v>68</v>
@@ -68098,148 +68098,148 @@
         <v>36</v>
       </c>
       <c r="G323" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H323" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K323">
         <v>2</v>
       </c>
       <c r="L323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
         <v>3</v>
       </c>
-      <c r="N323">
+      <c r="O323" t="s">
+        <v>309</v>
+      </c>
+      <c r="P323" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q323">
+        <v>1.44</v>
+      </c>
+      <c r="R323">
+        <v>3.1</v>
+      </c>
+      <c r="S323">
+        <v>9.5</v>
+      </c>
+      <c r="T323">
+        <v>1.17</v>
+      </c>
+      <c r="U323">
+        <v>4.5</v>
+      </c>
+      <c r="V323">
+        <v>1.77</v>
+      </c>
+      <c r="W323">
+        <v>1.95</v>
+      </c>
+      <c r="X323">
+        <v>3.3</v>
+      </c>
+      <c r="Y323">
+        <v>1.28</v>
+      </c>
+      <c r="Z323">
+        <v>1.16</v>
+      </c>
+      <c r="AA323">
+        <v>7.95</v>
+      </c>
+      <c r="AB323">
+        <v>11.53</v>
+      </c>
+      <c r="AC323">
+        <v>1.01</v>
+      </c>
+      <c r="AD323">
+        <v>29</v>
+      </c>
+      <c r="AE323">
+        <v>1.09</v>
+      </c>
+      <c r="AF323">
+        <v>7</v>
+      </c>
+      <c r="AG323">
+        <v>1.3</v>
+      </c>
+      <c r="AH323">
+        <v>3.45</v>
+      </c>
+      <c r="AI323">
+        <v>1.77</v>
+      </c>
+      <c r="AJ323">
+        <v>1.95</v>
+      </c>
+      <c r="AK323">
+        <v>1.03</v>
+      </c>
+      <c r="AL323">
+        <v>1.07</v>
+      </c>
+      <c r="AM323">
         <v>5</v>
       </c>
-      <c r="O323" t="s">
-        <v>307</v>
-      </c>
-      <c r="P323" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q323">
-        <v>2.85</v>
-      </c>
-      <c r="R323">
-        <v>2.2</v>
-      </c>
-      <c r="S323">
-        <v>3.2</v>
-      </c>
-      <c r="T323">
-        <v>1.3</v>
-      </c>
-      <c r="U323">
-        <v>3.2</v>
-      </c>
-      <c r="V323">
-        <v>2.38</v>
-      </c>
-      <c r="W323">
-        <v>1.53</v>
-      </c>
-      <c r="X323">
-        <v>5.25</v>
-      </c>
-      <c r="Y323">
-        <v>1.12</v>
-      </c>
-      <c r="Z323">
-        <v>2.42</v>
-      </c>
-      <c r="AA323">
-        <v>3.33</v>
-      </c>
-      <c r="AB323">
-        <v>2.98</v>
-      </c>
-      <c r="AC323">
-        <v>1.04</v>
-      </c>
-      <c r="AD323">
-        <v>10</v>
-      </c>
-      <c r="AE323">
-        <v>1.22</v>
-      </c>
-      <c r="AF323">
-        <v>4.2</v>
-      </c>
-      <c r="AG323">
-        <v>1.65</v>
-      </c>
-      <c r="AH323">
-        <v>2.15</v>
-      </c>
-      <c r="AI323">
-        <v>1.5</v>
-      </c>
-      <c r="AJ323">
-        <v>2.4</v>
-      </c>
-      <c r="AK323">
-        <v>1.42</v>
-      </c>
-      <c r="AL323">
-        <v>1.25</v>
-      </c>
-      <c r="AM323">
-        <v>1.55</v>
-      </c>
       <c r="AN323">
-        <v>1.38</v>
+        <v>2.63</v>
       </c>
       <c r="AO323">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP323">
-        <v>1.29</v>
+        <v>2.65</v>
       </c>
       <c r="AQ323">
-        <v>1.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR323">
-        <v>1.71</v>
+        <v>2.07</v>
       </c>
       <c r="AS323">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT323">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="AU323">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV323">
+        <v>3</v>
+      </c>
+      <c r="AW323">
+        <v>18</v>
+      </c>
+      <c r="AX323">
+        <v>3</v>
+      </c>
+      <c r="AY323">
+        <v>31</v>
+      </c>
+      <c r="AZ323">
         <v>7</v>
       </c>
-      <c r="AW323">
-        <v>13</v>
-      </c>
-      <c r="AX323">
-        <v>4</v>
-      </c>
-      <c r="AY323">
-        <v>20</v>
-      </c>
-      <c r="AZ323">
-        <v>11</v>
-      </c>
       <c r="BA323">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC323">
         <v>8</v>
@@ -68260,28 +68260,28 @@
         <v>0</v>
       </c>
       <c r="BI323">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="BJ323">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="BK323">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="BL323">
-        <v>1.87</v>
+        <v>2.28</v>
       </c>
       <c r="BM323">
-        <v>2.43</v>
+        <v>1.96</v>
       </c>
       <c r="BN323">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="BO323">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="BP323">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="324" spans="1:68">
@@ -68289,7 +68289,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>7516612</v>
+        <v>7516605</v>
       </c>
       <c r="C324" t="s">
         <v>68</v>
@@ -68304,10 +68304,10 @@
         <v>36</v>
       </c>
       <c r="G324" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H324" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I324">
         <v>1</v>
@@ -68328,166 +68328,166 @@
         <v>2</v>
       </c>
       <c r="O324" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="P324" t="s">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="Q324">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R324">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S324">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="T324">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U324">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="V324">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="W324">
+        <v>1.42</v>
+      </c>
+      <c r="X324">
+        <v>6.25</v>
+      </c>
+      <c r="Y324">
+        <v>1.09</v>
+      </c>
+      <c r="Z324">
+        <v>1.98</v>
+      </c>
+      <c r="AA324">
+        <v>3.62</v>
+      </c>
+      <c r="AB324">
+        <v>3.68</v>
+      </c>
+      <c r="AC324">
+        <v>1.05</v>
+      </c>
+      <c r="AD324">
+        <v>9.5</v>
+      </c>
+      <c r="AE324">
+        <v>1.28</v>
+      </c>
+      <c r="AF324">
+        <v>3.65</v>
+      </c>
+      <c r="AG324">
+        <v>1.85</v>
+      </c>
+      <c r="AH324">
+        <v>1.99</v>
+      </c>
+      <c r="AI324">
+        <v>1.62</v>
+      </c>
+      <c r="AJ324">
+        <v>2.15</v>
+      </c>
+      <c r="AK324">
+        <v>1.44</v>
+      </c>
+      <c r="AL324">
+        <v>1.25</v>
+      </c>
+      <c r="AM324">
         <v>1.53</v>
       </c>
-      <c r="X324">
-        <v>5.25</v>
-      </c>
-      <c r="Y324">
-        <v>1.12</v>
-      </c>
-      <c r="Z324">
-        <v>3.49</v>
-      </c>
-      <c r="AA324">
-        <v>3.69</v>
-      </c>
-      <c r="AB324">
-        <v>2.02</v>
-      </c>
-      <c r="AC324">
-        <v>1.04</v>
-      </c>
-      <c r="AD324">
-        <v>10</v>
-      </c>
-      <c r="AE324">
-        <v>1.22</v>
-      </c>
-      <c r="AF324">
-        <v>4.2</v>
-      </c>
-      <c r="AG324">
-        <v>1.61</v>
-      </c>
-      <c r="AH324">
-        <v>2.15</v>
-      </c>
-      <c r="AI324">
+      <c r="AN324">
+        <v>1.19</v>
+      </c>
+      <c r="AO324">
+        <v>0.75</v>
+      </c>
+      <c r="AP324">
+        <v>1.18</v>
+      </c>
+      <c r="AQ324">
+        <v>0.76</v>
+      </c>
+      <c r="AR324">
+        <v>1.41</v>
+      </c>
+      <c r="AS324">
+        <v>1.29</v>
+      </c>
+      <c r="AT324">
+        <v>2.7</v>
+      </c>
+      <c r="AU324">
+        <v>6</v>
+      </c>
+      <c r="AV324">
+        <v>7</v>
+      </c>
+      <c r="AW324">
+        <v>11</v>
+      </c>
+      <c r="AX324">
+        <v>4</v>
+      </c>
+      <c r="AY324">
+        <v>21</v>
+      </c>
+      <c r="AZ324">
+        <v>12</v>
+      </c>
+      <c r="BA324">
+        <v>5</v>
+      </c>
+      <c r="BB324">
+        <v>4</v>
+      </c>
+      <c r="BC324">
+        <v>9</v>
+      </c>
+      <c r="BD324">
+        <v>1.91</v>
+      </c>
+      <c r="BE324">
+        <v>8</v>
+      </c>
+      <c r="BF324">
+        <v>2.1</v>
+      </c>
+      <c r="BG324">
+        <v>1.26</v>
+      </c>
+      <c r="BH324">
+        <v>3.22</v>
+      </c>
+      <c r="BI324">
         <v>1.55</v>
       </c>
-      <c r="AJ324">
-        <v>2.3</v>
-      </c>
-      <c r="AK324">
-        <v>1.77</v>
-      </c>
-      <c r="AL324">
-        <v>1.22</v>
-      </c>
-      <c r="AM324">
-        <v>1.3</v>
-      </c>
-      <c r="AN324">
-        <v>1.56</v>
-      </c>
-      <c r="AO324">
-        <v>1.44</v>
-      </c>
-      <c r="AP324">
-        <v>1.53</v>
-      </c>
-      <c r="AQ324">
-        <v>1.41</v>
-      </c>
-      <c r="AR324">
-        <v>1.43</v>
-      </c>
-      <c r="AS324">
-        <v>1.43</v>
-      </c>
-      <c r="AT324">
-        <v>2.86</v>
-      </c>
-      <c r="AU324">
-        <v>5</v>
-      </c>
-      <c r="AV324">
-        <v>8</v>
-      </c>
-      <c r="AW324">
-        <v>7</v>
-      </c>
-      <c r="AX324">
-        <v>6</v>
-      </c>
-      <c r="AY324">
-        <v>13</v>
-      </c>
-      <c r="AZ324">
-        <v>18</v>
-      </c>
-      <c r="BA324">
-        <v>4</v>
-      </c>
-      <c r="BB324">
-        <v>2</v>
-      </c>
-      <c r="BC324">
-        <v>6</v>
-      </c>
-      <c r="BD324">
-        <v>0</v>
-      </c>
-      <c r="BE324">
-        <v>0</v>
-      </c>
-      <c r="BF324">
-        <v>0</v>
-      </c>
-      <c r="BG324">
-        <v>0</v>
-      </c>
-      <c r="BH324">
-        <v>0</v>
-      </c>
-      <c r="BI324">
-        <v>1.58</v>
-      </c>
       <c r="BJ324">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="BK324">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="BL324">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="BM324">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="BN324">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BO324">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="BP324">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="325" spans="1:68">
@@ -68495,7 +68495,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>7516613</v>
+        <v>7516608</v>
       </c>
       <c r="C325" t="s">
         <v>68</v>
@@ -68510,10 +68510,10 @@
         <v>36</v>
       </c>
       <c r="G325" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H325" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I325">
         <v>1</v>
@@ -68525,175 +68525,175 @@
         <v>1</v>
       </c>
       <c r="L325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N325">
+        <v>1</v>
+      </c>
+      <c r="O325" t="s">
+        <v>255</v>
+      </c>
+      <c r="P325" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q325">
+        <v>2.3</v>
+      </c>
+      <c r="R325">
+        <v>2.2</v>
+      </c>
+      <c r="S325">
+        <v>4.5</v>
+      </c>
+      <c r="T325">
+        <v>1.33</v>
+      </c>
+      <c r="U325">
         <v>3</v>
       </c>
-      <c r="O325" t="s">
-        <v>309</v>
-      </c>
-      <c r="P325" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q325">
-        <v>1.53</v>
-      </c>
-      <c r="R325">
-        <v>3</v>
-      </c>
-      <c r="S325">
-        <v>7.5</v>
-      </c>
-      <c r="T325">
-        <v>1.17</v>
-      </c>
-      <c r="U325">
-        <v>4.5</v>
-      </c>
       <c r="V325">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="W325">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="X325">
-        <v>3.7</v>
+        <v>5.75</v>
       </c>
       <c r="Y325">
+        <v>1.1</v>
+      </c>
+      <c r="Z325">
+        <v>1.81</v>
+      </c>
+      <c r="AA325">
+        <v>3.83</v>
+      </c>
+      <c r="AB325">
+        <v>4.16</v>
+      </c>
+      <c r="AC325">
+        <v>1.05</v>
+      </c>
+      <c r="AD325">
+        <v>9.5</v>
+      </c>
+      <c r="AE325">
+        <v>1.25</v>
+      </c>
+      <c r="AF325">
+        <v>3.85</v>
+      </c>
+      <c r="AG325">
+        <v>1.73</v>
+      </c>
+      <c r="AH325">
+        <v>2</v>
+      </c>
+      <c r="AI325">
+        <v>1.67</v>
+      </c>
+      <c r="AJ325">
+        <v>2.1</v>
+      </c>
+      <c r="AK325">
         <v>1.22</v>
       </c>
-      <c r="Z325">
+      <c r="AL325">
         <v>1.22</v>
       </c>
-      <c r="AA325">
-        <v>7.01</v>
-      </c>
-      <c r="AB325">
-        <v>10.24</v>
-      </c>
-      <c r="AC325">
-        <v>1.01</v>
-      </c>
-      <c r="AD325">
-        <v>26</v>
-      </c>
-      <c r="AE325">
-        <v>1.09</v>
-      </c>
-      <c r="AF325">
-        <v>7</v>
-      </c>
-      <c r="AG325">
-        <v>1.33</v>
-      </c>
-      <c r="AH325">
-        <v>3.2</v>
-      </c>
-      <c r="AI325">
-        <v>1.73</v>
-      </c>
-      <c r="AJ325">
-        <v>2</v>
-      </c>
-      <c r="AK325">
-        <v>1.05</v>
-      </c>
-      <c r="AL325">
-        <v>1.1</v>
-      </c>
       <c r="AM325">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="AN325">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="AO325">
-        <v>1.18</v>
+        <v>0.5</v>
       </c>
       <c r="AP325">
-        <v>2.41</v>
+        <v>1.88</v>
       </c>
       <c r="AQ325">
-        <v>1.11</v>
+        <v>0.47</v>
       </c>
       <c r="AR325">
-        <v>2.15</v>
+        <v>1.56</v>
       </c>
       <c r="AS325">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AT325">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="AU325">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV325">
+        <v>0</v>
+      </c>
+      <c r="AW325">
         <v>5</v>
-      </c>
-      <c r="AW325">
-        <v>12</v>
       </c>
       <c r="AX325">
         <v>4</v>
       </c>
       <c r="AY325">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ325">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA325">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB325">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC325">
         <v>9</v>
       </c>
       <c r="BD325">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="BE325">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BF325">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="BG325">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BH325">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="BI325">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BJ325">
-        <v>2.51</v>
+        <v>2.25</v>
       </c>
       <c r="BK325">
-        <v>1.69</v>
+        <v>2.01</v>
       </c>
       <c r="BL325">
-        <v>2.13</v>
+        <v>1.78</v>
       </c>
       <c r="BM325">
-        <v>2.13</v>
+        <v>2.55</v>
       </c>
       <c r="BN325">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="BO325">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BP325">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:68">
@@ -69319,7 +69319,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>7516620</v>
+        <v>7516614</v>
       </c>
       <c r="C329" t="s">
         <v>68</v>
@@ -69334,28 +69334,28 @@
         <v>37</v>
       </c>
       <c r="G329" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H329" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I329">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329">
+        <v>2</v>
+      </c>
+      <c r="N329">
         <v>3</v>
-      </c>
-      <c r="L329">
-        <v>2</v>
-      </c>
-      <c r="M329">
-        <v>3</v>
-      </c>
-      <c r="N329">
-        <v>5</v>
       </c>
       <c r="O329" t="s">
         <v>312</v>
@@ -69364,58 +69364,58 @@
         <v>451</v>
       </c>
       <c r="Q329">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="R329">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="S329">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T329">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="U329">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="V329">
+        <v>2.25</v>
+      </c>
+      <c r="W329">
         <v>1.57</v>
       </c>
-      <c r="W329">
-        <v>2.25</v>
-      </c>
       <c r="X329">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y329">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="Z329">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AA329">
-        <v>10.92</v>
+        <v>4.33</v>
       </c>
       <c r="AB329">
-        <v>16.16</v>
+        <v>6.25</v>
       </c>
       <c r="AC329">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD329">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AE329">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AF329">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AG329">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="AH329">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="AI329">
         <v>1.73</v>
@@ -69424,100 +69424,100 @@
         <v>2</v>
       </c>
       <c r="AK329">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AL329">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="AM329">
-        <v>6.75</v>
+        <v>2.4</v>
       </c>
       <c r="AN329">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="AO329">
-        <v>0.29</v>
+        <v>0.88</v>
       </c>
       <c r="AP329">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="AQ329">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AR329">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AS329">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AT329">
-        <v>2.51</v>
+        <v>3.02</v>
       </c>
       <c r="AU329">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV329">
+        <v>6</v>
+      </c>
+      <c r="AW329">
+        <v>23</v>
+      </c>
+      <c r="AX329">
         <v>5</v>
       </c>
-      <c r="AW329">
-        <v>21</v>
-      </c>
-      <c r="AX329">
-        <v>3</v>
-      </c>
       <c r="AY329">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AZ329">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA329">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB329">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC329">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD329">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="BE329">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF329">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="BG329">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH329">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI329">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BJ329">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="BK329">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="BL329">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="BM329">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="BN329">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="BO329">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BP329">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="330" spans="1:68">
@@ -69525,7 +69525,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>7516614</v>
+        <v>7516616</v>
       </c>
       <c r="C330" t="s">
         <v>68</v>
@@ -69540,190 +69540,190 @@
         <v>37</v>
       </c>
       <c r="G330" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H330" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I330">
         <v>0</v>
       </c>
       <c r="J330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L330">
         <v>1</v>
       </c>
       <c r="M330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N330">
+        <v>2</v>
+      </c>
+      <c r="O330" t="s">
+        <v>295</v>
+      </c>
+      <c r="P330" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q330">
+        <v>4.33</v>
+      </c>
+      <c r="R330">
+        <v>2.2</v>
+      </c>
+      <c r="S330">
+        <v>2.6</v>
+      </c>
+      <c r="T330">
+        <v>1.36</v>
+      </c>
+      <c r="U330">
         <v>3</v>
       </c>
-      <c r="O330" t="s">
-        <v>313</v>
-      </c>
-      <c r="P330" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q330">
+      <c r="V330">
+        <v>2.75</v>
+      </c>
+      <c r="W330">
+        <v>1.4</v>
+      </c>
+      <c r="X330">
+        <v>7</v>
+      </c>
+      <c r="Y330">
+        <v>1.1</v>
+      </c>
+      <c r="Z330">
+        <v>3.5</v>
+      </c>
+      <c r="AA330">
+        <v>3.6</v>
+      </c>
+      <c r="AB330">
+        <v>2</v>
+      </c>
+      <c r="AC330">
+        <v>1.05</v>
+      </c>
+      <c r="AD330">
+        <v>9.5</v>
+      </c>
+      <c r="AE330">
+        <v>1.28</v>
+      </c>
+      <c r="AF330">
+        <v>3.55</v>
+      </c>
+      <c r="AG330">
+        <v>1.8</v>
+      </c>
+      <c r="AH330">
         <v>1.91</v>
       </c>
-      <c r="R330">
-        <v>2.6</v>
-      </c>
-      <c r="S330">
+      <c r="AI330">
+        <v>1.8</v>
+      </c>
+      <c r="AJ330">
+        <v>1.91</v>
+      </c>
+      <c r="AK330">
+        <v>1.77</v>
+      </c>
+      <c r="AL330">
+        <v>1.28</v>
+      </c>
+      <c r="AM330">
+        <v>1.29</v>
+      </c>
+      <c r="AN330">
+        <v>1.65</v>
+      </c>
+      <c r="AO330">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP330">
+        <v>1.61</v>
+      </c>
+      <c r="AQ330">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR330">
+        <v>1.52</v>
+      </c>
+      <c r="AS330">
+        <v>1.13</v>
+      </c>
+      <c r="AT330">
+        <v>2.65</v>
+      </c>
+      <c r="AU330">
         <v>6</v>
-      </c>
-      <c r="T330">
-        <v>1.25</v>
-      </c>
-      <c r="U330">
-        <v>3.75</v>
-      </c>
-      <c r="V330">
-        <v>2.25</v>
-      </c>
-      <c r="W330">
-        <v>1.57</v>
-      </c>
-      <c r="X330">
-        <v>5.5</v>
-      </c>
-      <c r="Y330">
-        <v>1.14</v>
-      </c>
-      <c r="Z330">
-        <v>1.44</v>
-      </c>
-      <c r="AA330">
-        <v>4.33</v>
-      </c>
-      <c r="AB330">
-        <v>6.25</v>
-      </c>
-      <c r="AC330">
-        <v>1.03</v>
-      </c>
-      <c r="AD330">
-        <v>11</v>
-      </c>
-      <c r="AE330">
-        <v>1.2</v>
-      </c>
-      <c r="AF330">
-        <v>4.5</v>
-      </c>
-      <c r="AG330">
-        <v>1.57</v>
-      </c>
-      <c r="AH330">
-        <v>2.35</v>
-      </c>
-      <c r="AI330">
-        <v>1.73</v>
-      </c>
-      <c r="AJ330">
-        <v>2</v>
-      </c>
-      <c r="AK330">
-        <v>1.14</v>
-      </c>
-      <c r="AL330">
-        <v>1.21</v>
-      </c>
-      <c r="AM330">
-        <v>2.4</v>
-      </c>
-      <c r="AN330">
-        <v>2.06</v>
-      </c>
-      <c r="AO330">
-        <v>0.88</v>
-      </c>
-      <c r="AP330">
-        <v>1.94</v>
-      </c>
-      <c r="AQ330">
-        <v>1</v>
-      </c>
-      <c r="AR330">
-        <v>1.8</v>
-      </c>
-      <c r="AS330">
-        <v>1.22</v>
-      </c>
-      <c r="AT330">
-        <v>3.02</v>
-      </c>
-      <c r="AU330">
-        <v>2</v>
       </c>
       <c r="AV330">
         <v>6</v>
       </c>
       <c r="AW330">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AX330">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY330">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AZ330">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA330">
+        <v>8</v>
+      </c>
+      <c r="BB330">
         <v>6</v>
       </c>
-      <c r="BB330">
-        <v>7</v>
-      </c>
       <c r="BC330">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD330">
-        <v>1.38</v>
+        <v>2.18</v>
       </c>
       <c r="BE330">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF330">
-        <v>3.4</v>
+        <v>1.82</v>
       </c>
       <c r="BG330">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="BH330">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BI330">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BJ330">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BK330">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="BL330">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="BM330">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="BN330">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BO330">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="BP330">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="331" spans="1:68">
@@ -69773,7 +69773,7 @@
         <v>193</v>
       </c>
       <c r="P331" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q331">
         <v>3.6</v>
@@ -69937,7 +69937,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>7516616</v>
+        <v>7516618</v>
       </c>
       <c r="C332" t="s">
         <v>68</v>
@@ -69952,10 +69952,10 @@
         <v>37</v>
       </c>
       <c r="G332" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H332" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -69967,175 +69967,175 @@
         <v>1</v>
       </c>
       <c r="L332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N332">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O332" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="P332" t="s">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="Q332">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R332">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S332">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="T332">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U332">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V332">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W332">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X332">
+        <v>6</v>
+      </c>
+      <c r="Y332">
+        <v>1.13</v>
+      </c>
+      <c r="Z332">
+        <v>2.25</v>
+      </c>
+      <c r="AA332">
+        <v>3.5</v>
+      </c>
+      <c r="AB332">
+        <v>2.9</v>
+      </c>
+      <c r="AC332">
+        <v>1.04</v>
+      </c>
+      <c r="AD332">
+        <v>10</v>
+      </c>
+      <c r="AE332">
+        <v>1.22</v>
+      </c>
+      <c r="AF332">
+        <v>4.2</v>
+      </c>
+      <c r="AG332">
+        <v>1.66</v>
+      </c>
+      <c r="AH332">
+        <v>2.05</v>
+      </c>
+      <c r="AI332">
+        <v>1.57</v>
+      </c>
+      <c r="AJ332">
+        <v>2.25</v>
+      </c>
+      <c r="AK332">
+        <v>1.38</v>
+      </c>
+      <c r="AL332">
+        <v>1.29</v>
+      </c>
+      <c r="AM332">
+        <v>1.6</v>
+      </c>
+      <c r="AN332">
+        <v>2</v>
+      </c>
+      <c r="AO332">
+        <v>1.65</v>
+      </c>
+      <c r="AP332">
+        <v>1.94</v>
+      </c>
+      <c r="AQ332">
+        <v>1.61</v>
+      </c>
+      <c r="AR332">
+        <v>1.71</v>
+      </c>
+      <c r="AS332">
+        <v>1.19</v>
+      </c>
+      <c r="AT332">
+        <v>2.9</v>
+      </c>
+      <c r="AU332">
         <v>7</v>
       </c>
-      <c r="Y332">
-        <v>1.1</v>
-      </c>
-      <c r="Z332">
-        <v>3.5</v>
-      </c>
-      <c r="AA332">
-        <v>3.6</v>
-      </c>
-      <c r="AB332">
-        <v>2</v>
-      </c>
-      <c r="AC332">
-        <v>1.05</v>
-      </c>
-      <c r="AD332">
-        <v>9.5</v>
-      </c>
-      <c r="AE332">
-        <v>1.28</v>
-      </c>
-      <c r="AF332">
-        <v>3.55</v>
-      </c>
-      <c r="AG332">
-        <v>1.8</v>
-      </c>
-      <c r="AH332">
-        <v>1.91</v>
-      </c>
-      <c r="AI332">
-        <v>1.8</v>
-      </c>
-      <c r="AJ332">
-        <v>1.91</v>
-      </c>
-      <c r="AK332">
-        <v>1.77</v>
-      </c>
-      <c r="AL332">
-        <v>1.28</v>
-      </c>
-      <c r="AM332">
-        <v>1.29</v>
-      </c>
-      <c r="AN332">
+      <c r="AV332">
+        <v>4</v>
+      </c>
+      <c r="AW332">
+        <v>16</v>
+      </c>
+      <c r="AX332">
+        <v>4</v>
+      </c>
+      <c r="AY332">
+        <v>27</v>
+      </c>
+      <c r="AZ332">
+        <v>10</v>
+      </c>
+      <c r="BA332">
+        <v>11</v>
+      </c>
+      <c r="BB332">
+        <v>2</v>
+      </c>
+      <c r="BC332">
+        <v>13</v>
+      </c>
+      <c r="BD332">
+        <v>1.73</v>
+      </c>
+      <c r="BE332">
+        <v>6.75</v>
+      </c>
+      <c r="BF332">
+        <v>2.32</v>
+      </c>
+      <c r="BG332">
+        <v>1.25</v>
+      </c>
+      <c r="BH332">
+        <v>3.45</v>
+      </c>
+      <c r="BI332">
+        <v>1.44</v>
+      </c>
+      <c r="BJ332">
+        <v>2.55</v>
+      </c>
+      <c r="BK332">
+        <v>1.7</v>
+      </c>
+      <c r="BL332">
+        <v>2</v>
+      </c>
+      <c r="BM332">
+        <v>2.08</v>
+      </c>
+      <c r="BN332">
         <v>1.65</v>
       </c>
-      <c r="AO332">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP332">
-        <v>1.61</v>
-      </c>
-      <c r="AQ332">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR332">
-        <v>1.52</v>
-      </c>
-      <c r="AS332">
-        <v>1.13</v>
-      </c>
-      <c r="AT332">
+      <c r="BO332">
         <v>2.65</v>
       </c>
-      <c r="AU332">
-        <v>6</v>
-      </c>
-      <c r="AV332">
-        <v>6</v>
-      </c>
-      <c r="AW332">
-        <v>5</v>
-      </c>
-      <c r="AX332">
-        <v>11</v>
-      </c>
-      <c r="AY332">
-        <v>11</v>
-      </c>
-      <c r="AZ332">
-        <v>19</v>
-      </c>
-      <c r="BA332">
-        <v>8</v>
-      </c>
-      <c r="BB332">
-        <v>6</v>
-      </c>
-      <c r="BC332">
-        <v>14</v>
-      </c>
-      <c r="BD332">
-        <v>2.18</v>
-      </c>
-      <c r="BE332">
-        <v>6.4</v>
-      </c>
-      <c r="BF332">
-        <v>1.82</v>
-      </c>
-      <c r="BG332">
-        <v>1.33</v>
-      </c>
-      <c r="BH332">
-        <v>2.95</v>
-      </c>
-      <c r="BI332">
-        <v>1.57</v>
-      </c>
-      <c r="BJ332">
-        <v>2.23</v>
-      </c>
-      <c r="BK332">
-        <v>1.92</v>
-      </c>
-      <c r="BL332">
-        <v>1.77</v>
-      </c>
-      <c r="BM332">
-        <v>2.4</v>
-      </c>
-      <c r="BN332">
-        <v>1.49</v>
-      </c>
-      <c r="BO332">
-        <v>3.15</v>
-      </c>
       <c r="BP332">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="333" spans="1:68">
@@ -70143,7 +70143,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>7516618</v>
+        <v>7516620</v>
       </c>
       <c r="C333" t="s">
         <v>68</v>
@@ -70158,190 +70158,190 @@
         <v>37</v>
       </c>
       <c r="G333" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H333" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J333">
         <v>1</v>
       </c>
       <c r="K333">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L333">
         <v>2</v>
       </c>
       <c r="M333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N333">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O333" t="s">
         <v>314</v>
       </c>
       <c r="P333" t="s">
-        <v>111</v>
+        <v>453</v>
       </c>
       <c r="Q333">
-        <v>2.88</v>
+        <v>1.36</v>
       </c>
       <c r="R333">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="S333">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="T333">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="U333">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="V333">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="W333">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="X333">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Y333">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="Z333">
-        <v>2.25</v>
+        <v>1.08</v>
       </c>
       <c r="AA333">
-        <v>3.5</v>
+        <v>10.92</v>
       </c>
       <c r="AB333">
-        <v>2.9</v>
+        <v>16.16</v>
       </c>
       <c r="AC333">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD333">
+        <v>36</v>
+      </c>
+      <c r="AE333">
+        <v>1.06</v>
+      </c>
+      <c r="AF333">
+        <v>8.5</v>
+      </c>
+      <c r="AG333">
+        <v>1.18</v>
+      </c>
+      <c r="AH333">
+        <v>4.5</v>
+      </c>
+      <c r="AI333">
+        <v>1.73</v>
+      </c>
+      <c r="AJ333">
+        <v>2</v>
+      </c>
+      <c r="AK333">
+        <v>1.01</v>
+      </c>
+      <c r="AL333">
+        <v>1.05</v>
+      </c>
+      <c r="AM333">
+        <v>6.75</v>
+      </c>
+      <c r="AN333">
+        <v>1.82</v>
+      </c>
+      <c r="AO333">
+        <v>0.29</v>
+      </c>
+      <c r="AP333">
+        <v>1.72</v>
+      </c>
+      <c r="AQ333">
+        <v>0.44</v>
+      </c>
+      <c r="AR333">
+        <v>1.43</v>
+      </c>
+      <c r="AS333">
+        <v>1.08</v>
+      </c>
+      <c r="AT333">
+        <v>2.51</v>
+      </c>
+      <c r="AU333">
+        <v>8</v>
+      </c>
+      <c r="AV333">
+        <v>5</v>
+      </c>
+      <c r="AW333">
+        <v>21</v>
+      </c>
+      <c r="AX333">
+        <v>3</v>
+      </c>
+      <c r="AY333">
+        <v>39</v>
+      </c>
+      <c r="AZ333">
+        <v>9</v>
+      </c>
+      <c r="BA333">
         <v>10</v>
       </c>
-      <c r="AE333">
-        <v>1.22</v>
-      </c>
-      <c r="AF333">
-        <v>4.2</v>
-      </c>
-      <c r="AG333">
+      <c r="BB333">
+        <v>0</v>
+      </c>
+      <c r="BC333">
+        <v>10</v>
+      </c>
+      <c r="BD333">
+        <v>1.16</v>
+      </c>
+      <c r="BE333">
+        <v>9.5</v>
+      </c>
+      <c r="BF333">
+        <v>5.4</v>
+      </c>
+      <c r="BG333">
+        <v>1.24</v>
+      </c>
+      <c r="BH333">
+        <v>3.55</v>
+      </c>
+      <c r="BI333">
+        <v>1.4</v>
+      </c>
+      <c r="BJ333">
+        <v>2.65</v>
+      </c>
+      <c r="BK333">
         <v>1.66</v>
       </c>
-      <c r="AH333">
-        <v>2.05</v>
-      </c>
-      <c r="AI333">
-        <v>1.57</v>
-      </c>
-      <c r="AJ333">
-        <v>2.25</v>
-      </c>
-      <c r="AK333">
-        <v>1.38</v>
-      </c>
-      <c r="AL333">
-        <v>1.29</v>
-      </c>
-      <c r="AM333">
-        <v>1.6</v>
-      </c>
-      <c r="AN333">
-        <v>2</v>
-      </c>
-      <c r="AO333">
-        <v>1.65</v>
-      </c>
-      <c r="AP333">
-        <v>1.94</v>
-      </c>
-      <c r="AQ333">
-        <v>1.61</v>
-      </c>
-      <c r="AR333">
-        <v>1.71</v>
-      </c>
-      <c r="AS333">
-        <v>1.19</v>
-      </c>
-      <c r="AT333">
-        <v>2.9</v>
-      </c>
-      <c r="AU333">
-        <v>7</v>
-      </c>
-      <c r="AV333">
-        <v>4</v>
-      </c>
-      <c r="AW333">
-        <v>16</v>
-      </c>
-      <c r="AX333">
-        <v>4</v>
-      </c>
-      <c r="AY333">
-        <v>27</v>
-      </c>
-      <c r="AZ333">
-        <v>10</v>
-      </c>
-      <c r="BA333">
-        <v>11</v>
-      </c>
-      <c r="BB333">
-        <v>2</v>
-      </c>
-      <c r="BC333">
-        <v>13</v>
-      </c>
-      <c r="BD333">
-        <v>1.73</v>
-      </c>
-      <c r="BE333">
-        <v>6.75</v>
-      </c>
-      <c r="BF333">
-        <v>2.32</v>
-      </c>
-      <c r="BG333">
-        <v>1.25</v>
-      </c>
-      <c r="BH333">
-        <v>3.45</v>
-      </c>
-      <c r="BI333">
+      <c r="BL333">
+        <v>2.06</v>
+      </c>
+      <c r="BM333">
+        <v>2.04</v>
+      </c>
+      <c r="BN333">
+        <v>1.68</v>
+      </c>
+      <c r="BO333">
+        <v>2.55</v>
+      </c>
+      <c r="BP333">
         <v>1.44</v>
-      </c>
-      <c r="BJ333">
-        <v>2.55</v>
-      </c>
-      <c r="BK333">
-        <v>1.7</v>
-      </c>
-      <c r="BL333">
-        <v>2</v>
-      </c>
-      <c r="BM333">
-        <v>2.08</v>
-      </c>
-      <c r="BN333">
-        <v>1.65</v>
-      </c>
-      <c r="BO333">
-        <v>2.65</v>
-      </c>
-      <c r="BP333">
-        <v>1.41</v>
       </c>
     </row>
     <row r="334" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="457">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -964,6 +964,9 @@
     <t>['44', '53', '63', '66']</t>
   </si>
   <si>
+    <t>['17', '81']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1380,6 +1383,9 @@
   <si>
     <t>['27', '90+4']</t>
   </si>
+  <si>
+    <t>['33', '90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1740,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP334"/>
+  <dimension ref="A1:BP337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2077,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ2">
         <v>0.53</v>
@@ -2205,7 +2211,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2283,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3">
         <v>0.82</v>
@@ -2489,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2904,7 +2910,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3235,7 +3241,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3441,7 +3447,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3522,7 +3528,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ9">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3647,7 +3653,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3853,7 +3859,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -4059,7 +4065,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4265,7 +4271,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4471,7 +4477,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4677,7 +4683,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4883,7 +4889,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -5089,7 +5095,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5788,7 +5794,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ20">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -6119,7 +6125,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6325,7 +6331,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6403,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ23">
         <v>0.44</v>
@@ -6531,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6609,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24">
         <v>0.53</v>
@@ -6737,7 +6743,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7149,7 +7155,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7767,7 +7773,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7973,7 +7979,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8260,7 +8266,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -8591,7 +8597,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8797,7 +8803,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -9209,7 +9215,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9290,7 +9296,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -9493,7 +9499,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9621,7 +9627,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9699,7 +9705,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39">
         <v>2.22</v>
@@ -9827,7 +9833,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10239,7 +10245,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10445,7 +10451,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10523,7 +10529,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ43">
         <v>0.44</v>
@@ -10651,7 +10657,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10729,7 +10735,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ44">
         <v>0.59</v>
@@ -10938,7 +10944,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR45">
         <v>1.54</v>
@@ -11063,7 +11069,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11681,7 +11687,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11965,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ50">
         <v>0.5600000000000001</v>
@@ -12299,7 +12305,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12998,7 +13004,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ55">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.55</v>
@@ -13123,7 +13129,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13204,7 +13210,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -13329,7 +13335,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13410,7 +13416,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR57">
         <v>1.53</v>
@@ -13741,7 +13747,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13819,7 +13825,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ59">
         <v>1.39</v>
@@ -13947,7 +13953,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14153,7 +14159,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14359,7 +14365,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14565,7 +14571,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14643,7 +14649,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ63">
         <v>2.22</v>
@@ -14771,7 +14777,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14977,7 +14983,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15261,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66">
         <v>0.9399999999999999</v>
@@ -15389,7 +15395,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15676,7 +15682,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ68">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR68">
         <v>0.8</v>
@@ -16007,7 +16013,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16213,7 +16219,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16497,7 +16503,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ72">
         <v>0.89</v>
@@ -16831,7 +16837,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17118,7 +17124,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ75">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR75">
         <v>1.52</v>
@@ -17324,7 +17330,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ76">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -17449,7 +17455,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17527,7 +17533,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77">
         <v>2.61</v>
@@ -17655,7 +17661,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18067,7 +18073,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18273,7 +18279,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18479,7 +18485,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18685,7 +18691,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -19097,7 +19103,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19175,7 +19181,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ85">
         <v>1.61</v>
@@ -19384,7 +19390,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -20411,7 +20417,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ91">
         <v>1.41</v>
@@ -20620,7 +20626,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ92">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -21157,7 +21163,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21363,7 +21369,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21444,7 +21450,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ96">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21981,7 +21987,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22393,7 +22399,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22471,7 +22477,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ101">
         <v>0.9399999999999999</v>
@@ -22599,7 +22605,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22677,7 +22683,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ102">
         <v>0.9399999999999999</v>
@@ -22805,7 +22811,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23092,7 +23098,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ104">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23629,7 +23635,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23707,7 +23713,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ107">
         <v>1.61</v>
@@ -24247,7 +24253,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24453,7 +24459,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24740,7 +24746,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ112">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -25277,7 +25283,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25689,7 +25695,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25770,7 +25776,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ117">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -26179,7 +26185,7 @@
         <v>1.17</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ119">
         <v>0.47</v>
@@ -26513,7 +26519,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26719,7 +26725,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26800,7 +26806,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ122">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR122">
         <v>1.44</v>
@@ -27006,7 +27012,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ123">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.28</v>
@@ -27337,7 +27343,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27415,7 +27421,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ125">
         <v>1.11</v>
@@ -27955,7 +27961,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28367,7 +28373,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29191,7 +29197,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29887,7 +29893,7 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ137">
         <v>1.11</v>
@@ -30714,7 +30720,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ141">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR141">
         <v>1.1</v>
@@ -30917,7 +30923,7 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -31126,7 +31132,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ143">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR143">
         <v>1.95</v>
@@ -31251,7 +31257,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31457,7 +31463,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31535,10 +31541,10 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ145">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR145">
         <v>2.07</v>
@@ -31663,7 +31669,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -32075,7 +32081,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32693,7 +32699,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33105,7 +33111,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33311,7 +33317,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33723,7 +33729,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34010,7 +34016,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ157">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -34135,7 +34141,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34213,7 +34219,7 @@
         <v>1.11</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ158">
         <v>1.11</v>
@@ -34419,10 +34425,10 @@
         <v>0.75</v>
       </c>
       <c r="AP159">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ159">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR159">
         <v>2.09</v>
@@ -34547,7 +34553,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34628,7 +34634,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ160">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR160">
         <v>1.54</v>
@@ -34753,7 +34759,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34831,7 +34837,7 @@
         <v>0.5</v>
       </c>
       <c r="AP161">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ161">
         <v>0.59</v>
@@ -35577,7 +35583,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36607,7 +36613,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -37019,7 +37025,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38255,7 +38261,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38667,7 +38673,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -39079,7 +39085,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39285,7 +39291,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39491,7 +39497,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39572,7 +39578,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR184">
         <v>1.37</v>
@@ -39775,7 +39781,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ185">
         <v>0.82</v>
@@ -39903,7 +39909,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40187,7 +40193,7 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ187">
         <v>1.41</v>
@@ -40521,7 +40527,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40602,7 +40608,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ189">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR189">
         <v>2.02</v>
@@ -40727,7 +40733,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40805,7 +40811,7 @@
         <v>0.25</v>
       </c>
       <c r="AP190">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ190">
         <v>0.53</v>
@@ -40933,7 +40939,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41345,7 +41351,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41632,7 +41638,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ194">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41963,7 +41969,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42169,7 +42175,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42375,7 +42381,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42581,7 +42587,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42993,7 +42999,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43199,7 +43205,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43405,7 +43411,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43483,7 +43489,7 @@
         <v>1.09</v>
       </c>
       <c r="AP203">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ203">
         <v>1</v>
@@ -43611,7 +43617,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -43895,7 +43901,7 @@
         <v>0.5</v>
       </c>
       <c r="AP205">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ205">
         <v>0.44</v>
@@ -44101,10 +44107,10 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ206">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR206">
         <v>1.42</v>
@@ -44516,7 +44522,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ208">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR208">
         <v>1.34</v>
@@ -45053,7 +45059,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45340,7 +45346,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ212">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR212">
         <v>1.58</v>
@@ -45671,7 +45677,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q214">
         <v>3.3</v>
@@ -45877,7 +45883,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -46289,7 +46295,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46701,7 +46707,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -47191,7 +47197,7 @@
         <v>1.5</v>
       </c>
       <c r="AP221">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ221">
         <v>1.39</v>
@@ -47319,7 +47325,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47606,7 +47612,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ223">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR223">
         <v>1.54</v>
@@ -47731,7 +47737,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47937,7 +47943,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48221,7 +48227,7 @@
         <v>2.25</v>
       </c>
       <c r="AP226">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ226">
         <v>2.22</v>
@@ -48761,7 +48767,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48967,7 +48973,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49045,7 +49051,7 @@
         <v>2.82</v>
       </c>
       <c r="AP230">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ230">
         <v>2.61</v>
@@ -49460,7 +49466,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ232">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR232">
         <v>1.38</v>
@@ -49585,7 +49591,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49791,7 +49797,7 @@
         <v>254</v>
       </c>
       <c r="P234" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q234">
         <v>2.8</v>
@@ -50490,7 +50496,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ237">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR237">
         <v>1.51</v>
@@ -50615,7 +50621,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50693,7 +50699,7 @@
         <v>1.15</v>
       </c>
       <c r="AP238">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ238">
         <v>1</v>
@@ -50821,7 +50827,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51108,7 +51114,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR240">
         <v>1.28</v>
@@ -51233,7 +51239,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q241">
         <v>2.7</v>
@@ -51439,7 +51445,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q242">
         <v>1.64</v>
@@ -51645,7 +51651,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51851,7 +51857,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -52135,7 +52141,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP245">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ245">
         <v>0.5600000000000001</v>
@@ -52547,7 +52553,7 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ247">
         <v>0.89</v>
@@ -52675,7 +52681,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52756,7 +52762,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ248">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR248">
         <v>1.48</v>
@@ -53087,7 +53093,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53293,7 +53299,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53499,7 +53505,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53989,7 +53995,7 @@
         <v>0.71</v>
       </c>
       <c r="AP254">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ254">
         <v>0.89</v>
@@ -54323,7 +54329,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -55022,7 +55028,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ259">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR259">
         <v>1.69</v>
@@ -55147,7 +55153,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55559,7 +55565,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55640,7 +55646,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ262">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR262">
         <v>1.43</v>
@@ -55765,7 +55771,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55971,7 +55977,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56461,7 +56467,7 @@
         <v>1.79</v>
       </c>
       <c r="AP266">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ266">
         <v>1.61</v>
@@ -56589,7 +56595,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -57001,7 +57007,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57082,7 +57088,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ269">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR269">
         <v>2.11</v>
@@ -57207,7 +57213,7 @@
         <v>96</v>
       </c>
       <c r="P270" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q270">
         <v>3.5</v>
@@ -57285,7 +57291,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ270">
         <v>1.41</v>
@@ -57619,7 +57625,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57906,7 +57912,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ273">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR273">
         <v>1.32</v>
@@ -58237,7 +58243,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58318,7 +58324,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ275">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR275">
         <v>1.68</v>
@@ -58855,7 +58861,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59551,7 +59557,7 @@
         <v>1</v>
       </c>
       <c r="AP281">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ281">
         <v>0.9399999999999999</v>
@@ -59679,7 +59685,7 @@
         <v>283</v>
       </c>
       <c r="P282" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q282">
         <v>4.33</v>
@@ -59885,7 +59891,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -59963,7 +59969,7 @@
         <v>0.57</v>
       </c>
       <c r="AP283">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ283">
         <v>0.47</v>
@@ -60172,7 +60178,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ284">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR284">
         <v>1.2</v>
@@ -60297,7 +60303,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60915,7 +60921,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61327,7 +61333,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61739,7 +61745,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61945,7 +61951,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62357,7 +62363,7 @@
         <v>292</v>
       </c>
       <c r="P295" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q295">
         <v>2.38</v>
@@ -62563,7 +62569,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62975,7 +62981,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63056,7 +63062,7 @@
         <v>2</v>
       </c>
       <c r="AQ298">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR298">
         <v>1.83</v>
@@ -63259,7 +63265,7 @@
         <v>0.88</v>
       </c>
       <c r="AP299">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ299">
         <v>0.82</v>
@@ -63877,7 +63883,7 @@
         <v>0.53</v>
       </c>
       <c r="AP302">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ302">
         <v>0.47</v>
@@ -64005,7 +64011,7 @@
         <v>299</v>
       </c>
       <c r="P303" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64086,7 +64092,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ303">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR303">
         <v>1.31</v>
@@ -64498,7 +64504,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ305">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR305">
         <v>1.16</v>
@@ -64829,7 +64835,7 @@
         <v>301</v>
       </c>
       <c r="P307" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -64907,10 +64913,10 @@
         <v>0.73</v>
       </c>
       <c r="AP307">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ307">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR307">
         <v>1.71</v>
@@ -65035,7 +65041,7 @@
         <v>138</v>
       </c>
       <c r="P308" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q308">
         <v>4.33</v>
@@ -65653,7 +65659,7 @@
         <v>91</v>
       </c>
       <c r="P311" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q311">
         <v>2.88</v>
@@ -65859,7 +65865,7 @@
         <v>91</v>
       </c>
       <c r="P312" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66477,7 +66483,7 @@
         <v>303</v>
       </c>
       <c r="P315" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q315">
         <v>1.36</v>
@@ -66889,7 +66895,7 @@
         <v>91</v>
       </c>
       <c r="P317" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q317">
         <v>3.55</v>
@@ -67507,7 +67513,7 @@
         <v>307</v>
       </c>
       <c r="P320" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q320">
         <v>2.85</v>
@@ -67585,10 +67591,10 @@
         <v>1.25</v>
       </c>
       <c r="AP320">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ320">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR320">
         <v>1.71</v>
@@ -67791,7 +67797,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP321">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ321">
         <v>0.59</v>
@@ -67919,7 +67925,7 @@
         <v>308</v>
       </c>
       <c r="P322" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q322">
         <v>2.4</v>
@@ -68000,7 +68006,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ322">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR322">
         <v>1.54</v>
@@ -68203,7 +68209,7 @@
         <v>1</v>
       </c>
       <c r="AP323">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AQ323">
         <v>0.9399999999999999</v>
@@ -68412,7 +68418,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ324">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR324">
         <v>1.41</v>
@@ -68743,7 +68749,7 @@
         <v>310</v>
       </c>
       <c r="P326" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q326">
         <v>2.4</v>
@@ -68949,7 +68955,7 @@
         <v>91</v>
       </c>
       <c r="P327" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q327">
         <v>4</v>
@@ -69155,7 +69161,7 @@
         <v>311</v>
       </c>
       <c r="P328" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q328">
         <v>3.1</v>
@@ -69361,7 +69367,7 @@
         <v>312</v>
       </c>
       <c r="P329" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q329">
         <v>1.91</v>
@@ -69773,7 +69779,7 @@
         <v>193</v>
       </c>
       <c r="P331" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q331">
         <v>3.6</v>
@@ -70185,7 +70191,7 @@
         <v>314</v>
       </c>
       <c r="P333" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q333">
         <v>1.36</v>
@@ -70391,7 +70397,7 @@
         <v>315</v>
       </c>
       <c r="P334" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q334">
         <v>7.5</v>
@@ -70548,6 +70554,624 @@
       </c>
       <c r="BP334">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="335" spans="1:68">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>7516629</v>
+      </c>
+      <c r="C335" t="s">
+        <v>68</v>
+      </c>
+      <c r="D335" t="s">
+        <v>69</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45807.58333333334</v>
+      </c>
+      <c r="F335">
+        <v>38</v>
+      </c>
+      <c r="G335" t="s">
+        <v>72</v>
+      </c>
+      <c r="H335" t="s">
+        <v>88</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335">
+        <v>0</v>
+      </c>
+      <c r="M335">
+        <v>2</v>
+      </c>
+      <c r="N335">
+        <v>2</v>
+      </c>
+      <c r="O335" t="s">
+        <v>91</v>
+      </c>
+      <c r="P335" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q335">
+        <v>3</v>
+      </c>
+      <c r="R335">
+        <v>2.25</v>
+      </c>
+      <c r="S335">
+        <v>2.9</v>
+      </c>
+      <c r="T335">
+        <v>1.29</v>
+      </c>
+      <c r="U335">
+        <v>3.25</v>
+      </c>
+      <c r="V335">
+        <v>2.3</v>
+      </c>
+      <c r="W335">
+        <v>1.53</v>
+      </c>
+      <c r="X335">
+        <v>5.25</v>
+      </c>
+      <c r="Y335">
+        <v>1.13</v>
+      </c>
+      <c r="Z335">
+        <v>2.78</v>
+      </c>
+      <c r="AA335">
+        <v>3.55</v>
+      </c>
+      <c r="AB335">
+        <v>2.4</v>
+      </c>
+      <c r="AC335">
+        <v>1.04</v>
+      </c>
+      <c r="AD335">
+        <v>10</v>
+      </c>
+      <c r="AE335">
+        <v>1.2</v>
+      </c>
+      <c r="AF335">
+        <v>4.33</v>
+      </c>
+      <c r="AG335">
+        <v>1.62</v>
+      </c>
+      <c r="AH335">
+        <v>2.25</v>
+      </c>
+      <c r="AI335">
+        <v>1.52</v>
+      </c>
+      <c r="AJ335">
+        <v>2.35</v>
+      </c>
+      <c r="AK335">
+        <v>1.51</v>
+      </c>
+      <c r="AL335">
+        <v>1.28</v>
+      </c>
+      <c r="AM335">
+        <v>1.47</v>
+      </c>
+      <c r="AN335">
+        <v>2</v>
+      </c>
+      <c r="AO335">
+        <v>0.76</v>
+      </c>
+      <c r="AP335">
+        <v>1.89</v>
+      </c>
+      <c r="AQ335">
+        <v>0.89</v>
+      </c>
+      <c r="AR335">
+        <v>1.37</v>
+      </c>
+      <c r="AS335">
+        <v>1.31</v>
+      </c>
+      <c r="AT335">
+        <v>2.68</v>
+      </c>
+      <c r="AU335">
+        <v>3</v>
+      </c>
+      <c r="AV335">
+        <v>9</v>
+      </c>
+      <c r="AW335">
+        <v>7</v>
+      </c>
+      <c r="AX335">
+        <v>6</v>
+      </c>
+      <c r="AY335">
+        <v>10</v>
+      </c>
+      <c r="AZ335">
+        <v>16</v>
+      </c>
+      <c r="BA335">
+        <v>2</v>
+      </c>
+      <c r="BB335">
+        <v>2</v>
+      </c>
+      <c r="BC335">
+        <v>4</v>
+      </c>
+      <c r="BD335">
+        <v>1.94</v>
+      </c>
+      <c r="BE335">
+        <v>6.25</v>
+      </c>
+      <c r="BF335">
+        <v>2.07</v>
+      </c>
+      <c r="BG335">
+        <v>1.38</v>
+      </c>
+      <c r="BH335">
+        <v>2.75</v>
+      </c>
+      <c r="BI335">
+        <v>1.65</v>
+      </c>
+      <c r="BJ335">
+        <v>2.08</v>
+      </c>
+      <c r="BK335">
+        <v>2.02</v>
+      </c>
+      <c r="BL335">
+        <v>1.68</v>
+      </c>
+      <c r="BM335">
+        <v>2.55</v>
+      </c>
+      <c r="BN335">
+        <v>1.44</v>
+      </c>
+      <c r="BO335">
+        <v>3.4</v>
+      </c>
+      <c r="BP335">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="336" spans="1:68">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>7516630</v>
+      </c>
+      <c r="C336" t="s">
+        <v>68</v>
+      </c>
+      <c r="D336" t="s">
+        <v>69</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45807.58333333334</v>
+      </c>
+      <c r="F336">
+        <v>38</v>
+      </c>
+      <c r="G336" t="s">
+        <v>71</v>
+      </c>
+      <c r="H336" t="s">
+        <v>81</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+      <c r="K336">
+        <v>1</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336">
+        <v>2</v>
+      </c>
+      <c r="N336">
+        <v>3</v>
+      </c>
+      <c r="O336" t="s">
+        <v>285</v>
+      </c>
+      <c r="P336" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q336">
+        <v>2.37</v>
+      </c>
+      <c r="R336">
+        <v>2.45</v>
+      </c>
+      <c r="S336">
+        <v>3.4</v>
+      </c>
+      <c r="T336">
+        <v>1.2</v>
+      </c>
+      <c r="U336">
+        <v>4.1</v>
+      </c>
+      <c r="V336">
+        <v>1.9</v>
+      </c>
+      <c r="W336">
+        <v>1.78</v>
+      </c>
+      <c r="X336">
+        <v>3.9</v>
+      </c>
+      <c r="Y336">
+        <v>1.22</v>
+      </c>
+      <c r="Z336">
+        <v>1.97</v>
+      </c>
+      <c r="AA336">
+        <v>4</v>
+      </c>
+      <c r="AB336">
+        <v>3.3</v>
+      </c>
+      <c r="AC336">
+        <v>1.01</v>
+      </c>
+      <c r="AD336">
+        <v>17</v>
+      </c>
+      <c r="AE336">
+        <v>1.11</v>
+      </c>
+      <c r="AF336">
+        <v>6.25</v>
+      </c>
+      <c r="AG336">
+        <v>1.36</v>
+      </c>
+      <c r="AH336">
+        <v>3.1</v>
+      </c>
+      <c r="AI336">
+        <v>1.35</v>
+      </c>
+      <c r="AJ336">
+        <v>2.9</v>
+      </c>
+      <c r="AK336">
+        <v>1.33</v>
+      </c>
+      <c r="AL336">
+        <v>1.23</v>
+      </c>
+      <c r="AM336">
+        <v>1.78</v>
+      </c>
+      <c r="AN336">
+        <v>1.29</v>
+      </c>
+      <c r="AO336">
+        <v>0.65</v>
+      </c>
+      <c r="AP336">
+        <v>1.22</v>
+      </c>
+      <c r="AQ336">
+        <v>0.78</v>
+      </c>
+      <c r="AR336">
+        <v>1.72</v>
+      </c>
+      <c r="AS336">
+        <v>1.39</v>
+      </c>
+      <c r="AT336">
+        <v>3.11</v>
+      </c>
+      <c r="AU336">
+        <v>5</v>
+      </c>
+      <c r="AV336">
+        <v>5</v>
+      </c>
+      <c r="AW336">
+        <v>13</v>
+      </c>
+      <c r="AX336">
+        <v>11</v>
+      </c>
+      <c r="AY336">
+        <v>25</v>
+      </c>
+      <c r="AZ336">
+        <v>18</v>
+      </c>
+      <c r="BA336">
+        <v>4</v>
+      </c>
+      <c r="BB336">
+        <v>5</v>
+      </c>
+      <c r="BC336">
+        <v>9</v>
+      </c>
+      <c r="BD336">
+        <v>1.71</v>
+      </c>
+      <c r="BE336">
+        <v>6.5</v>
+      </c>
+      <c r="BF336">
+        <v>2.4</v>
+      </c>
+      <c r="BG336">
+        <v>1.26</v>
+      </c>
+      <c r="BH336">
+        <v>3.4</v>
+      </c>
+      <c r="BI336">
+        <v>1.46</v>
+      </c>
+      <c r="BJ336">
+        <v>2.5</v>
+      </c>
+      <c r="BK336">
+        <v>1.73</v>
+      </c>
+      <c r="BL336">
+        <v>1.97</v>
+      </c>
+      <c r="BM336">
+        <v>2.15</v>
+      </c>
+      <c r="BN336">
+        <v>1.61</v>
+      </c>
+      <c r="BO336">
+        <v>2.7</v>
+      </c>
+      <c r="BP336">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="337" spans="1:68">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>7516624</v>
+      </c>
+      <c r="C337" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45807.58333333334</v>
+      </c>
+      <c r="F337">
+        <v>38</v>
+      </c>
+      <c r="G337" t="s">
+        <v>70</v>
+      </c>
+      <c r="H337" t="s">
+        <v>83</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>1</v>
+      </c>
+      <c r="L337">
+        <v>2</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>2</v>
+      </c>
+      <c r="O337" t="s">
+        <v>316</v>
+      </c>
+      <c r="P337" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q337">
+        <v>1.9</v>
+      </c>
+      <c r="R337">
+        <v>2.55</v>
+      </c>
+      <c r="S337">
+        <v>5</v>
+      </c>
+      <c r="T337">
+        <v>1.22</v>
+      </c>
+      <c r="U337">
+        <v>3.9</v>
+      </c>
+      <c r="V337">
+        <v>1.98</v>
+      </c>
+      <c r="W337">
+        <v>1.73</v>
+      </c>
+      <c r="X337">
+        <v>4.1</v>
+      </c>
+      <c r="Y337">
+        <v>1.2</v>
+      </c>
+      <c r="Z337">
+        <v>1.45</v>
+      </c>
+      <c r="AA337">
+        <v>4.85</v>
+      </c>
+      <c r="AB337">
+        <v>6.2</v>
+      </c>
+      <c r="AC337">
+        <v>1.03</v>
+      </c>
+      <c r="AD337">
+        <v>11</v>
+      </c>
+      <c r="AE337">
+        <v>1.11</v>
+      </c>
+      <c r="AF337">
+        <v>6.25</v>
+      </c>
+      <c r="AG337">
+        <v>1.35</v>
+      </c>
+      <c r="AH337">
+        <v>3.1</v>
+      </c>
+      <c r="AI337">
+        <v>1.52</v>
+      </c>
+      <c r="AJ337">
+        <v>2.35</v>
+      </c>
+      <c r="AK337">
+        <v>1.13</v>
+      </c>
+      <c r="AL337">
+        <v>1.18</v>
+      </c>
+      <c r="AM337">
+        <v>2.6</v>
+      </c>
+      <c r="AN337">
+        <v>2.65</v>
+      </c>
+      <c r="AO337">
+        <v>1.35</v>
+      </c>
+      <c r="AP337">
+        <v>2.67</v>
+      </c>
+      <c r="AQ337">
+        <v>1.28</v>
+      </c>
+      <c r="AR337">
+        <v>2.1</v>
+      </c>
+      <c r="AS337">
+        <v>1.39</v>
+      </c>
+      <c r="AT337">
+        <v>3.49</v>
+      </c>
+      <c r="AU337">
+        <v>9</v>
+      </c>
+      <c r="AV337">
+        <v>3</v>
+      </c>
+      <c r="AW337">
+        <v>10</v>
+      </c>
+      <c r="AX337">
+        <v>9</v>
+      </c>
+      <c r="AY337">
+        <v>22</v>
+      </c>
+      <c r="AZ337">
+        <v>14</v>
+      </c>
+      <c r="BA337">
+        <v>4</v>
+      </c>
+      <c r="BB337">
+        <v>3</v>
+      </c>
+      <c r="BC337">
+        <v>7</v>
+      </c>
+      <c r="BD337">
+        <v>1.22</v>
+      </c>
+      <c r="BE337">
+        <v>8.5</v>
+      </c>
+      <c r="BF337">
+        <v>4.6</v>
+      </c>
+      <c r="BG337">
+        <v>1.24</v>
+      </c>
+      <c r="BH337">
+        <v>3.55</v>
+      </c>
+      <c r="BI337">
+        <v>1.43</v>
+      </c>
+      <c r="BJ337">
+        <v>2.55</v>
+      </c>
+      <c r="BK337">
+        <v>1.68</v>
+      </c>
+      <c r="BL337">
+        <v>2.02</v>
+      </c>
+      <c r="BM337">
+        <v>2.07</v>
+      </c>
+      <c r="BN337">
+        <v>1.66</v>
+      </c>
+      <c r="BO337">
+        <v>2.55</v>
+      </c>
+      <c r="BP337">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="463">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -967,6 +967,18 @@
     <t>['17', '81']</t>
   </si>
   <si>
+    <t>['43', '50', '72', '90', '90+3']</t>
+  </si>
+  <si>
+    <t>['75', '82']</t>
+  </si>
+  <si>
+    <t>['11', '35']</t>
+  </si>
+  <si>
+    <t>['33', '66']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1386,6 +1398,12 @@
   <si>
     <t>['33', '90+2']</t>
   </si>
+  <si>
+    <t>['68', '74']</t>
+  </si>
+  <si>
+    <t>['32', '64']</t>
+  </si>
 </sst>
 </file>
 
@@ -1746,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP337"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2086,7 +2104,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ2">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2211,7 +2229,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2292,7 +2310,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ3">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2701,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ5">
         <v>0.44</v>
@@ -3113,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ7">
         <v>1.11</v>
@@ -3241,7 +3259,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3447,7 +3465,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3525,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
         <v>1.28</v>
@@ -3653,7 +3671,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3734,7 +3752,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ10">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3859,7 +3877,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -4065,7 +4083,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4146,7 +4164,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ12">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4271,7 +4289,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4477,7 +4495,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4555,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4683,7 +4701,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4889,7 +4907,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -5095,7 +5113,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -5791,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ20">
         <v>0.78</v>
@@ -6125,7 +6143,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6206,7 +6224,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ22">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR22">
         <v>1.83</v>
@@ -6331,7 +6349,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6537,7 +6555,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6618,7 +6636,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -6743,7 +6761,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6821,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ25">
         <v>2.22</v>
@@ -7027,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ26">
         <v>0.89</v>
@@ -7155,7 +7173,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7233,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ27">
         <v>1.39</v>
@@ -7773,7 +7791,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7851,7 +7869,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30">
         <v>2.61</v>
@@ -7979,7 +7997,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8472,7 +8490,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ33">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -8597,7 +8615,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8803,7 +8821,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8884,7 +8902,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -9090,7 +9108,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR36">
         <v>1.86</v>
@@ -9215,7 +9233,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9627,7 +9645,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9833,7 +9851,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10117,10 +10135,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ41">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -10245,7 +10263,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10451,7 +10469,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10657,7 +10675,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10738,7 +10756,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ44">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR44">
         <v>2.36</v>
@@ -11069,7 +11087,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11562,7 +11580,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ48">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11687,7 +11705,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11765,7 +11783,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ49">
         <v>2.61</v>
@@ -12177,7 +12195,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ51">
         <v>1.61</v>
@@ -12305,7 +12323,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12383,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ52">
         <v>0.89</v>
@@ -13129,7 +13147,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13335,7 +13353,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13619,7 +13637,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13747,7 +13765,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13953,7 +13971,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14034,7 +14052,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR60">
         <v>1.5</v>
@@ -14159,7 +14177,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14240,7 +14258,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR61">
         <v>1.54</v>
@@ -14365,7 +14383,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14571,7 +14589,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14777,7 +14795,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14983,7 +15001,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15061,7 +15079,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ65">
         <v>0.5600000000000001</v>
@@ -15395,7 +15413,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15476,7 +15494,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR67">
         <v>1.89</v>
@@ -16013,7 +16031,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16219,7 +16237,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16297,7 +16315,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ71">
         <v>1.61</v>
@@ -16837,7 +16855,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16918,7 +16936,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ74">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -17455,7 +17473,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17661,7 +17679,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17742,7 +17760,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17948,7 +17966,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ79">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -18073,7 +18091,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18151,7 +18169,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ80">
         <v>1.39</v>
@@ -18279,7 +18297,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18485,7 +18503,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18691,7 +18709,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18769,10 +18787,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ83">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR83">
         <v>1.37</v>
@@ -19103,7 +19121,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19596,7 +19614,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ87">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR87">
         <v>1.44</v>
@@ -19799,7 +19817,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ88">
         <v>0.5600000000000001</v>
@@ -20005,7 +20023,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -21163,7 +21181,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21369,7 +21387,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21656,7 +21674,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ97">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21987,7 +22005,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22399,7 +22417,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22605,7 +22623,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22811,7 +22829,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22892,7 +22910,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ103">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -23095,7 +23113,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ104">
         <v>0.89</v>
@@ -23301,7 +23319,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ105">
         <v>1.11</v>
@@ -23510,7 +23528,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR106">
         <v>1.79</v>
@@ -23635,7 +23653,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23919,10 +23937,10 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ108">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR108">
         <v>1.89</v>
@@ -24253,7 +24271,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24459,7 +24477,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -25283,7 +25301,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25364,7 +25382,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ115">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR115">
         <v>1.38</v>
@@ -25695,7 +25713,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26188,7 +26206,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ119">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR119">
         <v>1.31</v>
@@ -26519,7 +26537,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26597,10 +26615,10 @@
         <v>0.86</v>
       </c>
       <c r="AP121">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ121">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26725,7 +26743,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27009,7 +27027,7 @@
         <v>0.67</v>
       </c>
       <c r="AP123">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ123">
         <v>0.89</v>
@@ -27215,7 +27233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
         <v>0.9399999999999999</v>
@@ -27343,7 +27361,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27833,10 +27851,10 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ127">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR127">
         <v>2</v>
@@ -27961,7 +27979,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28373,7 +28391,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29197,7 +29215,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29484,7 +29502,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ135">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -30102,7 +30120,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ138">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -30305,10 +30323,10 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ139">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -30511,10 +30529,10 @@
         <v>0.57</v>
       </c>
       <c r="AP140">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ140">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR140">
         <v>1.29</v>
@@ -31129,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ143">
         <v>1.28</v>
@@ -31257,7 +31275,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31335,7 +31353,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ144">
         <v>1.41</v>
@@ -31463,7 +31481,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31669,7 +31687,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -32081,7 +32099,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32699,7 +32717,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33111,7 +33129,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33317,7 +33335,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33601,7 +33619,7 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ155">
         <v>1.41</v>
@@ -33729,7 +33747,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33807,10 +33825,10 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ156">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR156">
         <v>1.36</v>
@@ -34013,7 +34031,7 @@
         <v>0.88</v>
       </c>
       <c r="AP157">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ157">
         <v>1.28</v>
@@ -34141,7 +34159,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34553,7 +34571,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34759,7 +34777,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34840,7 +34858,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ161">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR161">
         <v>1.42</v>
@@ -35249,10 +35267,10 @@
         <v>0.29</v>
       </c>
       <c r="AP163">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ163">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR163">
         <v>1.98</v>
@@ -35583,7 +35601,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36613,7 +36631,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -37025,7 +37043,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38261,7 +38279,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38673,7 +38691,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -38751,7 +38769,7 @@
         <v>2.1</v>
       </c>
       <c r="AP180">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ180">
         <v>2.22</v>
@@ -38960,7 +38978,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ181">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR181">
         <v>1.64</v>
@@ -39085,7 +39103,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39166,7 +39184,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ182">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR182">
         <v>1.49</v>
@@ -39291,7 +39309,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39497,7 +39515,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39575,7 +39593,7 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ184">
         <v>1.28</v>
@@ -39784,7 +39802,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ185">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR185">
         <v>2.01</v>
@@ -39909,7 +39927,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -39987,7 +40005,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP186">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ186">
         <v>0.44</v>
@@ -40527,7 +40545,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40605,7 +40623,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ189">
         <v>0.78</v>
@@ -40733,7 +40751,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40814,7 +40832,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ190">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR190">
         <v>1.45</v>
@@ -40939,7 +40957,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41226,7 +41244,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ192">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -41351,7 +41369,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41969,7 +41987,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42047,7 +42065,7 @@
         <v>1.5</v>
       </c>
       <c r="AP196">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ196">
         <v>1.39</v>
@@ -42175,7 +42193,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42381,7 +42399,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42459,7 +42477,7 @@
         <v>1.2</v>
       </c>
       <c r="AP198">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ198">
         <v>1</v>
@@ -42587,7 +42605,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42874,7 +42892,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ200">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR200">
         <v>1.51</v>
@@ -42999,7 +43017,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43080,7 +43098,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ201">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR201">
         <v>1.5</v>
@@ -43205,7 +43223,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43411,7 +43429,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43617,7 +43635,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -43695,7 +43713,7 @@
         <v>2.18</v>
       </c>
       <c r="AP204">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ204">
         <v>2.22</v>
@@ -44725,7 +44743,7 @@
         <v>0.73</v>
       </c>
       <c r="AP209">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ209">
         <v>0.5600000000000001</v>
@@ -44934,7 +44952,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ210">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -45059,7 +45077,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45677,7 +45695,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q214">
         <v>3.3</v>
@@ -45883,7 +45901,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -46167,7 +46185,7 @@
         <v>1.64</v>
       </c>
       <c r="AP216">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ216">
         <v>1.39</v>
@@ -46295,7 +46313,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46373,7 +46391,7 @@
         <v>2.8</v>
       </c>
       <c r="AP217">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ217">
         <v>2.61</v>
@@ -46582,7 +46600,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ218">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR218">
         <v>1.3</v>
@@ -46707,7 +46725,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46994,7 +47012,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ220">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR220">
         <v>1.28</v>
@@ -47325,7 +47343,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47737,7 +47755,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47815,7 +47833,7 @@
         <v>0.45</v>
       </c>
       <c r="AP224">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ224">
         <v>0.44</v>
@@ -47943,7 +47961,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48024,7 +48042,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ225">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR225">
         <v>1.61</v>
@@ -48433,7 +48451,7 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ227">
         <v>0.9399999999999999</v>
@@ -48767,7 +48785,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48845,7 +48863,7 @@
         <v>0.83</v>
       </c>
       <c r="AP229">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ229">
         <v>0.89</v>
@@ -48973,7 +48991,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49257,7 +49275,7 @@
         <v>0.75</v>
       </c>
       <c r="AP231">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ231">
         <v>0.5600000000000001</v>
@@ -49591,7 +49609,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49797,7 +49815,7 @@
         <v>254</v>
       </c>
       <c r="P234" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q234">
         <v>2.8</v>
@@ -50084,7 +50102,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ235">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR235">
         <v>1.51</v>
@@ -50621,7 +50639,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50827,7 +50845,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -50908,7 +50926,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ239">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR239">
         <v>1.65</v>
@@ -51239,7 +51257,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q241">
         <v>2.7</v>
@@ -51320,7 +51338,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ241">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR241">
         <v>1.48</v>
@@ -51445,7 +51463,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q242">
         <v>1.64</v>
@@ -51651,7 +51669,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51729,7 +51747,7 @@
         <v>2.67</v>
       </c>
       <c r="AP243">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ243">
         <v>2.61</v>
@@ -51857,7 +51875,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -51938,7 +51956,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ244">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR244">
         <v>1.61</v>
@@ -52681,7 +52699,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53093,7 +53111,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53171,7 +53189,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ250">
         <v>0.9399999999999999</v>
@@ -53299,7 +53317,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53380,7 +53398,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ251">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR251">
         <v>1.24</v>
@@ -53505,7 +53523,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -53789,7 +53807,7 @@
         <v>1.85</v>
       </c>
       <c r="AP253">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ253">
         <v>1.61</v>
@@ -54204,7 +54222,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ255">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR255">
         <v>1.5</v>
@@ -54329,7 +54347,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54616,7 +54634,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ257">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR257">
         <v>1.32</v>
@@ -55153,7 +55171,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55565,7 +55583,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55771,7 +55789,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55849,7 +55867,7 @@
         <v>0.85</v>
       </c>
       <c r="AP263">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ263">
         <v>0.9399999999999999</v>
@@ -55977,7 +55995,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56055,10 +56073,10 @@
         <v>0.54</v>
       </c>
       <c r="AP264">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ264">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR264">
         <v>1.49</v>
@@ -56264,7 +56282,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ265">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR265">
         <v>1.49</v>
@@ -56595,7 +56613,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -56673,7 +56691,7 @@
         <v>0.86</v>
       </c>
       <c r="AP267">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ267">
         <v>0.9399999999999999</v>
@@ -57007,7 +57025,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57085,7 +57103,7 @@
         <v>0.62</v>
       </c>
       <c r="AP269">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ269">
         <v>0.89</v>
@@ -57213,7 +57231,7 @@
         <v>96</v>
       </c>
       <c r="P270" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q270">
         <v>3.5</v>
@@ -57500,7 +57518,7 @@
         <v>2</v>
       </c>
       <c r="AQ271">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR271">
         <v>1.8</v>
@@ -57625,7 +57643,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -58243,7 +58261,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58736,7 +58754,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ277">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR277">
         <v>1.53</v>
@@ -58861,7 +58879,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59685,7 +59703,7 @@
         <v>283</v>
       </c>
       <c r="P282" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q282">
         <v>4.33</v>
@@ -59766,7 +59784,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ282">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR282">
         <v>1.29</v>
@@ -59891,7 +59909,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -59972,7 +59990,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ283">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR283">
         <v>1.68</v>
@@ -60175,7 +60193,7 @@
         <v>0.57</v>
       </c>
       <c r="AP284">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ284">
         <v>0.89</v>
@@ -60303,7 +60321,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60590,7 +60608,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ286">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR286">
         <v>1.45</v>
@@ -60793,7 +60811,7 @@
         <v>1.33</v>
       </c>
       <c r="AP287">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ287">
         <v>1.11</v>
@@ -60921,7 +60939,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -60999,7 +61017,7 @@
         <v>1</v>
       </c>
       <c r="AP288">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ288">
         <v>0.9399999999999999</v>
@@ -61205,7 +61223,7 @@
         <v>1.67</v>
       </c>
       <c r="AP289">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ289">
         <v>1.61</v>
@@ -61333,7 +61351,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61414,7 +61432,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ290">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR290">
         <v>1.67</v>
@@ -61745,7 +61763,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61951,7 +61969,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62363,7 +62381,7 @@
         <v>292</v>
       </c>
       <c r="P295" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q295">
         <v>2.38</v>
@@ -62569,7 +62587,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62981,7 +62999,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63268,7 +63286,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ299">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR299">
         <v>1.42</v>
@@ -63471,10 +63489,10 @@
         <v>0.6</v>
       </c>
       <c r="AP300">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ300">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR300">
         <v>1.47</v>
@@ -63677,7 +63695,7 @@
         <v>1</v>
       </c>
       <c r="AP301">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ301">
         <v>0.9399999999999999</v>
@@ -63886,7 +63904,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ302">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR302">
         <v>2.03</v>
@@ -64011,7 +64029,7 @@
         <v>299</v>
       </c>
       <c r="P303" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64501,7 +64519,7 @@
         <v>0.53</v>
       </c>
       <c r="AP305">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ305">
         <v>0.78</v>
@@ -64707,7 +64725,7 @@
         <v>1.33</v>
       </c>
       <c r="AP306">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ306">
         <v>1.41</v>
@@ -64835,7 +64853,7 @@
         <v>301</v>
       </c>
       <c r="P307" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65041,7 +65059,7 @@
         <v>138</v>
       </c>
       <c r="P308" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q308">
         <v>4.33</v>
@@ -65659,7 +65677,7 @@
         <v>91</v>
       </c>
       <c r="P311" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q311">
         <v>2.88</v>
@@ -65865,7 +65883,7 @@
         <v>91</v>
       </c>
       <c r="P312" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66358,7 +66376,7 @@
         <v>2</v>
       </c>
       <c r="AQ314">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR314">
         <v>1.92</v>
@@ -66483,7 +66501,7 @@
         <v>303</v>
       </c>
       <c r="P315" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q315">
         <v>1.36</v>
@@ -66895,7 +66913,7 @@
         <v>91</v>
       </c>
       <c r="P317" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q317">
         <v>3.55</v>
@@ -66973,10 +66991,10 @@
         <v>0.38</v>
       </c>
       <c r="AP317">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ317">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR317">
         <v>1.17</v>
@@ -67179,7 +67197,7 @@
         <v>1.18</v>
       </c>
       <c r="AP318">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ318">
         <v>1.11</v>
@@ -67385,7 +67403,7 @@
         <v>1.44</v>
       </c>
       <c r="AP319">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ319">
         <v>1.41</v>
@@ -67513,7 +67531,7 @@
         <v>307</v>
       </c>
       <c r="P320" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q320">
         <v>2.85</v>
@@ -67800,7 +67818,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ321">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AR321">
         <v>1.41</v>
@@ -67925,7 +67943,7 @@
         <v>308</v>
       </c>
       <c r="P322" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q322">
         <v>2.4</v>
@@ -68003,7 +68021,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP322">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ322">
         <v>0.78</v>
@@ -68624,7 +68642,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ325">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR325">
         <v>1.56</v>
@@ -68749,7 +68767,7 @@
         <v>310</v>
       </c>
       <c r="P326" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q326">
         <v>2.4</v>
@@ -68955,7 +68973,7 @@
         <v>91</v>
       </c>
       <c r="P327" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q327">
         <v>4</v>
@@ -69161,7 +69179,7 @@
         <v>311</v>
       </c>
       <c r="P328" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q328">
         <v>3.1</v>
@@ -69367,7 +69385,7 @@
         <v>312</v>
       </c>
       <c r="P329" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q329">
         <v>1.91</v>
@@ -69779,7 +69797,7 @@
         <v>193</v>
       </c>
       <c r="P331" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q331">
         <v>3.6</v>
@@ -70191,7 +70209,7 @@
         <v>314</v>
       </c>
       <c r="P333" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q333">
         <v>1.36</v>
@@ -70397,7 +70415,7 @@
         <v>315</v>
       </c>
       <c r="P334" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q334">
         <v>7.5</v>
@@ -70603,7 +70621,7 @@
         <v>91</v>
       </c>
       <c r="P335" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q335">
         <v>3</v>
@@ -70809,7 +70827,7 @@
         <v>285</v>
       </c>
       <c r="P336" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q336">
         <v>2.37</v>
@@ -71172,6 +71190,830 @@
       </c>
       <c r="BP337">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="338" spans="1:68">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>7516625</v>
+      </c>
+      <c r="C338" t="s">
+        <v>68</v>
+      </c>
+      <c r="D338" t="s">
+        <v>69</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="F338">
+        <v>38</v>
+      </c>
+      <c r="G338" t="s">
+        <v>77</v>
+      </c>
+      <c r="H338" t="s">
+        <v>87</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>1</v>
+      </c>
+      <c r="L338">
+        <v>5</v>
+      </c>
+      <c r="M338">
+        <v>2</v>
+      </c>
+      <c r="N338">
+        <v>7</v>
+      </c>
+      <c r="O338" t="s">
+        <v>317</v>
+      </c>
+      <c r="P338" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q338">
+        <v>1.75</v>
+      </c>
+      <c r="R338">
+        <v>2.75</v>
+      </c>
+      <c r="S338">
+        <v>5.25</v>
+      </c>
+      <c r="T338">
+        <v>1.17</v>
+      </c>
+      <c r="U338">
+        <v>4.5</v>
+      </c>
+      <c r="V338">
+        <v>1.83</v>
+      </c>
+      <c r="W338">
+        <v>1.85</v>
+      </c>
+      <c r="X338">
+        <v>3.55</v>
+      </c>
+      <c r="Y338">
+        <v>1.25</v>
+      </c>
+      <c r="Z338">
+        <v>1.4</v>
+      </c>
+      <c r="AA338">
+        <v>5.25</v>
+      </c>
+      <c r="AB338">
+        <v>6.5</v>
+      </c>
+      <c r="AC338">
+        <v>1</v>
+      </c>
+      <c r="AD338">
+        <v>21</v>
+      </c>
+      <c r="AE338">
+        <v>1.09</v>
+      </c>
+      <c r="AF338">
+        <v>6.75</v>
+      </c>
+      <c r="AG338">
+        <v>1.31</v>
+      </c>
+      <c r="AH338">
+        <v>3.2</v>
+      </c>
+      <c r="AI338">
+        <v>1.45</v>
+      </c>
+      <c r="AJ338">
+        <v>2.55</v>
+      </c>
+      <c r="AK338">
+        <v>1.11</v>
+      </c>
+      <c r="AL338">
+        <v>1.11</v>
+      </c>
+      <c r="AM338">
+        <v>2.85</v>
+      </c>
+      <c r="AN338">
+        <v>1.65</v>
+      </c>
+      <c r="AO338">
+        <v>0.53</v>
+      </c>
+      <c r="AP338">
+        <v>1.72</v>
+      </c>
+      <c r="AQ338">
+        <v>0.5</v>
+      </c>
+      <c r="AR338">
+        <v>1.55</v>
+      </c>
+      <c r="AS338">
+        <v>1.21</v>
+      </c>
+      <c r="AT338">
+        <v>2.76</v>
+      </c>
+      <c r="AU338">
+        <v>15</v>
+      </c>
+      <c r="AV338">
+        <v>8</v>
+      </c>
+      <c r="AW338">
+        <v>7</v>
+      </c>
+      <c r="AX338">
+        <v>4</v>
+      </c>
+      <c r="AY338">
+        <v>22</v>
+      </c>
+      <c r="AZ338">
+        <v>14</v>
+      </c>
+      <c r="BA338">
+        <v>7</v>
+      </c>
+      <c r="BB338">
+        <v>8</v>
+      </c>
+      <c r="BC338">
+        <v>15</v>
+      </c>
+      <c r="BD338">
+        <v>1.3</v>
+      </c>
+      <c r="BE338">
+        <v>8</v>
+      </c>
+      <c r="BF338">
+        <v>3.65</v>
+      </c>
+      <c r="BG338">
+        <v>1.18</v>
+      </c>
+      <c r="BH338">
+        <v>4.1</v>
+      </c>
+      <c r="BI338">
+        <v>1.32</v>
+      </c>
+      <c r="BJ338">
+        <v>3.05</v>
+      </c>
+      <c r="BK338">
+        <v>1.53</v>
+      </c>
+      <c r="BL338">
+        <v>2.32</v>
+      </c>
+      <c r="BM338">
+        <v>1.82</v>
+      </c>
+      <c r="BN338">
+        <v>1.86</v>
+      </c>
+      <c r="BO338">
+        <v>2.25</v>
+      </c>
+      <c r="BP338">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="339" spans="1:68">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>7516626</v>
+      </c>
+      <c r="C339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D339" t="s">
+        <v>69</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="F339">
+        <v>38</v>
+      </c>
+      <c r="G339" t="s">
+        <v>73</v>
+      </c>
+      <c r="H339" t="s">
+        <v>79</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>1</v>
+      </c>
+      <c r="K339">
+        <v>1</v>
+      </c>
+      <c r="L339">
+        <v>2</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+      <c r="N339">
+        <v>3</v>
+      </c>
+      <c r="O339" t="s">
+        <v>318</v>
+      </c>
+      <c r="P339" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q339">
+        <v>1.83</v>
+      </c>
+      <c r="R339">
+        <v>2.62</v>
+      </c>
+      <c r="S339">
+        <v>5.25</v>
+      </c>
+      <c r="T339">
+        <v>1.2</v>
+      </c>
+      <c r="U339">
+        <v>4</v>
+      </c>
+      <c r="V339">
+        <v>2</v>
+      </c>
+      <c r="W339">
+        <v>1.73</v>
+      </c>
+      <c r="X339">
+        <v>4</v>
+      </c>
+      <c r="Y339">
+        <v>1.2</v>
+      </c>
+      <c r="Z339">
+        <v>1.45</v>
+      </c>
+      <c r="AA339">
+        <v>4.8</v>
+      </c>
+      <c r="AB339">
+        <v>5.8</v>
+      </c>
+      <c r="AC339">
+        <v>1.01</v>
+      </c>
+      <c r="AD339">
+        <v>17</v>
+      </c>
+      <c r="AE339">
+        <v>1.11</v>
+      </c>
+      <c r="AF339">
+        <v>6.25</v>
+      </c>
+      <c r="AG339">
+        <v>1.4</v>
+      </c>
+      <c r="AH339">
+        <v>2.9</v>
+      </c>
+      <c r="AI339">
+        <v>1.5</v>
+      </c>
+      <c r="AJ339">
+        <v>2.4</v>
+      </c>
+      <c r="AK339">
+        <v>1.12</v>
+      </c>
+      <c r="AL339">
+        <v>1.13</v>
+      </c>
+      <c r="AM339">
+        <v>2.65</v>
+      </c>
+      <c r="AN339">
+        <v>2.41</v>
+      </c>
+      <c r="AO339">
+        <v>0.82</v>
+      </c>
+      <c r="AP339">
+        <v>2.44</v>
+      </c>
+      <c r="AQ339">
+        <v>0.78</v>
+      </c>
+      <c r="AR339">
+        <v>2.13</v>
+      </c>
+      <c r="AS339">
+        <v>1.33</v>
+      </c>
+      <c r="AT339">
+        <v>3.46</v>
+      </c>
+      <c r="AU339">
+        <v>6</v>
+      </c>
+      <c r="AV339">
+        <v>2</v>
+      </c>
+      <c r="AW339">
+        <v>15</v>
+      </c>
+      <c r="AX339">
+        <v>3</v>
+      </c>
+      <c r="AY339">
+        <v>27</v>
+      </c>
+      <c r="AZ339">
+        <v>5</v>
+      </c>
+      <c r="BA339">
+        <v>6</v>
+      </c>
+      <c r="BB339">
+        <v>2</v>
+      </c>
+      <c r="BC339">
+        <v>8</v>
+      </c>
+      <c r="BD339">
+        <v>1.29</v>
+      </c>
+      <c r="BE339">
+        <v>8</v>
+      </c>
+      <c r="BF339">
+        <v>3.9</v>
+      </c>
+      <c r="BG339">
+        <v>1.29</v>
+      </c>
+      <c r="BH339">
+        <v>3.15</v>
+      </c>
+      <c r="BI339">
+        <v>1.5</v>
+      </c>
+      <c r="BJ339">
+        <v>2.38</v>
+      </c>
+      <c r="BK339">
+        <v>1.8</v>
+      </c>
+      <c r="BL339">
+        <v>1.89</v>
+      </c>
+      <c r="BM339">
+        <v>2.23</v>
+      </c>
+      <c r="BN339">
+        <v>1.56</v>
+      </c>
+      <c r="BO339">
+        <v>2.85</v>
+      </c>
+      <c r="BP339">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>7516628</v>
+      </c>
+      <c r="C340" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45808.54166666666</v>
+      </c>
+      <c r="F340">
+        <v>38</v>
+      </c>
+      <c r="G340" t="s">
+        <v>82</v>
+      </c>
+      <c r="H340" t="s">
+        <v>85</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340">
+        <v>3</v>
+      </c>
+      <c r="L340">
+        <v>2</v>
+      </c>
+      <c r="M340">
+        <v>2</v>
+      </c>
+      <c r="N340">
+        <v>4</v>
+      </c>
+      <c r="O340" t="s">
+        <v>319</v>
+      </c>
+      <c r="P340" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q340">
+        <v>5</v>
+      </c>
+      <c r="R340">
+        <v>2.75</v>
+      </c>
+      <c r="S340">
+        <v>1.8</v>
+      </c>
+      <c r="T340">
+        <v>1.18</v>
+      </c>
+      <c r="U340">
+        <v>4.4</v>
+      </c>
+      <c r="V340">
+        <v>1.83</v>
+      </c>
+      <c r="W340">
+        <v>1.85</v>
+      </c>
+      <c r="X340">
+        <v>3.6</v>
+      </c>
+      <c r="Y340">
+        <v>1.24</v>
+      </c>
+      <c r="Z340">
+        <v>5.5</v>
+      </c>
+      <c r="AA340">
+        <v>4.85</v>
+      </c>
+      <c r="AB340">
+        <v>1.46</v>
+      </c>
+      <c r="AC340">
+        <v>1.01</v>
+      </c>
+      <c r="AD340">
+        <v>15</v>
+      </c>
+      <c r="AE340">
+        <v>1.09</v>
+      </c>
+      <c r="AF340">
+        <v>7</v>
+      </c>
+      <c r="AG340">
+        <v>1.33</v>
+      </c>
+      <c r="AH340">
+        <v>3.25</v>
+      </c>
+      <c r="AI340">
+        <v>1.46</v>
+      </c>
+      <c r="AJ340">
+        <v>2.5</v>
+      </c>
+      <c r="AK340">
+        <v>2.8</v>
+      </c>
+      <c r="AL340">
+        <v>1.15</v>
+      </c>
+      <c r="AM340">
+        <v>1.13</v>
+      </c>
+      <c r="AN340">
+        <v>0.29</v>
+      </c>
+      <c r="AO340">
+        <v>0.59</v>
+      </c>
+      <c r="AP340">
+        <v>0.33</v>
+      </c>
+      <c r="AQ340">
+        <v>0.61</v>
+      </c>
+      <c r="AR340">
+        <v>1.17</v>
+      </c>
+      <c r="AS340">
+        <v>1.21</v>
+      </c>
+      <c r="AT340">
+        <v>2.38</v>
+      </c>
+      <c r="AU340">
+        <v>7</v>
+      </c>
+      <c r="AV340">
+        <v>11</v>
+      </c>
+      <c r="AW340">
+        <v>13</v>
+      </c>
+      <c r="AX340">
+        <v>13</v>
+      </c>
+      <c r="AY340">
+        <v>23</v>
+      </c>
+      <c r="AZ340">
+        <v>27</v>
+      </c>
+      <c r="BA340">
+        <v>7</v>
+      </c>
+      <c r="BB340">
+        <v>2</v>
+      </c>
+      <c r="BC340">
+        <v>9</v>
+      </c>
+      <c r="BD340">
+        <v>2.8</v>
+      </c>
+      <c r="BE340">
+        <v>6.5</v>
+      </c>
+      <c r="BF340">
+        <v>1.52</v>
+      </c>
+      <c r="BG340">
+        <v>1.3</v>
+      </c>
+      <c r="BH340">
+        <v>3.15</v>
+      </c>
+      <c r="BI340">
+        <v>1.52</v>
+      </c>
+      <c r="BJ340">
+        <v>2.32</v>
+      </c>
+      <c r="BK340">
+        <v>1.84</v>
+      </c>
+      <c r="BL340">
+        <v>1.84</v>
+      </c>
+      <c r="BM340">
+        <v>2.32</v>
+      </c>
+      <c r="BN340">
+        <v>1.53</v>
+      </c>
+      <c r="BO340">
+        <v>2.95</v>
+      </c>
+      <c r="BP340">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>7516631</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45808.54166666666</v>
+      </c>
+      <c r="F341">
+        <v>38</v>
+      </c>
+      <c r="G341" t="s">
+        <v>75</v>
+      </c>
+      <c r="H341" t="s">
+        <v>74</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>2</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>2</v>
+      </c>
+      <c r="O341" t="s">
+        <v>320</v>
+      </c>
+      <c r="P341" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q341">
+        <v>2.35</v>
+      </c>
+      <c r="R341">
+        <v>2.25</v>
+      </c>
+      <c r="S341">
+        <v>4</v>
+      </c>
+      <c r="T341">
+        <v>1.3</v>
+      </c>
+      <c r="U341">
+        <v>3.2</v>
+      </c>
+      <c r="V341">
+        <v>2.35</v>
+      </c>
+      <c r="W341">
+        <v>1.51</v>
+      </c>
+      <c r="X341">
+        <v>5.5</v>
+      </c>
+      <c r="Y341">
+        <v>1.12</v>
+      </c>
+      <c r="Z341">
+        <v>1.84</v>
+      </c>
+      <c r="AA341">
+        <v>3.75</v>
+      </c>
+      <c r="AB341">
+        <v>3.85</v>
+      </c>
+      <c r="AC341">
+        <v>1.04</v>
+      </c>
+      <c r="AD341">
+        <v>10</v>
+      </c>
+      <c r="AE341">
+        <v>1.22</v>
+      </c>
+      <c r="AF341">
+        <v>4.2</v>
+      </c>
+      <c r="AG341">
+        <v>1.65</v>
+      </c>
+      <c r="AH341">
+        <v>2.2</v>
+      </c>
+      <c r="AI341">
+        <v>1.61</v>
+      </c>
+      <c r="AJ341">
+        <v>2.15</v>
+      </c>
+      <c r="AK341">
+        <v>1.25</v>
+      </c>
+      <c r="AL341">
+        <v>1.26</v>
+      </c>
+      <c r="AM341">
+        <v>1.9</v>
+      </c>
+      <c r="AN341">
+        <v>1.53</v>
+      </c>
+      <c r="AO341">
+        <v>0.47</v>
+      </c>
+      <c r="AP341">
+        <v>1.61</v>
+      </c>
+      <c r="AQ341">
+        <v>0.44</v>
+      </c>
+      <c r="AR341">
+        <v>1.43</v>
+      </c>
+      <c r="AS341">
+        <v>1.09</v>
+      </c>
+      <c r="AT341">
+        <v>2.52</v>
+      </c>
+      <c r="AU341">
+        <v>6</v>
+      </c>
+      <c r="AV341">
+        <v>0</v>
+      </c>
+      <c r="AW341">
+        <v>7</v>
+      </c>
+      <c r="AX341">
+        <v>6</v>
+      </c>
+      <c r="AY341">
+        <v>17</v>
+      </c>
+      <c r="AZ341">
+        <v>6</v>
+      </c>
+      <c r="BA341">
+        <v>5</v>
+      </c>
+      <c r="BB341">
+        <v>2</v>
+      </c>
+      <c r="BC341">
+        <v>7</v>
+      </c>
+      <c r="BD341">
+        <v>1.41</v>
+      </c>
+      <c r="BE341">
+        <v>7</v>
+      </c>
+      <c r="BF341">
+        <v>3.2</v>
+      </c>
+      <c r="BG341">
+        <v>1.29</v>
+      </c>
+      <c r="BH341">
+        <v>3.15</v>
+      </c>
+      <c r="BI341">
+        <v>1.49</v>
+      </c>
+      <c r="BJ341">
+        <v>2.4</v>
+      </c>
+      <c r="BK341">
+        <v>1.8</v>
+      </c>
+      <c r="BL341">
+        <v>1.89</v>
+      </c>
+      <c r="BM341">
+        <v>2.23</v>
+      </c>
+      <c r="BN341">
+        <v>1.57</v>
+      </c>
+      <c r="BO341">
+        <v>2.9</v>
+      </c>
+      <c r="BP341">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="465">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -979,6 +979,9 @@
     <t>['33', '66']</t>
   </si>
   <si>
+    <t>['90+5', '90+8']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -1404,6 +1407,9 @@
   <si>
     <t>['32', '64']</t>
   </si>
+  <si>
+    <t>['12', '27', '45+1', '71']</t>
+  </si>
 </sst>
 </file>
 
@@ -1764,7 +1770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2229,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -3259,7 +3265,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3337,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ8">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3465,7 +3471,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3671,7 +3677,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3749,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
         <v>0.61</v>
@@ -3877,7 +3883,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -4083,7 +4089,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -4289,7 +4295,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -4495,7 +4501,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4701,7 +4707,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4907,7 +4913,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -5113,7 +5119,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -6143,7 +6149,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -6221,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
         <v>0.78</v>
@@ -6349,7 +6355,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6555,7 +6561,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6761,7 +6767,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -7173,7 +7179,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7460,7 +7466,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7791,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7997,7 +8003,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8615,7 +8621,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8821,7 +8827,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -9105,7 +9111,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ36">
         <v>0.78</v>
@@ -9233,7 +9239,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9311,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ37">
         <v>1.28</v>
@@ -9645,7 +9651,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9851,7 +9857,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10263,7 +10269,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -10344,7 +10350,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ42">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10469,7 +10475,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10675,7 +10681,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10959,7 +10965,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ45">
         <v>1.28</v>
@@ -11087,7 +11093,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11168,7 +11174,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ46">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR46">
         <v>0.55</v>
@@ -11705,7 +11711,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -12323,7 +12329,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12816,7 +12822,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -13147,7 +13153,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -13353,7 +13359,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13431,7 +13437,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ57">
         <v>0.78</v>
@@ -13765,7 +13771,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13971,7 +13977,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -14177,7 +14183,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -14383,7 +14389,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14461,7 +14467,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ62">
         <v>0.44</v>
@@ -14589,7 +14595,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14795,7 +14801,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14876,7 +14882,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ64">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.79</v>
@@ -15001,7 +15007,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15413,7 +15419,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15906,7 +15912,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ69">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR69">
         <v>1.48</v>
@@ -16031,7 +16037,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -16237,7 +16243,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16730,7 +16736,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ73">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.52</v>
@@ -16855,7 +16861,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -17473,7 +17479,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17679,7 +17685,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18091,7 +18097,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18297,7 +18303,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18375,7 +18381,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ81">
         <v>2.22</v>
@@ -18503,7 +18509,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18581,7 +18587,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18709,7 +18715,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18996,7 +19002,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ84">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR84">
         <v>0.9</v>
@@ -19121,7 +19127,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -20438,7 +20444,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ91">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -21181,7 +21187,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21387,7 +21393,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21877,7 +21883,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ98">
         <v>0.89</v>
@@ -22005,7 +22011,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -22289,7 +22295,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ100">
         <v>0.5600000000000001</v>
@@ -22417,7 +22423,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22498,7 +22504,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ101">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22623,7 +22629,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22829,7 +22835,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23653,7 +23659,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -24146,7 +24152,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ109">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -24271,7 +24277,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24477,7 +24483,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24967,7 +24973,7 @@
         <v>3</v>
       </c>
       <c r="AP113">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ113">
         <v>2.61</v>
@@ -25301,7 +25307,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25585,7 +25591,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ116">
         <v>0.89</v>
@@ -25713,7 +25719,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26409,7 +26415,7 @@
         <v>0.67</v>
       </c>
       <c r="AP120">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -26537,7 +26543,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26743,7 +26749,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -27236,7 +27242,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ124">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -27361,7 +27367,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27648,7 +27654,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.08</v>
@@ -27979,7 +27985,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28391,7 +28397,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -29215,7 +29221,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -30117,7 +30123,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ138">
         <v>0.44</v>
@@ -30944,7 +30950,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ142">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR142">
         <v>1.4</v>
@@ -31275,7 +31281,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31356,7 +31362,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ144">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR144">
         <v>1.34</v>
@@ -31481,7 +31487,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31687,7 +31693,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -32099,7 +32105,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32717,7 +32723,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -33129,7 +33135,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33335,7 +33341,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33622,7 +33628,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ155">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>1.43</v>
@@ -33747,7 +33753,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -34159,7 +34165,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34571,7 +34577,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34649,7 +34655,7 @@
         <v>0.5</v>
       </c>
       <c r="AP160">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ160">
         <v>0.89</v>
@@ -34777,7 +34783,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -35061,10 +35067,10 @@
         <v>1.13</v>
       </c>
       <c r="AP162">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ162">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR162">
         <v>1.29</v>
@@ -35601,7 +35607,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q165">
         <v>3.6</v>
@@ -36631,7 +36637,7 @@
         <v>132</v>
       </c>
       <c r="P170" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q170">
         <v>4.75</v>
@@ -37043,7 +37049,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q172">
         <v>5.5</v>
@@ -38279,7 +38285,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38691,7 +38697,7 @@
         <v>91</v>
       </c>
       <c r="P180" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q180">
         <v>9.25</v>
@@ -39103,7 +39109,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q182">
         <v>2.1</v>
@@ -39181,7 +39187,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP182">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ182">
         <v>0.61</v>
@@ -39309,7 +39315,7 @@
         <v>220</v>
       </c>
       <c r="P183" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39390,7 +39396,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR183">
         <v>1.21</v>
@@ -39515,7 +39521,7 @@
         <v>221</v>
       </c>
       <c r="P184" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39927,7 +39933,7 @@
         <v>223</v>
       </c>
       <c r="P186" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q186">
         <v>1.78</v>
@@ -40214,7 +40220,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ187">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -40417,7 +40423,7 @@
         <v>1.3</v>
       </c>
       <c r="AP188">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ188">
         <v>1.11</v>
@@ -40545,7 +40551,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q189">
         <v>1.85</v>
@@ -40751,7 +40757,7 @@
         <v>226</v>
       </c>
       <c r="P190" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q190">
         <v>2.3</v>
@@ -40957,7 +40963,7 @@
         <v>227</v>
       </c>
       <c r="P191" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q191">
         <v>2.8</v>
@@ -41369,7 +41375,7 @@
         <v>229</v>
       </c>
       <c r="P193" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q193">
         <v>2.7</v>
@@ -41987,7 +41993,7 @@
         <v>231</v>
       </c>
       <c r="P196" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42193,7 +42199,7 @@
         <v>91</v>
       </c>
       <c r="P197" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42399,7 +42405,7 @@
         <v>232</v>
       </c>
       <c r="P198" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q198">
         <v>1.7</v>
@@ -42605,7 +42611,7 @@
         <v>91</v>
       </c>
       <c r="P199" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q199">
         <v>5.5</v>
@@ -42889,7 +42895,7 @@
         <v>0.22</v>
       </c>
       <c r="AP200">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ200">
         <v>0.5</v>
@@ -43017,7 +43023,7 @@
         <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43223,7 +43229,7 @@
         <v>91</v>
       </c>
       <c r="P202" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -43304,7 +43310,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ202">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR202">
         <v>1.3</v>
@@ -43429,7 +43435,7 @@
         <v>235</v>
       </c>
       <c r="P203" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43635,7 +43641,7 @@
         <v>91</v>
       </c>
       <c r="P204" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -44537,7 +44543,7 @@
         <v>0.6</v>
       </c>
       <c r="AP208">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ208">
         <v>0.78</v>
@@ -45077,7 +45083,7 @@
         <v>91</v>
       </c>
       <c r="P211" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45695,7 +45701,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q214">
         <v>3.3</v>
@@ -45901,7 +45907,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45982,7 +45988,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ215">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR215">
         <v>1.58</v>
@@ -46313,7 +46319,7 @@
         <v>241</v>
       </c>
       <c r="P217" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q217">
         <v>4.5</v>
@@ -46597,7 +46603,7 @@
         <v>0.2</v>
       </c>
       <c r="AP218">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ218">
         <v>0.5</v>
@@ -46725,7 +46731,7 @@
         <v>243</v>
       </c>
       <c r="P219" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46806,7 +46812,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ219">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR219">
         <v>1.52</v>
@@ -47343,7 +47349,7 @@
         <v>245</v>
       </c>
       <c r="P222" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q222">
         <v>2.63</v>
@@ -47421,7 +47427,7 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ222">
         <v>1</v>
@@ -47755,7 +47761,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q224">
         <v>1.75</v>
@@ -47961,7 +47967,7 @@
         <v>247</v>
       </c>
       <c r="P225" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q225">
         <v>2.15</v>
@@ -48660,7 +48666,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ228">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR228">
         <v>1.59</v>
@@ -48785,7 +48791,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q229">
         <v>2.6</v>
@@ -48991,7 +48997,7 @@
         <v>250</v>
       </c>
       <c r="P230" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q230">
         <v>4.2</v>
@@ -49609,7 +49615,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49815,7 +49821,7 @@
         <v>254</v>
       </c>
       <c r="P234" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q234">
         <v>2.8</v>
@@ -50305,7 +50311,7 @@
         <v>1.38</v>
       </c>
       <c r="AP236">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ236">
         <v>1.39</v>
@@ -50639,7 +50645,7 @@
         <v>257</v>
       </c>
       <c r="P238" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q238">
         <v>3.2</v>
@@ -50845,7 +50851,7 @@
         <v>258</v>
       </c>
       <c r="P239" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q239">
         <v>1.77</v>
@@ -51257,7 +51263,7 @@
         <v>260</v>
       </c>
       <c r="P241" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q241">
         <v>2.7</v>
@@ -51463,7 +51469,7 @@
         <v>261</v>
       </c>
       <c r="P242" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q242">
         <v>1.64</v>
@@ -51541,7 +51547,7 @@
         <v>0.42</v>
       </c>
       <c r="AP242">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ242">
         <v>0.44</v>
@@ -51669,7 +51675,7 @@
         <v>209</v>
       </c>
       <c r="P243" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51875,7 +51881,7 @@
         <v>145</v>
       </c>
       <c r="P244" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q244">
         <v>1.97</v>
@@ -52368,7 +52374,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ246">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR246">
         <v>1.54</v>
@@ -52699,7 +52705,7 @@
         <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52986,7 +52992,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ249">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR249">
         <v>1.36</v>
@@ -53111,7 +53117,7 @@
         <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53317,7 +53323,7 @@
         <v>264</v>
       </c>
       <c r="P251" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q251">
         <v>3.1</v>
@@ -53523,7 +53529,7 @@
         <v>265</v>
       </c>
       <c r="P252" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q252">
         <v>2.4</v>
@@ -54347,7 +54353,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54425,7 +54431,7 @@
         <v>2.15</v>
       </c>
       <c r="AP256">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ256">
         <v>2.22</v>
@@ -55171,7 +55177,7 @@
         <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q260">
         <v>2.6</v>
@@ -55249,7 +55255,7 @@
         <v>1.29</v>
       </c>
       <c r="AP260">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ260">
         <v>1.39</v>
@@ -55583,7 +55589,7 @@
         <v>198</v>
       </c>
       <c r="P262" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55789,7 +55795,7 @@
         <v>91</v>
       </c>
       <c r="P263" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q263">
         <v>5.8</v>
@@ -55870,7 +55876,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ263">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR263">
         <v>1.19</v>
@@ -55995,7 +56001,7 @@
         <v>273</v>
       </c>
       <c r="P264" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q264">
         <v>2.3</v>
@@ -56613,7 +56619,7 @@
         <v>91</v>
       </c>
       <c r="P267" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q267">
         <v>2.8</v>
@@ -57025,7 +57031,7 @@
         <v>275</v>
       </c>
       <c r="P269" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q269">
         <v>1.77</v>
@@ -57231,7 +57237,7 @@
         <v>96</v>
       </c>
       <c r="P270" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q270">
         <v>3.5</v>
@@ -57312,7 +57318,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ270">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR270">
         <v>1.67</v>
@@ -57643,7 +57649,7 @@
         <v>91</v>
       </c>
       <c r="P272" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q272">
         <v>4.75</v>
@@ -57721,7 +57727,7 @@
         <v>2.5</v>
       </c>
       <c r="AP272">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ272">
         <v>2.61</v>
@@ -58133,7 +58139,7 @@
         <v>0.64</v>
       </c>
       <c r="AP274">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ274">
         <v>0.5600000000000001</v>
@@ -58261,7 +58267,7 @@
         <v>91</v>
       </c>
       <c r="P275" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q275">
         <v>2.3</v>
@@ -58879,7 +58885,7 @@
         <v>279</v>
       </c>
       <c r="P278" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q278">
         <v>6.5</v>
@@ -59703,7 +59709,7 @@
         <v>283</v>
       </c>
       <c r="P282" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q282">
         <v>4.33</v>
@@ -59909,7 +59915,7 @@
         <v>284</v>
       </c>
       <c r="P283" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q283">
         <v>2.5</v>
@@ -60321,7 +60327,7 @@
         <v>285</v>
       </c>
       <c r="P285" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q285">
         <v>3.2</v>
@@ -60402,7 +60408,7 @@
         <v>2</v>
       </c>
       <c r="AQ285">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR285">
         <v>1.81</v>
@@ -60939,7 +60945,7 @@
         <v>287</v>
       </c>
       <c r="P288" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q288">
         <v>1.5</v>
@@ -61020,7 +61026,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ288">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR288">
         <v>2.12</v>
@@ -61351,7 +61357,7 @@
         <v>288</v>
       </c>
       <c r="P290" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q290">
         <v>1.57</v>
@@ -61763,7 +61769,7 @@
         <v>188</v>
       </c>
       <c r="P292" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q292">
         <v>3.25</v>
@@ -61841,7 +61847,7 @@
         <v>1.56</v>
       </c>
       <c r="AP292">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ292">
         <v>1.61</v>
@@ -61969,7 +61975,7 @@
         <v>290</v>
       </c>
       <c r="P293" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q293">
         <v>6</v>
@@ -62381,7 +62387,7 @@
         <v>292</v>
       </c>
       <c r="P295" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q295">
         <v>2.38</v>
@@ -62587,7 +62593,7 @@
         <v>109</v>
       </c>
       <c r="P296" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q296">
         <v>5.5</v>
@@ -62999,7 +63005,7 @@
         <v>294</v>
       </c>
       <c r="P298" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63698,7 +63704,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ301">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR301">
         <v>1.4</v>
@@ -64029,7 +64035,7 @@
         <v>299</v>
       </c>
       <c r="P303" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q303">
         <v>5.5</v>
@@ -64313,7 +64319,7 @@
         <v>1.25</v>
       </c>
       <c r="AP304">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ304">
         <v>1.11</v>
@@ -64728,7 +64734,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ306">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR306">
         <v>2.17</v>
@@ -64853,7 +64859,7 @@
         <v>301</v>
       </c>
       <c r="P307" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65059,7 +65065,7 @@
         <v>138</v>
       </c>
       <c r="P308" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q308">
         <v>4.33</v>
@@ -65677,7 +65683,7 @@
         <v>91</v>
       </c>
       <c r="P311" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q311">
         <v>2.88</v>
@@ -65883,7 +65889,7 @@
         <v>91</v>
       </c>
       <c r="P312" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66501,7 +66507,7 @@
         <v>303</v>
       </c>
       <c r="P315" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q315">
         <v>1.36</v>
@@ -66913,7 +66919,7 @@
         <v>91</v>
       </c>
       <c r="P317" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q317">
         <v>3.55</v>
@@ -67406,7 +67412,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ319">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR319">
         <v>1.43</v>
@@ -67531,7 +67537,7 @@
         <v>307</v>
       </c>
       <c r="P320" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q320">
         <v>2.85</v>
@@ -67943,7 +67949,7 @@
         <v>308</v>
       </c>
       <c r="P322" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q322">
         <v>2.4</v>
@@ -68230,7 +68236,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ323">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR323">
         <v>2.07</v>
@@ -68433,7 +68439,7 @@
         <v>0.75</v>
       </c>
       <c r="AP324">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ324">
         <v>0.89</v>
@@ -68639,7 +68645,7 @@
         <v>0.5</v>
       </c>
       <c r="AP325">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ325">
         <v>0.44</v>
@@ -68767,7 +68773,7 @@
         <v>310</v>
       </c>
       <c r="P326" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q326">
         <v>2.4</v>
@@ -68973,7 +68979,7 @@
         <v>91</v>
       </c>
       <c r="P327" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q327">
         <v>4</v>
@@ -69179,7 +69185,7 @@
         <v>311</v>
       </c>
       <c r="P328" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q328">
         <v>3.1</v>
@@ -69385,7 +69391,7 @@
         <v>312</v>
       </c>
       <c r="P329" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q329">
         <v>1.91</v>
@@ -69797,7 +69803,7 @@
         <v>193</v>
       </c>
       <c r="P331" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q331">
         <v>3.6</v>
@@ -70209,7 +70215,7 @@
         <v>314</v>
       </c>
       <c r="P333" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q333">
         <v>1.36</v>
@@ -70415,7 +70421,7 @@
         <v>315</v>
       </c>
       <c r="P334" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q334">
         <v>7.5</v>
@@ -70621,7 +70627,7 @@
         <v>91</v>
       </c>
       <c r="P335" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q335">
         <v>3</v>
@@ -70827,7 +70833,7 @@
         <v>285</v>
       </c>
       <c r="P336" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q336">
         <v>2.37</v>
@@ -71239,7 +71245,7 @@
         <v>317</v>
       </c>
       <c r="P338" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q338">
         <v>1.75</v>
@@ -71651,7 +71657,7 @@
         <v>319</v>
       </c>
       <c r="P340" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q340">
         <v>5</v>
@@ -72014,6 +72020,418 @@
       </c>
       <c r="BP341">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>7516627</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="F342">
+        <v>38</v>
+      </c>
+      <c r="G342" t="s">
+        <v>76</v>
+      </c>
+      <c r="H342" t="s">
+        <v>80</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>2</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="N342">
+        <v>3</v>
+      </c>
+      <c r="O342" t="s">
+        <v>321</v>
+      </c>
+      <c r="P342" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q342">
+        <v>2.1</v>
+      </c>
+      <c r="R342">
+        <v>2.4</v>
+      </c>
+      <c r="S342">
+        <v>4.5</v>
+      </c>
+      <c r="T342">
+        <v>1.27</v>
+      </c>
+      <c r="U342">
+        <v>3.4</v>
+      </c>
+      <c r="V342">
+        <v>2.2</v>
+      </c>
+      <c r="W342">
+        <v>1.57</v>
+      </c>
+      <c r="X342">
+        <v>5</v>
+      </c>
+      <c r="Y342">
+        <v>1.14</v>
+      </c>
+      <c r="Z342">
+        <v>1.63</v>
+      </c>
+      <c r="AA342">
+        <v>4.1</v>
+      </c>
+      <c r="AB342">
+        <v>4.75</v>
+      </c>
+      <c r="AC342">
+        <v>1.03</v>
+      </c>
+      <c r="AD342">
+        <v>11</v>
+      </c>
+      <c r="AE342">
+        <v>1.18</v>
+      </c>
+      <c r="AF342">
+        <v>4.75</v>
+      </c>
+      <c r="AG342">
+        <v>1.53</v>
+      </c>
+      <c r="AH342">
+        <v>2.45</v>
+      </c>
+      <c r="AI342">
+        <v>1.61</v>
+      </c>
+      <c r="AJ342">
+        <v>2.15</v>
+      </c>
+      <c r="AK342">
+        <v>1.18</v>
+      </c>
+      <c r="AL342">
+        <v>1.21</v>
+      </c>
+      <c r="AM342">
+        <v>2.25</v>
+      </c>
+      <c r="AN342">
+        <v>1.88</v>
+      </c>
+      <c r="AO342">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP342">
+        <v>1.94</v>
+      </c>
+      <c r="AQ342">
+        <v>0.89</v>
+      </c>
+      <c r="AR342">
+        <v>1.54</v>
+      </c>
+      <c r="AS342">
+        <v>1.17</v>
+      </c>
+      <c r="AT342">
+        <v>2.71</v>
+      </c>
+      <c r="AU342">
+        <v>14</v>
+      </c>
+      <c r="AV342">
+        <v>4</v>
+      </c>
+      <c r="AW342">
+        <v>19</v>
+      </c>
+      <c r="AX342">
+        <v>5</v>
+      </c>
+      <c r="AY342">
+        <v>39</v>
+      </c>
+      <c r="AZ342">
+        <v>9</v>
+      </c>
+      <c r="BA342">
+        <v>12</v>
+      </c>
+      <c r="BB342">
+        <v>4</v>
+      </c>
+      <c r="BC342">
+        <v>16</v>
+      </c>
+      <c r="BD342">
+        <v>1.45</v>
+      </c>
+      <c r="BE342">
+        <v>7</v>
+      </c>
+      <c r="BF342">
+        <v>3.15</v>
+      </c>
+      <c r="BG342">
+        <v>1.32</v>
+      </c>
+      <c r="BH342">
+        <v>3</v>
+      </c>
+      <c r="BI342">
+        <v>1.55</v>
+      </c>
+      <c r="BJ342">
+        <v>2.25</v>
+      </c>
+      <c r="BK342">
+        <v>1.88</v>
+      </c>
+      <c r="BL342">
+        <v>1.8</v>
+      </c>
+      <c r="BM342">
+        <v>2.35</v>
+      </c>
+      <c r="BN342">
+        <v>1.5</v>
+      </c>
+      <c r="BO342">
+        <v>3.05</v>
+      </c>
+      <c r="BP342">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7516623</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="F343">
+        <v>38</v>
+      </c>
+      <c r="G343" t="s">
+        <v>78</v>
+      </c>
+      <c r="H343" t="s">
+        <v>84</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>3</v>
+      </c>
+      <c r="K343">
+        <v>3</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>4</v>
+      </c>
+      <c r="N343">
+        <v>4</v>
+      </c>
+      <c r="O343" t="s">
+        <v>91</v>
+      </c>
+      <c r="P343" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q343">
+        <v>4</v>
+      </c>
+      <c r="R343">
+        <v>2.2</v>
+      </c>
+      <c r="S343">
+        <v>2.37</v>
+      </c>
+      <c r="T343">
+        <v>1.34</v>
+      </c>
+      <c r="U343">
+        <v>3</v>
+      </c>
+      <c r="V343">
+        <v>2.55</v>
+      </c>
+      <c r="W343">
+        <v>1.46</v>
+      </c>
+      <c r="X343">
+        <v>6.25</v>
+      </c>
+      <c r="Y343">
+        <v>1.1</v>
+      </c>
+      <c r="Z343">
+        <v>4</v>
+      </c>
+      <c r="AA343">
+        <v>3.65</v>
+      </c>
+      <c r="AB343">
+        <v>1.83</v>
+      </c>
+      <c r="AC343">
+        <v>1.04</v>
+      </c>
+      <c r="AD343">
+        <v>10</v>
+      </c>
+      <c r="AE343">
+        <v>1.22</v>
+      </c>
+      <c r="AF343">
+        <v>4</v>
+      </c>
+      <c r="AG343">
+        <v>1.7</v>
+      </c>
+      <c r="AH343">
+        <v>2.1</v>
+      </c>
+      <c r="AI343">
+        <v>1.7</v>
+      </c>
+      <c r="AJ343">
+        <v>2</v>
+      </c>
+      <c r="AK343">
+        <v>1.88</v>
+      </c>
+      <c r="AL343">
+        <v>1.26</v>
+      </c>
+      <c r="AM343">
+        <v>1.25</v>
+      </c>
+      <c r="AN343">
+        <v>1.18</v>
+      </c>
+      <c r="AO343">
+        <v>1.41</v>
+      </c>
+      <c r="AP343">
+        <v>1.11</v>
+      </c>
+      <c r="AQ343">
+        <v>1.5</v>
+      </c>
+      <c r="AR343">
+        <v>1.43</v>
+      </c>
+      <c r="AS343">
+        <v>1.46</v>
+      </c>
+      <c r="AT343">
+        <v>2.89</v>
+      </c>
+      <c r="AU343">
+        <v>6</v>
+      </c>
+      <c r="AV343">
+        <v>5</v>
+      </c>
+      <c r="AW343">
+        <v>3</v>
+      </c>
+      <c r="AX343">
+        <v>2</v>
+      </c>
+      <c r="AY343">
+        <v>9</v>
+      </c>
+      <c r="AZ343">
+        <v>8</v>
+      </c>
+      <c r="BA343">
+        <v>7</v>
+      </c>
+      <c r="BB343">
+        <v>3</v>
+      </c>
+      <c r="BC343">
+        <v>10</v>
+      </c>
+      <c r="BD343">
+        <v>2.33</v>
+      </c>
+      <c r="BE343">
+        <v>6.5</v>
+      </c>
+      <c r="BF343">
+        <v>1.73</v>
+      </c>
+      <c r="BG343">
+        <v>1.36</v>
+      </c>
+      <c r="BH343">
+        <v>2.85</v>
+      </c>
+      <c r="BI343">
+        <v>1.6</v>
+      </c>
+      <c r="BJ343">
+        <v>2.17</v>
+      </c>
+      <c r="BK343">
+        <v>1.96</v>
+      </c>
+      <c r="BL343">
+        <v>1.73</v>
+      </c>
+      <c r="BM343">
+        <v>2.48</v>
+      </c>
+      <c r="BN343">
+        <v>1.47</v>
+      </c>
+      <c r="BO343">
+        <v>3.2</v>
+      </c>
+      <c r="BP343">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -72377,13 +72377,13 @@
         <v>3</v>
       </c>
       <c r="AX343">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY343">
         <v>9</v>
       </c>
       <c r="AZ343">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA343">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Turkey Süper Lig_20242025.xlsx
@@ -72162,19 +72162,19 @@
         <v>2.71</v>
       </c>
       <c r="AU342">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV342">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW342">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AX342">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY342">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AZ342">
         <v>9</v>
